--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC773"/>
+  <dimension ref="A1:AC772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3040583</v>
+        <v>3040453</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>44269.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93">
+        <v>7</v>
+      </c>
+      <c r="L93">
+        <v>4.5</v>
+      </c>
+      <c r="M93">
+        <v>1.363</v>
+      </c>
+      <c r="N93">
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>4.5</v>
+      </c>
+      <c r="P93">
+        <v>1.333</v>
+      </c>
+      <c r="Q93">
+        <v>1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.975</v>
+      </c>
+      <c r="S93">
+        <v>1.875</v>
+      </c>
+      <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+      <c r="V93">
+        <v>1.85</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>0.333</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.875</v>
+      </c>
+      <c r="AB93">
         <v>1</v>
-      </c>
-      <c r="J93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K93">
-        <v>3.5</v>
-      </c>
-      <c r="L93">
-        <v>3.1</v>
-      </c>
-      <c r="M93">
-        <v>2.05</v>
-      </c>
-      <c r="N93">
-        <v>4.5</v>
-      </c>
-      <c r="O93">
-        <v>3.3</v>
-      </c>
-      <c r="P93">
-        <v>1.8</v>
-      </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
-        <v>1.8</v>
-      </c>
-      <c r="S93">
-        <v>2.05</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>2.05</v>
-      </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
-      <c r="W93">
-        <v>3.5</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.8</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>1.05</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3040453</v>
+        <v>3040583</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>44269.58333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L94">
+        <v>3.1</v>
+      </c>
+      <c r="M94">
+        <v>2.05</v>
+      </c>
+      <c r="N94">
         <v>4.5</v>
       </c>
-      <c r="M94">
-        <v>1.363</v>
-      </c>
-      <c r="N94">
-        <v>10</v>
-      </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q94">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>3342566</v>
+        <v>3342567</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,73 +12827,73 @@
         <v>44324.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3342568</v>
+        <v>3342566</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>44324.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>2.25</v>
+      </c>
+      <c r="N140">
+        <v>1.909</v>
+      </c>
+      <c r="O140">
         <v>3.5</v>
       </c>
-      <c r="M140">
-        <v>1.5</v>
-      </c>
-      <c r="N140">
-        <v>5.25</v>
-      </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
       <c r="P140">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3342567</v>
+        <v>3342568</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>44324.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N141">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="O141">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3342545</v>
+        <v>3342544</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>44328.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>47</v>
       </c>
       <c r="K146">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M146">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N146">
+        <v>1.666</v>
+      </c>
+      <c r="O146">
         <v>3.75</v>
       </c>
-      <c r="O146">
-        <v>3.3</v>
-      </c>
       <c r="P146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3342544</v>
+        <v>3342545</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>44328.5625</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>47</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L147">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N147">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
         <v>1.9</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.85</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA147">
+        <v>-0.5</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>0.95</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3898657</v>
+        <v>3898653</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,49 +16654,49 @@
         <v>44466.5625</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K182">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L182">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
+        <v>3.75</v>
+      </c>
+      <c r="O182">
         <v>3</v>
       </c>
-      <c r="N182">
-        <v>2.25</v>
-      </c>
-      <c r="O182">
-        <v>3.25</v>
-      </c>
       <c r="P182">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U182">
         <v>1.925</v>
@@ -16708,22 +16708,22 @@
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3898653</v>
+        <v>3898657</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,49 +16743,49 @@
         <v>44466.5625</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>47</v>
+      </c>
+      <c r="K183">
+        <v>2.45</v>
+      </c>
+      <c r="L183">
+        <v>3.2</v>
+      </c>
+      <c r="M183">
         <v>3</v>
       </c>
-      <c r="J183" t="s">
-        <v>49</v>
-      </c>
-      <c r="K183">
-        <v>2.875</v>
-      </c>
-      <c r="L183">
+      <c r="N183">
+        <v>2.25</v>
+      </c>
+      <c r="O183">
+        <v>3.25</v>
+      </c>
+      <c r="P183">
         <v>3.3</v>
       </c>
-      <c r="M183">
-        <v>2.5</v>
-      </c>
-      <c r="N183">
-        <v>3.75</v>
-      </c>
-      <c r="O183">
-        <v>3</v>
-      </c>
-      <c r="P183">
-        <v>2.15</v>
-      </c>
       <c r="Q183">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>1.925</v>
@@ -16797,22 +16797,22 @@
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y183">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
+        <v>0.4</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
         <v>0.925</v>
-      </c>
-      <c r="AB183">
-        <v>0.925</v>
-      </c>
-      <c r="AC183">
-        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3898665</v>
+        <v>3898666</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N195">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O195">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P195">
-        <v>12</v>
+        <v>1.444</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R195">
+        <v>2.05</v>
+      </c>
+      <c r="S195">
+        <v>1.8</v>
+      </c>
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>1.85</v>
-      </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
       <c r="W195">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z195">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3898666</v>
+        <v>3898665</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
+        <v>1.4</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>7</v>
+      </c>
+      <c r="N196">
+        <v>1.25</v>
+      </c>
+      <c r="O196">
         <v>5.5</v>
       </c>
-      <c r="L196">
-        <v>3.6</v>
-      </c>
-      <c r="M196">
-        <v>1.533</v>
-      </c>
-      <c r="N196">
-        <v>8</v>
-      </c>
-      <c r="O196">
-        <v>4.2</v>
-      </c>
       <c r="P196">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>3898683</v>
+        <v>3898684</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,40 +18701,40 @@
         <v>44499.5625</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
         <v>1</v>
       </c>
-      <c r="I205">
-        <v>2</v>
-      </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M205">
-        <v>1.444</v>
+        <v>15</v>
       </c>
       <c r="N205">
-        <v>9</v>
+        <v>1.181</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P205">
-        <v>1.363</v>
+        <v>17</v>
       </c>
       <c r="Q205">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R205">
         <v>1.825</v>
@@ -18746,19 +18746,19 @@
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>0.825</v>
@@ -18767,10 +18767,10 @@
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>3898684</v>
+        <v>3898683</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,40 +18790,40 @@
         <v>44499.5625</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="L206">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>15</v>
+        <v>1.444</v>
       </c>
       <c r="N206">
-        <v>1.181</v>
+        <v>9</v>
       </c>
       <c r="O206">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>17</v>
+        <v>1.363</v>
       </c>
       <c r="Q206">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R206">
         <v>1.825</v>
@@ -18835,19 +18835,19 @@
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z206">
         <v>0.825</v>
@@ -18856,10 +18856,10 @@
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3898699</v>
+        <v>3898698</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,10 +20837,10 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -20852,43 +20852,43 @@
         <v>48</v>
       </c>
       <c r="K229">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L229">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N229">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="O229">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="Q229">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20897,16 +20897,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA229">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3898698</v>
+        <v>3898699</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,10 +20926,10 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20941,43 +20941,43 @@
         <v>48</v>
       </c>
       <c r="K230">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M230">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P230">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB230">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>3899311</v>
+        <v>3898725</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,58 +23062,58 @@
         <v>44549.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
         <v>48</v>
       </c>
       <c r="K254">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M254">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="N254">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O254">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P254">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R254">
+        <v>1.8</v>
+      </c>
+      <c r="S254">
         <v>2.05</v>
-      </c>
-      <c r="S254">
-        <v>1.75</v>
       </c>
       <c r="T254">
         <v>2.25</v>
       </c>
       <c r="U254">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W254">
-        <v>0.6000000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23122,16 +23122,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB254">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC254">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23139,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>3898725</v>
+        <v>3899311</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,58 +23151,58 @@
         <v>44549.60416666666</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
         <v>48</v>
       </c>
       <c r="K255">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L255">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
+        <v>5.25</v>
+      </c>
+      <c r="N255">
+        <v>1.6</v>
+      </c>
+      <c r="O255">
+        <v>3.75</v>
+      </c>
+      <c r="P255">
         <v>6.5</v>
       </c>
-      <c r="N255">
-        <v>1.615</v>
-      </c>
-      <c r="O255">
-        <v>3.8</v>
-      </c>
-      <c r="P255">
-        <v>5.5</v>
-      </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S255">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T255">
         <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V255">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
-        <v>0.615</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23211,16 +23211,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
+        <v>1.05</v>
+      </c>
+      <c r="AA255">
+        <v>-1</v>
+      </c>
+      <c r="AB255">
+        <v>-0.5</v>
+      </c>
+      <c r="AC255">
         <v>0.4</v>
-      </c>
-      <c r="AA255">
-        <v>-0.5</v>
-      </c>
-      <c r="AB255">
-        <v>0.925</v>
-      </c>
-      <c r="AC255">
-        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>4531198</v>
+        <v>4447038</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>44573.51041666666</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L265">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M265">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="N265">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="O265">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P265">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q265">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U265">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W265">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z265">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC265">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>4447038</v>
+        <v>4531198</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>44573.51041666666</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G266" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K266">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L266">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M266">
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="N266">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P266">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R266">
+        <v>1.975</v>
+      </c>
+      <c r="S266">
+        <v>1.875</v>
+      </c>
+      <c r="T266">
+        <v>2.75</v>
+      </c>
+      <c r="U266">
+        <v>1.825</v>
+      </c>
+      <c r="V266">
         <v>2.025</v>
       </c>
-      <c r="S266">
-        <v>1.825</v>
-      </c>
-      <c r="T266">
-        <v>1.75</v>
-      </c>
-      <c r="U266">
-        <v>1.75</v>
-      </c>
-      <c r="V266">
-        <v>2.05</v>
-      </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA266">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24207,7 +24207,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>3898740</v>
+        <v>3898742</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24219,58 +24219,58 @@
         <v>44576.51041666666</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="I267">
         <v>1</v>
-      </c>
-      <c r="I267">
-        <v>0</v>
       </c>
       <c r="J267" t="s">
         <v>48</v>
       </c>
       <c r="K267">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N267">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O267">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P267">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T267">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V267">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W267">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24279,16 +24279,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA267">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC267">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24296,7 +24296,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>3898742</v>
+        <v>3898740</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24308,58 +24308,58 @@
         <v>44576.51041666666</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G268" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
         <v>48</v>
       </c>
       <c r="K268">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N268">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P268">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R268">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S268">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T268">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -24368,16 +24368,16 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>3898777</v>
+        <v>3898772</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L301">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M301">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N301">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O301">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S301">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T301">
         <v>2</v>
       </c>
       <c r="U301">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC301">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>3898772</v>
+        <v>3898777</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F302" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302" t="s">
+        <v>47</v>
+      </c>
+      <c r="K302">
+        <v>2.625</v>
+      </c>
+      <c r="L302">
+        <v>3.1</v>
+      </c>
+      <c r="M302">
+        <v>2.7</v>
+      </c>
+      <c r="N302">
         <v>3</v>
       </c>
-      <c r="J302" t="s">
-        <v>49</v>
-      </c>
-      <c r="K302">
-        <v>1.65</v>
-      </c>
-      <c r="L302">
-        <v>3.4</v>
-      </c>
-      <c r="M302">
-        <v>6</v>
-      </c>
-      <c r="N302">
-        <v>1.615</v>
-      </c>
       <c r="O302">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P302">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R302">
+        <v>2</v>
+      </c>
+      <c r="S302">
         <v>1.85</v>
       </c>
-      <c r="S302">
-        <v>2</v>
-      </c>
       <c r="T302">
         <v>2</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y302">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA302">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB302">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -28568,7 +28568,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>3899317</v>
+        <v>3899318</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28580,76 +28580,76 @@
         <v>44612.60416666666</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G316" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K316">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L316">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M316">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N316">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O316">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="P316">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q316">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R316">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S316">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U316">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V316">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W316">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28657,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>3899318</v>
+        <v>3899317</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,76 +28669,76 @@
         <v>44612.60416666666</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317">
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K317">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L317">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M317">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N317">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O317">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S317">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V317">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X317">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA317">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC317">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29903,7 +29903,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>3898791</v>
+        <v>3898789</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29915,40 +29915,40 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G331" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K331">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L331">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M331">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N331">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P331">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q331">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R331">
         <v>1.8</v>
@@ -29957,34 +29957,34 @@
         <v>2.05</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V331">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA331">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB331">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC331">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>3898795</v>
+        <v>3898790</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,76 +30004,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F332" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K332">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L332">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M332">
+        <v>2.625</v>
+      </c>
+      <c r="N332">
+        <v>3.2</v>
+      </c>
+      <c r="O332">
+        <v>2.75</v>
+      </c>
+      <c r="P332">
+        <v>2.7</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>2.05</v>
+      </c>
+      <c r="S332">
         <v>1.8</v>
       </c>
-      <c r="N332">
-        <v>2.625</v>
-      </c>
-      <c r="O332">
-        <v>3.1</v>
-      </c>
-      <c r="P332">
-        <v>2.875</v>
-      </c>
-      <c r="Q332">
-        <v>0</v>
-      </c>
-      <c r="R332">
-        <v>1.8</v>
-      </c>
-      <c r="S332">
-        <v>2.05</v>
-      </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U332">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V332">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X332">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA332">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC332">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>3898794</v>
+        <v>3898792</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L333">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M333">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N333">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P333">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S333">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T333">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V333">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W333">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z333">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC333">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30170,7 +30170,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>3898793</v>
+        <v>3898794</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30182,76 +30182,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G334" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K334">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="L334">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M334">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N334">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O334">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P334">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="Q334">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30259,7 +30259,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>3898792</v>
+        <v>3898795</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30271,76 +30271,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K335">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L335">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M335">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N335">
+        <v>2.625</v>
+      </c>
+      <c r="O335">
+        <v>3.1</v>
+      </c>
+      <c r="P335">
+        <v>2.875</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>1.8</v>
+      </c>
+      <c r="S335">
+        <v>2.05</v>
+      </c>
+      <c r="T335">
         <v>2.25</v>
       </c>
-      <c r="O335">
-        <v>3</v>
-      </c>
-      <c r="P335">
-        <v>3.75</v>
-      </c>
-      <c r="Q335">
-        <v>-0.25</v>
-      </c>
-      <c r="R335">
-        <v>1.9</v>
-      </c>
-      <c r="S335">
-        <v>1.95</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
       <c r="U335">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y335">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA335">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB335">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30348,7 +30348,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>3898790</v>
+        <v>3898791</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30360,76 +30360,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J336" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K336">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L336">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M336">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N336">
+        <v>4</v>
+      </c>
+      <c r="O336">
         <v>3.2</v>
       </c>
-      <c r="O336">
-        <v>2.75</v>
-      </c>
       <c r="P336">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q336">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R336">
+        <v>1.8</v>
+      </c>
+      <c r="S336">
         <v>2.05</v>
       </c>
-      <c r="S336">
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
         <v>1.8</v>
       </c>
-      <c r="T336">
-        <v>1.75</v>
-      </c>
-      <c r="U336">
-        <v>1.85</v>
-      </c>
       <c r="V336">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W336">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z336">
+        <v>-1</v>
+      </c>
+      <c r="AA336">
         <v>1.05</v>
       </c>
-      <c r="AA336">
-        <v>-1</v>
-      </c>
       <c r="AB336">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30437,7 +30437,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>3898789</v>
+        <v>3898793</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30449,76 +30449,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K337">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="L337">
+        <v>3.8</v>
+      </c>
+      <c r="M337">
+        <v>1.533</v>
+      </c>
+      <c r="N337">
+        <v>5</v>
+      </c>
+      <c r="O337">
         <v>3.6</v>
       </c>
-      <c r="M337">
-        <v>5.5</v>
-      </c>
-      <c r="N337">
-        <v>1.65</v>
-      </c>
-      <c r="O337">
-        <v>3.75</v>
-      </c>
       <c r="P337">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R337">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S337">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T337">
         <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V337">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W337">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z337">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB337">
         <v>-0.5</v>
       </c>
-      <c r="AB337">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -35154,7 +35154,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>5005261</v>
+        <v>4770116</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35166,73 +35166,73 @@
         <v>44696.5625</v>
       </c>
       <c r="F390" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G390" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I390">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J390" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K390">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L390">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M390">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N390">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O390">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P390">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q390">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R390">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S390">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T390">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U390">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V390">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W390">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X390">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA390">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC390">
         <v>-1</v>
@@ -35243,7 +35243,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>4770116</v>
+        <v>4770117</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35255,76 +35255,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F391" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G391" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H391">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K391">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M391">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N391">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O391">
         <v>3.2</v>
       </c>
       <c r="P391">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S391">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T391">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U391">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V391">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W391">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X391">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA391">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB391">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC391">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35332,7 +35332,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>4770117</v>
+        <v>5005261</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35344,76 +35344,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F392" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G392" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J392" t="s">
         <v>47</v>
       </c>
       <c r="K392">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L392">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M392">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N392">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O392">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P392">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R392">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S392">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
+        <v>1.95</v>
+      </c>
+      <c r="V392">
         <v>1.9</v>
       </c>
-      <c r="V392">
-        <v>1.95</v>
-      </c>
       <c r="W392">
         <v>-1</v>
       </c>
       <c r="X392">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA392">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB392">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC392">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4770089</v>
+        <v>4770087</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,13 +35433,13 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F393" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G393" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393">
         <v>3</v>
@@ -35448,40 +35448,40 @@
         <v>49</v>
       </c>
       <c r="K393">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="L393">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M393">
-        <v>1.85</v>
+        <v>4.1</v>
       </c>
       <c r="N393">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O393">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P393">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q393">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R393">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S393">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T393">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U393">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V393">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W393">
         <v>-1</v>
@@ -35490,16 +35490,16 @@
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z393">
         <v>-1</v>
       </c>
       <c r="AA393">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB393">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>4770087</v>
+        <v>4770088</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,49 +35522,49 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G394" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H394">
         <v>2</v>
       </c>
       <c r="I394">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K394">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L394">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M394">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="N394">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O394">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P394">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q394">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R394">
+        <v>1.825</v>
+      </c>
+      <c r="S394">
         <v>2.025</v>
       </c>
-      <c r="S394">
-        <v>1.825</v>
-      </c>
       <c r="T394">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U394">
         <v>1.925</v>
@@ -35573,25 +35573,25 @@
         <v>1.925</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA394">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC394">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>4770088</v>
+        <v>4770089</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,76 +35611,76 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G395" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J395" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K395">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L395">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M395">
+        <v>1.85</v>
+      </c>
+      <c r="N395">
+        <v>3.8</v>
+      </c>
+      <c r="O395">
         <v>3.2</v>
       </c>
-      <c r="N395">
-        <v>1.833</v>
-      </c>
-      <c r="O395">
-        <v>3.5</v>
-      </c>
       <c r="P395">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q395">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R395">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S395">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T395">
         <v>2.25</v>
       </c>
       <c r="U395">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V395">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W395">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z395">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB395">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC395">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -37379,7 +37379,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>5526806</v>
+        <v>5526807</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37391,76 +37391,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F415" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G415" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415">
         <v>0</v>
       </c>
       <c r="J415" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K415">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L415">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M415">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N415">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O415">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P415">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q415">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S415">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T415">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U415">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V415">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W415">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X415">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y415">
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA415">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB415">
         <v>-1</v>
       </c>
       <c r="AC415">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37468,7 +37468,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>5526807</v>
+        <v>5526806</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37480,76 +37480,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F416" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G416" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416">
         <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K416">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L416">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M416">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="N416">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O416">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P416">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R416">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S416">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T416">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U416">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V416">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W416">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X416">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y416">
         <v>-1</v>
       </c>
       <c r="Z416">
+        <v>0.5</v>
+      </c>
+      <c r="AA416">
         <v>-0.5</v>
       </c>
-      <c r="AA416">
-        <v>0.4</v>
-      </c>
       <c r="AB416">
         <v>-1</v>
       </c>
       <c r="AC416">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -51263,7 +51263,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5369519</v>
+        <v>5374241</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51275,58 +51275,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F571" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G571" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
         <v>48</v>
       </c>
       <c r="K571">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L571">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M571">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N571">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O571">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P571">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q571">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R571">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S571">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T571">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U571">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V571">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W571">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X571">
         <v>-1</v>
@@ -51335,16 +51335,16 @@
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA571">
         <v>-1</v>
       </c>
       <c r="AB571">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC571">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51352,7 +51352,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5374241</v>
+        <v>5374240</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51364,73 +51364,73 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G572" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H572">
+        <v>1</v>
+      </c>
+      <c r="I572">
         <v>3</v>
       </c>
-      <c r="I572">
+      <c r="J572" t="s">
+        <v>49</v>
+      </c>
+      <c r="K572">
+        <v>2.2</v>
+      </c>
+      <c r="L572">
+        <v>3.25</v>
+      </c>
+      <c r="M572">
+        <v>3.4</v>
+      </c>
+      <c r="N572">
+        <v>1.85</v>
+      </c>
+      <c r="O572">
+        <v>3.4</v>
+      </c>
+      <c r="P572">
+        <v>4.333</v>
+      </c>
+      <c r="Q572">
+        <v>-0.5</v>
+      </c>
+      <c r="R572">
+        <v>1.875</v>
+      </c>
+      <c r="S572">
+        <v>1.975</v>
+      </c>
+      <c r="T572">
+        <v>2.5</v>
+      </c>
+      <c r="U572">
+        <v>2</v>
+      </c>
+      <c r="V572">
+        <v>1.85</v>
+      </c>
+      <c r="W572">
+        <v>-1</v>
+      </c>
+      <c r="X572">
+        <v>-1</v>
+      </c>
+      <c r="Y572">
+        <v>3.333</v>
+      </c>
+      <c r="Z572">
+        <v>-1</v>
+      </c>
+      <c r="AA572">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB572">
         <v>1</v>
-      </c>
-      <c r="J572" t="s">
-        <v>48</v>
-      </c>
-      <c r="K572">
-        <v>1.4</v>
-      </c>
-      <c r="L572">
-        <v>4.333</v>
-      </c>
-      <c r="M572">
-        <v>9</v>
-      </c>
-      <c r="N572">
-        <v>1.444</v>
-      </c>
-      <c r="O572">
-        <v>4</v>
-      </c>
-      <c r="P572">
-        <v>9</v>
-      </c>
-      <c r="Q572">
-        <v>-1.25</v>
-      </c>
-      <c r="R572">
-        <v>1.975</v>
-      </c>
-      <c r="S572">
-        <v>1.875</v>
-      </c>
-      <c r="T572">
-        <v>2.25</v>
-      </c>
-      <c r="U572">
-        <v>1.85</v>
-      </c>
-      <c r="V572">
-        <v>2</v>
-      </c>
-      <c r="W572">
-        <v>0.444</v>
-      </c>
-      <c r="X572">
-        <v>-1</v>
-      </c>
-      <c r="Y572">
-        <v>-1</v>
-      </c>
-      <c r="Z572">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA572">
-        <v>-1</v>
-      </c>
-      <c r="AB572">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC572">
         <v>-1</v>
@@ -51441,7 +51441,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>5374240</v>
+        <v>5369519</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51453,76 +51453,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F573" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G573" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I573">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J573" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K573">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L573">
         <v>3.25</v>
       </c>
       <c r="M573">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N573">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O573">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P573">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q573">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R573">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S573">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T573">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U573">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V573">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W573">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X573">
         <v>-1</v>
       </c>
       <c r="Y573">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z573">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA573">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC573">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -54022,7 +54022,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6399629</v>
+        <v>6399627</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54034,49 +54034,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F602" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G602" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I602">
         <v>2</v>
       </c>
       <c r="J602" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K602">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L602">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M602">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N602">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O602">
         <v>3.1</v>
       </c>
       <c r="P602">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q602">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R602">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S602">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T602">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U602">
         <v>1.825</v>
@@ -54085,19 +54085,19 @@
         <v>2.025</v>
       </c>
       <c r="W602">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X602">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y602">
         <v>-1</v>
       </c>
       <c r="Z602">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA602">
         <v>-0.5</v>
-      </c>
-      <c r="AA602">
-        <v>0.475</v>
       </c>
       <c r="AB602">
         <v>0.825</v>
@@ -54111,7 +54111,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>6399627</v>
+        <v>6399629</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54123,49 +54123,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F603" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G603" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H603">
+        <v>2</v>
+      </c>
+      <c r="I603">
+        <v>2</v>
+      </c>
+      <c r="J603" t="s">
+        <v>47</v>
+      </c>
+      <c r="K603">
+        <v>2.4</v>
+      </c>
+      <c r="L603">
+        <v>3.25</v>
+      </c>
+      <c r="M603">
         <v>3</v>
       </c>
-      <c r="I603">
-        <v>2</v>
-      </c>
-      <c r="J603" t="s">
-        <v>48</v>
-      </c>
-      <c r="K603">
-        <v>2.2</v>
-      </c>
-      <c r="L603">
-        <v>3.1</v>
-      </c>
-      <c r="M603">
-        <v>3.6</v>
-      </c>
       <c r="N603">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O603">
         <v>3.1</v>
       </c>
       <c r="P603">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q603">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R603">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S603">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T603">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U603">
         <v>1.825</v>
@@ -54174,19 +54174,19 @@
         <v>2.025</v>
       </c>
       <c r="W603">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X603">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y603">
         <v>-1</v>
       </c>
       <c r="Z603">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA603">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB603">
         <v>0.825</v>
@@ -54200,7 +54200,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>6399628</v>
+        <v>6399630</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54212,76 +54212,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F604" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G604" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H604">
         <v>1</v>
       </c>
       <c r="I604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J604" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K604">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L604">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M604">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N604">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O604">
         <v>3.5</v>
       </c>
       <c r="P604">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q604">
         <v>-0.5</v>
       </c>
       <c r="R604">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S604">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T604">
         <v>2.25</v>
       </c>
       <c r="U604">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V604">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W604">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X604">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y604">
         <v>-1</v>
       </c>
       <c r="Z604">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA604">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB604">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC604">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54289,7 +54289,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>6399630</v>
+        <v>6399628</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54301,76 +54301,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F605" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G605" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H605">
         <v>1</v>
       </c>
       <c r="I605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J605" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K605">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L605">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M605">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N605">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O605">
         <v>3.5</v>
       </c>
       <c r="P605">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q605">
         <v>-0.5</v>
       </c>
       <c r="R605">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S605">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T605">
         <v>2.25</v>
       </c>
       <c r="U605">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V605">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W605">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X605">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y605">
         <v>-1</v>
       </c>
       <c r="Z605">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA605">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB605">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC605">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54912,7 +54912,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>6399632</v>
+        <v>6399633</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -54924,56 +54924,56 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F612" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G612" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J612" t="s">
         <v>49</v>
       </c>
       <c r="K612">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L612">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M612">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N612">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O612">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P612">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q612">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R612">
+        <v>2.05</v>
+      </c>
+      <c r="S612">
+        <v>1.8</v>
+      </c>
+      <c r="T612">
+        <v>2</v>
+      </c>
+      <c r="U612">
+        <v>1.9</v>
+      </c>
+      <c r="V612">
         <v>1.95</v>
       </c>
-      <c r="S612">
-        <v>1.9</v>
-      </c>
-      <c r="T612">
-        <v>2.5</v>
-      </c>
-      <c r="U612">
-        <v>1.825</v>
-      </c>
-      <c r="V612">
-        <v>2.025</v>
-      </c>
       <c r="W612">
         <v>-1</v>
       </c>
@@ -54981,19 +54981,19 @@
         <v>-1</v>
       </c>
       <c r="Y612">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Z612">
         <v>-1</v>
       </c>
       <c r="AA612">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB612">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC612">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="613" spans="1:29">
@@ -55001,7 +55001,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>6399633</v>
+        <v>6399632</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55013,55 +55013,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F613" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G613" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J613" t="s">
         <v>49</v>
       </c>
       <c r="K613">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L613">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M613">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N613">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O613">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P613">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q613">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R613">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S613">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T613">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U613">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V613">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W613">
         <v>-1</v>
@@ -55070,19 +55070,19 @@
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Z613">
         <v>-1</v>
       </c>
       <c r="AA613">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB613">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC613">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55090,7 +55090,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>6399631</v>
+        <v>6399634</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55102,55 +55102,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F614" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G614" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J614" t="s">
         <v>47</v>
       </c>
       <c r="K614">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L614">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M614">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N614">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O614">
         <v>2.9</v>
       </c>
       <c r="P614">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q614">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R614">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S614">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T614">
         <v>2</v>
       </c>
       <c r="U614">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V614">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W614">
         <v>-1</v>
@@ -55162,16 +55162,16 @@
         <v>-1</v>
       </c>
       <c r="Z614">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA614">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB614">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC614">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55179,7 +55179,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>6399634</v>
+        <v>6399631</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55191,55 +55191,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F615" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G615" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J615" t="s">
         <v>47</v>
       </c>
       <c r="K615">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L615">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M615">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N615">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O615">
         <v>2.9</v>
       </c>
       <c r="P615">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q615">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R615">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S615">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T615">
         <v>2</v>
       </c>
       <c r="U615">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V615">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W615">
         <v>-1</v>
@@ -55251,16 +55251,16 @@
         <v>-1</v>
       </c>
       <c r="Z615">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA615">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB615">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC615">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55535,7 +55535,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6399614</v>
+        <v>6397968</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55547,76 +55547,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F619" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G619" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H619">
+        <v>1</v>
+      </c>
+      <c r="I619">
+        <v>1</v>
+      </c>
+      <c r="J619" t="s">
+        <v>47</v>
+      </c>
+      <c r="K619">
+        <v>2</v>
+      </c>
+      <c r="L619">
+        <v>3.25</v>
+      </c>
+      <c r="M619">
         <v>4</v>
       </c>
-      <c r="I619">
-        <v>2</v>
-      </c>
-      <c r="J619" t="s">
-        <v>48</v>
-      </c>
-      <c r="K619">
-        <v>1.4</v>
-      </c>
-      <c r="L619">
-        <v>4.333</v>
-      </c>
-      <c r="M619">
-        <v>9</v>
-      </c>
       <c r="N619">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="O619">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P619">
-        <v>17</v>
+        <v>5.25</v>
       </c>
       <c r="Q619">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R619">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S619">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T619">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U619">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V619">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W619">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X619">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y619">
         <v>-1</v>
       </c>
       <c r="Z619">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
+        <v>0.8</v>
+      </c>
+      <c r="AB619">
+        <v>0</v>
+      </c>
+      <c r="AC619">
         <v>-0</v>
-      </c>
-      <c r="AB619">
-        <v>0.8</v>
-      </c>
-      <c r="AC619">
-        <v>-1</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55624,7 +55624,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6397968</v>
+        <v>6399459</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55636,61 +55636,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F620" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G620" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J620" t="s">
         <v>47</v>
       </c>
       <c r="K620">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L620">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M620">
+        <v>4.2</v>
+      </c>
+      <c r="N620">
+        <v>1.615</v>
+      </c>
+      <c r="O620">
         <v>4</v>
       </c>
-      <c r="N620">
-        <v>1.75</v>
-      </c>
-      <c r="O620">
-        <v>3.4</v>
-      </c>
       <c r="P620">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q620">
         <v>-0.75</v>
       </c>
       <c r="R620">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S620">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T620">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U620">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V620">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W620">
         <v>-1</v>
       </c>
       <c r="X620">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y620">
         <v>-1</v>
@@ -55699,13 +55699,13 @@
         <v>-1</v>
       </c>
       <c r="AA620">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB620">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC620">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -55713,7 +55713,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>6399459</v>
+        <v>6399614</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55725,76 +55725,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F621" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G621" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I621">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J621" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K621">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L621">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M621">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="N621">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="O621">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P621">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q621">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R621">
+        <v>2.025</v>
+      </c>
+      <c r="S621">
         <v>1.825</v>
       </c>
-      <c r="S621">
-        <v>2.025</v>
-      </c>
       <c r="T621">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U621">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V621">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W621">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X621">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y621">
         <v>-1</v>
       </c>
       <c r="Z621">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA621">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB621">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC621">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -57582,7 +57582,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57594,10 +57594,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F642" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G642" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H642">
         <v>3</v>
@@ -57609,44 +57609,44 @@
         <v>48</v>
       </c>
       <c r="K642">
+        <v>2.375</v>
+      </c>
+      <c r="L642">
+        <v>3.1</v>
+      </c>
+      <c r="M642">
+        <v>3.1</v>
+      </c>
+      <c r="N642">
+        <v>2.3</v>
+      </c>
+      <c r="O642">
+        <v>3.1</v>
+      </c>
+      <c r="P642">
+        <v>3.4</v>
+      </c>
+      <c r="Q642">
+        <v>-0.25</v>
+      </c>
+      <c r="R642">
+        <v>1.95</v>
+      </c>
+      <c r="S642">
+        <v>1.9</v>
+      </c>
+      <c r="T642">
+        <v>2</v>
+      </c>
+      <c r="U642">
+        <v>1.875</v>
+      </c>
+      <c r="V642">
+        <v>1.975</v>
+      </c>
+      <c r="W642">
         <v>1.3</v>
       </c>
-      <c r="L642">
-        <v>5</v>
-      </c>
-      <c r="M642">
-        <v>11</v>
-      </c>
-      <c r="N642">
-        <v>1.25</v>
-      </c>
-      <c r="O642">
-        <v>5.5</v>
-      </c>
-      <c r="P642">
-        <v>13</v>
-      </c>
-      <c r="Q642">
-        <v>-1.75</v>
-      </c>
-      <c r="R642">
-        <v>2</v>
-      </c>
-      <c r="S642">
-        <v>1.85</v>
-      </c>
-      <c r="T642">
-        <v>2.75</v>
-      </c>
-      <c r="U642">
-        <v>1.925</v>
-      </c>
-      <c r="V642">
-        <v>1.925</v>
-      </c>
-      <c r="W642">
-        <v>0.25</v>
-      </c>
       <c r="X642">
         <v>-1</v>
       </c>
@@ -57654,16 +57654,16 @@
         <v>-1</v>
       </c>
       <c r="Z642">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA642">
         <v>-1</v>
       </c>
       <c r="AB642">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC642">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57671,7 +57671,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57683,10 +57683,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F643" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G643" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H643">
         <v>3</v>
@@ -57698,43 +57698,43 @@
         <v>48</v>
       </c>
       <c r="K643">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L643">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M643">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N643">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O643">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P643">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q643">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R643">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S643">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T643">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U643">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V643">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W643">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X643">
         <v>-1</v>
@@ -57743,16 +57743,16 @@
         <v>-1</v>
       </c>
       <c r="Z643">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA643">
         <v>-1</v>
       </c>
       <c r="AB643">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC643">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -58205,7 +58205,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58217,49 +58217,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F649" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G649" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H649">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I649">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J649" t="s">
         <v>48</v>
       </c>
       <c r="K649">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L649">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M649">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N649">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O649">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P649">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q649">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R649">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S649">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T649">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U649">
         <v>1.825</v>
@@ -58268,7 +58268,7 @@
         <v>2.025</v>
       </c>
       <c r="W649">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X649">
         <v>-1</v>
@@ -58277,10 +58277,10 @@
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA649">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB649">
         <v>0.825</v>
@@ -58294,7 +58294,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58306,58 +58306,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F650" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G650" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H650">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I650">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J650" t="s">
         <v>48</v>
       </c>
       <c r="K650">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L650">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M650">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N650">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O650">
         <v>3.8</v>
       </c>
       <c r="P650">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q650">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R650">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S650">
+        <v>2</v>
+      </c>
+      <c r="T650">
+        <v>2.75</v>
+      </c>
+      <c r="U650">
+        <v>2</v>
+      </c>
+      <c r="V650">
         <v>1.85</v>
       </c>
-      <c r="T650">
-        <v>2.25</v>
-      </c>
-      <c r="U650">
-        <v>1.825</v>
-      </c>
-      <c r="V650">
-        <v>2.025</v>
-      </c>
       <c r="W650">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X650">
         <v>-1</v>
@@ -58366,16 +58366,16 @@
         <v>-1</v>
       </c>
       <c r="Z650">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA650">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB650">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC650">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -58383,7 +58383,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58395,13 +58395,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F651" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G651" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I651">
         <v>0</v>
@@ -58410,43 +58410,43 @@
         <v>48</v>
       </c>
       <c r="K651">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L651">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M651">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N651">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O651">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P651">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q651">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R651">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S651">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T651">
         <v>2.75</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V651">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W651">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X651">
         <v>-1</v>
@@ -58455,16 +58455,16 @@
         <v>-1</v>
       </c>
       <c r="Z651">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA651">
         <v>-1</v>
       </c>
       <c r="AB651">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC651">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -67906,7 +67906,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67918,49 +67918,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F758" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G758" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H758">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I758">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J758" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K758">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L758">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M758">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N758">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O758">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P758">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q758">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R758">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S758">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T758">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U758">
         <v>1.8</v>
@@ -67969,19 +67969,19 @@
         <v>2.05</v>
       </c>
       <c r="W758">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X758">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA758">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB758">
         <v>0.8</v>
@@ -67995,7 +67995,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68007,49 +68007,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F759" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G759" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I759">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J759" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K759">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L759">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M759">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N759">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O759">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P759">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q759">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R759">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S759">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T759">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U759">
         <v>1.8</v>
@@ -68058,19 +68058,19 @@
         <v>2.05</v>
       </c>
       <c r="W759">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X759">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA759">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB759">
         <v>0.8</v>
@@ -68707,7 +68707,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6935713</v>
+        <v>6937243</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68716,49 +68716,49 @@
         <v>28</v>
       </c>
       <c r="E767" s="2">
-        <v>45318.625</v>
+        <v>45319.45833333334</v>
       </c>
       <c r="F767" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G767" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K767">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L767">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M767">
+        <v>15</v>
+      </c>
+      <c r="N767">
+        <v>1.222</v>
+      </c>
+      <c r="O767">
+        <v>6</v>
+      </c>
+      <c r="P767">
+        <v>13</v>
+      </c>
+      <c r="Q767">
+        <v>-1.75</v>
+      </c>
+      <c r="R767">
+        <v>1.825</v>
+      </c>
+      <c r="S767">
+        <v>2.025</v>
+      </c>
+      <c r="T767">
+        <v>3</v>
+      </c>
+      <c r="U767">
         <v>1.8</v>
       </c>
-      <c r="N767">
-        <v>4.333</v>
-      </c>
-      <c r="O767">
-        <v>3.5</v>
-      </c>
-      <c r="P767">
-        <v>1.85</v>
-      </c>
-      <c r="Q767">
-        <v>0.5</v>
-      </c>
-      <c r="R767">
-        <v>2</v>
-      </c>
-      <c r="S767">
-        <v>1.85</v>
-      </c>
-      <c r="T767">
-        <v>2.5</v>
-      </c>
-      <c r="U767">
-        <v>2</v>
-      </c>
       <c r="V767">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W767">
         <v>0</v>
@@ -68781,7 +68781,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6937243</v>
+        <v>6937244</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68790,49 +68790,49 @@
         <v>28</v>
       </c>
       <c r="E768" s="2">
-        <v>45319.45833333334</v>
+        <v>45319.52083333334</v>
       </c>
       <c r="F768" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G768" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K768">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="L768">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M768">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="N768">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O768">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P768">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q768">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R768">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S768">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T768">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U768">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V768">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W768">
         <v>0</v>
@@ -68855,7 +68855,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6937244</v>
+        <v>6937245</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68864,43 +68864,43 @@
         <v>28</v>
       </c>
       <c r="E769" s="2">
-        <v>45319.52083333334</v>
+        <v>45319.60416666666</v>
       </c>
       <c r="F769" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G769" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K769">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L769">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M769">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="N769">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O769">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P769">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="Q769">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R769">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S769">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T769">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U769">
         <v>2</v>
@@ -68929,7 +68929,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6937245</v>
+        <v>6936859</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -68938,49 +68938,49 @@
         <v>28</v>
       </c>
       <c r="E770" s="2">
-        <v>45319.60416666666</v>
+        <v>45319.64583333334</v>
       </c>
       <c r="F770" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G770" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K770">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L770">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M770">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="N770">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="O770">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P770">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="Q770">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R770">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S770">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T770">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U770">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V770">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W770">
         <v>0</v>
@@ -69003,7 +69003,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>6936859</v>
+        <v>6937249</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69012,49 +69012,49 @@
         <v>28</v>
       </c>
       <c r="E771" s="2">
-        <v>45319.64583333334</v>
+        <v>45325.52083333334</v>
       </c>
       <c r="F771" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G771" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K771">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L771">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M771">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="N771">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O771">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P771">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q771">
         <v>-0.25</v>
       </c>
       <c r="R771">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S771">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T771">
         <v>2.25</v>
       </c>
       <c r="U771">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V771">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W771">
         <v>0</v>
@@ -69077,7 +69077,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6937249</v>
+        <v>6935711</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69086,50 +69086,50 @@
         <v>28</v>
       </c>
       <c r="E772" s="2">
-        <v>45325.52083333334</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F772" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G772" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K772">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L772">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M772">
-        <v>3.7</v>
+        <v>1.909</v>
       </c>
       <c r="N772">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="O772">
         <v>3.4</v>
       </c>
       <c r="P772">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q772">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R772">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S772">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T772">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U772">
+        <v>2.025</v>
+      </c>
+      <c r="V772">
         <v>1.825</v>
       </c>
-      <c r="V772">
-        <v>2.025</v>
-      </c>
       <c r="W772">
         <v>0</v>
       </c>
@@ -69143,80 +69143,6 @@
         <v>0</v>
       </c>
       <c r="AA772">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773" spans="1:27">
-      <c r="A773" s="1">
-        <v>771</v>
-      </c>
-      <c r="B773">
-        <v>6935711</v>
-      </c>
-      <c r="C773" t="s">
-        <v>28</v>
-      </c>
-      <c r="D773" t="s">
-        <v>28</v>
-      </c>
-      <c r="E773" s="2">
-        <v>45325.60416666666</v>
-      </c>
-      <c r="F773" t="s">
-        <v>46</v>
-      </c>
-      <c r="G773" t="s">
-        <v>39</v>
-      </c>
-      <c r="K773">
-        <v>4.2</v>
-      </c>
-      <c r="L773">
-        <v>3.5</v>
-      </c>
-      <c r="M773">
-        <v>1.909</v>
-      </c>
-      <c r="N773">
-        <v>3.75</v>
-      </c>
-      <c r="O773">
-        <v>3.4</v>
-      </c>
-      <c r="P773">
-        <v>2.05</v>
-      </c>
-      <c r="Q773">
-        <v>0.5</v>
-      </c>
-      <c r="R773">
-        <v>1.8</v>
-      </c>
-      <c r="S773">
-        <v>2.05</v>
-      </c>
-      <c r="T773">
-        <v>2.5</v>
-      </c>
-      <c r="U773">
-        <v>2.025</v>
-      </c>
-      <c r="V773">
-        <v>1.825</v>
-      </c>
-      <c r="W773">
-        <v>0</v>
-      </c>
-      <c r="X773">
-        <v>0</v>
-      </c>
-      <c r="Y773">
-        <v>0</v>
-      </c>
-      <c r="Z773">
-        <v>0</v>
-      </c>
-      <c r="AA773">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC772"/>
+  <dimension ref="A1:AC777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3040453</v>
+        <v>3040583</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>44269.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>3</v>
-      </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
+        <v>3.1</v>
+      </c>
+      <c r="M93">
+        <v>2.05</v>
+      </c>
+      <c r="N93">
         <v>4.5</v>
       </c>
-      <c r="M93">
-        <v>1.363</v>
-      </c>
-      <c r="N93">
-        <v>10</v>
-      </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q93">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3040583</v>
+        <v>3040453</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>44269.58333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94" t="s">
+        <v>49</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="L94">
+        <v>4.5</v>
+      </c>
+      <c r="M94">
+        <v>1.363</v>
+      </c>
+      <c r="N94">
+        <v>10</v>
+      </c>
+      <c r="O94">
+        <v>4.5</v>
+      </c>
+      <c r="P94">
+        <v>1.333</v>
+      </c>
+      <c r="Q94">
+        <v>1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.975</v>
+      </c>
+      <c r="S94">
+        <v>1.875</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>0.333</v>
+      </c>
+      <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.875</v>
+      </c>
+      <c r="AB94">
         <v>1</v>
-      </c>
-      <c r="J94" t="s">
-        <v>48</v>
-      </c>
-      <c r="K94">
-        <v>3.5</v>
-      </c>
-      <c r="L94">
-        <v>3.1</v>
-      </c>
-      <c r="M94">
-        <v>2.05</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
-      <c r="P94">
-        <v>1.8</v>
-      </c>
-      <c r="Q94">
-        <v>0.75</v>
-      </c>
-      <c r="R94">
-        <v>1.8</v>
-      </c>
-      <c r="S94">
-        <v>2.05</v>
-      </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>2.05</v>
-      </c>
-      <c r="V94">
-        <v>1.75</v>
-      </c>
-      <c r="W94">
-        <v>3.5</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>0.8</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>1.05</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>3341530</v>
+        <v>3341527</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>44275.60416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA100">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>3341527</v>
+        <v>3341530</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>44275.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>3342567</v>
+        <v>3342566</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,73 +12827,73 @@
         <v>44324.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>3</v>
-      </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N139">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O139">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3342566</v>
+        <v>3342568</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>44324.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140">
+        <v>7</v>
+      </c>
+      <c r="L140">
+        <v>3.5</v>
+      </c>
+      <c r="M140">
+        <v>1.5</v>
+      </c>
+      <c r="N140">
+        <v>5.25</v>
+      </c>
+      <c r="O140">
+        <v>3.3</v>
+      </c>
+      <c r="P140">
+        <v>1.65</v>
+      </c>
+      <c r="Q140">
+        <v>0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>1.85</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
         <v>1</v>
       </c>
-      <c r="J140" t="s">
-        <v>48</v>
-      </c>
-      <c r="K140">
-        <v>2.8</v>
-      </c>
-      <c r="L140">
-        <v>3.4</v>
-      </c>
-      <c r="M140">
-        <v>2.25</v>
-      </c>
-      <c r="N140">
-        <v>1.909</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
-      <c r="P140">
-        <v>3.6</v>
-      </c>
-      <c r="Q140">
-        <v>-0.5</v>
-      </c>
-      <c r="R140">
-        <v>1.925</v>
-      </c>
-      <c r="S140">
-        <v>1.925</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
-      <c r="W140">
-        <v>0.909</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0.925</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3342568</v>
+        <v>3342567</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>44324.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P141">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.6499999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3899302</v>
+        <v>3898646</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,10 +15853,10 @@
         <v>44461.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15868,61 +15868,61 @@
         <v>48</v>
       </c>
       <c r="K173">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L173">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N173">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P173">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.8</v>
+      </c>
+      <c r="S173">
+        <v>2.05</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
         <v>-0.5</v>
       </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>1.75</v>
-      </c>
-      <c r="U173">
-        <v>1.8</v>
-      </c>
-      <c r="V173">
-        <v>2.05</v>
-      </c>
-      <c r="W173">
+      <c r="AA173">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>1</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
-      <c r="AC173">
-        <v>1.05</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3898646</v>
+        <v>3899302</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,10 +15942,10 @@
         <v>44461.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15957,43 +15957,43 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L174">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N174">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O174">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.95</v>
+      </c>
+      <c r="T174">
+        <v>1.75</v>
+      </c>
+      <c r="U174">
         <v>1.8</v>
       </c>
-      <c r="S174">
+      <c r="V174">
         <v>2.05</v>
       </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.85</v>
-      </c>
-      <c r="V174">
-        <v>2</v>
-      </c>
       <c r="W174">
-        <v>0.2849999999999999</v>
+        <v>1</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA174">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>4102873</v>
+        <v>3898656</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="N177">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
         <v>3.75</v>
       </c>
       <c r="P177">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
         <v>0.875</v>
       </c>
-      <c r="AB177">
-        <v>-0.5</v>
-      </c>
       <c r="AC177">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3898656</v>
+        <v>4102873</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,76 +16298,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="N178">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O178">
         <v>3.75</v>
       </c>
       <c r="P178">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3898662</v>
+        <v>3898660</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>44472.60416666666</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M189">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N189">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O189">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P189">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3898660</v>
+        <v>3898662</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>44472.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K190">
+        <v>1.571</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>7</v>
+      </c>
+      <c r="N190">
+        <v>1.333</v>
+      </c>
+      <c r="O190">
+        <v>5</v>
+      </c>
+      <c r="P190">
+        <v>10</v>
+      </c>
+      <c r="Q190">
+        <v>-1.25</v>
+      </c>
+      <c r="R190">
+        <v>1.975</v>
+      </c>
+      <c r="S190">
+        <v>1.875</v>
+      </c>
+      <c r="T190">
         <v>2.5</v>
       </c>
-      <c r="L190">
-        <v>2.875</v>
-      </c>
-      <c r="M190">
-        <v>3.25</v>
-      </c>
-      <c r="N190">
-        <v>2.625</v>
-      </c>
-      <c r="O190">
-        <v>2.8</v>
-      </c>
-      <c r="P190">
-        <v>3.1</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>1.775</v>
-      </c>
-      <c r="S190">
-        <v>2.1</v>
-      </c>
-      <c r="T190">
-        <v>1.75</v>
-      </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y190">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AB190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3898666</v>
+        <v>3898665</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
+        <v>1.4</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>7</v>
+      </c>
+      <c r="N195">
+        <v>1.25</v>
+      </c>
+      <c r="O195">
         <v>5.5</v>
       </c>
-      <c r="L195">
-        <v>3.6</v>
-      </c>
-      <c r="M195">
-        <v>1.533</v>
-      </c>
-      <c r="N195">
-        <v>8</v>
-      </c>
-      <c r="O195">
-        <v>4.2</v>
-      </c>
       <c r="P195">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="Q195">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3898665</v>
+        <v>3898666</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N196">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O196">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P196">
-        <v>12</v>
+        <v>1.444</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
+        <v>1.8</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
         <v>1.85</v>
       </c>
-      <c r="S196">
-        <v>2</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
       <c r="W196">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3899306</v>
+        <v>3898693</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>44520.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M220">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N220">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
+        <v>1.85</v>
+      </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
+      <c r="T220">
+        <v>1.75</v>
+      </c>
+      <c r="U220">
+        <v>1.825</v>
+      </c>
+      <c r="V220">
         <v>2.025</v>
       </c>
-      <c r="S220">
-        <v>1.825</v>
-      </c>
-      <c r="T220">
-        <v>2.25</v>
-      </c>
-      <c r="U220">
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
         <v>2.1</v>
       </c>
-      <c r="V220">
-        <v>1.775</v>
-      </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
       <c r="Y220">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA220">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
-        <v>1.1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3898693</v>
+        <v>3899306</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>44520.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="L221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N221">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P221">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z221">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB221">
-        <v>0.4125</v>
+        <v>1.1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3898698</v>
+        <v>3898699</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,10 +20837,10 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -20852,43 +20852,43 @@
         <v>48</v>
       </c>
       <c r="K229">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M229">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N229">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P229">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R229">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20897,16 +20897,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB229">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3898699</v>
+        <v>3898698</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,10 +20926,10 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20941,43 +20941,43 @@
         <v>48</v>
       </c>
       <c r="K230">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L230">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N230">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="O230">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="Q230">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA230">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3898707</v>
+        <v>3898703</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,73 +21193,73 @@
         <v>44534.51041666666</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H233">
+        <v>4</v>
+      </c>
+      <c r="I233">
         <v>1</v>
       </c>
-      <c r="I233">
-        <v>2</v>
-      </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L233">
         <v>3.1</v>
       </c>
       <c r="M233">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N233">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O233">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P233">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3898703</v>
+        <v>3898707</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,73 +21282,73 @@
         <v>44534.51041666666</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L234">
         <v>3.1</v>
       </c>
       <c r="M234">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N234">
+        <v>1.7</v>
+      </c>
+      <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
+        <v>5.5</v>
+      </c>
+      <c r="Q234">
+        <v>-0.75</v>
+      </c>
+      <c r="R234">
+        <v>1.9</v>
+      </c>
+      <c r="S234">
         <v>1.95</v>
       </c>
-      <c r="O234">
-        <v>3.2</v>
-      </c>
-      <c r="P234">
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
+        <v>1.875</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
         <v>4.5</v>
       </c>
-      <c r="Q234">
-        <v>-0.5</v>
-      </c>
-      <c r="R234">
-        <v>2.05</v>
-      </c>
-      <c r="S234">
-        <v>1.8</v>
-      </c>
-      <c r="T234">
-        <v>2</v>
-      </c>
-      <c r="U234">
-        <v>1.85</v>
-      </c>
-      <c r="V234">
-        <v>2</v>
-      </c>
-      <c r="W234">
+      <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
         <v>0.95</v>
       </c>
-      <c r="X234">
-        <v>-1</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>1.05</v>
-      </c>
-      <c r="AA234">
-        <v>-1</v>
-      </c>
       <c r="AB234">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>3898718</v>
+        <v>3899310</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,40 +22439,40 @@
         <v>44545.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J247" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L247">
+        <v>3.75</v>
+      </c>
+      <c r="M247">
+        <v>1.833</v>
+      </c>
+      <c r="N247">
+        <v>3.1</v>
+      </c>
+      <c r="O247">
         <v>3.5</v>
       </c>
-      <c r="M247">
-        <v>2.9</v>
-      </c>
-      <c r="N247">
-        <v>2.55</v>
-      </c>
-      <c r="O247">
-        <v>3.2</v>
-      </c>
       <c r="P247">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R247">
         <v>1.85</v>
@@ -22484,28 +22484,28 @@
         <v>2.25</v>
       </c>
       <c r="U247">
+        <v>1.875</v>
+      </c>
+      <c r="V247">
         <v>1.975</v>
       </c>
-      <c r="V247">
-        <v>1.875</v>
-      </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB247">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3899310</v>
+        <v>3898718</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,40 +22528,40 @@
         <v>44545.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K248">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N248">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O248">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
         <v>1.85</v>
@@ -22573,28 +22573,28 @@
         <v>2.25</v>
       </c>
       <c r="U248">
+        <v>1.975</v>
+      </c>
+      <c r="V248">
         <v>1.875</v>
       </c>
-      <c r="V248">
-        <v>1.975</v>
-      </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y248">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA248">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB248">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>3898722</v>
+        <v>3898721</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23240,49 +23240,49 @@
         <v>44550.60416666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G256" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H256">
         <v>1</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K256">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L256">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M256">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N256">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O256">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P256">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q256">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R256">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S256">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U256">
         <v>1.95</v>
@@ -23291,25 +23291,25 @@
         <v>1.9</v>
       </c>
       <c r="W256">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z256">
+        <v>-1</v>
+      </c>
+      <c r="AA256">
+        <v>0.825</v>
+      </c>
+      <c r="AB256">
+        <v>0.475</v>
+      </c>
+      <c r="AC256">
         <v>-0.5</v>
-      </c>
-      <c r="AA256">
-        <v>0.4</v>
-      </c>
-      <c r="AB256">
-        <v>-1</v>
-      </c>
-      <c r="AC256">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>3898721</v>
+        <v>3898722</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,49 +23329,49 @@
         <v>44550.60416666666</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K257">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L257">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M257">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N257">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O257">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P257">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q257">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R257">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S257">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T257">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U257">
         <v>1.95</v>
@@ -23380,25 +23380,25 @@
         <v>1.9</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA257">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB257">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3898744</v>
+        <v>3898745</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,40 +24397,40 @@
         <v>44576.60416666666</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G269" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269">
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K269">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L269">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="N269">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O269">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P269">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q269">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R269">
         <v>1.875</v>
@@ -24439,19 +24439,19 @@
         <v>1.975</v>
       </c>
       <c r="T269">
+        <v>2.25</v>
+      </c>
+      <c r="U269">
+        <v>2.05</v>
+      </c>
+      <c r="V269">
+        <v>1.75</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
         <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>1.875</v>
-      </c>
-      <c r="V269">
-        <v>1.975</v>
-      </c>
-      <c r="W269">
-        <v>0.5</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
@@ -24463,10 +24463,10 @@
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>3898745</v>
+        <v>3898744</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,40 +24486,40 @@
         <v>44576.60416666666</v>
       </c>
       <c r="F270" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G270" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I270">
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K270">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L270">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M270">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="N270">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O270">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P270">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q270">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R270">
         <v>1.875</v>
@@ -24528,19 +24528,19 @@
         <v>1.975</v>
       </c>
       <c r="T270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V270">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X270">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
         <v>-1</v>
@@ -24552,10 +24552,10 @@
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC270">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>3898757</v>
+        <v>3898756</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,76 +25554,76 @@
         <v>44590.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K282">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L282">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M282">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N282">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P282">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q282">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA282">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC282">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3898756</v>
+        <v>3898757</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,76 +25643,76 @@
         <v>44590.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283">
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L283">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M283">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N283">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="O283">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P283">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R283">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S283">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T283">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z283">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>3898771</v>
+        <v>3898767</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26711,56 +26711,56 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G295" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>49</v>
       </c>
       <c r="K295">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="L295">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M295">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O295">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P295">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R295">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S295">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
+        <v>2.025</v>
+      </c>
+      <c r="V295">
         <v>1.825</v>
       </c>
-      <c r="V295">
-        <v>2.025</v>
-      </c>
       <c r="W295">
         <v>-1</v>
       </c>
@@ -26768,19 +26768,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>3898767</v>
+        <v>3898771</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,56 +26800,56 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G296" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
         <v>49</v>
       </c>
       <c r="K296">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="L296">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M296">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N296">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O296">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P296">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q296">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R296">
+        <v>1.95</v>
+      </c>
+      <c r="S296">
+        <v>1.9</v>
+      </c>
+      <c r="T296">
+        <v>2</v>
+      </c>
+      <c r="U296">
         <v>1.825</v>
       </c>
-      <c r="S296">
+      <c r="V296">
         <v>2.025</v>
       </c>
-      <c r="T296">
-        <v>2.5</v>
-      </c>
-      <c r="U296">
-        <v>2.025</v>
-      </c>
-      <c r="V296">
-        <v>1.825</v>
-      </c>
       <c r="W296">
         <v>-1</v>
       </c>
@@ -26857,19 +26857,19 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB296">
+        <v>-1</v>
+      </c>
+      <c r="AC296">
         <v>1.025</v>
-      </c>
-      <c r="AB296">
-        <v>-1</v>
-      </c>
-      <c r="AC296">
-        <v>0.825</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>3898772</v>
+        <v>3898777</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301" t="s">
+        <v>47</v>
+      </c>
+      <c r="K301">
+        <v>2.625</v>
+      </c>
+      <c r="L301">
+        <v>3.1</v>
+      </c>
+      <c r="M301">
+        <v>2.7</v>
+      </c>
+      <c r="N301">
         <v>3</v>
       </c>
-      <c r="J301" t="s">
-        <v>49</v>
-      </c>
-      <c r="K301">
-        <v>1.65</v>
-      </c>
-      <c r="L301">
-        <v>3.4</v>
-      </c>
-      <c r="M301">
-        <v>6</v>
-      </c>
-      <c r="N301">
-        <v>1.615</v>
-      </c>
       <c r="O301">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P301">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q301">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R301">
+        <v>2</v>
+      </c>
+      <c r="S301">
         <v>1.85</v>
       </c>
-      <c r="S301">
-        <v>2</v>
-      </c>
       <c r="T301">
         <v>2</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V301">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y301">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA301">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB301">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>3898777</v>
+        <v>3898772</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K302">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L302">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N302">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O302">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P302">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q302">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S302">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T302">
         <v>2</v>
       </c>
       <c r="U302">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC302">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -29903,7 +29903,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>3898789</v>
+        <v>3898791</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29915,40 +29915,40 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G331" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K331">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L331">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M331">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N331">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O331">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q331">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R331">
         <v>1.8</v>
@@ -29957,34 +29957,34 @@
         <v>2.05</v>
       </c>
       <c r="T331">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U331">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V331">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W331">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z331">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB331">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>3898790</v>
+        <v>3898795</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,76 +30004,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G332" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K332">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L332">
+        <v>3.6</v>
+      </c>
+      <c r="M332">
+        <v>1.8</v>
+      </c>
+      <c r="N332">
         <v>2.625</v>
       </c>
-      <c r="M332">
-        <v>2.625</v>
-      </c>
-      <c r="N332">
-        <v>3.2</v>
-      </c>
       <c r="O332">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P332">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q332">
         <v>0</v>
       </c>
       <c r="R332">
+        <v>1.8</v>
+      </c>
+      <c r="S332">
         <v>2.05</v>
       </c>
-      <c r="S332">
-        <v>1.8</v>
-      </c>
       <c r="T332">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U332">
+        <v>2</v>
+      </c>
+      <c r="V332">
         <v>1.85</v>
       </c>
-      <c r="V332">
-        <v>2</v>
-      </c>
       <c r="W332">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB332">
+        <v>-1</v>
+      </c>
+      <c r="AC332">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC332">
-        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>3898792</v>
+        <v>3898794</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G333" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K333">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L333">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M333">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N333">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O333">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P333">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q333">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R333">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U333">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V333">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA333">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30170,7 +30170,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>3898794</v>
+        <v>3898793</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30182,76 +30182,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G334" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K334">
+        <v>7</v>
+      </c>
+      <c r="L334">
+        <v>3.8</v>
+      </c>
+      <c r="M334">
         <v>1.533</v>
       </c>
-      <c r="L334">
+      <c r="N334">
+        <v>5</v>
+      </c>
+      <c r="O334">
         <v>3.6</v>
       </c>
-      <c r="M334">
-        <v>8</v>
-      </c>
-      <c r="N334">
-        <v>1.5</v>
-      </c>
-      <c r="O334">
-        <v>4</v>
-      </c>
       <c r="P334">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q334">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R334">
+        <v>1.875</v>
+      </c>
+      <c r="S334">
+        <v>1.975</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
         <v>1.85</v>
       </c>
-      <c r="S334">
-        <v>2</v>
-      </c>
-      <c r="T334">
-        <v>2.5</v>
-      </c>
-      <c r="U334">
-        <v>1.825</v>
-      </c>
       <c r="V334">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W334">
+        <v>-1</v>
+      </c>
+      <c r="X334">
+        <v>-1</v>
+      </c>
+      <c r="Y334">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z334">
+        <v>-1</v>
+      </c>
+      <c r="AA334">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB334">
+        <v>-0.5</v>
+      </c>
+      <c r="AC334">
         <v>0.5</v>
-      </c>
-      <c r="X334">
-        <v>-1</v>
-      </c>
-      <c r="Y334">
-        <v>-1</v>
-      </c>
-      <c r="Z334">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA334">
-        <v>-1</v>
-      </c>
-      <c r="AB334">
-        <v>-1</v>
-      </c>
-      <c r="AC334">
-        <v>1.025</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30259,7 +30259,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>3898795</v>
+        <v>3898792</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30271,76 +30271,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G335" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J335" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K335">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L335">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M335">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="N335">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O335">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P335">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R335">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S335">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V335">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC335">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30348,7 +30348,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>3898791</v>
+        <v>3898790</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30360,76 +30360,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G336" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K336">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L336">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="M336">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N336">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O336">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P336">
+        <v>2.7</v>
+      </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
+      <c r="R336">
         <v>2.05</v>
       </c>
-      <c r="Q336">
-        <v>0.5</v>
-      </c>
-      <c r="R336">
+      <c r="S336">
         <v>1.8</v>
       </c>
-      <c r="S336">
-        <v>2.05</v>
-      </c>
       <c r="T336">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U336">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V336">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
         <v>1.05</v>
       </c>
-      <c r="Z336">
-        <v>-1</v>
-      </c>
       <c r="AA336">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC336">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30437,7 +30437,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>3898793</v>
+        <v>3898789</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30449,76 +30449,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G337" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K337">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="L337">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M337">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N337">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P337">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="Q337">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R337">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S337">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T337">
         <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V337">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA337">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB337">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC337">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -35154,7 +35154,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>4770116</v>
+        <v>5005261</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35166,73 +35166,73 @@
         <v>44696.5625</v>
       </c>
       <c r="F390" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G390" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H390">
+        <v>2</v>
+      </c>
+      <c r="I390">
+        <v>2</v>
+      </c>
+      <c r="J390" t="s">
+        <v>47</v>
+      </c>
+      <c r="K390">
+        <v>1.4</v>
+      </c>
+      <c r="L390">
+        <v>4.333</v>
+      </c>
+      <c r="M390">
+        <v>9</v>
+      </c>
+      <c r="N390">
+        <v>1.45</v>
+      </c>
+      <c r="O390">
+        <v>4</v>
+      </c>
+      <c r="P390">
+        <v>7</v>
+      </c>
+      <c r="Q390">
+        <v>-1</v>
+      </c>
+      <c r="R390">
+        <v>1.825</v>
+      </c>
+      <c r="S390">
+        <v>2.025</v>
+      </c>
+      <c r="T390">
+        <v>2.25</v>
+      </c>
+      <c r="U390">
+        <v>1.95</v>
+      </c>
+      <c r="V390">
+        <v>1.9</v>
+      </c>
+      <c r="W390">
+        <v>-1</v>
+      </c>
+      <c r="X390">
         <v>3</v>
       </c>
-      <c r="I390">
-        <v>1</v>
-      </c>
-      <c r="J390" t="s">
-        <v>48</v>
-      </c>
-      <c r="K390">
-        <v>2.05</v>
-      </c>
-      <c r="L390">
-        <v>3.4</v>
-      </c>
-      <c r="M390">
-        <v>3.6</v>
-      </c>
-      <c r="N390">
-        <v>2.2</v>
-      </c>
-      <c r="O390">
-        <v>3.2</v>
-      </c>
-      <c r="P390">
-        <v>3.5</v>
-      </c>
-      <c r="Q390">
-        <v>-0.25</v>
-      </c>
-      <c r="R390">
-        <v>1.875</v>
-      </c>
-      <c r="S390">
-        <v>1.975</v>
-      </c>
-      <c r="T390">
-        <v>2.5</v>
-      </c>
-      <c r="U390">
-        <v>2</v>
-      </c>
-      <c r="V390">
-        <v>1.85</v>
-      </c>
-      <c r="W390">
-        <v>1.2</v>
-      </c>
-      <c r="X390">
-        <v>-1</v>
-      </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB390">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC390">
         <v>-1</v>
@@ -35243,7 +35243,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>4770117</v>
+        <v>4770116</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35255,76 +35255,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F391" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K391">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L391">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M391">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N391">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O391">
         <v>3.2</v>
       </c>
       <c r="P391">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q391">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R391">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S391">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T391">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U391">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V391">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W391">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X391">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA391">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB391">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC391">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35332,7 +35332,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>5005261</v>
+        <v>4770117</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35344,76 +35344,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F392" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G392" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J392" t="s">
         <v>47</v>
       </c>
       <c r="K392">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="L392">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M392">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N392">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O392">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P392">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="Q392">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R392">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S392">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
+        <v>1.9</v>
+      </c>
+      <c r="V392">
         <v>1.95</v>
       </c>
-      <c r="V392">
-        <v>1.9</v>
-      </c>
       <c r="W392">
         <v>-1</v>
       </c>
       <c r="X392">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA392">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB392">
+        <v>-1</v>
+      </c>
+      <c r="AC392">
         <v>0.95</v>
-      </c>
-      <c r="AC392">
-        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4770087</v>
+        <v>4770088</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,49 +35433,49 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F393" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G393" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H393">
         <v>2</v>
       </c>
       <c r="I393">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K393">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L393">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M393">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="N393">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O393">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P393">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q393">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R393">
+        <v>1.825</v>
+      </c>
+      <c r="S393">
         <v>2.025</v>
       </c>
-      <c r="S393">
-        <v>1.825</v>
-      </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U393">
         <v>1.925</v>
@@ -35484,25 +35484,25 @@
         <v>1.925</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA393">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC393">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>4770088</v>
+        <v>4770087</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,49 +35522,49 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G394" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H394">
         <v>2</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J394" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K394">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L394">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M394">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="N394">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O394">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P394">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q394">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R394">
+        <v>2.025</v>
+      </c>
+      <c r="S394">
         <v>1.825</v>
       </c>
-      <c r="S394">
-        <v>2.025</v>
-      </c>
       <c r="T394">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U394">
         <v>1.925</v>
@@ -35573,25 +35573,25 @@
         <v>1.925</v>
       </c>
       <c r="W394">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z394">
+        <v>-1</v>
+      </c>
+      <c r="AA394">
         <v>0.825</v>
       </c>
-      <c r="AA394">
-        <v>-1</v>
-      </c>
       <c r="AB394">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC394">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -55090,7 +55090,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>6399634</v>
+        <v>6399631</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55102,55 +55102,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F614" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G614" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J614" t="s">
         <v>47</v>
       </c>
       <c r="K614">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L614">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M614">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N614">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O614">
         <v>2.9</v>
       </c>
       <c r="P614">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q614">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R614">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S614">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T614">
         <v>2</v>
       </c>
       <c r="U614">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V614">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W614">
         <v>-1</v>
@@ -55162,16 +55162,16 @@
         <v>-1</v>
       </c>
       <c r="Z614">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA614">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB614">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC614">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55179,7 +55179,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>6399631</v>
+        <v>6399634</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55191,55 +55191,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F615" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G615" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J615" t="s">
         <v>47</v>
       </c>
       <c r="K615">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L615">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M615">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N615">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O615">
         <v>2.9</v>
       </c>
       <c r="P615">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q615">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R615">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S615">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T615">
         <v>2</v>
       </c>
       <c r="U615">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V615">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W615">
         <v>-1</v>
@@ -55251,16 +55251,16 @@
         <v>-1</v>
       </c>
       <c r="Z615">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA615">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB615">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC615">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55268,7 +55268,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>6399458</v>
+        <v>6399613</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55280,58 +55280,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F616" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G616" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H616">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I616">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J616" t="s">
         <v>48</v>
       </c>
       <c r="K616">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="L616">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M616">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N616">
-        <v>1.083</v>
+        <v>1.7</v>
       </c>
       <c r="O616">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P616">
-        <v>29</v>
+        <v>5.25</v>
       </c>
       <c r="Q616">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R616">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S616">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T616">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U616">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V616">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W616">
-        <v>0.08299999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X616">
         <v>-1</v>
@@ -55340,13 +55340,13 @@
         <v>-1</v>
       </c>
       <c r="Z616">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA616">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB616">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC616">
         <v>-1</v>
@@ -55357,7 +55357,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6399613</v>
+        <v>6399458</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55369,58 +55369,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F617" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G617" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H617">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I617">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J617" t="s">
         <v>48</v>
       </c>
       <c r="K617">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="L617">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M617">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N617">
-        <v>1.7</v>
+        <v>1.083</v>
       </c>
       <c r="O617">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="P617">
-        <v>5.25</v>
+        <v>29</v>
       </c>
       <c r="Q617">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R617">
+        <v>2</v>
+      </c>
+      <c r="S617">
+        <v>1.85</v>
+      </c>
+      <c r="T617">
+        <v>3.5</v>
+      </c>
+      <c r="U617">
+        <v>1.975</v>
+      </c>
+      <c r="V617">
         <v>1.875</v>
       </c>
-      <c r="S617">
-        <v>1.975</v>
-      </c>
-      <c r="T617">
-        <v>2.25</v>
-      </c>
-      <c r="U617">
-        <v>1.8</v>
-      </c>
-      <c r="V617">
-        <v>2.05</v>
-      </c>
       <c r="W617">
-        <v>0.7</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X617">
         <v>-1</v>
@@ -55429,13 +55429,13 @@
         <v>-1</v>
       </c>
       <c r="Z617">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA617">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB617">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC617">
         <v>-1</v>
@@ -58205,7 +58205,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58217,58 +58217,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F649" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G649" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H649">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I649">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J649" t="s">
         <v>48</v>
       </c>
       <c r="K649">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L649">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M649">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N649">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O649">
         <v>3.8</v>
       </c>
       <c r="P649">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q649">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R649">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S649">
+        <v>2</v>
+      </c>
+      <c r="T649">
+        <v>2.75</v>
+      </c>
+      <c r="U649">
+        <v>2</v>
+      </c>
+      <c r="V649">
         <v>1.85</v>
       </c>
-      <c r="T649">
-        <v>2.25</v>
-      </c>
-      <c r="U649">
-        <v>1.825</v>
-      </c>
-      <c r="V649">
-        <v>2.025</v>
-      </c>
       <c r="W649">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X649">
         <v>-1</v>
@@ -58277,16 +58277,16 @@
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA649">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB649">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC649">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58294,7 +58294,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58306,13 +58306,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F650" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G650" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I650">
         <v>0</v>
@@ -58321,43 +58321,43 @@
         <v>48</v>
       </c>
       <c r="K650">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L650">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M650">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N650">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O650">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P650">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q650">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R650">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S650">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T650">
         <v>2.75</v>
       </c>
       <c r="U650">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V650">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W650">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X650">
         <v>-1</v>
@@ -58366,16 +58366,16 @@
         <v>-1</v>
       </c>
       <c r="Z650">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA650">
         <v>-1</v>
       </c>
       <c r="AB650">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC650">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -58383,7 +58383,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58395,49 +58395,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F651" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G651" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H651">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I651">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J651" t="s">
         <v>48</v>
       </c>
       <c r="K651">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L651">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M651">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N651">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O651">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P651">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q651">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R651">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S651">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T651">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U651">
         <v>1.825</v>
@@ -58446,7 +58446,7 @@
         <v>2.025</v>
       </c>
       <c r="W651">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X651">
         <v>-1</v>
@@ -58455,10 +58455,10 @@
         <v>-1</v>
       </c>
       <c r="Z651">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA651">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB651">
         <v>0.825</v>
@@ -67906,7 +67906,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67918,49 +67918,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F758" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G758" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I758">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J758" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K758">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L758">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M758">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N758">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O758">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P758">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q758">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R758">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S758">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T758">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U758">
         <v>1.8</v>
@@ -67969,19 +67969,19 @@
         <v>2.05</v>
       </c>
       <c r="W758">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X758">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA758">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB758">
         <v>0.8</v>
@@ -67995,7 +67995,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68007,49 +68007,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F759" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G759" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H759">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I759">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J759" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K759">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L759">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M759">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N759">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O759">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P759">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q759">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R759">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S759">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T759">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U759">
         <v>1.8</v>
@@ -68058,19 +68058,19 @@
         <v>2.05</v>
       </c>
       <c r="W759">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X759">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA759">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB759">
         <v>0.8</v>
@@ -68734,31 +68734,31 @@
         <v>15</v>
       </c>
       <c r="N767">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="O767">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P767">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q767">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R767">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S767">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T767">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U767">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V767">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W767">
         <v>0</v>
@@ -68808,13 +68808,13 @@
         <v>3.6</v>
       </c>
       <c r="N768">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O768">
         <v>3.3</v>
       </c>
       <c r="P768">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q768">
         <v>-0.25</v>
@@ -68829,10 +68829,10 @@
         <v>2.25</v>
       </c>
       <c r="U768">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V768">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W768">
         <v>0</v>
@@ -68882,31 +68882,31 @@
         <v>15</v>
       </c>
       <c r="N769">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="O769">
         <v>6</v>
       </c>
       <c r="P769">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q769">
         <v>-1.75</v>
       </c>
       <c r="R769">
+        <v>1.875</v>
+      </c>
+      <c r="S769">
+        <v>1.975</v>
+      </c>
+      <c r="T769">
+        <v>2.75</v>
+      </c>
+      <c r="U769">
         <v>1.85</v>
       </c>
-      <c r="S769">
-        <v>2</v>
-      </c>
-      <c r="T769">
-        <v>3</v>
-      </c>
-      <c r="U769">
-        <v>2</v>
-      </c>
       <c r="V769">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W769">
         <v>0</v>
@@ -68968,19 +68968,19 @@
         <v>-0.25</v>
       </c>
       <c r="R770">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S770">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T770">
         <v>2.25</v>
       </c>
       <c r="U770">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V770">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W770">
         <v>0</v>
@@ -69143,6 +69143,376 @@
         <v>0</v>
       </c>
       <c r="AA772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:27">
+      <c r="A773" s="1">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <v>6935710</v>
+      </c>
+      <c r="C773" t="s">
+        <v>28</v>
+      </c>
+      <c r="D773" t="s">
+        <v>28</v>
+      </c>
+      <c r="E773" s="2">
+        <v>45326.45833333334</v>
+      </c>
+      <c r="F773" t="s">
+        <v>40</v>
+      </c>
+      <c r="G773" t="s">
+        <v>45</v>
+      </c>
+      <c r="K773">
+        <v>1.6</v>
+      </c>
+      <c r="L773">
+        <v>3.8</v>
+      </c>
+      <c r="M773">
+        <v>6</v>
+      </c>
+      <c r="N773">
+        <v>1.727</v>
+      </c>
+      <c r="O773">
+        <v>3.6</v>
+      </c>
+      <c r="P773">
+        <v>5</v>
+      </c>
+      <c r="Q773">
+        <v>-0.75</v>
+      </c>
+      <c r="R773">
+        <v>1.95</v>
+      </c>
+      <c r="S773">
+        <v>1.9</v>
+      </c>
+      <c r="T773">
+        <v>2.5</v>
+      </c>
+      <c r="U773">
+        <v>1.875</v>
+      </c>
+      <c r="V773">
+        <v>1.975</v>
+      </c>
+      <c r="W773">
+        <v>0</v>
+      </c>
+      <c r="X773">
+        <v>0</v>
+      </c>
+      <c r="Y773">
+        <v>0</v>
+      </c>
+      <c r="Z773">
+        <v>0</v>
+      </c>
+      <c r="AA773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:27">
+      <c r="A774" s="1">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <v>6937247</v>
+      </c>
+      <c r="C774" t="s">
+        <v>28</v>
+      </c>
+      <c r="D774" t="s">
+        <v>28</v>
+      </c>
+      <c r="E774" s="2">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F774" t="s">
+        <v>37</v>
+      </c>
+      <c r="G774" t="s">
+        <v>38</v>
+      </c>
+      <c r="K774">
+        <v>1.285</v>
+      </c>
+      <c r="L774">
+        <v>5.5</v>
+      </c>
+      <c r="M774">
+        <v>12</v>
+      </c>
+      <c r="N774">
+        <v>1.222</v>
+      </c>
+      <c r="O774">
+        <v>5.75</v>
+      </c>
+      <c r="P774">
+        <v>17</v>
+      </c>
+      <c r="Q774">
+        <v>-1.75</v>
+      </c>
+      <c r="R774">
+        <v>1.925</v>
+      </c>
+      <c r="S774">
+        <v>1.925</v>
+      </c>
+      <c r="T774">
+        <v>2.75</v>
+      </c>
+      <c r="U774">
+        <v>1.9</v>
+      </c>
+      <c r="V774">
+        <v>1.95</v>
+      </c>
+      <c r="W774">
+        <v>0</v>
+      </c>
+      <c r="X774">
+        <v>0</v>
+      </c>
+      <c r="Y774">
+        <v>0</v>
+      </c>
+      <c r="Z774">
+        <v>0</v>
+      </c>
+      <c r="AA774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:27">
+      <c r="A775" s="1">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <v>6937250</v>
+      </c>
+      <c r="C775" t="s">
+        <v>28</v>
+      </c>
+      <c r="D775" t="s">
+        <v>28</v>
+      </c>
+      <c r="E775" s="2">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F775" t="s">
+        <v>31</v>
+      </c>
+      <c r="G775" t="s">
+        <v>35</v>
+      </c>
+      <c r="K775">
+        <v>2.3</v>
+      </c>
+      <c r="L775">
+        <v>3.25</v>
+      </c>
+      <c r="M775">
+        <v>3.25</v>
+      </c>
+      <c r="N775">
+        <v>2.3</v>
+      </c>
+      <c r="O775">
+        <v>3.25</v>
+      </c>
+      <c r="P775">
+        <v>3.2</v>
+      </c>
+      <c r="Q775">
+        <v>-0.25</v>
+      </c>
+      <c r="R775">
+        <v>2</v>
+      </c>
+      <c r="S775">
+        <v>1.85</v>
+      </c>
+      <c r="T775">
+        <v>2.25</v>
+      </c>
+      <c r="U775">
+        <v>1.875</v>
+      </c>
+      <c r="V775">
+        <v>1.975</v>
+      </c>
+      <c r="W775">
+        <v>0</v>
+      </c>
+      <c r="X775">
+        <v>0</v>
+      </c>
+      <c r="Y775">
+        <v>0</v>
+      </c>
+      <c r="Z775">
+        <v>0</v>
+      </c>
+      <c r="AA775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:27">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <v>6937248</v>
+      </c>
+      <c r="C776" t="s">
+        <v>28</v>
+      </c>
+      <c r="D776" t="s">
+        <v>28</v>
+      </c>
+      <c r="E776" s="2">
+        <v>45326.64583333334</v>
+      </c>
+      <c r="F776" t="s">
+        <v>41</v>
+      </c>
+      <c r="G776" t="s">
+        <v>42</v>
+      </c>
+      <c r="K776">
+        <v>8.5</v>
+      </c>
+      <c r="L776">
+        <v>4.5</v>
+      </c>
+      <c r="M776">
+        <v>1.4</v>
+      </c>
+      <c r="N776">
+        <v>7</v>
+      </c>
+      <c r="O776">
+        <v>4.333</v>
+      </c>
+      <c r="P776">
+        <v>1.45</v>
+      </c>
+      <c r="Q776">
+        <v>1.25</v>
+      </c>
+      <c r="R776">
+        <v>1.825</v>
+      </c>
+      <c r="S776">
+        <v>2.025</v>
+      </c>
+      <c r="T776">
+        <v>2.75</v>
+      </c>
+      <c r="U776">
+        <v>1.9</v>
+      </c>
+      <c r="V776">
+        <v>1.95</v>
+      </c>
+      <c r="W776">
+        <v>0</v>
+      </c>
+      <c r="X776">
+        <v>0</v>
+      </c>
+      <c r="Y776">
+        <v>0</v>
+      </c>
+      <c r="Z776">
+        <v>0</v>
+      </c>
+      <c r="AA776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:27">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <v>6936860</v>
+      </c>
+      <c r="C777" t="s">
+        <v>28</v>
+      </c>
+      <c r="D777" t="s">
+        <v>28</v>
+      </c>
+      <c r="E777" s="2">
+        <v>45326.66666666666</v>
+      </c>
+      <c r="F777" t="s">
+        <v>29</v>
+      </c>
+      <c r="G777" t="s">
+        <v>33</v>
+      </c>
+      <c r="K777">
+        <v>2.2</v>
+      </c>
+      <c r="L777">
+        <v>3.3</v>
+      </c>
+      <c r="M777">
+        <v>3.4</v>
+      </c>
+      <c r="N777">
+        <v>2.3</v>
+      </c>
+      <c r="O777">
+        <v>3.3</v>
+      </c>
+      <c r="P777">
+        <v>3.2</v>
+      </c>
+      <c r="Q777">
+        <v>-0.25</v>
+      </c>
+      <c r="R777">
+        <v>2</v>
+      </c>
+      <c r="S777">
+        <v>1.85</v>
+      </c>
+      <c r="T777">
+        <v>2.25</v>
+      </c>
+      <c r="U777">
+        <v>1.975</v>
+      </c>
+      <c r="V777">
+        <v>1.875</v>
+      </c>
+      <c r="W777">
+        <v>0</v>
+      </c>
+      <c r="X777">
+        <v>0</v>
+      </c>
+      <c r="Y777">
+        <v>0</v>
+      </c>
+      <c r="Z777">
+        <v>0</v>
+      </c>
+      <c r="AA777">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC777"/>
+  <dimension ref="A1:AC773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3040583</v>
+        <v>3040453</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>44269.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93">
+        <v>7</v>
+      </c>
+      <c r="L93">
+        <v>4.5</v>
+      </c>
+      <c r="M93">
+        <v>1.363</v>
+      </c>
+      <c r="N93">
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>4.5</v>
+      </c>
+      <c r="P93">
+        <v>1.333</v>
+      </c>
+      <c r="Q93">
+        <v>1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.975</v>
+      </c>
+      <c r="S93">
+        <v>1.875</v>
+      </c>
+      <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+      <c r="V93">
+        <v>1.85</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>0.333</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.875</v>
+      </c>
+      <c r="AB93">
         <v>1</v>
-      </c>
-      <c r="J93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K93">
-        <v>3.5</v>
-      </c>
-      <c r="L93">
-        <v>3.1</v>
-      </c>
-      <c r="M93">
-        <v>2.05</v>
-      </c>
-      <c r="N93">
-        <v>4.5</v>
-      </c>
-      <c r="O93">
-        <v>3.3</v>
-      </c>
-      <c r="P93">
-        <v>1.8</v>
-      </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
-        <v>1.8</v>
-      </c>
-      <c r="S93">
-        <v>2.05</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>2.05</v>
-      </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
-      <c r="W93">
-        <v>3.5</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.8</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>1.05</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3040453</v>
+        <v>3040583</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>44269.58333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L94">
+        <v>3.1</v>
+      </c>
+      <c r="M94">
+        <v>2.05</v>
+      </c>
+      <c r="N94">
         <v>4.5</v>
       </c>
-      <c r="M94">
-        <v>1.363</v>
-      </c>
-      <c r="N94">
-        <v>10</v>
-      </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q94">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>3341527</v>
+        <v>3341530</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>44275.60416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>3341530</v>
+        <v>3341527</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>44275.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M101">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O101">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>3342566</v>
+        <v>3342567</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,73 +12827,73 @@
         <v>44324.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3342568</v>
+        <v>3342566</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>44324.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>2.25</v>
+      </c>
+      <c r="N140">
+        <v>1.909</v>
+      </c>
+      <c r="O140">
         <v>3.5</v>
       </c>
-      <c r="M140">
-        <v>1.5</v>
-      </c>
-      <c r="N140">
-        <v>5.25</v>
-      </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
       <c r="P140">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3342567</v>
+        <v>3342568</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>44324.5625</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N141">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="O141">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>2</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,19 +13062,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3898646</v>
+        <v>3899302</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,10 +15853,10 @@
         <v>44461.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15868,43 +15868,43 @@
         <v>48</v>
       </c>
       <c r="K173">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N173">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="O173">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>1.95</v>
+      </c>
+      <c r="T173">
+        <v>1.75</v>
+      </c>
+      <c r="U173">
         <v>1.8</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>2.05</v>
       </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.85</v>
-      </c>
-      <c r="V173">
-        <v>2</v>
-      </c>
       <c r="W173">
-        <v>0.2849999999999999</v>
+        <v>1</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3899302</v>
+        <v>3898646</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,10 +15942,10 @@
         <v>44461.60416666666</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15957,61 +15957,61 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M174">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q174">
+        <v>-1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2.05</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
+        <v>2</v>
+      </c>
+      <c r="W174">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
         <v>-0.5</v>
       </c>
-      <c r="R174">
-        <v>1.9</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>1.75</v>
-      </c>
-      <c r="U174">
-        <v>1.8</v>
-      </c>
-      <c r="V174">
-        <v>2.05</v>
-      </c>
-      <c r="W174">
+      <c r="AA174">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
-      <c r="AC174">
-        <v>1.05</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3898656</v>
+        <v>4102873</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="N177">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O177">
         <v>3.75</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4102873</v>
+        <v>3898656</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,76 +16298,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="N178">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="O178">
         <v>3.75</v>
       </c>
       <c r="P178">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>0.875</v>
       </c>
-      <c r="AB178">
-        <v>-0.5</v>
-      </c>
       <c r="AC178">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3898660</v>
+        <v>3898662</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>44472.60416666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K189">
+        <v>1.571</v>
+      </c>
+      <c r="L189">
+        <v>3.6</v>
+      </c>
+      <c r="M189">
+        <v>7</v>
+      </c>
+      <c r="N189">
+        <v>1.333</v>
+      </c>
+      <c r="O189">
+        <v>5</v>
+      </c>
+      <c r="P189">
+        <v>10</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
+        <v>1.875</v>
+      </c>
+      <c r="T189">
         <v>2.5</v>
       </c>
-      <c r="L189">
-        <v>2.875</v>
-      </c>
-      <c r="M189">
-        <v>3.25</v>
-      </c>
-      <c r="N189">
-        <v>2.625</v>
-      </c>
-      <c r="O189">
-        <v>2.8</v>
-      </c>
-      <c r="P189">
-        <v>3.1</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>1.775</v>
-      </c>
-      <c r="S189">
-        <v>2.1</v>
-      </c>
-      <c r="T189">
-        <v>1.75</v>
-      </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y189">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3898662</v>
+        <v>3898660</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>44472.60416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M190">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N190">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O190">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P190">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3898665</v>
+        <v>3898666</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N195">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O195">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P195">
-        <v>12</v>
+        <v>1.444</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R195">
+        <v>2.05</v>
+      </c>
+      <c r="S195">
+        <v>1.8</v>
+      </c>
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>1.85</v>
-      </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
       <c r="W195">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z195">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3898666</v>
+        <v>3898665</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
+        <v>1.4</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>7</v>
+      </c>
+      <c r="N196">
+        <v>1.25</v>
+      </c>
+      <c r="O196">
         <v>5.5</v>
       </c>
-      <c r="L196">
-        <v>3.6</v>
-      </c>
-      <c r="M196">
-        <v>1.533</v>
-      </c>
-      <c r="N196">
-        <v>8</v>
-      </c>
-      <c r="O196">
-        <v>4.2</v>
-      </c>
       <c r="P196">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3898693</v>
+        <v>3899306</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>44520.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="L220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M220">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N220">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="O220">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V220">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z220">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB220">
-        <v>0.4125</v>
+        <v>1.1</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3899306</v>
+        <v>3898693</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>44520.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N221">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P221">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>2</v>
+      </c>
+      <c r="T221">
+        <v>1.75</v>
+      </c>
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
         <v>2.025</v>
       </c>
-      <c r="S221">
-        <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
         <v>2.1</v>
       </c>
-      <c r="V221">
-        <v>1.775</v>
-      </c>
-      <c r="W221">
-        <v>-1</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
       <c r="Y221">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA221">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>1.1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3898699</v>
+        <v>3898698</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,10 +20837,10 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -20852,43 +20852,43 @@
         <v>48</v>
       </c>
       <c r="K229">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L229">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N229">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="O229">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="Q229">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20897,16 +20897,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA229">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3898698</v>
+        <v>3898699</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,10 +20926,10 @@
         <v>44528.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20941,43 +20941,43 @@
         <v>48</v>
       </c>
       <c r="K230">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M230">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P230">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB230">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21181,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3898703</v>
+        <v>3898707</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21193,73 +21193,73 @@
         <v>44534.51041666666</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L233">
         <v>3.1</v>
       </c>
       <c r="M233">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N233">
+        <v>1.7</v>
+      </c>
+      <c r="O233">
+        <v>3.6</v>
+      </c>
+      <c r="P233">
+        <v>5.5</v>
+      </c>
+      <c r="Q233">
+        <v>-0.75</v>
+      </c>
+      <c r="R233">
+        <v>1.9</v>
+      </c>
+      <c r="S233">
         <v>1.95</v>
       </c>
-      <c r="O233">
-        <v>3.2</v>
-      </c>
-      <c r="P233">
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
+        <v>1.875</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
         <v>4.5</v>
       </c>
-      <c r="Q233">
-        <v>-0.5</v>
-      </c>
-      <c r="R233">
-        <v>2.05</v>
-      </c>
-      <c r="S233">
-        <v>1.8</v>
-      </c>
-      <c r="T233">
-        <v>2</v>
-      </c>
-      <c r="U233">
-        <v>1.85</v>
-      </c>
-      <c r="V233">
-        <v>2</v>
-      </c>
-      <c r="W233">
+      <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
         <v>0.95</v>
       </c>
-      <c r="X233">
-        <v>-1</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>1.05</v>
-      </c>
-      <c r="AA233">
-        <v>-1</v>
-      </c>
       <c r="AB233">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21270,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3898707</v>
+        <v>3898703</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21282,73 +21282,73 @@
         <v>44534.51041666666</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H234">
+        <v>4</v>
+      </c>
+      <c r="I234">
         <v>1</v>
       </c>
-      <c r="I234">
-        <v>2</v>
-      </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K234">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L234">
         <v>3.1</v>
       </c>
       <c r="M234">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N234">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>3899310</v>
+        <v>3898718</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,40 +22439,40 @@
         <v>44545.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K247">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="L247">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N247">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
         <v>1.85</v>
@@ -22484,28 +22484,28 @@
         <v>2.25</v>
       </c>
       <c r="U247">
+        <v>1.975</v>
+      </c>
+      <c r="V247">
         <v>1.875</v>
       </c>
-      <c r="V247">
-        <v>1.975</v>
-      </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA247">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB247">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3898718</v>
+        <v>3899310</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,40 +22528,40 @@
         <v>44545.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J248" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K248">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L248">
+        <v>3.75</v>
+      </c>
+      <c r="M248">
+        <v>1.833</v>
+      </c>
+      <c r="N248">
+        <v>3.1</v>
+      </c>
+      <c r="O248">
         <v>3.5</v>
       </c>
-      <c r="M248">
-        <v>2.9</v>
-      </c>
-      <c r="N248">
-        <v>2.55</v>
-      </c>
-      <c r="O248">
-        <v>3.2</v>
-      </c>
       <c r="P248">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
         <v>1.85</v>
@@ -22573,28 +22573,28 @@
         <v>2.25</v>
       </c>
       <c r="U248">
+        <v>1.875</v>
+      </c>
+      <c r="V248">
         <v>1.975</v>
       </c>
-      <c r="V248">
-        <v>1.875</v>
-      </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB248">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>3898721</v>
+        <v>3898722</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23240,49 +23240,49 @@
         <v>44550.60416666666</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H256">
         <v>1</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K256">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L256">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M256">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N256">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O256">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q256">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R256">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S256">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T256">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U256">
         <v>1.95</v>
@@ -23291,25 +23291,25 @@
         <v>1.9</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB256">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>3898722</v>
+        <v>3898721</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,49 +23329,49 @@
         <v>44550.60416666666</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G257" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K257">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L257">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M257">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N257">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O257">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P257">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q257">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R257">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S257">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T257">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U257">
         <v>1.95</v>
@@ -23380,25 +23380,25 @@
         <v>1.9</v>
       </c>
       <c r="W257">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.825</v>
+      </c>
+      <c r="AB257">
+        <v>0.475</v>
+      </c>
+      <c r="AC257">
         <v>-0.5</v>
-      </c>
-      <c r="AA257">
-        <v>0.4</v>
-      </c>
-      <c r="AB257">
-        <v>-1</v>
-      </c>
-      <c r="AC257">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3898745</v>
+        <v>3898744</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,40 +24397,40 @@
         <v>44576.60416666666</v>
       </c>
       <c r="F269" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G269" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I269">
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K269">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M269">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="N269">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P269">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q269">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R269">
         <v>1.875</v>
@@ -24439,19 +24439,19 @@
         <v>1.975</v>
       </c>
       <c r="T269">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V269">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X269">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
@@ -24463,10 +24463,10 @@
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC269">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>3898744</v>
+        <v>3898745</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,40 +24486,40 @@
         <v>44576.60416666666</v>
       </c>
       <c r="F270" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270">
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K270">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L270">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M270">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="N270">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O270">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P270">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q270">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R270">
         <v>1.875</v>
@@ -24528,19 +24528,19 @@
         <v>1.975</v>
       </c>
       <c r="T270">
+        <v>2.25</v>
+      </c>
+      <c r="U270">
+        <v>2.05</v>
+      </c>
+      <c r="V270">
+        <v>1.75</v>
+      </c>
+      <c r="W270">
+        <v>-1</v>
+      </c>
+      <c r="X270">
         <v>2.5</v>
-      </c>
-      <c r="U270">
-        <v>1.875</v>
-      </c>
-      <c r="V270">
-        <v>1.975</v>
-      </c>
-      <c r="W270">
-        <v>0.5</v>
-      </c>
-      <c r="X270">
-        <v>-1</v>
       </c>
       <c r="Y270">
         <v>-1</v>
@@ -24552,10 +24552,10 @@
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>3898756</v>
+        <v>3898757</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,76 +25554,76 @@
         <v>44590.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G282" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K282">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L282">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M282">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N282">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="O282">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R282">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S282">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z282">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB282">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3898757</v>
+        <v>3898756</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,76 +25643,76 @@
         <v>44590.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283">
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K283">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L283">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M283">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N283">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="O283">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P283">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S283">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T283">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA283">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC283">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>3898767</v>
+        <v>3898771</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26711,56 +26711,56 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
         <v>49</v>
       </c>
       <c r="K295">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="L295">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M295">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N295">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O295">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q295">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
+        <v>1.95</v>
+      </c>
+      <c r="S295">
+        <v>1.9</v>
+      </c>
+      <c r="T295">
+        <v>2</v>
+      </c>
+      <c r="U295">
         <v>1.825</v>
       </c>
-      <c r="S295">
+      <c r="V295">
         <v>2.025</v>
       </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
-      <c r="U295">
-        <v>2.025</v>
-      </c>
-      <c r="V295">
-        <v>1.825</v>
-      </c>
       <c r="W295">
         <v>-1</v>
       </c>
@@ -26768,19 +26768,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB295">
+        <v>-1</v>
+      </c>
+      <c r="AC295">
         <v>1.025</v>
-      </c>
-      <c r="AB295">
-        <v>-1</v>
-      </c>
-      <c r="AC295">
-        <v>0.825</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>3898771</v>
+        <v>3898767</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,56 +26800,56 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J296" t="s">
         <v>49</v>
       </c>
       <c r="K296">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="L296">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M296">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N296">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O296">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P296">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S296">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
+        <v>2.025</v>
+      </c>
+      <c r="V296">
         <v>1.825</v>
       </c>
-      <c r="V296">
-        <v>2.025</v>
-      </c>
       <c r="W296">
         <v>-1</v>
       </c>
@@ -26857,19 +26857,19 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>3898777</v>
+        <v>3898772</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L301">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M301">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N301">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O301">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S301">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T301">
         <v>2</v>
       </c>
       <c r="U301">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC301">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>3898772</v>
+        <v>3898777</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F302" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302" t="s">
+        <v>47</v>
+      </c>
+      <c r="K302">
+        <v>2.625</v>
+      </c>
+      <c r="L302">
+        <v>3.1</v>
+      </c>
+      <c r="M302">
+        <v>2.7</v>
+      </c>
+      <c r="N302">
         <v>3</v>
       </c>
-      <c r="J302" t="s">
-        <v>49</v>
-      </c>
-      <c r="K302">
-        <v>1.65</v>
-      </c>
-      <c r="L302">
-        <v>3.4</v>
-      </c>
-      <c r="M302">
-        <v>6</v>
-      </c>
-      <c r="N302">
-        <v>1.615</v>
-      </c>
       <c r="O302">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P302">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R302">
+        <v>2</v>
+      </c>
+      <c r="S302">
         <v>1.85</v>
       </c>
-      <c r="S302">
-        <v>2</v>
-      </c>
       <c r="T302">
         <v>2</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y302">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA302">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB302">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -29903,7 +29903,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>3898791</v>
+        <v>3898789</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29915,40 +29915,40 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G331" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K331">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L331">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M331">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N331">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P331">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q331">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R331">
         <v>1.8</v>
@@ -29957,34 +29957,34 @@
         <v>2.05</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V331">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA331">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB331">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC331">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>3898795</v>
+        <v>3898790</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,76 +30004,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F332" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K332">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L332">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M332">
+        <v>2.625</v>
+      </c>
+      <c r="N332">
+        <v>3.2</v>
+      </c>
+      <c r="O332">
+        <v>2.75</v>
+      </c>
+      <c r="P332">
+        <v>2.7</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>2.05</v>
+      </c>
+      <c r="S332">
         <v>1.8</v>
       </c>
-      <c r="N332">
-        <v>2.625</v>
-      </c>
-      <c r="O332">
-        <v>3.1</v>
-      </c>
-      <c r="P332">
-        <v>2.875</v>
-      </c>
-      <c r="Q332">
-        <v>0</v>
-      </c>
-      <c r="R332">
-        <v>1.8</v>
-      </c>
-      <c r="S332">
-        <v>2.05</v>
-      </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U332">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V332">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X332">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA332">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC332">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>3898794</v>
+        <v>3898792</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L333">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M333">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N333">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P333">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S333">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T333">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V333">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W333">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z333">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC333">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30170,7 +30170,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>3898793</v>
+        <v>3898794</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30182,76 +30182,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G334" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K334">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="L334">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M334">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N334">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O334">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P334">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="Q334">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30259,7 +30259,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>3898792</v>
+        <v>3898795</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30271,76 +30271,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K335">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L335">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M335">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N335">
+        <v>2.625</v>
+      </c>
+      <c r="O335">
+        <v>3.1</v>
+      </c>
+      <c r="P335">
+        <v>2.875</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>1.8</v>
+      </c>
+      <c r="S335">
+        <v>2.05</v>
+      </c>
+      <c r="T335">
         <v>2.25</v>
       </c>
-      <c r="O335">
-        <v>3</v>
-      </c>
-      <c r="P335">
-        <v>3.75</v>
-      </c>
-      <c r="Q335">
-        <v>-0.25</v>
-      </c>
-      <c r="R335">
-        <v>1.9</v>
-      </c>
-      <c r="S335">
-        <v>1.95</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
       <c r="U335">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y335">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA335">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB335">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30348,7 +30348,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>3898790</v>
+        <v>3898791</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30360,76 +30360,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J336" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K336">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L336">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M336">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N336">
+        <v>4</v>
+      </c>
+      <c r="O336">
         <v>3.2</v>
       </c>
-      <c r="O336">
-        <v>2.75</v>
-      </c>
       <c r="P336">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q336">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R336">
+        <v>1.8</v>
+      </c>
+      <c r="S336">
         <v>2.05</v>
       </c>
-      <c r="S336">
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
         <v>1.8</v>
       </c>
-      <c r="T336">
-        <v>1.75</v>
-      </c>
-      <c r="U336">
-        <v>1.85</v>
-      </c>
       <c r="V336">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W336">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z336">
+        <v>-1</v>
+      </c>
+      <c r="AA336">
         <v>1.05</v>
       </c>
-      <c r="AA336">
-        <v>-1</v>
-      </c>
       <c r="AB336">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30437,7 +30437,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>3898789</v>
+        <v>3898793</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30449,76 +30449,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K337">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="L337">
+        <v>3.8</v>
+      </c>
+      <c r="M337">
+        <v>1.533</v>
+      </c>
+      <c r="N337">
+        <v>5</v>
+      </c>
+      <c r="O337">
         <v>3.6</v>
       </c>
-      <c r="M337">
-        <v>5.5</v>
-      </c>
-      <c r="N337">
-        <v>1.65</v>
-      </c>
-      <c r="O337">
-        <v>3.75</v>
-      </c>
       <c r="P337">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R337">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S337">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T337">
         <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V337">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W337">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z337">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB337">
         <v>-0.5</v>
       </c>
-      <c r="AB337">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -35154,7 +35154,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>5005261</v>
+        <v>4770116</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35166,73 +35166,73 @@
         <v>44696.5625</v>
       </c>
       <c r="F390" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G390" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I390">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J390" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K390">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L390">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M390">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N390">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O390">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P390">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q390">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R390">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S390">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T390">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U390">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V390">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W390">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X390">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA390">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC390">
         <v>-1</v>
@@ -35243,7 +35243,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>4770116</v>
+        <v>4770117</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35255,76 +35255,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F391" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G391" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H391">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K391">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M391">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N391">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O391">
         <v>3.2</v>
       </c>
       <c r="P391">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S391">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T391">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U391">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V391">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W391">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X391">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA391">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB391">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC391">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35332,7 +35332,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>4770117</v>
+        <v>5005261</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35344,76 +35344,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F392" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G392" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J392" t="s">
         <v>47</v>
       </c>
       <c r="K392">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L392">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M392">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N392">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O392">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P392">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R392">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S392">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
+        <v>1.95</v>
+      </c>
+      <c r="V392">
         <v>1.9</v>
       </c>
-      <c r="V392">
-        <v>1.95</v>
-      </c>
       <c r="W392">
         <v>-1</v>
       </c>
       <c r="X392">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA392">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB392">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC392">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4770088</v>
+        <v>4770087</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,49 +35433,49 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F393" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G393" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H393">
         <v>2</v>
       </c>
       <c r="I393">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J393" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K393">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L393">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M393">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="N393">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O393">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P393">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q393">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R393">
+        <v>2.025</v>
+      </c>
+      <c r="S393">
         <v>1.825</v>
       </c>
-      <c r="S393">
-        <v>2.025</v>
-      </c>
       <c r="T393">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U393">
         <v>1.925</v>
@@ -35484,25 +35484,25 @@
         <v>1.925</v>
       </c>
       <c r="W393">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z393">
+        <v>-1</v>
+      </c>
+      <c r="AA393">
         <v>0.825</v>
       </c>
-      <c r="AA393">
-        <v>-1</v>
-      </c>
       <c r="AB393">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC393">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>4770087</v>
+        <v>4770088</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,49 +35522,49 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F394" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G394" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H394">
         <v>2</v>
       </c>
       <c r="I394">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K394">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L394">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M394">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="N394">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O394">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P394">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q394">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R394">
+        <v>1.825</v>
+      </c>
+      <c r="S394">
         <v>2.025</v>
       </c>
-      <c r="S394">
-        <v>1.825</v>
-      </c>
       <c r="T394">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U394">
         <v>1.925</v>
@@ -35573,25 +35573,25 @@
         <v>1.925</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA394">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC394">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -55090,7 +55090,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>6399631</v>
+        <v>6399634</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55102,55 +55102,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F614" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G614" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J614" t="s">
         <v>47</v>
       </c>
       <c r="K614">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L614">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M614">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N614">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O614">
         <v>2.9</v>
       </c>
       <c r="P614">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q614">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R614">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S614">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T614">
         <v>2</v>
       </c>
       <c r="U614">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V614">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W614">
         <v>-1</v>
@@ -55162,16 +55162,16 @@
         <v>-1</v>
       </c>
       <c r="Z614">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA614">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB614">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC614">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55179,7 +55179,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>6399634</v>
+        <v>6399631</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55191,55 +55191,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F615" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G615" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J615" t="s">
         <v>47</v>
       </c>
       <c r="K615">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L615">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M615">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N615">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O615">
         <v>2.9</v>
       </c>
       <c r="P615">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q615">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R615">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S615">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T615">
         <v>2</v>
       </c>
       <c r="U615">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V615">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W615">
         <v>-1</v>
@@ -55251,16 +55251,16 @@
         <v>-1</v>
       </c>
       <c r="Z615">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA615">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB615">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC615">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55268,7 +55268,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>6399613</v>
+        <v>6399458</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55280,58 +55280,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F616" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G616" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H616">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I616">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J616" t="s">
         <v>48</v>
       </c>
       <c r="K616">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="L616">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M616">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N616">
-        <v>1.7</v>
+        <v>1.083</v>
       </c>
       <c r="O616">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="P616">
-        <v>5.25</v>
+        <v>29</v>
       </c>
       <c r="Q616">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R616">
+        <v>2</v>
+      </c>
+      <c r="S616">
+        <v>1.85</v>
+      </c>
+      <c r="T616">
+        <v>3.5</v>
+      </c>
+      <c r="U616">
+        <v>1.975</v>
+      </c>
+      <c r="V616">
         <v>1.875</v>
       </c>
-      <c r="S616">
-        <v>1.975</v>
-      </c>
-      <c r="T616">
-        <v>2.25</v>
-      </c>
-      <c r="U616">
-        <v>1.8</v>
-      </c>
-      <c r="V616">
-        <v>2.05</v>
-      </c>
       <c r="W616">
-        <v>0.7</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X616">
         <v>-1</v>
@@ -55340,13 +55340,13 @@
         <v>-1</v>
       </c>
       <c r="Z616">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA616">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB616">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC616">
         <v>-1</v>
@@ -55357,7 +55357,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6399458</v>
+        <v>6399613</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55369,58 +55369,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F617" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G617" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H617">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I617">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J617" t="s">
         <v>48</v>
       </c>
       <c r="K617">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="L617">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M617">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N617">
-        <v>1.083</v>
+        <v>1.7</v>
       </c>
       <c r="O617">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P617">
-        <v>29</v>
+        <v>5.25</v>
       </c>
       <c r="Q617">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R617">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S617">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T617">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U617">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V617">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W617">
-        <v>0.08299999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X617">
         <v>-1</v>
@@ -55429,13 +55429,13 @@
         <v>-1</v>
       </c>
       <c r="Z617">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA617">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB617">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC617">
         <v>-1</v>
@@ -58205,7 +58205,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>7100665</v>
+        <v>7100661</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58217,58 +58217,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F649" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G649" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I649">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J649" t="s">
         <v>48</v>
       </c>
       <c r="K649">
+        <v>1.8</v>
+      </c>
+      <c r="L649">
+        <v>3.4</v>
+      </c>
+      <c r="M649">
         <v>4.75</v>
       </c>
-      <c r="L649">
-        <v>3.6</v>
-      </c>
-      <c r="M649">
-        <v>1.75</v>
-      </c>
       <c r="N649">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="O649">
         <v>3.8</v>
       </c>
       <c r="P649">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q649">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R649">
+        <v>2</v>
+      </c>
+      <c r="S649">
         <v>1.85</v>
       </c>
-      <c r="S649">
-        <v>2</v>
-      </c>
       <c r="T649">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U649">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V649">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W649">
-        <v>3.5</v>
+        <v>0.55</v>
       </c>
       <c r="X649">
         <v>-1</v>
@@ -58277,16 +58277,16 @@
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA649">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB649">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC649">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58294,7 +58294,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>7100664</v>
+        <v>7100665</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58306,13 +58306,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F650" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G650" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H650">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I650">
         <v>0</v>
@@ -58321,43 +58321,43 @@
         <v>48</v>
       </c>
       <c r="K650">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L650">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M650">
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="N650">
-        <v>1.222</v>
+        <v>4.5</v>
       </c>
       <c r="O650">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P650">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q650">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R650">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S650">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T650">
         <v>2.75</v>
       </c>
       <c r="U650">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V650">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W650">
-        <v>0.222</v>
+        <v>3.5</v>
       </c>
       <c r="X650">
         <v>-1</v>
@@ -58366,16 +58366,16 @@
         <v>-1</v>
       </c>
       <c r="Z650">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA650">
         <v>-1</v>
       </c>
       <c r="AB650">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC650">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -58383,7 +58383,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>7100661</v>
+        <v>7100664</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58395,49 +58395,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F651" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G651" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H651">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I651">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J651" t="s">
         <v>48</v>
       </c>
       <c r="K651">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L651">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M651">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N651">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O651">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P651">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q651">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R651">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S651">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T651">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U651">
         <v>1.825</v>
@@ -58446,7 +58446,7 @@
         <v>2.025</v>
       </c>
       <c r="W651">
-        <v>0.55</v>
+        <v>0.222</v>
       </c>
       <c r="X651">
         <v>-1</v>
@@ -58455,10 +58455,10 @@
         <v>-1</v>
       </c>
       <c r="Z651">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA651">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB651">
         <v>0.825</v>
@@ -67906,7 +67906,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67918,49 +67918,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F758" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G758" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H758">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I758">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J758" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K758">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L758">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M758">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N758">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O758">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P758">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q758">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R758">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S758">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T758">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U758">
         <v>1.8</v>
@@ -67969,19 +67969,19 @@
         <v>2.05</v>
       </c>
       <c r="W758">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X758">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA758">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB758">
         <v>0.8</v>
@@ -67995,7 +67995,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68007,49 +68007,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F759" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G759" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I759">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J759" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K759">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L759">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M759">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N759">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O759">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P759">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q759">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R759">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S759">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T759">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U759">
         <v>1.8</v>
@@ -68058,19 +68058,19 @@
         <v>2.05</v>
       </c>
       <c r="W759">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X759">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA759">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB759">
         <v>0.8</v>
@@ -68707,7 +68707,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6937243</v>
+        <v>6937249</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68716,49 +68716,49 @@
         <v>28</v>
       </c>
       <c r="E767" s="2">
-        <v>45319.45833333334</v>
+        <v>45325.52083333334</v>
       </c>
       <c r="F767" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G767" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K767">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="L767">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M767">
-        <v>15</v>
+        <v>3.7</v>
       </c>
       <c r="N767">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O767">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P767">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q767">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R767">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S767">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T767">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U767">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
         <v>0</v>
@@ -68781,7 +68781,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6937244</v>
+        <v>6935711</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68790,49 +68790,49 @@
         <v>28</v>
       </c>
       <c r="E768" s="2">
-        <v>45319.52083333334</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F768" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G768" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K768">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L768">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M768">
+        <v>1.909</v>
+      </c>
+      <c r="N768">
         <v>3.6</v>
-      </c>
-      <c r="N768">
-        <v>2.2</v>
       </c>
       <c r="O768">
         <v>3.3</v>
       </c>
       <c r="P768">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q768">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R768">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S768">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T768">
         <v>2.25</v>
       </c>
       <c r="U768">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V768">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W768">
         <v>0</v>
@@ -68855,7 +68855,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6937245</v>
+        <v>6935710</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68864,49 +68864,49 @@
         <v>28</v>
       </c>
       <c r="E769" s="2">
-        <v>45319.60416666666</v>
+        <v>45326.45833333334</v>
       </c>
       <c r="F769" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G769" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K769">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L769">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="M769">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N769">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O769">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P769">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q769">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R769">
+        <v>1.95</v>
+      </c>
+      <c r="S769">
+        <v>1.9</v>
+      </c>
+      <c r="T769">
+        <v>2.5</v>
+      </c>
+      <c r="U769">
         <v>1.875</v>
       </c>
-      <c r="S769">
+      <c r="V769">
         <v>1.975</v>
-      </c>
-      <c r="T769">
-        <v>2.75</v>
-      </c>
-      <c r="U769">
-        <v>1.85</v>
-      </c>
-      <c r="V769">
-        <v>2</v>
       </c>
       <c r="W769">
         <v>0</v>
@@ -68929,7 +68929,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6936859</v>
+        <v>6937247</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -68938,49 +68938,49 @@
         <v>28</v>
       </c>
       <c r="E770" s="2">
-        <v>45319.64583333334</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F770" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G770" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K770">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="L770">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M770">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="N770">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="O770">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="P770">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="Q770">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R770">
+        <v>1.925</v>
+      </c>
+      <c r="S770">
+        <v>1.925</v>
+      </c>
+      <c r="T770">
+        <v>2.75</v>
+      </c>
+      <c r="U770">
         <v>1.9</v>
       </c>
-      <c r="S770">
+      <c r="V770">
         <v>1.95</v>
-      </c>
-      <c r="T770">
-        <v>2.25</v>
-      </c>
-      <c r="U770">
-        <v>1.925</v>
-      </c>
-      <c r="V770">
-        <v>1.925</v>
       </c>
       <c r="W770">
         <v>0</v>
@@ -69003,7 +69003,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>6937249</v>
+        <v>6937250</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69012,49 +69012,49 @@
         <v>28</v>
       </c>
       <c r="E771" s="2">
-        <v>45325.52083333334</v>
+        <v>45326.52083333334</v>
       </c>
       <c r="F771" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G771" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K771">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L771">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M771">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="N771">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O771">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P771">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q771">
         <v>-0.25</v>
       </c>
       <c r="R771">
+        <v>2</v>
+      </c>
+      <c r="S771">
         <v>1.85</v>
-      </c>
-      <c r="S771">
-        <v>2</v>
       </c>
       <c r="T771">
         <v>2.25</v>
       </c>
       <c r="U771">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V771">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W771">
         <v>0</v>
@@ -69077,7 +69077,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6935711</v>
+        <v>6937248</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69086,49 +69086,49 @@
         <v>28</v>
       </c>
       <c r="E772" s="2">
-        <v>45325.60416666666</v>
+        <v>45326.64583333334</v>
       </c>
       <c r="F772" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G772" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K772">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="L772">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M772">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N772">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="O772">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P772">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="Q772">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R772">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S772">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T772">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U772">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V772">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W772">
         <v>0</v>
@@ -69151,7 +69151,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6935710</v>
+        <v>6936860</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69160,50 +69160,50 @@
         <v>28</v>
       </c>
       <c r="E773" s="2">
-        <v>45326.45833333334</v>
+        <v>45326.66666666666</v>
       </c>
       <c r="F773" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G773" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K773">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="L773">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M773">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N773">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O773">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P773">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q773">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R773">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S773">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T773">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U773">
+        <v>1.975</v>
+      </c>
+      <c r="V773">
         <v>1.875</v>
       </c>
-      <c r="V773">
-        <v>1.975</v>
-      </c>
       <c r="W773">
         <v>0</v>
       </c>
@@ -69217,302 +69217,6 @@
         <v>0</v>
       </c>
       <c r="AA773">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="1:27">
-      <c r="A774" s="1">
-        <v>772</v>
-      </c>
-      <c r="B774">
-        <v>6937247</v>
-      </c>
-      <c r="C774" t="s">
-        <v>28</v>
-      </c>
-      <c r="D774" t="s">
-        <v>28</v>
-      </c>
-      <c r="E774" s="2">
-        <v>45326.52083333334</v>
-      </c>
-      <c r="F774" t="s">
-        <v>37</v>
-      </c>
-      <c r="G774" t="s">
-        <v>38</v>
-      </c>
-      <c r="K774">
-        <v>1.285</v>
-      </c>
-      <c r="L774">
-        <v>5.5</v>
-      </c>
-      <c r="M774">
-        <v>12</v>
-      </c>
-      <c r="N774">
-        <v>1.222</v>
-      </c>
-      <c r="O774">
-        <v>5.75</v>
-      </c>
-      <c r="P774">
-        <v>17</v>
-      </c>
-      <c r="Q774">
-        <v>-1.75</v>
-      </c>
-      <c r="R774">
-        <v>1.925</v>
-      </c>
-      <c r="S774">
-        <v>1.925</v>
-      </c>
-      <c r="T774">
-        <v>2.75</v>
-      </c>
-      <c r="U774">
-        <v>1.9</v>
-      </c>
-      <c r="V774">
-        <v>1.95</v>
-      </c>
-      <c r="W774">
-        <v>0</v>
-      </c>
-      <c r="X774">
-        <v>0</v>
-      </c>
-      <c r="Y774">
-        <v>0</v>
-      </c>
-      <c r="Z774">
-        <v>0</v>
-      </c>
-      <c r="AA774">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775" spans="1:27">
-      <c r="A775" s="1">
-        <v>773</v>
-      </c>
-      <c r="B775">
-        <v>6937250</v>
-      </c>
-      <c r="C775" t="s">
-        <v>28</v>
-      </c>
-      <c r="D775" t="s">
-        <v>28</v>
-      </c>
-      <c r="E775" s="2">
-        <v>45326.52083333334</v>
-      </c>
-      <c r="F775" t="s">
-        <v>31</v>
-      </c>
-      <c r="G775" t="s">
-        <v>35</v>
-      </c>
-      <c r="K775">
-        <v>2.3</v>
-      </c>
-      <c r="L775">
-        <v>3.25</v>
-      </c>
-      <c r="M775">
-        <v>3.25</v>
-      </c>
-      <c r="N775">
-        <v>2.3</v>
-      </c>
-      <c r="O775">
-        <v>3.25</v>
-      </c>
-      <c r="P775">
-        <v>3.2</v>
-      </c>
-      <c r="Q775">
-        <v>-0.25</v>
-      </c>
-      <c r="R775">
-        <v>2</v>
-      </c>
-      <c r="S775">
-        <v>1.85</v>
-      </c>
-      <c r="T775">
-        <v>2.25</v>
-      </c>
-      <c r="U775">
-        <v>1.875</v>
-      </c>
-      <c r="V775">
-        <v>1.975</v>
-      </c>
-      <c r="W775">
-        <v>0</v>
-      </c>
-      <c r="X775">
-        <v>0</v>
-      </c>
-      <c r="Y775">
-        <v>0</v>
-      </c>
-      <c r="Z775">
-        <v>0</v>
-      </c>
-      <c r="AA775">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776" spans="1:27">
-      <c r="A776" s="1">
-        <v>774</v>
-      </c>
-      <c r="B776">
-        <v>6937248</v>
-      </c>
-      <c r="C776" t="s">
-        <v>28</v>
-      </c>
-      <c r="D776" t="s">
-        <v>28</v>
-      </c>
-      <c r="E776" s="2">
-        <v>45326.64583333334</v>
-      </c>
-      <c r="F776" t="s">
-        <v>41</v>
-      </c>
-      <c r="G776" t="s">
-        <v>42</v>
-      </c>
-      <c r="K776">
-        <v>8.5</v>
-      </c>
-      <c r="L776">
-        <v>4.5</v>
-      </c>
-      <c r="M776">
-        <v>1.4</v>
-      </c>
-      <c r="N776">
-        <v>7</v>
-      </c>
-      <c r="O776">
-        <v>4.333</v>
-      </c>
-      <c r="P776">
-        <v>1.45</v>
-      </c>
-      <c r="Q776">
-        <v>1.25</v>
-      </c>
-      <c r="R776">
-        <v>1.825</v>
-      </c>
-      <c r="S776">
-        <v>2.025</v>
-      </c>
-      <c r="T776">
-        <v>2.75</v>
-      </c>
-      <c r="U776">
-        <v>1.9</v>
-      </c>
-      <c r="V776">
-        <v>1.95</v>
-      </c>
-      <c r="W776">
-        <v>0</v>
-      </c>
-      <c r="X776">
-        <v>0</v>
-      </c>
-      <c r="Y776">
-        <v>0</v>
-      </c>
-      <c r="Z776">
-        <v>0</v>
-      </c>
-      <c r="AA776">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777" spans="1:27">
-      <c r="A777" s="1">
-        <v>775</v>
-      </c>
-      <c r="B777">
-        <v>6936860</v>
-      </c>
-      <c r="C777" t="s">
-        <v>28</v>
-      </c>
-      <c r="D777" t="s">
-        <v>28</v>
-      </c>
-      <c r="E777" s="2">
-        <v>45326.66666666666</v>
-      </c>
-      <c r="F777" t="s">
-        <v>29</v>
-      </c>
-      <c r="G777" t="s">
-        <v>33</v>
-      </c>
-      <c r="K777">
-        <v>2.2</v>
-      </c>
-      <c r="L777">
-        <v>3.3</v>
-      </c>
-      <c r="M777">
-        <v>3.4</v>
-      </c>
-      <c r="N777">
-        <v>2.3</v>
-      </c>
-      <c r="O777">
-        <v>3.3</v>
-      </c>
-      <c r="P777">
-        <v>3.2</v>
-      </c>
-      <c r="Q777">
-        <v>-0.25</v>
-      </c>
-      <c r="R777">
-        <v>2</v>
-      </c>
-      <c r="S777">
-        <v>1.85</v>
-      </c>
-      <c r="T777">
-        <v>2.25</v>
-      </c>
-      <c r="U777">
-        <v>1.975</v>
-      </c>
-      <c r="V777">
-        <v>1.875</v>
-      </c>
-      <c r="W777">
-        <v>0</v>
-      </c>
-      <c r="X777">
-        <v>0</v>
-      </c>
-      <c r="Y777">
-        <v>0</v>
-      </c>
-      <c r="Z777">
-        <v>0</v>
-      </c>
-      <c r="AA777">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>4102873</v>
+        <v>3898656</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="N177">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
         <v>3.75</v>
       </c>
       <c r="P177">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
         <v>0.875</v>
       </c>
-      <c r="AB177">
-        <v>-0.5</v>
-      </c>
       <c r="AC177">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3898656</v>
+        <v>4102873</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,76 +16298,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L178">
         <v>4</v>
       </c>
       <c r="M178">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="N178">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O178">
         <v>3.75</v>
       </c>
       <c r="P178">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3898666</v>
+        <v>3898665</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K195">
+        <v>1.4</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>7</v>
+      </c>
+      <c r="N195">
+        <v>1.25</v>
+      </c>
+      <c r="O195">
         <v>5.5</v>
       </c>
-      <c r="L195">
-        <v>3.6</v>
-      </c>
-      <c r="M195">
-        <v>1.533</v>
-      </c>
-      <c r="N195">
-        <v>8</v>
-      </c>
-      <c r="O195">
-        <v>4.2</v>
-      </c>
       <c r="P195">
-        <v>1.444</v>
+        <v>12</v>
       </c>
       <c r="Q195">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3898665</v>
+        <v>3898666</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>44486.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N196">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O196">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P196">
-        <v>12</v>
+        <v>1.444</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
+        <v>1.8</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
         <v>1.85</v>
       </c>
-      <c r="S196">
-        <v>2</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
       <c r="W196">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3898708</v>
+        <v>3898712</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>44541.60416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
         <v>48</v>
       </c>
       <c r="K242">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L242">
+        <v>3.2</v>
+      </c>
+      <c r="M242">
         <v>3.4</v>
       </c>
-      <c r="M242">
-        <v>1.95</v>
-      </c>
       <c r="N242">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O242">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P242">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>1.75</v>
+      </c>
+      <c r="U242">
+        <v>1.775</v>
+      </c>
+      <c r="V242">
         <v>2.025</v>
       </c>
-      <c r="T242">
-        <v>2.25</v>
-      </c>
-      <c r="U242">
-        <v>1.95</v>
-      </c>
-      <c r="V242">
-        <v>1.9</v>
-      </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC242">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>3898712</v>
+        <v>3898708</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>44541.60416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G243" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>48</v>
       </c>
       <c r="K243">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L243">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M243">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N243">
+        <v>2.9</v>
+      </c>
+      <c r="O243">
+        <v>3.3</v>
+      </c>
+      <c r="P243">
+        <v>2.45</v>
+      </c>
+      <c r="Q243">
+        <v>0.25</v>
+      </c>
+      <c r="R243">
+        <v>1.825</v>
+      </c>
+      <c r="S243">
+        <v>2.025</v>
+      </c>
+      <c r="T243">
         <v>2.25</v>
       </c>
-      <c r="O243">
-        <v>3.4</v>
-      </c>
-      <c r="P243">
-        <v>3.2</v>
-      </c>
-      <c r="Q243">
-        <v>-0.25</v>
-      </c>
-      <c r="R243">
-        <v>1.85</v>
-      </c>
-      <c r="S243">
-        <v>2</v>
-      </c>
-      <c r="T243">
-        <v>1.75</v>
-      </c>
       <c r="U243">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
+        <v>0.4125</v>
+      </c>
+      <c r="AA243">
         <v>-0.5</v>
       </c>
-      <c r="AA243">
-        <v>0.5</v>
-      </c>
       <c r="AB243">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>3899310</v>
+        <v>3898718</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,40 +22439,40 @@
         <v>44545.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K247">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="L247">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N247">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
         <v>1.85</v>
@@ -22484,28 +22484,28 @@
         <v>2.25</v>
       </c>
       <c r="U247">
+        <v>1.975</v>
+      </c>
+      <c r="V247">
         <v>1.875</v>
       </c>
-      <c r="V247">
-        <v>1.975</v>
-      </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA247">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB247">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3898718</v>
+        <v>3899310</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,40 +22528,40 @@
         <v>44545.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K248">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L248">
+        <v>3.75</v>
+      </c>
+      <c r="M248">
+        <v>1.833</v>
+      </c>
+      <c r="N248">
+        <v>3.1</v>
+      </c>
+      <c r="O248">
         <v>3.5</v>
       </c>
-      <c r="M248">
-        <v>2.9</v>
-      </c>
-      <c r="N248">
-        <v>2.55</v>
-      </c>
-      <c r="O248">
-        <v>3.2</v>
-      </c>
       <c r="P248">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
         <v>1.85</v>
@@ -22573,28 +22573,28 @@
         <v>2.25</v>
       </c>
       <c r="U248">
+        <v>1.875</v>
+      </c>
+      <c r="V248">
         <v>1.975</v>
       </c>
-      <c r="V248">
-        <v>1.875</v>
-      </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB248">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3898744</v>
+        <v>3898745</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,40 +24397,40 @@
         <v>44576.60416666666</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G269" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269">
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K269">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L269">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="N269">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O269">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P269">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q269">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R269">
         <v>1.875</v>
@@ -24439,19 +24439,19 @@
         <v>1.975</v>
       </c>
       <c r="T269">
+        <v>2.25</v>
+      </c>
+      <c r="U269">
+        <v>2.05</v>
+      </c>
+      <c r="V269">
+        <v>1.75</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
         <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>1.875</v>
-      </c>
-      <c r="V269">
-        <v>1.975</v>
-      </c>
-      <c r="W269">
-        <v>0.5</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
@@ -24463,10 +24463,10 @@
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>3898745</v>
+        <v>3898744</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,40 +24486,40 @@
         <v>44576.60416666666</v>
       </c>
       <c r="F270" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I270">
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K270">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L270">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M270">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="N270">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O270">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P270">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q270">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R270">
         <v>1.875</v>
@@ -24528,19 +24528,19 @@
         <v>1.975</v>
       </c>
       <c r="T270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V270">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X270">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
         <v>-1</v>
@@ -24552,10 +24552,10 @@
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC270">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -26699,7 +26699,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>3898767</v>
+        <v>3898771</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26711,56 +26711,56 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G295" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
         <v>49</v>
       </c>
       <c r="K295">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="L295">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M295">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N295">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O295">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q295">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
+        <v>1.95</v>
+      </c>
+      <c r="S295">
+        <v>1.9</v>
+      </c>
+      <c r="T295">
+        <v>2</v>
+      </c>
+      <c r="U295">
         <v>1.825</v>
       </c>
-      <c r="S295">
+      <c r="V295">
         <v>2.025</v>
       </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
-      <c r="U295">
-        <v>2.025</v>
-      </c>
-      <c r="V295">
-        <v>1.825</v>
-      </c>
       <c r="W295">
         <v>-1</v>
       </c>
@@ -26768,19 +26768,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB295">
+        <v>-1</v>
+      </c>
+      <c r="AC295">
         <v>1.025</v>
-      </c>
-      <c r="AB295">
-        <v>-1</v>
-      </c>
-      <c r="AC295">
-        <v>0.825</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26788,7 +26788,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>3898771</v>
+        <v>3898767</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26800,56 +26800,56 @@
         <v>44597.60416666666</v>
       </c>
       <c r="F296" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G296" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J296" t="s">
         <v>49</v>
       </c>
       <c r="K296">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="L296">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M296">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N296">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O296">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P296">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S296">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
+        <v>2.025</v>
+      </c>
+      <c r="V296">
         <v>1.825</v>
       </c>
-      <c r="V296">
-        <v>2.025</v>
-      </c>
       <c r="W296">
         <v>-1</v>
       </c>
@@ -26857,19 +26857,19 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>3898777</v>
+        <v>3898772</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J301" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L301">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M301">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N301">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O301">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S301">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T301">
         <v>2</v>
       </c>
       <c r="U301">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC301">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>3898772</v>
+        <v>3898777</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>44604.60416666666</v>
       </c>
       <c r="F302" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302" t="s">
+        <v>48</v>
+      </c>
+      <c r="K302">
+        <v>2.625</v>
+      </c>
+      <c r="L302">
+        <v>3.1</v>
+      </c>
+      <c r="M302">
+        <v>2.7</v>
+      </c>
+      <c r="N302">
         <v>3</v>
       </c>
-      <c r="J302" t="s">
-        <v>49</v>
-      </c>
-      <c r="K302">
-        <v>1.65</v>
-      </c>
-      <c r="L302">
-        <v>3.4</v>
-      </c>
-      <c r="M302">
-        <v>6</v>
-      </c>
-      <c r="N302">
-        <v>1.615</v>
-      </c>
       <c r="O302">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P302">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R302">
+        <v>2</v>
+      </c>
+      <c r="S302">
         <v>1.85</v>
       </c>
-      <c r="S302">
-        <v>2</v>
-      </c>
       <c r="T302">
         <v>2</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y302">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA302">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB302">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -29992,7 +29992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>3898794</v>
+        <v>3898789</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30004,58 +30004,58 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G332" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H332">
         <v>2</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
         <v>47</v>
       </c>
       <c r="K332">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L332">
         <v>3.6</v>
       </c>
       <c r="M332">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N332">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O332">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P332">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q332">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R332">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S332">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T332">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V332">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W332">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30064,16 +30064,16 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC332">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30081,7 +30081,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>3898790</v>
+        <v>3898791</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30093,76 +30093,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G333" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L333">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M333">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N333">
+        <v>4</v>
+      </c>
+      <c r="O333">
         <v>3.2</v>
       </c>
-      <c r="O333">
-        <v>2.75</v>
-      </c>
       <c r="P333">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q333">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R333">
+        <v>1.8</v>
+      </c>
+      <c r="S333">
         <v>2.05</v>
       </c>
-      <c r="S333">
+      <c r="T333">
+        <v>2</v>
+      </c>
+      <c r="U333">
         <v>1.8</v>
       </c>
-      <c r="T333">
-        <v>1.75</v>
-      </c>
-      <c r="U333">
-        <v>1.85</v>
-      </c>
       <c r="V333">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W333">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z333">
+        <v>-1</v>
+      </c>
+      <c r="AA333">
         <v>1.05</v>
       </c>
-      <c r="AA333">
-        <v>-1</v>
-      </c>
       <c r="AB333">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30170,7 +30170,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>3898793</v>
+        <v>3898790</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30182,49 +30182,49 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G334" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K334">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="L334">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="M334">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="N334">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O334">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P334">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q334">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U334">
         <v>1.85</v>
@@ -30233,25 +30233,25 @@
         <v>2</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC334">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30259,7 +30259,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>3898792</v>
+        <v>3898793</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30271,13 +30271,13 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G335" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335">
         <v>2</v>
@@ -30286,40 +30286,40 @@
         <v>49</v>
       </c>
       <c r="K335">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="L335">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="M335">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N335">
+        <v>5</v>
+      </c>
+      <c r="O335">
+        <v>3.6</v>
+      </c>
+      <c r="P335">
+        <v>1.727</v>
+      </c>
+      <c r="Q335">
+        <v>0.75</v>
+      </c>
+      <c r="R335">
+        <v>1.875</v>
+      </c>
+      <c r="S335">
+        <v>1.975</v>
+      </c>
+      <c r="T335">
         <v>2.25</v>
       </c>
-      <c r="O335">
-        <v>3</v>
-      </c>
-      <c r="P335">
-        <v>3.75</v>
-      </c>
-      <c r="Q335">
-        <v>-0.25</v>
-      </c>
-      <c r="R335">
-        <v>1.9</v>
-      </c>
-      <c r="S335">
-        <v>1.95</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
       <c r="U335">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V335">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W335">
         <v>-1</v>
@@ -30328,19 +30328,19 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>2.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB335">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30348,7 +30348,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>3898791</v>
+        <v>3898794</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30360,76 +30360,76 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G336" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K336">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L336">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M336">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N336">
+        <v>1.5</v>
+      </c>
+      <c r="O336">
         <v>4</v>
       </c>
-      <c r="O336">
-        <v>3.2</v>
-      </c>
       <c r="P336">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Q336">
+        <v>-1</v>
+      </c>
+      <c r="R336">
+        <v>1.85</v>
+      </c>
+      <c r="S336">
+        <v>2</v>
+      </c>
+      <c r="T336">
+        <v>2.5</v>
+      </c>
+      <c r="U336">
+        <v>1.825</v>
+      </c>
+      <c r="V336">
+        <v>2.025</v>
+      </c>
+      <c r="W336">
         <v>0.5</v>
       </c>
-      <c r="R336">
-        <v>1.8</v>
-      </c>
-      <c r="S336">
-        <v>2.05</v>
-      </c>
-      <c r="T336">
-        <v>2</v>
-      </c>
-      <c r="U336">
-        <v>1.8</v>
-      </c>
-      <c r="V336">
-        <v>2.05</v>
-      </c>
-      <c r="W336">
-        <v>-1</v>
-      </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA336">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30437,7 +30437,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>3898789</v>
+        <v>3898792</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30449,49 +30449,49 @@
         <v>44626.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K337">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L337">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M337">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N337">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O337">
+        <v>3</v>
+      </c>
+      <c r="P337">
         <v>3.75</v>
       </c>
-      <c r="P337">
-        <v>6</v>
-      </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R337">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S337">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T337">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U337">
         <v>1.9</v>
@@ -30500,19 +30500,19 @@
         <v>1.95</v>
       </c>
       <c r="W337">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z337">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB337">
         <v>0.8999999999999999</v>
@@ -30882,7 +30882,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>4770091</v>
+        <v>4770090</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30894,76 +30894,76 @@
         <v>44639.51041666666</v>
       </c>
       <c r="F342" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G342" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K342">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="L342">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M342">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N342">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O342">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P342">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q342">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R342">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S342">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T342">
         <v>2.25</v>
       </c>
       <c r="U342">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V342">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W342">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X342">
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA342">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB342">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC342">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30971,7 +30971,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>4770090</v>
+        <v>4770091</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30983,76 +30983,76 @@
         <v>44639.51041666666</v>
       </c>
       <c r="F343" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G343" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J343" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K343">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L343">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M343">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N343">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O343">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P343">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q343">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R343">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S343">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T343">
         <v>2.25</v>
       </c>
       <c r="U343">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V343">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W343">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z343">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
+        <v>0.925</v>
+      </c>
+      <c r="AB343">
         <v>-0.5</v>
       </c>
-      <c r="AB343">
-        <v>-1</v>
-      </c>
       <c r="AC343">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -33641,7 +33641,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4770108</v>
+        <v>4770106</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33653,76 +33653,76 @@
         <v>44683.5625</v>
       </c>
       <c r="F373" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H373">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J373" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K373">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L373">
+        <v>3</v>
+      </c>
+      <c r="M373">
+        <v>3.8</v>
+      </c>
+      <c r="N373">
+        <v>2.05</v>
+      </c>
+      <c r="O373">
         <v>3.2</v>
       </c>
-      <c r="M373">
-        <v>2.875</v>
-      </c>
-      <c r="N373">
-        <v>3.75</v>
-      </c>
-      <c r="O373">
-        <v>3.5</v>
-      </c>
       <c r="P373">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S373">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U373">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W373">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z373">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB373">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC373">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33730,7 +33730,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4770106</v>
+        <v>4770108</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33742,76 +33742,76 @@
         <v>44683.5625</v>
       </c>
       <c r="F374" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G374" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K374">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L374">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M374">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N374">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P374">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R374">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S374">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T374">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V374">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA374">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC374">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4770087</v>
+        <v>4770089</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,13 +35433,13 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F393" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G393" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393">
         <v>3</v>
@@ -35448,40 +35448,40 @@
         <v>49</v>
       </c>
       <c r="K393">
+        <v>4.5</v>
+      </c>
+      <c r="L393">
+        <v>3.2</v>
+      </c>
+      <c r="M393">
         <v>1.85</v>
       </c>
-      <c r="L393">
-        <v>3.4</v>
-      </c>
-      <c r="M393">
-        <v>4.1</v>
-      </c>
       <c r="N393">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O393">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P393">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q393">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R393">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S393">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U393">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V393">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W393">
         <v>-1</v>
@@ -35490,16 +35490,16 @@
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z393">
         <v>-1</v>
       </c>
       <c r="AA393">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB393">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35599,7 +35599,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>4770089</v>
+        <v>4770087</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,13 +35611,13 @@
         <v>44698.58333333334</v>
       </c>
       <c r="F395" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G395" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395">
         <v>3</v>
@@ -35626,40 +35626,40 @@
         <v>49</v>
       </c>
       <c r="K395">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="L395">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M395">
-        <v>1.85</v>
+        <v>4.1</v>
       </c>
       <c r="N395">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O395">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P395">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q395">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S395">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T395">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U395">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V395">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W395">
         <v>-1</v>
@@ -35668,16 +35668,16 @@
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z395">
         <v>-1</v>
       </c>
       <c r="AA395">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB395">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC395">
         <v>-1</v>
@@ -43876,7 +43876,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5374178</v>
+        <v>5374177</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43888,49 +43888,49 @@
         <v>44916.5</v>
       </c>
       <c r="F488" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G488" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I488">
         <v>0</v>
       </c>
       <c r="J488" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K488">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="L488">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M488">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N488">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O488">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P488">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q488">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R488">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S488">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T488">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U488">
         <v>2.025</v>
@@ -43939,25 +43939,25 @@
         <v>1.825</v>
       </c>
       <c r="W488">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X488">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y488">
         <v>-1</v>
       </c>
       <c r="Z488">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA488">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB488">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC488">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -43965,7 +43965,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5374177</v>
+        <v>5374178</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43977,49 +43977,49 @@
         <v>44916.5</v>
       </c>
       <c r="F489" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G489" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H489">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489">
         <v>0</v>
       </c>
       <c r="J489" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K489">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="L489">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M489">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N489">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O489">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P489">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q489">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R489">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S489">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T489">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U489">
         <v>2.025</v>
@@ -44028,25 +44028,25 @@
         <v>1.825</v>
       </c>
       <c r="W489">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X489">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y489">
         <v>-1</v>
       </c>
       <c r="Z489">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA489">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB489">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC489">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -53577,7 +53577,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53589,10 +53589,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F597" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G597" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H597">
         <v>0</v>
@@ -53604,40 +53604,40 @@
         <v>49</v>
       </c>
       <c r="K597">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L597">
         <v>3.1</v>
       </c>
       <c r="M597">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N597">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O597">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P597">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q597">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R597">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S597">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T597">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U597">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V597">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W597">
         <v>-1</v>
@@ -53646,19 +53646,19 @@
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z597">
         <v>-1</v>
       </c>
       <c r="AA597">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB597">
         <v>-1</v>
       </c>
       <c r="AC597">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53666,7 +53666,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53678,10 +53678,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F598" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G598" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H598">
         <v>0</v>
@@ -53693,40 +53693,40 @@
         <v>49</v>
       </c>
       <c r="K598">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L598">
         <v>3.1</v>
       </c>
       <c r="M598">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N598">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O598">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P598">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q598">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R598">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S598">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T598">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U598">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V598">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W598">
         <v>-1</v>
@@ -53735,19 +53735,19 @@
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z598">
         <v>-1</v>
       </c>
       <c r="AA598">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB598">
         <v>-1</v>
       </c>
       <c r="AC598">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54022,7 +54022,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6399627</v>
+        <v>6399630</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54034,76 +54034,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F602" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G602" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H602">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I602">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J602" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K602">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L602">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M602">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N602">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O602">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P602">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q602">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R602">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S602">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T602">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U602">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V602">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W602">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X602">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y602">
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA602">
+        <v>0.925</v>
+      </c>
+      <c r="AB602">
         <v>-0.5</v>
       </c>
-      <c r="AB602">
-        <v>0.825</v>
-      </c>
       <c r="AC602">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="603" spans="1:29">
@@ -54111,7 +54111,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>6399630</v>
+        <v>6399627</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54123,76 +54123,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F603" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G603" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I603">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J603" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K603">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L603">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M603">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N603">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O603">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P603">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q603">
+        <v>-0.75</v>
+      </c>
+      <c r="R603">
+        <v>2.05</v>
+      </c>
+      <c r="S603">
+        <v>1.8</v>
+      </c>
+      <c r="T603">
+        <v>2</v>
+      </c>
+      <c r="U603">
+        <v>1.825</v>
+      </c>
+      <c r="V603">
+        <v>2.025</v>
+      </c>
+      <c r="W603">
+        <v>0.8</v>
+      </c>
+      <c r="X603">
+        <v>-1</v>
+      </c>
+      <c r="Y603">
+        <v>-1</v>
+      </c>
+      <c r="Z603">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA603">
         <v>-0.5</v>
       </c>
-      <c r="R603">
-        <v>1.925</v>
-      </c>
-      <c r="S603">
-        <v>1.925</v>
-      </c>
-      <c r="T603">
-        <v>2.25</v>
-      </c>
-      <c r="U603">
-        <v>1.95</v>
-      </c>
-      <c r="V603">
-        <v>1.9</v>
-      </c>
-      <c r="W603">
-        <v>-1</v>
-      </c>
-      <c r="X603">
-        <v>2.5</v>
-      </c>
-      <c r="Y603">
-        <v>-1</v>
-      </c>
-      <c r="Z603">
-        <v>-1</v>
-      </c>
-      <c r="AA603">
-        <v>0.925</v>
-      </c>
       <c r="AB603">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC603">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="604" spans="1:29">
@@ -55802,7 +55802,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>6399636</v>
+        <v>6399635</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55814,13 +55814,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F622" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G622" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622">
         <v>0</v>
@@ -55829,43 +55829,43 @@
         <v>47</v>
       </c>
       <c r="K622">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L622">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="M622">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="N622">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O622">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="P622">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q622">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R622">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S622">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T622">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U622">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V622">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W622">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X622">
         <v>-1</v>
@@ -55874,16 +55874,16 @@
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA622">
         <v>-1</v>
       </c>
       <c r="AB622">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC622">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55891,7 +55891,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>6399637</v>
+        <v>6399638</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55903,55 +55903,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F623" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G623" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J623" t="s">
         <v>48</v>
       </c>
       <c r="K623">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L623">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M623">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N623">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O623">
         <v>3.1</v>
       </c>
       <c r="P623">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q623">
         <v>-0.25</v>
       </c>
       <c r="R623">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S623">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T623">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U623">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V623">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W623">
         <v>-1</v>
@@ -55966,13 +55966,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA623">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB623">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC623">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -55980,7 +55980,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>6399638</v>
+        <v>6399637</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -55992,55 +55992,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F624" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G624" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J624" t="s">
         <v>48</v>
       </c>
       <c r="K624">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L624">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M624">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N624">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O624">
         <v>3.1</v>
       </c>
       <c r="P624">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q624">
         <v>-0.25</v>
       </c>
       <c r="R624">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S624">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T624">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U624">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V624">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W624">
         <v>-1</v>
@@ -56055,13 +56055,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA624">
-        <v>0.3625</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB624">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC624">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56069,7 +56069,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6399635</v>
+        <v>6399636</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56081,13 +56081,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F625" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G625" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625">
         <v>0</v>
@@ -56096,43 +56096,43 @@
         <v>47</v>
       </c>
       <c r="K625">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L625">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M625">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N625">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O625">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="P625">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q625">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R625">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S625">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T625">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U625">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V625">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W625">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56141,16 +56141,16 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA625">
         <v>-1</v>
       </c>
       <c r="AB625">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC625">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56247,7 +56247,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56259,13 +56259,13 @@
         <v>45054.625</v>
       </c>
       <c r="F627" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G627" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I627">
         <v>2</v>
@@ -56274,40 +56274,40 @@
         <v>49</v>
       </c>
       <c r="K627">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L627">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M627">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N627">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O627">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P627">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q627">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R627">
+        <v>2</v>
+      </c>
+      <c r="S627">
         <v>1.85</v>
-      </c>
-      <c r="S627">
-        <v>2</v>
       </c>
       <c r="T627">
         <v>2.75</v>
       </c>
       <c r="U627">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V627">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W627">
         <v>-1</v>
@@ -56316,19 +56316,19 @@
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA627">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB627">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC627">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56336,7 +56336,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56348,13 +56348,13 @@
         <v>45054.625</v>
       </c>
       <c r="F628" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G628" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628">
         <v>2</v>
@@ -56363,40 +56363,40 @@
         <v>49</v>
       </c>
       <c r="K628">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L628">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M628">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N628">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O628">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P628">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q628">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R628">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S628">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T628">
         <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V628">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W628">
         <v>-1</v>
@@ -56405,19 +56405,19 @@
         <v>-1</v>
       </c>
       <c r="Y628">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA628">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB628">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC628">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56514,7 +56514,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>6399640</v>
+        <v>6399641</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56526,61 +56526,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F630" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G630" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I630">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J630" t="s">
         <v>48</v>
       </c>
       <c r="K630">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L630">
         <v>3.25</v>
       </c>
       <c r="M630">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N630">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O630">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P630">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q630">
         <v>-0.25</v>
       </c>
       <c r="R630">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S630">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T630">
         <v>2</v>
       </c>
       <c r="U630">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V630">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W630">
         <v>-1</v>
       </c>
       <c r="X630">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y630">
         <v>-1</v>
@@ -56589,10 +56589,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA630">
-        <v>0.5125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB630">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC630">
         <v>-1</v>
@@ -56603,7 +56603,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>6399639</v>
+        <v>6399640</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56615,76 +56615,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F631" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G631" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I631">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J631" t="s">
         <v>48</v>
       </c>
       <c r="K631">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L631">
         <v>3.25</v>
       </c>
       <c r="M631">
+        <v>3.6</v>
+      </c>
+      <c r="N631">
+        <v>2.1</v>
+      </c>
+      <c r="O631">
         <v>3.1</v>
       </c>
-      <c r="N631">
-        <v>2.7</v>
-      </c>
-      <c r="O631">
-        <v>3.3</v>
-      </c>
       <c r="P631">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q631">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R631">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S631">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T631">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U631">
+        <v>1.8</v>
+      </c>
+      <c r="V631">
         <v>2.05</v>
       </c>
-      <c r="V631">
-        <v>1.8</v>
-      </c>
       <c r="W631">
         <v>-1</v>
       </c>
       <c r="X631">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y631">
         <v>-1</v>
       </c>
       <c r="Z631">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA631">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB631">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC631">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56692,7 +56692,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>6399641</v>
+        <v>6399639</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56704,55 +56704,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F632" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G632" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H632">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I632">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
         <v>48</v>
       </c>
       <c r="K632">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L632">
         <v>3.25</v>
       </c>
       <c r="M632">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N632">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O632">
         <v>3.3</v>
       </c>
       <c r="P632">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q632">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R632">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S632">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T632">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U632">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V632">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W632">
         <v>-1</v>
@@ -56764,16 +56764,16 @@
         <v>-1</v>
       </c>
       <c r="Z632">
+        <v>0</v>
+      </c>
+      <c r="AA632">
+        <v>-0</v>
+      </c>
+      <c r="AB632">
         <v>-0.5</v>
       </c>
-      <c r="AA632">
-        <v>0.4875</v>
-      </c>
-      <c r="AB632">
-        <v>0.925</v>
-      </c>
       <c r="AC632">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56781,7 +56781,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56793,76 +56793,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F633" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G633" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K633">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L633">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M633">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N633">
+        <v>1.4</v>
+      </c>
+      <c r="O633">
+        <v>4.333</v>
+      </c>
+      <c r="P633">
+        <v>9.5</v>
+      </c>
+      <c r="Q633">
+        <v>-1.25</v>
+      </c>
+      <c r="R633">
+        <v>1.95</v>
+      </c>
+      <c r="S633">
+        <v>1.9</v>
+      </c>
+      <c r="T633">
+        <v>2.5</v>
+      </c>
+      <c r="U633">
+        <v>2</v>
+      </c>
+      <c r="V633">
         <v>1.85</v>
       </c>
-      <c r="O633">
-        <v>3.5</v>
-      </c>
-      <c r="P633">
-        <v>4.5</v>
-      </c>
-      <c r="Q633">
-        <v>-0.5</v>
-      </c>
-      <c r="R633">
-        <v>1.85</v>
-      </c>
-      <c r="S633">
-        <v>2</v>
-      </c>
-      <c r="T633">
-        <v>2.25</v>
-      </c>
-      <c r="U633">
-        <v>1.825</v>
-      </c>
-      <c r="V633">
-        <v>2.025</v>
-      </c>
       <c r="W633">
         <v>-1</v>
       </c>
       <c r="X633">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y633">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB633">
         <v>-1</v>
       </c>
       <c r="AC633">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56870,7 +56870,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56882,76 +56882,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F634" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G634" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634">
         <v>1</v>
       </c>
       <c r="J634" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K634">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L634">
+        <v>3.2</v>
+      </c>
+      <c r="M634">
+        <v>3.2</v>
+      </c>
+      <c r="N634">
+        <v>1.85</v>
+      </c>
+      <c r="O634">
+        <v>3.5</v>
+      </c>
+      <c r="P634">
         <v>4.5</v>
       </c>
-      <c r="M634">
-        <v>8</v>
-      </c>
-      <c r="N634">
-        <v>1.4</v>
-      </c>
-      <c r="O634">
-        <v>4.333</v>
-      </c>
-      <c r="P634">
-        <v>9.5</v>
-      </c>
       <c r="Q634">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R634">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S634">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T634">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U634">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V634">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W634">
         <v>-1</v>
       </c>
       <c r="X634">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y634">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z634">
         <v>-1</v>
       </c>
       <c r="AA634">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -61409,7 +61409,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61421,76 +61421,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F685" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G685" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H685">
         <v>0</v>
       </c>
       <c r="I685">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J685" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K685">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L685">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M685">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N685">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O685">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P685">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q685">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R685">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S685">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T685">
         <v>2.5</v>
       </c>
       <c r="U685">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V685">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W685">
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z685">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA685">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB685">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC685">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61498,7 +61498,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61510,76 +61510,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F686" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G686" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H686">
         <v>0</v>
       </c>
       <c r="I686">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J686" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K686">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L686">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M686">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N686">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O686">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P686">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q686">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R686">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S686">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T686">
         <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V686">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W686">
         <v>-1</v>
       </c>
       <c r="X686">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y686">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z686">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA686">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB686">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC686">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -69369,19 +69369,19 @@
         <v>-0.25</v>
       </c>
       <c r="R774">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S774">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T774">
         <v>2.25</v>
       </c>
       <c r="U774">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V774">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W774">
         <v>0</v>
@@ -69739,19 +69739,19 @@
         <v>1.25</v>
       </c>
       <c r="R779">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S779">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T779">
         <v>2.75</v>
       </c>
       <c r="U779">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V779">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W779">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -37379,7 +37379,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>5526807</v>
+        <v>5526806</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37391,76 +37391,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F415" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G415" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415">
         <v>0</v>
       </c>
       <c r="J415" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K415">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L415">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M415">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="N415">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O415">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P415">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R415">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S415">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T415">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U415">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V415">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W415">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X415">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y415">
         <v>-1</v>
       </c>
       <c r="Z415">
+        <v>0.5</v>
+      </c>
+      <c r="AA415">
         <v>-0.5</v>
       </c>
-      <c r="AA415">
-        <v>0.4</v>
-      </c>
       <c r="AB415">
         <v>-1</v>
       </c>
       <c r="AC415">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37468,7 +37468,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>5526806</v>
+        <v>5526807</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37480,76 +37480,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F416" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G416" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416">
         <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K416">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L416">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M416">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N416">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O416">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q416">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R416">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S416">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T416">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U416">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V416">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W416">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X416">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y416">
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA416">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB416">
         <v>-1</v>
       </c>
       <c r="AC416">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -40939,7 +40939,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5374156</v>
+        <v>5374154</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40951,76 +40951,76 @@
         <v>44857.5625</v>
       </c>
       <c r="F455" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G455" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J455" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K455">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L455">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M455">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N455">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O455">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P455">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q455">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R455">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S455">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T455">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U455">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V455">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W455">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X455">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y455">
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA455">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB455">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC455">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41028,7 +41028,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5374154</v>
+        <v>5374156</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41040,76 +41040,76 @@
         <v>44857.5625</v>
       </c>
       <c r="F456" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G456" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J456" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K456">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L456">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M456">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N456">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O456">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P456">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q456">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R456">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S456">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T456">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U456">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V456">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W456">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X456">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y456">
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA456">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB456">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC456">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -43876,7 +43876,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5374177</v>
+        <v>5374178</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43888,49 +43888,49 @@
         <v>44916.5</v>
       </c>
       <c r="F488" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G488" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H488">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488">
         <v>0</v>
       </c>
       <c r="J488" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K488">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="L488">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M488">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N488">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O488">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P488">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q488">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R488">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S488">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T488">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U488">
         <v>2.025</v>
@@ -43939,25 +43939,25 @@
         <v>1.825</v>
       </c>
       <c r="W488">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X488">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y488">
         <v>-1</v>
       </c>
       <c r="Z488">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA488">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB488">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC488">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -43965,7 +43965,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5374178</v>
+        <v>5374177</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43977,49 +43977,49 @@
         <v>44916.5</v>
       </c>
       <c r="F489" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G489" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I489">
         <v>0</v>
       </c>
       <c r="J489" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K489">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="L489">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M489">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N489">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O489">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P489">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q489">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R489">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S489">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T489">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U489">
         <v>2.025</v>
@@ -44028,25 +44028,25 @@
         <v>1.825</v>
       </c>
       <c r="W489">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X489">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y489">
         <v>-1</v>
       </c>
       <c r="Z489">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA489">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB489">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC489">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -51352,7 +51352,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5374240</v>
+        <v>5369519</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51364,76 +51364,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G572" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K572">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L572">
         <v>3.25</v>
       </c>
       <c r="M572">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N572">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O572">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P572">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q572">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R572">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S572">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T572">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U572">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V572">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W572">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA572">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51441,7 +51441,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>5374241</v>
+        <v>5374244</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51453,76 +51453,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F573" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G573" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H573">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I573">
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K573">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L573">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M573">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N573">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O573">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P573">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q573">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R573">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S573">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T573">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U573">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V573">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W573">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X573">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y573">
         <v>-1</v>
       </c>
       <c r="Z573">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA573">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB573">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC573">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -51619,7 +51619,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>5374244</v>
+        <v>5374241</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51631,76 +51631,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F575" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G575" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I575">
         <v>1</v>
       </c>
       <c r="J575" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K575">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L575">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M575">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N575">
+        <v>1.444</v>
+      </c>
+      <c r="O575">
+        <v>4</v>
+      </c>
+      <c r="P575">
+        <v>9</v>
+      </c>
+      <c r="Q575">
+        <v>-1.25</v>
+      </c>
+      <c r="R575">
+        <v>1.975</v>
+      </c>
+      <c r="S575">
+        <v>1.875</v>
+      </c>
+      <c r="T575">
         <v>2.25</v>
       </c>
-      <c r="O575">
-        <v>3.1</v>
-      </c>
-      <c r="P575">
-        <v>3.5</v>
-      </c>
-      <c r="Q575">
-        <v>-0.25</v>
-      </c>
-      <c r="R575">
-        <v>1.95</v>
-      </c>
-      <c r="S575">
-        <v>1.9</v>
-      </c>
-      <c r="T575">
-        <v>2</v>
-      </c>
       <c r="U575">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V575">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W575">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X575">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y575">
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA575">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB575">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC575">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51708,7 +51708,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5369519</v>
+        <v>5374240</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51720,76 +51720,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F576" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G576" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J576" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K576">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L576">
         <v>3.25</v>
       </c>
       <c r="M576">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N576">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O576">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P576">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q576">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R576">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S576">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T576">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U576">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V576">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W576">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X576">
         <v>-1</v>
       </c>
       <c r="Y576">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z576">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA576">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC576">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -53577,7 +53577,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53589,10 +53589,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F597" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G597" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H597">
         <v>0</v>
@@ -53604,40 +53604,40 @@
         <v>49</v>
       </c>
       <c r="K597">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L597">
         <v>3.1</v>
       </c>
       <c r="M597">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N597">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O597">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P597">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q597">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R597">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S597">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T597">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U597">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V597">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W597">
         <v>-1</v>
@@ -53646,19 +53646,19 @@
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z597">
         <v>-1</v>
       </c>
       <c r="AA597">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB597">
         <v>-1</v>
       </c>
       <c r="AC597">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53666,7 +53666,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53678,10 +53678,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F598" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G598" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H598">
         <v>0</v>
@@ -53693,40 +53693,40 @@
         <v>49</v>
       </c>
       <c r="K598">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L598">
         <v>3.1</v>
       </c>
       <c r="M598">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N598">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O598">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P598">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q598">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R598">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S598">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T598">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U598">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V598">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W598">
         <v>-1</v>
@@ -53735,19 +53735,19 @@
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z598">
         <v>-1</v>
       </c>
       <c r="AA598">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB598">
         <v>-1</v>
       </c>
       <c r="AC598">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54200,7 +54200,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>6399629</v>
+        <v>6399628</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54212,76 +54212,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F604" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G604" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J604" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K604">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L604">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M604">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N604">
+        <v>1.8</v>
+      </c>
+      <c r="O604">
+        <v>3.5</v>
+      </c>
+      <c r="P604">
+        <v>4.75</v>
+      </c>
+      <c r="Q604">
+        <v>-0.5</v>
+      </c>
+      <c r="R604">
+        <v>1.825</v>
+      </c>
+      <c r="S604">
+        <v>2.025</v>
+      </c>
+      <c r="T604">
         <v>2.25</v>
       </c>
-      <c r="O604">
-        <v>3.1</v>
-      </c>
-      <c r="P604">
-        <v>3.5</v>
-      </c>
-      <c r="Q604">
-        <v>-0.25</v>
-      </c>
-      <c r="R604">
-        <v>1.9</v>
-      </c>
-      <c r="S604">
-        <v>1.95</v>
-      </c>
-      <c r="T604">
-        <v>1.75</v>
-      </c>
       <c r="U604">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V604">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W604">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X604">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y604">
         <v>-1</v>
       </c>
       <c r="Z604">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA604">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB604">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC604">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54289,7 +54289,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>6399628</v>
+        <v>6399629</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54301,76 +54301,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F605" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G605" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I605">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J605" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K605">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L605">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M605">
+        <v>3</v>
+      </c>
+      <c r="N605">
+        <v>2.25</v>
+      </c>
+      <c r="O605">
+        <v>3.1</v>
+      </c>
+      <c r="P605">
         <v>3.5</v>
       </c>
-      <c r="N605">
-        <v>1.8</v>
-      </c>
-      <c r="O605">
-        <v>3.5</v>
-      </c>
-      <c r="P605">
-        <v>4.75</v>
-      </c>
       <c r="Q605">
+        <v>-0.25</v>
+      </c>
+      <c r="R605">
+        <v>1.9</v>
+      </c>
+      <c r="S605">
+        <v>1.95</v>
+      </c>
+      <c r="T605">
+        <v>1.75</v>
+      </c>
+      <c r="U605">
+        <v>1.825</v>
+      </c>
+      <c r="V605">
+        <v>2.025</v>
+      </c>
+      <c r="W605">
+        <v>-1</v>
+      </c>
+      <c r="X605">
+        <v>2.1</v>
+      </c>
+      <c r="Y605">
+        <v>-1</v>
+      </c>
+      <c r="Z605">
         <v>-0.5</v>
       </c>
-      <c r="R605">
-        <v>1.825</v>
-      </c>
-      <c r="S605">
-        <v>2.025</v>
-      </c>
-      <c r="T605">
-        <v>2.25</v>
-      </c>
-      <c r="U605">
-        <v>2.05</v>
-      </c>
-      <c r="V605">
-        <v>1.8</v>
-      </c>
-      <c r="W605">
-        <v>0.8</v>
-      </c>
-      <c r="X605">
-        <v>-1</v>
-      </c>
-      <c r="Y605">
-        <v>-1</v>
-      </c>
-      <c r="Z605">
+      <c r="AA605">
+        <v>0.475</v>
+      </c>
+      <c r="AB605">
         <v>0.825</v>
       </c>
-      <c r="AA605">
-        <v>-1</v>
-      </c>
-      <c r="AB605">
-        <v>-1</v>
-      </c>
       <c r="AC605">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -55357,7 +55357,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6399613</v>
+        <v>6397967</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55369,76 +55369,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F617" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G617" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H617">
+        <v>0</v>
+      </c>
+      <c r="I617">
+        <v>0</v>
+      </c>
+      <c r="J617" t="s">
+        <v>48</v>
+      </c>
+      <c r="K617">
+        <v>2.625</v>
+      </c>
+      <c r="L617">
         <v>3</v>
       </c>
-      <c r="I617">
-        <v>2</v>
-      </c>
-      <c r="J617" t="s">
-        <v>47</v>
-      </c>
-      <c r="K617">
-        <v>1.75</v>
-      </c>
-      <c r="L617">
-        <v>3.4</v>
-      </c>
       <c r="M617">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N617">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O617">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P617">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q617">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R617">
+        <v>1.9</v>
+      </c>
+      <c r="S617">
+        <v>1.95</v>
+      </c>
+      <c r="T617">
+        <v>2</v>
+      </c>
+      <c r="U617">
         <v>1.875</v>
       </c>
-      <c r="S617">
+      <c r="V617">
         <v>1.975</v>
       </c>
-      <c r="T617">
-        <v>2.25</v>
-      </c>
-      <c r="U617">
-        <v>1.8</v>
-      </c>
-      <c r="V617">
-        <v>2.05</v>
-      </c>
       <c r="W617">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X617">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y617">
         <v>-1</v>
       </c>
       <c r="Z617">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA617">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB617">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC617">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55446,7 +55446,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>6397967</v>
+        <v>6399613</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55458,76 +55458,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F618" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G618" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I618">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J618" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K618">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L618">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M618">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N618">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O618">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P618">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q618">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R618">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S618">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T618">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U618">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V618">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W618">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X618">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y618">
         <v>-1</v>
       </c>
       <c r="Z618">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA618">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB618">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC618">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -56781,7 +56781,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56793,76 +56793,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F633" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G633" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K633">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L633">
+        <v>3.2</v>
+      </c>
+      <c r="M633">
+        <v>3.2</v>
+      </c>
+      <c r="N633">
+        <v>1.85</v>
+      </c>
+      <c r="O633">
+        <v>3.5</v>
+      </c>
+      <c r="P633">
         <v>4.5</v>
       </c>
-      <c r="M633">
-        <v>8</v>
-      </c>
-      <c r="N633">
-        <v>1.4</v>
-      </c>
-      <c r="O633">
-        <v>4.333</v>
-      </c>
-      <c r="P633">
-        <v>9.5</v>
-      </c>
       <c r="Q633">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R633">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S633">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U633">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V633">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W633">
         <v>-1</v>
       </c>
       <c r="X633">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y633">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB633">
         <v>-1</v>
       </c>
       <c r="AC633">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56870,7 +56870,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56882,76 +56882,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F634" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G634" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634">
         <v>1</v>
       </c>
       <c r="J634" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K634">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L634">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M634">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N634">
+        <v>1.4</v>
+      </c>
+      <c r="O634">
+        <v>4.333</v>
+      </c>
+      <c r="P634">
+        <v>9.5</v>
+      </c>
+      <c r="Q634">
+        <v>-1.25</v>
+      </c>
+      <c r="R634">
+        <v>1.95</v>
+      </c>
+      <c r="S634">
+        <v>1.9</v>
+      </c>
+      <c r="T634">
+        <v>2.5</v>
+      </c>
+      <c r="U634">
+        <v>2</v>
+      </c>
+      <c r="V634">
         <v>1.85</v>
       </c>
-      <c r="O634">
-        <v>3.5</v>
-      </c>
-      <c r="P634">
-        <v>4.5</v>
-      </c>
-      <c r="Q634">
-        <v>-0.5</v>
-      </c>
-      <c r="R634">
-        <v>1.85</v>
-      </c>
-      <c r="S634">
-        <v>2</v>
-      </c>
-      <c r="T634">
-        <v>2.25</v>
-      </c>
-      <c r="U634">
-        <v>1.825</v>
-      </c>
-      <c r="V634">
-        <v>2.025</v>
-      </c>
       <c r="W634">
         <v>-1</v>
       </c>
       <c r="X634">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y634">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z634">
         <v>-1</v>
       </c>
       <c r="AA634">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -69378,10 +69378,10 @@
         <v>2.25</v>
       </c>
       <c r="U774">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V774">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W774">
         <v>0</v>
@@ -69517,19 +69517,19 @@
         <v>-0.75</v>
       </c>
       <c r="R776">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S776">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T776">
         <v>2.5</v>
       </c>
       <c r="U776">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V776">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W776">
         <v>0</v>
@@ -69579,31 +69579,31 @@
         <v>3.25</v>
       </c>
       <c r="N777">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O777">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P777">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q777">
         <v>-0.25</v>
       </c>
       <c r="R777">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S777">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T777">
         <v>2.25</v>
       </c>
       <c r="U777">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V777">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W777">
         <v>0</v>
@@ -69656,7 +69656,7 @@
         <v>1.222</v>
       </c>
       <c r="O778">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P778">
         <v>17</v>
@@ -69739,19 +69739,19 @@
         <v>1.25</v>
       </c>
       <c r="R779">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S779">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T779">
         <v>2.75</v>
       </c>
       <c r="U779">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V779">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W779">
         <v>0</v>
@@ -69804,7 +69804,7 @@
         <v>2.3</v>
       </c>
       <c r="O780">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P780">
         <v>3.2</v>
@@ -69822,10 +69822,10 @@
         <v>2.25</v>
       </c>
       <c r="U780">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V780">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W780">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -37379,7 +37379,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>5526806</v>
+        <v>5526807</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37391,76 +37391,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F415" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G415" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415">
         <v>0</v>
       </c>
       <c r="J415" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K415">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L415">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M415">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N415">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O415">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P415">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q415">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S415">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T415">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U415">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V415">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W415">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X415">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y415">
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA415">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB415">
         <v>-1</v>
       </c>
       <c r="AC415">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37468,7 +37468,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>5526807</v>
+        <v>5526806</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37480,76 +37480,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F416" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G416" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416">
         <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K416">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L416">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M416">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="N416">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O416">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P416">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R416">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S416">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T416">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U416">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V416">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W416">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X416">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y416">
         <v>-1</v>
       </c>
       <c r="Z416">
+        <v>0.5</v>
+      </c>
+      <c r="AA416">
         <v>-0.5</v>
       </c>
-      <c r="AA416">
-        <v>0.4</v>
-      </c>
       <c r="AB416">
         <v>-1</v>
       </c>
       <c r="AC416">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -51263,7 +51263,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5369548</v>
+        <v>5374241</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51275,76 +51275,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F571" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G571" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I571">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K571">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L571">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M571">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="N571">
-        <v>7</v>
+        <v>1.444</v>
       </c>
       <c r="O571">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P571">
-        <v>1.571</v>
+        <v>9</v>
       </c>
       <c r="Q571">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R571">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S571">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T571">
         <v>2.25</v>
       </c>
       <c r="U571">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V571">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W571">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA571">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB571">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC571">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51352,7 +51352,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5369519</v>
+        <v>5374240</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51364,76 +51364,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G572" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J572" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K572">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L572">
         <v>3.25</v>
       </c>
       <c r="M572">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N572">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O572">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P572">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q572">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R572">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S572">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T572">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U572">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V572">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W572">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z572">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC572">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51441,7 +51441,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>5374244</v>
+        <v>5374242</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51453,76 +51453,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F573" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G573" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573">
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K573">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="L573">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M573">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="N573">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="O573">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P573">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q573">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R573">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S573">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T573">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U573">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V573">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W573">
         <v>-1</v>
       </c>
       <c r="X573">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y573">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z573">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA573">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB573">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC573">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -51530,7 +51530,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>5374242</v>
+        <v>5374244</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51542,76 +51542,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F574" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G574" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I574">
         <v>1</v>
       </c>
       <c r="J574" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K574">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="L574">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M574">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N574">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O574">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P574">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="Q574">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R574">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S574">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T574">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U574">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V574">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W574">
         <v>-1</v>
       </c>
       <c r="X574">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y574">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z574">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA574">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB574">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC574">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51619,7 +51619,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>5374241</v>
+        <v>5369519</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51631,58 +51631,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F575" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G575" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H575">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J575" t="s">
         <v>47</v>
       </c>
       <c r="K575">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L575">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M575">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N575">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O575">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P575">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q575">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R575">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S575">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T575">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U575">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V575">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W575">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X575">
         <v>-1</v>
@@ -51691,16 +51691,16 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA575">
         <v>-1</v>
       </c>
       <c r="AB575">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC575">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51708,7 +51708,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5374240</v>
+        <v>5369548</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51720,76 +51720,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F576" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G576" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J576" t="s">
         <v>49</v>
       </c>
       <c r="K576">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L576">
         <v>3.25</v>
       </c>
       <c r="M576">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N576">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O576">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P576">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q576">
+        <v>0.75</v>
+      </c>
+      <c r="R576">
+        <v>2.05</v>
+      </c>
+      <c r="S576">
+        <v>1.75</v>
+      </c>
+      <c r="T576">
+        <v>2.25</v>
+      </c>
+      <c r="U576">
+        <v>1.95</v>
+      </c>
+      <c r="V576">
+        <v>1.9</v>
+      </c>
+      <c r="W576">
+        <v>-1</v>
+      </c>
+      <c r="X576">
+        <v>-1</v>
+      </c>
+      <c r="Y576">
+        <v>0.571</v>
+      </c>
+      <c r="Z576">
+        <v>-1</v>
+      </c>
+      <c r="AA576">
+        <v>0.75</v>
+      </c>
+      <c r="AB576">
         <v>-0.5</v>
       </c>
-      <c r="R576">
-        <v>1.875</v>
-      </c>
-      <c r="S576">
-        <v>1.975</v>
-      </c>
-      <c r="T576">
-        <v>2.5</v>
-      </c>
-      <c r="U576">
-        <v>2</v>
-      </c>
-      <c r="V576">
-        <v>1.85</v>
-      </c>
-      <c r="W576">
-        <v>-1</v>
-      </c>
-      <c r="X576">
-        <v>-1</v>
-      </c>
-      <c r="Y576">
-        <v>3.333</v>
-      </c>
-      <c r="Z576">
-        <v>-1</v>
-      </c>
-      <c r="AA576">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB576">
-        <v>1</v>
-      </c>
       <c r="AC576">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -54200,7 +54200,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>6399628</v>
+        <v>6399629</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54212,76 +54212,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F604" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G604" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I604">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J604" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K604">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L604">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M604">
+        <v>3</v>
+      </c>
+      <c r="N604">
+        <v>2.25</v>
+      </c>
+      <c r="O604">
+        <v>3.1</v>
+      </c>
+      <c r="P604">
         <v>3.5</v>
       </c>
-      <c r="N604">
-        <v>1.8</v>
-      </c>
-      <c r="O604">
-        <v>3.5</v>
-      </c>
-      <c r="P604">
-        <v>4.75</v>
-      </c>
       <c r="Q604">
+        <v>-0.25</v>
+      </c>
+      <c r="R604">
+        <v>1.9</v>
+      </c>
+      <c r="S604">
+        <v>1.95</v>
+      </c>
+      <c r="T604">
+        <v>1.75</v>
+      </c>
+      <c r="U604">
+        <v>1.825</v>
+      </c>
+      <c r="V604">
+        <v>2.025</v>
+      </c>
+      <c r="W604">
+        <v>-1</v>
+      </c>
+      <c r="X604">
+        <v>2.1</v>
+      </c>
+      <c r="Y604">
+        <v>-1</v>
+      </c>
+      <c r="Z604">
         <v>-0.5</v>
       </c>
-      <c r="R604">
-        <v>1.825</v>
-      </c>
-      <c r="S604">
-        <v>2.025</v>
-      </c>
-      <c r="T604">
-        <v>2.25</v>
-      </c>
-      <c r="U604">
-        <v>2.05</v>
-      </c>
-      <c r="V604">
-        <v>1.8</v>
-      </c>
-      <c r="W604">
-        <v>0.8</v>
-      </c>
-      <c r="X604">
-        <v>-1</v>
-      </c>
-      <c r="Y604">
-        <v>-1</v>
-      </c>
-      <c r="Z604">
+      <c r="AA604">
+        <v>0.475</v>
+      </c>
+      <c r="AB604">
         <v>0.825</v>
       </c>
-      <c r="AA604">
-        <v>-1</v>
-      </c>
-      <c r="AB604">
-        <v>-1</v>
-      </c>
       <c r="AC604">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54289,7 +54289,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>6399629</v>
+        <v>6399628</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54301,76 +54301,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F605" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G605" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J605" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K605">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L605">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M605">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N605">
+        <v>1.8</v>
+      </c>
+      <c r="O605">
+        <v>3.5</v>
+      </c>
+      <c r="P605">
+        <v>4.75</v>
+      </c>
+      <c r="Q605">
+        <v>-0.5</v>
+      </c>
+      <c r="R605">
+        <v>1.825</v>
+      </c>
+      <c r="S605">
+        <v>2.025</v>
+      </c>
+      <c r="T605">
         <v>2.25</v>
       </c>
-      <c r="O605">
-        <v>3.1</v>
-      </c>
-      <c r="P605">
-        <v>3.5</v>
-      </c>
-      <c r="Q605">
-        <v>-0.25</v>
-      </c>
-      <c r="R605">
-        <v>1.9</v>
-      </c>
-      <c r="S605">
-        <v>1.95</v>
-      </c>
-      <c r="T605">
-        <v>1.75</v>
-      </c>
       <c r="U605">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V605">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W605">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X605">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y605">
         <v>-1</v>
       </c>
       <c r="Z605">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA605">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB605">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC605">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -55357,7 +55357,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6397967</v>
+        <v>6399613</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55369,76 +55369,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F617" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G617" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I617">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J617" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K617">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L617">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M617">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N617">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O617">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P617">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q617">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R617">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S617">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T617">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U617">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V617">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W617">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X617">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y617">
         <v>-1</v>
       </c>
       <c r="Z617">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA617">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB617">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC617">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55446,7 +55446,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>6399613</v>
+        <v>6397967</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55458,76 +55458,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F618" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G618" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H618">
+        <v>0</v>
+      </c>
+      <c r="I618">
+        <v>0</v>
+      </c>
+      <c r="J618" t="s">
+        <v>48</v>
+      </c>
+      <c r="K618">
+        <v>2.625</v>
+      </c>
+      <c r="L618">
         <v>3</v>
       </c>
-      <c r="I618">
-        <v>2</v>
-      </c>
-      <c r="J618" t="s">
-        <v>47</v>
-      </c>
-      <c r="K618">
-        <v>1.75</v>
-      </c>
-      <c r="L618">
-        <v>3.4</v>
-      </c>
       <c r="M618">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N618">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O618">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P618">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q618">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R618">
+        <v>1.9</v>
+      </c>
+      <c r="S618">
+        <v>1.95</v>
+      </c>
+      <c r="T618">
+        <v>2</v>
+      </c>
+      <c r="U618">
         <v>1.875</v>
       </c>
-      <c r="S618">
+      <c r="V618">
         <v>1.975</v>
       </c>
-      <c r="T618">
-        <v>2.25</v>
-      </c>
-      <c r="U618">
-        <v>1.8</v>
-      </c>
-      <c r="V618">
-        <v>2.05</v>
-      </c>
       <c r="W618">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X618">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y618">
         <v>-1</v>
       </c>
       <c r="Z618">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA618">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB618">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC618">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -56781,7 +56781,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56793,76 +56793,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F633" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G633" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K633">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L633">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M633">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N633">
+        <v>1.4</v>
+      </c>
+      <c r="O633">
+        <v>4.333</v>
+      </c>
+      <c r="P633">
+        <v>9.5</v>
+      </c>
+      <c r="Q633">
+        <v>-1.25</v>
+      </c>
+      <c r="R633">
+        <v>1.95</v>
+      </c>
+      <c r="S633">
+        <v>1.9</v>
+      </c>
+      <c r="T633">
+        <v>2.5</v>
+      </c>
+      <c r="U633">
+        <v>2</v>
+      </c>
+      <c r="V633">
         <v>1.85</v>
       </c>
-      <c r="O633">
-        <v>3.5</v>
-      </c>
-      <c r="P633">
-        <v>4.5</v>
-      </c>
-      <c r="Q633">
-        <v>-0.5</v>
-      </c>
-      <c r="R633">
-        <v>1.85</v>
-      </c>
-      <c r="S633">
-        <v>2</v>
-      </c>
-      <c r="T633">
-        <v>2.25</v>
-      </c>
-      <c r="U633">
-        <v>1.825</v>
-      </c>
-      <c r="V633">
-        <v>2.025</v>
-      </c>
       <c r="W633">
         <v>-1</v>
       </c>
       <c r="X633">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y633">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB633">
         <v>-1</v>
       </c>
       <c r="AC633">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56870,7 +56870,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56882,76 +56882,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F634" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G634" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634">
         <v>1</v>
       </c>
       <c r="J634" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K634">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L634">
+        <v>3.2</v>
+      </c>
+      <c r="M634">
+        <v>3.2</v>
+      </c>
+      <c r="N634">
+        <v>1.85</v>
+      </c>
+      <c r="O634">
+        <v>3.5</v>
+      </c>
+      <c r="P634">
         <v>4.5</v>
       </c>
-      <c r="M634">
-        <v>8</v>
-      </c>
-      <c r="N634">
-        <v>1.4</v>
-      </c>
-      <c r="O634">
-        <v>4.333</v>
-      </c>
-      <c r="P634">
-        <v>9.5</v>
-      </c>
       <c r="Q634">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R634">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S634">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T634">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U634">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V634">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W634">
         <v>-1</v>
       </c>
       <c r="X634">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y634">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z634">
         <v>-1</v>
       </c>
       <c r="AA634">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -69517,19 +69517,19 @@
         <v>-0.75</v>
       </c>
       <c r="R776">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S776">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T776">
         <v>2.5</v>
       </c>
       <c r="U776">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V776">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W776">
         <v>0</v>
@@ -69552,7 +69552,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69564,46 +69564,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F777" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G777" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K777">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L777">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M777">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N777">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="O777">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P777">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q777">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R777">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S777">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T777">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U777">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V777">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W777">
         <v>0</v>
@@ -69626,7 +69626,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69638,46 +69638,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F778" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G778" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K778">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L778">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M778">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N778">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="O778">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P778">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q778">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R778">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S778">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T778">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U778">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V778">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W778">
         <v>0</v>
@@ -69739,10 +69739,10 @@
         <v>1.25</v>
       </c>
       <c r="R779">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S779">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T779">
         <v>2.75</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -35154,7 +35154,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>4770117</v>
+        <v>5005261</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35166,76 +35166,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F390" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G390" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J390" t="s">
         <v>48</v>
       </c>
       <c r="K390">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L390">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M390">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N390">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O390">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P390">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="Q390">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R390">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S390">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T390">
         <v>2.25</v>
       </c>
       <c r="U390">
+        <v>1.95</v>
+      </c>
+      <c r="V390">
         <v>1.9</v>
       </c>
-      <c r="V390">
-        <v>1.95</v>
-      </c>
       <c r="W390">
         <v>-1</v>
       </c>
       <c r="X390">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB390">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC390">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35243,7 +35243,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>5005261</v>
+        <v>4770117</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35255,76 +35255,76 @@
         <v>44696.5625</v>
       </c>
       <c r="F391" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G391" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J391" t="s">
         <v>48</v>
       </c>
       <c r="K391">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="L391">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M391">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N391">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O391">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P391">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="Q391">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S391">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
+        <v>1.9</v>
+      </c>
+      <c r="V391">
         <v>1.95</v>
       </c>
-      <c r="V391">
-        <v>1.9</v>
-      </c>
       <c r="W391">
         <v>-1</v>
       </c>
       <c r="X391">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA391">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB391">
+        <v>-1</v>
+      </c>
+      <c r="AC391">
         <v>0.95</v>
-      </c>
-      <c r="AC391">
-        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -37913,7 +37913,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5374129</v>
+        <v>5374127</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37925,76 +37925,76 @@
         <v>44815.64583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G421" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J421" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K421">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L421">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M421">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N421">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O421">
         <v>3.2</v>
       </c>
       <c r="P421">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q421">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R421">
+        <v>2.025</v>
+      </c>
+      <c r="S421">
+        <v>1.825</v>
+      </c>
+      <c r="T421">
+        <v>2</v>
+      </c>
+      <c r="U421">
         <v>1.975</v>
       </c>
-      <c r="S421">
+      <c r="V421">
         <v>1.875</v>
       </c>
-      <c r="T421">
-        <v>2</v>
-      </c>
-      <c r="U421">
-        <v>1.825</v>
-      </c>
-      <c r="V421">
-        <v>2.025</v>
-      </c>
       <c r="W421">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z421">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38002,7 +38002,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5374127</v>
+        <v>5374129</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38014,76 +38014,76 @@
         <v>44815.64583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G422" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K422">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L422">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M422">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N422">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O422">
         <v>3.2</v>
       </c>
       <c r="P422">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q422">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R422">
+        <v>1.975</v>
+      </c>
+      <c r="S422">
+        <v>1.875</v>
+      </c>
+      <c r="T422">
+        <v>2</v>
+      </c>
+      <c r="U422">
+        <v>1.825</v>
+      </c>
+      <c r="V422">
         <v>2.025</v>
       </c>
-      <c r="S422">
-        <v>1.825</v>
-      </c>
-      <c r="T422">
-        <v>2</v>
-      </c>
-      <c r="U422">
-        <v>1.975</v>
-      </c>
-      <c r="V422">
-        <v>1.875</v>
-      </c>
       <c r="W422">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA422">
+        <v>-1</v>
+      </c>
+      <c r="AB422">
         <v>0.825</v>
       </c>
-      <c r="AB422">
-        <v>0</v>
-      </c>
       <c r="AC422">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -55802,7 +55802,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>6399635</v>
+        <v>6399636</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55814,13 +55814,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F622" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G622" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622">
         <v>0</v>
@@ -55829,43 +55829,43 @@
         <v>47</v>
       </c>
       <c r="K622">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L622">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M622">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N622">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O622">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="P622">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q622">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R622">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S622">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T622">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U622">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V622">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W622">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X622">
         <v>-1</v>
@@ -55874,16 +55874,16 @@
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA622">
         <v>-1</v>
       </c>
       <c r="AB622">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC622">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55891,7 +55891,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>6399638</v>
+        <v>6399637</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55903,55 +55903,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F623" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G623" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J623" t="s">
         <v>48</v>
       </c>
       <c r="K623">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L623">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M623">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N623">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O623">
         <v>3.1</v>
       </c>
       <c r="P623">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q623">
         <v>-0.25</v>
       </c>
       <c r="R623">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S623">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T623">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U623">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V623">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W623">
         <v>-1</v>
@@ -55966,13 +55966,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA623">
-        <v>0.3625</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB623">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC623">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -55980,7 +55980,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>6399637</v>
+        <v>6399638</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -55992,55 +55992,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F624" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G624" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J624" t="s">
         <v>48</v>
       </c>
       <c r="K624">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L624">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M624">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N624">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O624">
         <v>3.1</v>
       </c>
       <c r="P624">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q624">
         <v>-0.25</v>
       </c>
       <c r="R624">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S624">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T624">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U624">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V624">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W624">
         <v>-1</v>
@@ -56055,13 +56055,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA624">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB624">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC624">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56069,7 +56069,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6399636</v>
+        <v>6399635</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56081,13 +56081,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F625" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G625" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I625">
         <v>0</v>
@@ -56096,43 +56096,43 @@
         <v>47</v>
       </c>
       <c r="K625">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L625">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="M625">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="N625">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O625">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="P625">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q625">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R625">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S625">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T625">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U625">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V625">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W625">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56141,16 +56141,16 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA625">
         <v>-1</v>
       </c>
       <c r="AB625">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC625">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56247,7 +56247,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56259,13 +56259,13 @@
         <v>45054.625</v>
       </c>
       <c r="F627" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G627" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627">
         <v>2</v>
@@ -56274,40 +56274,40 @@
         <v>49</v>
       </c>
       <c r="K627">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L627">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M627">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N627">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O627">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P627">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q627">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R627">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S627">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T627">
         <v>2.75</v>
       </c>
       <c r="U627">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V627">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W627">
         <v>-1</v>
@@ -56316,19 +56316,19 @@
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA627">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB627">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC627">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56336,7 +56336,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56348,13 +56348,13 @@
         <v>45054.625</v>
       </c>
       <c r="F628" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G628" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I628">
         <v>2</v>
@@ -56363,40 +56363,40 @@
         <v>49</v>
       </c>
       <c r="K628">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L628">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M628">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N628">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O628">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P628">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q628">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R628">
+        <v>2</v>
+      </c>
+      <c r="S628">
         <v>1.85</v>
-      </c>
-      <c r="S628">
-        <v>2</v>
       </c>
       <c r="T628">
         <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V628">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W628">
         <v>-1</v>
@@ -56405,19 +56405,19 @@
         <v>-1</v>
       </c>
       <c r="Y628">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA628">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB628">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC628">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56514,7 +56514,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>6399641</v>
+        <v>6399640</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56526,61 +56526,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F630" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G630" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H630">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J630" t="s">
         <v>48</v>
       </c>
       <c r="K630">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L630">
         <v>3.25</v>
       </c>
       <c r="M630">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N630">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O630">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P630">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q630">
         <v>-0.25</v>
       </c>
       <c r="R630">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S630">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T630">
         <v>2</v>
       </c>
       <c r="U630">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V630">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W630">
         <v>-1</v>
       </c>
       <c r="X630">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y630">
         <v>-1</v>
@@ -56589,10 +56589,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA630">
-        <v>0.4875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB630">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC630">
         <v>-1</v>
@@ -56603,7 +56603,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>6399640</v>
+        <v>6399639</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56615,76 +56615,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F631" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G631" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J631" t="s">
         <v>48</v>
       </c>
       <c r="K631">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="L631">
         <v>3.25</v>
       </c>
       <c r="M631">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N631">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O631">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P631">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q631">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R631">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S631">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T631">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U631">
+        <v>2.05</v>
+      </c>
+      <c r="V631">
         <v>1.8</v>
       </c>
-      <c r="V631">
-        <v>2.05</v>
-      </c>
       <c r="W631">
         <v>-1</v>
       </c>
       <c r="X631">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y631">
         <v>-1</v>
       </c>
       <c r="Z631">
+        <v>0</v>
+      </c>
+      <c r="AA631">
+        <v>-0</v>
+      </c>
+      <c r="AB631">
         <v>-0.5</v>
       </c>
-      <c r="AA631">
-        <v>0.5125</v>
-      </c>
-      <c r="AB631">
-        <v>0.8</v>
-      </c>
       <c r="AC631">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56692,7 +56692,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>6399639</v>
+        <v>6399641</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56704,55 +56704,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F632" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G632" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I632">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J632" t="s">
         <v>48</v>
       </c>
       <c r="K632">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L632">
         <v>3.25</v>
       </c>
       <c r="M632">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N632">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O632">
         <v>3.3</v>
       </c>
       <c r="P632">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q632">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R632">
+        <v>1.875</v>
+      </c>
+      <c r="S632">
+        <v>1.975</v>
+      </c>
+      <c r="T632">
+        <v>2</v>
+      </c>
+      <c r="U632">
         <v>1.925</v>
       </c>
-      <c r="S632">
+      <c r="V632">
         <v>1.925</v>
-      </c>
-      <c r="T632">
-        <v>2.25</v>
-      </c>
-      <c r="U632">
-        <v>2.05</v>
-      </c>
-      <c r="V632">
-        <v>1.8</v>
       </c>
       <c r="W632">
         <v>-1</v>
@@ -56764,16 +56764,16 @@
         <v>-1</v>
       </c>
       <c r="Z632">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA632">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB632">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC632">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56781,7 +56781,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56793,76 +56793,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F633" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G633" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K633">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L633">
+        <v>3.2</v>
+      </c>
+      <c r="M633">
+        <v>3.2</v>
+      </c>
+      <c r="N633">
+        <v>1.85</v>
+      </c>
+      <c r="O633">
+        <v>3.5</v>
+      </c>
+      <c r="P633">
         <v>4.5</v>
       </c>
-      <c r="M633">
-        <v>8</v>
-      </c>
-      <c r="N633">
-        <v>1.4</v>
-      </c>
-      <c r="O633">
-        <v>4.333</v>
-      </c>
-      <c r="P633">
-        <v>9.5</v>
-      </c>
       <c r="Q633">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R633">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S633">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U633">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V633">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W633">
         <v>-1</v>
       </c>
       <c r="X633">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y633">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z633">
         <v>-1</v>
       </c>
       <c r="AA633">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB633">
         <v>-1</v>
       </c>
       <c r="AC633">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56870,7 +56870,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56882,76 +56882,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F634" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G634" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634">
         <v>1</v>
       </c>
       <c r="J634" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K634">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L634">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M634">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N634">
+        <v>1.4</v>
+      </c>
+      <c r="O634">
+        <v>4.333</v>
+      </c>
+      <c r="P634">
+        <v>9.5</v>
+      </c>
+      <c r="Q634">
+        <v>-1.25</v>
+      </c>
+      <c r="R634">
+        <v>1.95</v>
+      </c>
+      <c r="S634">
+        <v>1.9</v>
+      </c>
+      <c r="T634">
+        <v>2.5</v>
+      </c>
+      <c r="U634">
+        <v>2</v>
+      </c>
+      <c r="V634">
         <v>1.85</v>
       </c>
-      <c r="O634">
-        <v>3.5</v>
-      </c>
-      <c r="P634">
-        <v>4.5</v>
-      </c>
-      <c r="Q634">
-        <v>-0.5</v>
-      </c>
-      <c r="R634">
-        <v>1.85</v>
-      </c>
-      <c r="S634">
-        <v>2</v>
-      </c>
-      <c r="T634">
-        <v>2.25</v>
-      </c>
-      <c r="U634">
-        <v>1.825</v>
-      </c>
-      <c r="V634">
-        <v>2.025</v>
-      </c>
       <c r="W634">
         <v>-1</v>
       </c>
       <c r="X634">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y634">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z634">
         <v>-1</v>
       </c>
       <c r="AA634">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -61409,7 +61409,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61421,76 +61421,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F685" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G685" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H685">
         <v>0</v>
       </c>
       <c r="I685">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K685">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L685">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M685">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N685">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O685">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P685">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q685">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R685">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S685">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T685">
         <v>2.5</v>
       </c>
       <c r="U685">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V685">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W685">
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y685">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z685">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA685">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB685">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61498,7 +61498,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61510,76 +61510,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F686" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G686" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H686">
         <v>0</v>
       </c>
       <c r="I686">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J686" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K686">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L686">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M686">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N686">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O686">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P686">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q686">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R686">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S686">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T686">
         <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V686">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W686">
         <v>-1</v>
       </c>
       <c r="X686">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y686">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z686">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA686">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB686">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC686">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -67906,7 +67906,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67918,49 +67918,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F758" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G758" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H758">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I758">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J758" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K758">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L758">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M758">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N758">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O758">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P758">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q758">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R758">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S758">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T758">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U758">
         <v>1.8</v>
@@ -67969,19 +67969,19 @@
         <v>2.05</v>
       </c>
       <c r="W758">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X758">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA758">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB758">
         <v>0.8</v>
@@ -67995,7 +67995,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68007,49 +68007,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F759" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G759" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I759">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J759" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K759">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L759">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M759">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N759">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O759">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P759">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q759">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R759">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S759">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T759">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U759">
         <v>1.8</v>
@@ -68058,19 +68058,19 @@
         <v>2.05</v>
       </c>
       <c r="W759">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X759">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA759">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB759">
         <v>0.8</v>
@@ -69443,10 +69443,10 @@
         <v>0.25</v>
       </c>
       <c r="R775">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S775">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T775">
         <v>2.25</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>3898702</v>
+        <v>3899309</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,10 +21549,10 @@
         <v>44535.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21564,43 +21564,43 @@
         <v>47</v>
       </c>
       <c r="K237">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M237">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N237">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W237">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21609,16 +21609,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3899309</v>
+        <v>3898702</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,10 +21638,10 @@
         <v>44535.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21653,61 +21653,61 @@
         <v>47</v>
       </c>
       <c r="K238">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.875</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
+        <v>1.975</v>
+      </c>
+      <c r="W238">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>-1</v>
+      </c>
+      <c r="Z238">
+        <v>0.4875</v>
+      </c>
+      <c r="AA238">
         <v>-0.5</v>
       </c>
-      <c r="R238">
-        <v>1.8</v>
-      </c>
-      <c r="S238">
-        <v>2.05</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.85</v>
-      </c>
-      <c r="W238">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X238">
-        <v>-1</v>
-      </c>
-      <c r="Y238">
-        <v>-1</v>
-      </c>
-      <c r="Z238">
-        <v>0.8</v>
-      </c>
-      <c r="AA238">
-        <v>-1</v>
-      </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>3898757</v>
+        <v>3898756</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,76 +25554,76 @@
         <v>44590.41666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K282">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L282">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M282">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N282">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="O282">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P282">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q282">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA282">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC282">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3898756</v>
+        <v>3898757</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,76 +25643,76 @@
         <v>44590.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283">
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L283">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M283">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N283">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="O283">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P283">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R283">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S283">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T283">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z283">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>3898762</v>
+        <v>3898763</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,58 +26266,58 @@
         <v>44594.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G290" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H290">
         <v>3</v>
       </c>
       <c r="I290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
         <v>47</v>
       </c>
       <c r="K290">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L290">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="M290">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N290">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="O290">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P290">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q290">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R290">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S290">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T290">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U290">
+        <v>1.975</v>
+      </c>
+      <c r="V290">
         <v>1.875</v>
       </c>
-      <c r="V290">
-        <v>1.975</v>
-      </c>
       <c r="W290">
-        <v>2.8</v>
+        <v>0.363</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26326,13 +26326,13 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA290">
         <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>3898763</v>
+        <v>3898762</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,58 +26355,58 @@
         <v>44594.51041666666</v>
       </c>
       <c r="F291" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G291" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H291">
         <v>3</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J291" t="s">
         <v>47</v>
       </c>
       <c r="K291">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="L291">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="M291">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N291">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O291">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P291">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q291">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R291">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S291">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T291">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U291">
+        <v>1.875</v>
+      </c>
+      <c r="V291">
         <v>1.975</v>
       </c>
-      <c r="V291">
-        <v>1.875</v>
-      </c>
       <c r="W291">
-        <v>0.363</v>
+        <v>2.8</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26415,13 +26415,13 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26432,7 +26432,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>3898765</v>
+        <v>3899314</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26444,76 +26444,76 @@
         <v>44594.60416666666</v>
       </c>
       <c r="F292" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G292" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K292">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <v>2.2</v>
+      </c>
+      <c r="N292">
+        <v>2.4</v>
+      </c>
+      <c r="O292">
+        <v>2.9</v>
+      </c>
+      <c r="P292">
         <v>3.3</v>
-      </c>
-      <c r="M292">
-        <v>4.333</v>
-      </c>
-      <c r="N292">
-        <v>2.15</v>
-      </c>
-      <c r="O292">
-        <v>3.4</v>
-      </c>
-      <c r="P292">
-        <v>3.4</v>
       </c>
       <c r="Q292">
         <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T292">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U292">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V292">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X292">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA292">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>3899314</v>
+        <v>3898765</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,76 +26533,76 @@
         <v>44594.60416666666</v>
       </c>
       <c r="F293" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K293">
+        <v>1.8</v>
+      </c>
+      <c r="L293">
         <v>3.3</v>
       </c>
-      <c r="L293">
-        <v>3</v>
-      </c>
       <c r="M293">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N293">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O293">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P293">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q293">
         <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S293">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T293">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V293">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W293">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB293">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -28568,7 +28568,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>3899317</v>
+        <v>3899318</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28580,76 +28580,76 @@
         <v>44612.60416666666</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G316" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K316">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L316">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M316">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N316">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O316">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="P316">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q316">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R316">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S316">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U316">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V316">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W316">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28657,7 +28657,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>3899318</v>
+        <v>3899317</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,76 +28669,76 @@
         <v>44612.60416666666</v>
       </c>
       <c r="F317" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317">
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K317">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L317">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M317">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N317">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O317">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S317">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V317">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X317">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA317">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC317">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -37913,7 +37913,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5374127</v>
+        <v>5374129</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37925,76 +37925,76 @@
         <v>44815.64583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G421" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K421">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L421">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M421">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N421">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O421">
         <v>3.2</v>
       </c>
       <c r="P421">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q421">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R421">
+        <v>1.975</v>
+      </c>
+      <c r="S421">
+        <v>1.875</v>
+      </c>
+      <c r="T421">
+        <v>2</v>
+      </c>
+      <c r="U421">
+        <v>1.825</v>
+      </c>
+      <c r="V421">
         <v>2.025</v>
       </c>
-      <c r="S421">
-        <v>1.825</v>
-      </c>
-      <c r="T421">
-        <v>2</v>
-      </c>
-      <c r="U421">
-        <v>1.975</v>
-      </c>
-      <c r="V421">
-        <v>1.875</v>
-      </c>
       <c r="W421">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA421">
+        <v>-1</v>
+      </c>
+      <c r="AB421">
         <v>0.825</v>
       </c>
-      <c r="AB421">
-        <v>0</v>
-      </c>
       <c r="AC421">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38002,7 +38002,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5374129</v>
+        <v>5374127</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38014,76 +38014,76 @@
         <v>44815.64583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G422" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J422" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K422">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L422">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M422">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N422">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O422">
         <v>3.2</v>
       </c>
       <c r="P422">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q422">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R422">
+        <v>2.025</v>
+      </c>
+      <c r="S422">
+        <v>1.825</v>
+      </c>
+      <c r="T422">
+        <v>2</v>
+      </c>
+      <c r="U422">
         <v>1.975</v>
       </c>
-      <c r="S422">
+      <c r="V422">
         <v>1.875</v>
       </c>
-      <c r="T422">
-        <v>2</v>
-      </c>
-      <c r="U422">
-        <v>1.825</v>
-      </c>
-      <c r="V422">
-        <v>2.025</v>
-      </c>
       <c r="W422">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z422">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB422">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC422">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -40939,7 +40939,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5374154</v>
+        <v>5374156</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40951,76 +40951,76 @@
         <v>44857.5625</v>
       </c>
       <c r="F455" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G455" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J455" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K455">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M455">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N455">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O455">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P455">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q455">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R455">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S455">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T455">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U455">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V455">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W455">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X455">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y455">
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA455">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB455">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC455">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41028,7 +41028,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5374156</v>
+        <v>5374154</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41040,76 +41040,76 @@
         <v>44857.5625</v>
       </c>
       <c r="F456" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G456" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J456" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K456">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M456">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N456">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O456">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P456">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q456">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R456">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S456">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T456">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U456">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V456">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W456">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X456">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y456">
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA456">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB456">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC456">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -51263,7 +51263,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5374241</v>
+        <v>5369548</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51275,76 +51275,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F571" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G571" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H571">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J571" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K571">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L571">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M571">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="N571">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="O571">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P571">
-        <v>9</v>
+        <v>1.571</v>
       </c>
       <c r="Q571">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R571">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S571">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T571">
         <v>2.25</v>
       </c>
       <c r="U571">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V571">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W571">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z571">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB571">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC571">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51352,7 +51352,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5374240</v>
+        <v>5369519</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51364,76 +51364,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G572" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K572">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L572">
         <v>3.25</v>
       </c>
       <c r="M572">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N572">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O572">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P572">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q572">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R572">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S572">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T572">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U572">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V572">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W572">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA572">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51441,7 +51441,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>5374242</v>
+        <v>5374244</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51453,76 +51453,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F573" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G573" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I573">
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K573">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="L573">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M573">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N573">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O573">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P573">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="Q573">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R573">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S573">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T573">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U573">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V573">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W573">
         <v>-1</v>
       </c>
       <c r="X573">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y573">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z573">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA573">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB573">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC573">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -51530,7 +51530,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>5374244</v>
+        <v>5374242</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51542,76 +51542,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F574" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G574" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574">
         <v>1</v>
       </c>
       <c r="J574" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K574">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="L574">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M574">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="N574">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="O574">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P574">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q574">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R574">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S574">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T574">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U574">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V574">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W574">
         <v>-1</v>
       </c>
       <c r="X574">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y574">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z574">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA574">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB574">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC574">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51619,7 +51619,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>5369519</v>
+        <v>5374241</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51631,58 +51631,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F575" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G575" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I575">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J575" t="s">
         <v>47</v>
       </c>
       <c r="K575">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L575">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M575">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N575">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O575">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P575">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q575">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R575">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S575">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T575">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U575">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V575">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W575">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X575">
         <v>-1</v>
@@ -51691,16 +51691,16 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA575">
         <v>-1</v>
       </c>
       <c r="AB575">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC575">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51708,7 +51708,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5369548</v>
+        <v>5374240</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51720,55 +51720,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F576" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G576" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I576">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J576" t="s">
         <v>49</v>
       </c>
       <c r="K576">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L576">
         <v>3.25</v>
       </c>
       <c r="M576">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N576">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O576">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P576">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q576">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R576">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S576">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T576">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U576">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V576">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W576">
         <v>-1</v>
@@ -51777,19 +51777,19 @@
         <v>-1</v>
       </c>
       <c r="Y576">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="Z576">
         <v>-1</v>
       </c>
       <c r="AA576">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB576">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC576">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577" spans="1:29">
@@ -54200,7 +54200,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>6399629</v>
+        <v>6399628</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54212,76 +54212,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F604" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G604" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J604" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K604">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L604">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M604">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N604">
+        <v>1.8</v>
+      </c>
+      <c r="O604">
+        <v>3.5</v>
+      </c>
+      <c r="P604">
+        <v>4.75</v>
+      </c>
+      <c r="Q604">
+        <v>-0.5</v>
+      </c>
+      <c r="R604">
+        <v>1.825</v>
+      </c>
+      <c r="S604">
+        <v>2.025</v>
+      </c>
+      <c r="T604">
         <v>2.25</v>
       </c>
-      <c r="O604">
-        <v>3.1</v>
-      </c>
-      <c r="P604">
-        <v>3.5</v>
-      </c>
-      <c r="Q604">
-        <v>-0.25</v>
-      </c>
-      <c r="R604">
-        <v>1.9</v>
-      </c>
-      <c r="S604">
-        <v>1.95</v>
-      </c>
-      <c r="T604">
-        <v>1.75</v>
-      </c>
       <c r="U604">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V604">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W604">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X604">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y604">
         <v>-1</v>
       </c>
       <c r="Z604">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA604">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB604">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC604">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54289,7 +54289,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>6399628</v>
+        <v>6399629</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54301,76 +54301,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F605" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G605" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I605">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J605" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K605">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L605">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M605">
+        <v>3</v>
+      </c>
+      <c r="N605">
+        <v>2.25</v>
+      </c>
+      <c r="O605">
+        <v>3.1</v>
+      </c>
+      <c r="P605">
         <v>3.5</v>
       </c>
-      <c r="N605">
-        <v>1.8</v>
-      </c>
-      <c r="O605">
-        <v>3.5</v>
-      </c>
-      <c r="P605">
-        <v>4.75</v>
-      </c>
       <c r="Q605">
+        <v>-0.25</v>
+      </c>
+      <c r="R605">
+        <v>1.9</v>
+      </c>
+      <c r="S605">
+        <v>1.95</v>
+      </c>
+      <c r="T605">
+        <v>1.75</v>
+      </c>
+      <c r="U605">
+        <v>1.825</v>
+      </c>
+      <c r="V605">
+        <v>2.025</v>
+      </c>
+      <c r="W605">
+        <v>-1</v>
+      </c>
+      <c r="X605">
+        <v>2.1</v>
+      </c>
+      <c r="Y605">
+        <v>-1</v>
+      </c>
+      <c r="Z605">
         <v>-0.5</v>
       </c>
-      <c r="R605">
-        <v>1.825</v>
-      </c>
-      <c r="S605">
-        <v>2.025</v>
-      </c>
-      <c r="T605">
-        <v>2.25</v>
-      </c>
-      <c r="U605">
-        <v>2.05</v>
-      </c>
-      <c r="V605">
-        <v>1.8</v>
-      </c>
-      <c r="W605">
-        <v>0.8</v>
-      </c>
-      <c r="X605">
-        <v>-1</v>
-      </c>
-      <c r="Y605">
-        <v>-1</v>
-      </c>
-      <c r="Z605">
+      <c r="AA605">
+        <v>0.475</v>
+      </c>
+      <c r="AB605">
         <v>0.825</v>
       </c>
-      <c r="AA605">
-        <v>-1</v>
-      </c>
-      <c r="AB605">
-        <v>-1</v>
-      </c>
       <c r="AC605">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -55357,7 +55357,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>6399613</v>
+        <v>6397967</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55369,76 +55369,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F617" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G617" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H617">
+        <v>0</v>
+      </c>
+      <c r="I617">
+        <v>0</v>
+      </c>
+      <c r="J617" t="s">
+        <v>48</v>
+      </c>
+      <c r="K617">
+        <v>2.625</v>
+      </c>
+      <c r="L617">
         <v>3</v>
       </c>
-      <c r="I617">
-        <v>2</v>
-      </c>
-      <c r="J617" t="s">
-        <v>47</v>
-      </c>
-      <c r="K617">
-        <v>1.75</v>
-      </c>
-      <c r="L617">
-        <v>3.4</v>
-      </c>
       <c r="M617">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N617">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O617">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P617">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q617">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R617">
+        <v>1.9</v>
+      </c>
+      <c r="S617">
+        <v>1.95</v>
+      </c>
+      <c r="T617">
+        <v>2</v>
+      </c>
+      <c r="U617">
         <v>1.875</v>
       </c>
-      <c r="S617">
+      <c r="V617">
         <v>1.975</v>
       </c>
-      <c r="T617">
-        <v>2.25</v>
-      </c>
-      <c r="U617">
-        <v>1.8</v>
-      </c>
-      <c r="V617">
-        <v>2.05</v>
-      </c>
       <c r="W617">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X617">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y617">
         <v>-1</v>
       </c>
       <c r="Z617">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA617">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB617">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC617">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55446,7 +55446,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>6397967</v>
+        <v>6399613</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55458,76 +55458,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F618" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G618" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I618">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J618" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K618">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L618">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M618">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N618">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O618">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P618">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q618">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R618">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S618">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T618">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U618">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V618">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W618">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X618">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y618">
         <v>-1</v>
       </c>
       <c r="Z618">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA618">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB618">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC618">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55802,7 +55802,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>6399636</v>
+        <v>6399635</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55814,13 +55814,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F622" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G622" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622">
         <v>0</v>
@@ -55829,43 +55829,43 @@
         <v>47</v>
       </c>
       <c r="K622">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L622">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="M622">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="N622">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O622">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="P622">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q622">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R622">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S622">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T622">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U622">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V622">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W622">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X622">
         <v>-1</v>
@@ -55874,16 +55874,16 @@
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA622">
         <v>-1</v>
       </c>
       <c r="AB622">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC622">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55891,7 +55891,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>6399637</v>
+        <v>6399638</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55903,55 +55903,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F623" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G623" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J623" t="s">
         <v>48</v>
       </c>
       <c r="K623">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L623">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M623">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N623">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O623">
         <v>3.1</v>
       </c>
       <c r="P623">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q623">
         <v>-0.25</v>
       </c>
       <c r="R623">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S623">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T623">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U623">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V623">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W623">
         <v>-1</v>
@@ -55966,13 +55966,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA623">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB623">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC623">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -55980,7 +55980,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>6399638</v>
+        <v>6399637</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -55992,55 +55992,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F624" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G624" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J624" t="s">
         <v>48</v>
       </c>
       <c r="K624">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L624">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M624">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N624">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O624">
         <v>3.1</v>
       </c>
       <c r="P624">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q624">
         <v>-0.25</v>
       </c>
       <c r="R624">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S624">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T624">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U624">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V624">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W624">
         <v>-1</v>
@@ -56055,13 +56055,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA624">
-        <v>0.3625</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB624">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC624">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56069,7 +56069,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6399635</v>
+        <v>6399636</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56081,13 +56081,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F625" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G625" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625">
         <v>0</v>
@@ -56096,43 +56096,43 @@
         <v>47</v>
       </c>
       <c r="K625">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L625">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M625">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N625">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O625">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="P625">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q625">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R625">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S625">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T625">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U625">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V625">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W625">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56141,16 +56141,16 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA625">
         <v>-1</v>
       </c>
       <c r="AB625">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC625">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56247,7 +56247,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56259,13 +56259,13 @@
         <v>45054.625</v>
       </c>
       <c r="F627" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G627" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I627">
         <v>2</v>
@@ -56274,40 +56274,40 @@
         <v>49</v>
       </c>
       <c r="K627">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L627">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M627">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N627">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O627">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P627">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q627">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R627">
+        <v>2</v>
+      </c>
+      <c r="S627">
         <v>1.85</v>
-      </c>
-      <c r="S627">
-        <v>2</v>
       </c>
       <c r="T627">
         <v>2.75</v>
       </c>
       <c r="U627">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V627">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W627">
         <v>-1</v>
@@ -56316,19 +56316,19 @@
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA627">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB627">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC627">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56336,7 +56336,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56348,13 +56348,13 @@
         <v>45054.625</v>
       </c>
       <c r="F628" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G628" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628">
         <v>2</v>
@@ -56363,40 +56363,40 @@
         <v>49</v>
       </c>
       <c r="K628">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L628">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M628">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N628">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O628">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P628">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q628">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R628">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S628">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T628">
         <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V628">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W628">
         <v>-1</v>
@@ -56405,19 +56405,19 @@
         <v>-1</v>
       </c>
       <c r="Y628">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA628">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB628">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC628">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56514,7 +56514,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>6399640</v>
+        <v>6399641</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56526,61 +56526,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F630" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G630" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I630">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J630" t="s">
         <v>48</v>
       </c>
       <c r="K630">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L630">
         <v>3.25</v>
       </c>
       <c r="M630">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N630">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O630">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P630">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q630">
         <v>-0.25</v>
       </c>
       <c r="R630">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S630">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T630">
         <v>2</v>
       </c>
       <c r="U630">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V630">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W630">
         <v>-1</v>
       </c>
       <c r="X630">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y630">
         <v>-1</v>
@@ -56589,10 +56589,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA630">
-        <v>0.5125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB630">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC630">
         <v>-1</v>
@@ -56603,7 +56603,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>6399639</v>
+        <v>6399640</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56615,76 +56615,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F631" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G631" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I631">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J631" t="s">
         <v>48</v>
       </c>
       <c r="K631">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L631">
         <v>3.25</v>
       </c>
       <c r="M631">
+        <v>3.6</v>
+      </c>
+      <c r="N631">
+        <v>2.1</v>
+      </c>
+      <c r="O631">
         <v>3.1</v>
       </c>
-      <c r="N631">
-        <v>2.7</v>
-      </c>
-      <c r="O631">
-        <v>3.3</v>
-      </c>
       <c r="P631">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q631">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R631">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S631">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T631">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U631">
+        <v>1.8</v>
+      </c>
+      <c r="V631">
         <v>2.05</v>
       </c>
-      <c r="V631">
-        <v>1.8</v>
-      </c>
       <c r="W631">
         <v>-1</v>
       </c>
       <c r="X631">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y631">
         <v>-1</v>
       </c>
       <c r="Z631">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA631">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB631">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC631">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56692,7 +56692,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>6399641</v>
+        <v>6399639</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56704,55 +56704,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F632" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G632" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H632">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I632">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
         <v>48</v>
       </c>
       <c r="K632">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L632">
         <v>3.25</v>
       </c>
       <c r="M632">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N632">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O632">
         <v>3.3</v>
       </c>
       <c r="P632">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q632">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R632">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S632">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T632">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U632">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V632">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W632">
         <v>-1</v>
@@ -56764,16 +56764,16 @@
         <v>-1</v>
       </c>
       <c r="Z632">
+        <v>0</v>
+      </c>
+      <c r="AA632">
+        <v>-0</v>
+      </c>
+      <c r="AB632">
         <v>-0.5</v>
       </c>
-      <c r="AA632">
-        <v>0.4875</v>
-      </c>
-      <c r="AB632">
-        <v>0.925</v>
-      </c>
       <c r="AC632">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -61409,7 +61409,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61421,76 +61421,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F685" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G685" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H685">
         <v>0</v>
       </c>
       <c r="I685">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J685" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K685">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L685">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M685">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N685">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O685">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P685">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q685">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R685">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S685">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T685">
         <v>2.5</v>
       </c>
       <c r="U685">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V685">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W685">
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z685">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA685">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB685">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC685">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61498,7 +61498,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61510,76 +61510,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F686" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G686" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H686">
         <v>0</v>
       </c>
       <c r="I686">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J686" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K686">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L686">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M686">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N686">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O686">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P686">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q686">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R686">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S686">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T686">
         <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V686">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W686">
         <v>-1</v>
       </c>
       <c r="X686">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y686">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z686">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA686">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB686">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC686">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -67906,7 +67906,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67918,49 +67918,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F758" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G758" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I758">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J758" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K758">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L758">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M758">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N758">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O758">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P758">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q758">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R758">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S758">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T758">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U758">
         <v>1.8</v>
@@ -67969,19 +67969,19 @@
         <v>2.05</v>
       </c>
       <c r="W758">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X758">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA758">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB758">
         <v>0.8</v>
@@ -67995,7 +67995,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68007,49 +68007,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F759" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G759" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H759">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I759">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J759" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K759">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L759">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M759">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N759">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O759">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P759">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q759">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R759">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S759">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T759">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U759">
         <v>1.8</v>
@@ -68058,19 +68058,19 @@
         <v>2.05</v>
       </c>
       <c r="W759">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X759">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA759">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB759">
         <v>0.8</v>
@@ -69452,10 +69452,10 @@
         <v>2.25</v>
       </c>
       <c r="U775">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V775">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W775">
         <v>0</v>
@@ -69505,31 +69505,31 @@
         <v>6</v>
       </c>
       <c r="N776">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O776">
         <v>3.6</v>
       </c>
       <c r="P776">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q776">
         <v>-0.75</v>
       </c>
       <c r="R776">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S776">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T776">
         <v>2.5</v>
       </c>
       <c r="U776">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V776">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W776">
         <v>0</v>
@@ -69591,19 +69591,19 @@
         <v>-1.75</v>
       </c>
       <c r="R777">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S777">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T777">
         <v>2.75</v>
       </c>
       <c r="U777">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V777">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W777">
         <v>0</v>
@@ -69727,22 +69727,22 @@
         <v>1.4</v>
       </c>
       <c r="N779">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O779">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P779">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="Q779">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R779">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S779">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T779">
         <v>2.75</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -37379,7 +37379,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>5526807</v>
+        <v>5526806</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37391,76 +37391,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F415" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G415" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415">
         <v>0</v>
       </c>
       <c r="J415" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K415">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L415">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M415">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="N415">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O415">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P415">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R415">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S415">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T415">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U415">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V415">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W415">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X415">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y415">
         <v>-1</v>
       </c>
       <c r="Z415">
+        <v>0.5</v>
+      </c>
+      <c r="AA415">
         <v>-0.5</v>
       </c>
-      <c r="AA415">
-        <v>0.4</v>
-      </c>
       <c r="AB415">
         <v>-1</v>
       </c>
       <c r="AC415">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37468,7 +37468,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>5526806</v>
+        <v>5526807</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37480,76 +37480,76 @@
         <v>44808.64583333334</v>
       </c>
       <c r="F416" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G416" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416">
         <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K416">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L416">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M416">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N416">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O416">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q416">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R416">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S416">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T416">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U416">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V416">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W416">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X416">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y416">
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA416">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB416">
         <v>-1</v>
       </c>
       <c r="AC416">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37913,7 +37913,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5374129</v>
+        <v>5374127</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37925,76 +37925,76 @@
         <v>44815.64583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G421" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J421" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K421">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L421">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M421">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N421">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O421">
         <v>3.2</v>
       </c>
       <c r="P421">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q421">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R421">
+        <v>2.025</v>
+      </c>
+      <c r="S421">
+        <v>1.825</v>
+      </c>
+      <c r="T421">
+        <v>2</v>
+      </c>
+      <c r="U421">
         <v>1.975</v>
       </c>
-      <c r="S421">
+      <c r="V421">
         <v>1.875</v>
       </c>
-      <c r="T421">
-        <v>2</v>
-      </c>
-      <c r="U421">
-        <v>1.825</v>
-      </c>
-      <c r="V421">
-        <v>2.025</v>
-      </c>
       <c r="W421">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z421">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38002,7 +38002,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5374127</v>
+        <v>5374129</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38014,76 +38014,76 @@
         <v>44815.64583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G422" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K422">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L422">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M422">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N422">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O422">
         <v>3.2</v>
       </c>
       <c r="P422">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q422">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R422">
+        <v>1.975</v>
+      </c>
+      <c r="S422">
+        <v>1.875</v>
+      </c>
+      <c r="T422">
+        <v>2</v>
+      </c>
+      <c r="U422">
+        <v>1.825</v>
+      </c>
+      <c r="V422">
         <v>2.025</v>
       </c>
-      <c r="S422">
-        <v>1.825</v>
-      </c>
-      <c r="T422">
-        <v>2</v>
-      </c>
-      <c r="U422">
-        <v>1.975</v>
-      </c>
-      <c r="V422">
-        <v>1.875</v>
-      </c>
       <c r="W422">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA422">
+        <v>-1</v>
+      </c>
+      <c r="AB422">
         <v>0.825</v>
       </c>
-      <c r="AB422">
-        <v>0</v>
-      </c>
       <c r="AC422">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -69739,19 +69739,19 @@
         <v>1</v>
       </c>
       <c r="R779">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S779">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T779">
         <v>2.75</v>
       </c>
       <c r="U779">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V779">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W779">
         <v>0</v>
@@ -69813,10 +69813,10 @@
         <v>-0.25</v>
       </c>
       <c r="R780">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S780">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T780">
         <v>2.25</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5374240</v>
+        <v>5374242</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,40 +6858,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>46</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="N72">
-        <v>1.85</v>
+        <v>11</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R72">
         <v>1.875</v>
@@ -6903,10 +6903,10 @@
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6915,19 +6915,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>3.333</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB72">
-        <v>1</v>
-      </c>
-      <c r="AC72">
-        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5369519</v>
+        <v>5374244</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,46 +6947,46 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
         <v>2</v>
@@ -6998,19 +6998,19 @@
         <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5369548</v>
+        <v>5369519</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,49 +7036,49 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="L74">
         <v>3.25</v>
       </c>
       <c r="M74">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
         <v>1.95</v>
@@ -7087,25 +7087,25 @@
         <v>1.9</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374242</v>
+        <v>5374243</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,40 +7214,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7256,22 +7256,22 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>0.875</v>
@@ -7283,7 +7283,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374244</v>
+        <v>5374240</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
         <v>3.4</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374243</v>
+        <v>5369548</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
+        <v>5.75</v>
+      </c>
+      <c r="L78">
+        <v>3.25</v>
+      </c>
+      <c r="M78">
+        <v>1.75</v>
+      </c>
+      <c r="N78">
+        <v>7</v>
+      </c>
+      <c r="O78">
+        <v>3.6</v>
+      </c>
+      <c r="P78">
+        <v>1.571</v>
+      </c>
+      <c r="Q78">
+        <v>0.75</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>1.75</v>
+      </c>
+      <c r="T78">
         <v>2.25</v>
       </c>
-      <c r="L78">
-        <v>3.1</v>
-      </c>
-      <c r="M78">
-        <v>3.5</v>
-      </c>
-      <c r="N78">
-        <v>2.7</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78">
-        <v>2.8</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>1.875</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>2</v>
-      </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,40 +9187,40 @@
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L98">
         <v>3.1</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9229,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9318,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399628</v>
+        <v>6399627</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,16 +9617,16 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
@@ -9635,37 +9635,37 @@
         <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
         <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.825</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>2.025</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2.05</v>
-      </c>
-      <c r="V103">
-        <v>1.8</v>
       </c>
       <c r="W103">
         <v>0.8</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA103">
+        <v>-0.5</v>
+      </c>
+      <c r="AB103">
         <v>0.825</v>
       </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399629</v>
+        <v>6399628</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N104">
+        <v>1.8</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>4.75</v>
+      </c>
+      <c r="Q104">
+        <v>-0.5</v>
+      </c>
+      <c r="R104">
+        <v>1.825</v>
+      </c>
+      <c r="S104">
+        <v>2.025</v>
+      </c>
+      <c r="T104">
         <v>2.25</v>
       </c>
-      <c r="O104">
-        <v>3.1</v>
-      </c>
-      <c r="P104">
-        <v>3.5</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.9</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
-      </c>
-      <c r="T104">
-        <v>1.75</v>
-      </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399627</v>
+        <v>6399630</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
+        <v>0.925</v>
+      </c>
+      <c r="AB105">
         <v>-0.5</v>
       </c>
-      <c r="AB105">
-        <v>0.825</v>
-      </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6399630</v>
+        <v>6399629</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
         <v>3.25</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
+        <v>3.1</v>
+      </c>
+      <c r="P106">
         <v>3.5</v>
       </c>
-      <c r="P106">
-        <v>4.2</v>
-      </c>
       <c r="Q106">
+        <v>-0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.9</v>
+      </c>
+      <c r="S106">
+        <v>1.95</v>
+      </c>
+      <c r="T106">
+        <v>1.75</v>
+      </c>
+      <c r="U106">
+        <v>1.825</v>
+      </c>
+      <c r="V106">
+        <v>2.025</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>2.1</v>
+      </c>
+      <c r="Y106">
+        <v>-1</v>
+      </c>
+      <c r="Z106">
         <v>-0.5</v>
       </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.925</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>2.5</v>
-      </c>
-      <c r="Y106">
-        <v>-1</v>
-      </c>
-      <c r="Z106">
-        <v>-1</v>
-      </c>
       <c r="AA106">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6397967</v>
+        <v>6399458</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>1.083</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>29</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.875</v>
       </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6399458</v>
+        <v>6397967</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>1.083</v>
+        <v>2.7</v>
       </c>
       <c r="O119">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>29</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6399459</v>
+        <v>6397968</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,61 +11130,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>45</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
+        <v>3.25</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>1.75</v>
+      </c>
+      <c r="O120">
         <v>3.4</v>
       </c>
-      <c r="M120">
-        <v>4.2</v>
-      </c>
-      <c r="N120">
-        <v>1.615</v>
-      </c>
-      <c r="O120">
-        <v>4</v>
-      </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11193,13 +11193,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6397968</v>
+        <v>6399459</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,61 +11219,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>1.615</v>
+      </c>
+      <c r="O121">
         <v>4</v>
       </c>
-      <c r="N121">
-        <v>1.75</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
         <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11282,13 +11282,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399636</v>
+        <v>6399635</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,13 +11486,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11501,43 +11501,43 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399635</v>
+        <v>6399638</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L125">
+        <v>3.25</v>
+      </c>
+      <c r="M125">
+        <v>2.8</v>
+      </c>
+      <c r="N125">
+        <v>2.45</v>
+      </c>
+      <c r="O125">
         <v>3.1</v>
       </c>
-      <c r="M125">
-        <v>3.5</v>
-      </c>
-      <c r="N125">
-        <v>1.95</v>
-      </c>
-      <c r="O125">
-        <v>3.3</v>
-      </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T125">
         <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399638</v>
+        <v>6399636</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6399616</v>
+        <v>6397969</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,70 +11753,70 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="L127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="O127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V127">
         <v>2.05</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11857,40 +11857,40 @@
         <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M128">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N128">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O128">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q128">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6397969</v>
+        <v>6399615</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
         <v>3.25</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P129">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC129">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N134">
+        <v>1.4</v>
+      </c>
+      <c r="O134">
+        <v>4.333</v>
+      </c>
+      <c r="P134">
+        <v>9.5</v>
+      </c>
+      <c r="Q134">
+        <v>-1.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.9</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>4.5</v>
-      </c>
-      <c r="Q134">
-        <v>-0.5</v>
-      </c>
-      <c r="R134">
-        <v>1.85</v>
-      </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
+        <v>3.2</v>
+      </c>
+      <c r="M135">
+        <v>3.2</v>
+      </c>
+      <c r="N135">
+        <v>1.85</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>8</v>
-      </c>
-      <c r="N135">
-        <v>1.4</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>9.5</v>
-      </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,49 +13800,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L150">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N150">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
         <v>1.825</v>
@@ -13851,7 +13851,7 @@
         <v>2.025</v>
       </c>
       <c r="W150">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,10 +13860,10 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
         <v>0.825</v>
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100661</v>
+        <v>7100664</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,49 +13889,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M151">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N151">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P151">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
         <v>1.825</v>
@@ -13940,7 +13940,7 @@
         <v>2.025</v>
       </c>
       <c r="W151">
-        <v>0.55</v>
+        <v>0.222</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,10 +13949,10 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>0.825</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M186">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N186">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y186">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L187">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N187">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,76 +22433,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K247">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L247">
         <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.775</v>
+      </c>
+      <c r="V247">
+        <v>2.1</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
         <v>2.5</v>
       </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>2</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>2.6</v>
-      </c>
-      <c r="Y247">
-        <v>-1</v>
-      </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC247">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,76 +22522,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
         <v>3.3</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N248">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T248">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V248">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y248">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB248">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K259">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M259">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N259">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O259">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q259">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K260">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M260">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R260">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA260">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -24946,7 +24946,7 @@
         <v>3.3</v>
       </c>
       <c r="P275">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q275">
         <v>-0.25</v>
@@ -24961,10 +24961,10 @@
         <v>2.25</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V275">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -25020,25 +25020,25 @@
         <v>3.3</v>
       </c>
       <c r="P276">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q276">
         <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T276">
         <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W276">
         <v>0</v>
@@ -25091,7 +25091,7 @@
         <v>1.75</v>
       </c>
       <c r="O277">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P277">
         <v>4.75</v>
@@ -25106,13 +25106,13 @@
         <v>1.85</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U277">
+        <v>2.025</v>
+      </c>
+      <c r="V277">
         <v>1.825</v>
-      </c>
-      <c r="V277">
-        <v>2.025</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>6</v>
       </c>
       <c r="P278">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q278">
         <v>-1.75</v>
@@ -25183,10 +25183,10 @@
         <v>2.75</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V278">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25236,31 +25236,31 @@
         <v>3.25</v>
       </c>
       <c r="N279">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O279">
         <v>3.1</v>
       </c>
       <c r="P279">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q279">
         <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S279">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
         <v>2.25</v>
       </c>
       <c r="U279">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V279">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25313,28 +25313,28 @@
         <v>7</v>
       </c>
       <c r="O280">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P280">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="Q280">
         <v>1.25</v>
       </c>
       <c r="R280">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V280">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25384,31 +25384,31 @@
         <v>3.4</v>
       </c>
       <c r="N281">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O281">
         <v>3.25</v>
       </c>
       <c r="P281">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S281">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T281">
         <v>2.25</v>
       </c>
       <c r="U281">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V281">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5374242</v>
+        <v>5374244</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y72">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374244</v>
+        <v>5374243</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>3.1</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N73">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X73">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374241</v>
+        <v>5374242</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="N75">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
         <v>1.975</v>
       </c>
-      <c r="S75">
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z75">
+        <v>0.875</v>
+      </c>
+      <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374243</v>
+        <v>5374241</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,58 +7214,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
         <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
+        <v>1.4</v>
+      </c>
+      <c r="L76">
+        <v>4.333</v>
+      </c>
+      <c r="M76">
+        <v>9</v>
+      </c>
+      <c r="N76">
+        <v>1.444</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>9</v>
+      </c>
+      <c r="Q76">
+        <v>-1.25</v>
+      </c>
+      <c r="R76">
+        <v>1.975</v>
+      </c>
+      <c r="S76">
+        <v>1.875</v>
+      </c>
+      <c r="T76">
         <v>2.25</v>
       </c>
-      <c r="L76">
-        <v>3.1</v>
-      </c>
-      <c r="M76">
-        <v>3.5</v>
-      </c>
-      <c r="N76">
-        <v>2.7</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>2.8</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.975</v>
-      </c>
-      <c r="T76">
-        <v>2</v>
-      </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374240</v>
+        <v>5369548</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L77">
         <v>3.25</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N77">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q77">
+        <v>0.75</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>1.75</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>0.571</v>
+      </c>
+      <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
+        <v>0.75</v>
+      </c>
+      <c r="AB77">
         <v>-0.5</v>
       </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>3.333</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
-      </c>
-      <c r="AA77">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
-      </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5369548</v>
+        <v>5374240</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,55 +7392,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7449,19 +7449,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399632</v>
+        <v>6399631</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.9</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.825</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399631</v>
+        <v>6399632</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.3</v>
       </c>
       <c r="L116">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.95</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>2.025</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>2.025</v>
-      </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11857,40 +11857,40 @@
         <v>46</v>
       </c>
       <c r="K128">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L128">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O128">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P128">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
         <v>1.85</v>
-      </c>
-      <c r="S128">
-        <v>2</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC128">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -11946,40 +11946,40 @@
         <v>46</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M129">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N129">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O129">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P129">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11988,19 +11988,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>3.2</v>
+      </c>
+      <c r="N134">
+        <v>1.85</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
         <v>4.5</v>
       </c>
-      <c r="M134">
-        <v>8</v>
-      </c>
-      <c r="N134">
-        <v>1.4</v>
-      </c>
-      <c r="O134">
-        <v>4.333</v>
-      </c>
-      <c r="P134">
-        <v>9.5</v>
-      </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6399460</v>
+        <v>6399617</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135">
+        <v>1.05</v>
+      </c>
+      <c r="L135">
+        <v>13</v>
+      </c>
+      <c r="M135">
+        <v>34</v>
+      </c>
+      <c r="N135">
+        <v>1.03</v>
+      </c>
+      <c r="O135">
+        <v>17</v>
+      </c>
+      <c r="P135">
         <v>41</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>46</v>
-      </c>
-      <c r="K135">
-        <v>2.375</v>
-      </c>
-      <c r="L135">
-        <v>3.2</v>
-      </c>
-      <c r="M135">
-        <v>3.2</v>
-      </c>
-      <c r="N135">
-        <v>1.85</v>
-      </c>
-      <c r="O135">
-        <v>3.5</v>
-      </c>
-      <c r="P135">
-        <v>4.5</v>
-      </c>
       <c r="Q135">
+        <v>-3.5</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>4.25</v>
+      </c>
+      <c r="U135">
+        <v>1.925</v>
+      </c>
+      <c r="V135">
+        <v>1.925</v>
+      </c>
+      <c r="W135">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.85</v>
-      </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>2.025</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>3.5</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
-      <c r="AA135">
-        <v>1</v>
-      </c>
-      <c r="AB135">
-        <v>-1</v>
-      </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6399617</v>
+        <v>6397970</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="L136">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N136">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="O136">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="Q136">
-        <v>-3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
         <v>1.9</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
       <c r="T136">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100664</v>
+        <v>7100665</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L151">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="N151">
-        <v>1.222</v>
+        <v>4.5</v>
       </c>
       <c r="O151">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q151">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>0.222</v>
+        <v>3.5</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,16 +13949,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,13 +13978,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13993,43 +13993,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M152">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N152">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P152">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,76 +22433,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L247">
         <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V247">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y247">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,76 +22522,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G248" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K248">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L248">
         <v>3.3</v>
       </c>
       <c r="M248">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
+        <v>2</v>
+      </c>
+      <c r="U248">
+        <v>1.775</v>
+      </c>
+      <c r="V248">
+        <v>2.1</v>
+      </c>
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
         <v>2.5</v>
       </c>
-      <c r="U248">
-        <v>1.85</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
-      <c r="W248">
-        <v>-1</v>
-      </c>
-      <c r="X248">
-        <v>2.6</v>
-      </c>
-      <c r="Y248">
-        <v>-1</v>
-      </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC248">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K259">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M259">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N259">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O259">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R259">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X259">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA259">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K260">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M260">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N260">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O260">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q260">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S260">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -24940,31 +24940,31 @@
         <v>3.7</v>
       </c>
       <c r="N275">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O275">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U275">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V275">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -25026,19 +25026,19 @@
         <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T276">
         <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V276">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>0</v>
@@ -25088,31 +25088,31 @@
         <v>6</v>
       </c>
       <c r="N277">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O277">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P277">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T277">
         <v>2.75</v>
       </c>
       <c r="U277">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25147,46 +25147,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G278" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K278">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L278">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M278">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N278">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="O278">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P278">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="Q278">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S278">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T278">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V278">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25209,7 +25209,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25221,46 +25221,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K279">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L279">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M279">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N279">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O279">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P279">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R279">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S279">
+        <v>1.975</v>
+      </c>
+      <c r="T279">
+        <v>2.75</v>
+      </c>
+      <c r="U279">
         <v>1.85</v>
       </c>
-      <c r="T279">
-        <v>2.25</v>
-      </c>
-      <c r="U279">
-        <v>2.1</v>
-      </c>
       <c r="V279">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25384,31 +25384,31 @@
         <v>3.4</v>
       </c>
       <c r="N281">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O281">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S281">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W281">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC281"/>
+  <dimension ref="A1:AC288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5374232</v>
+        <v>5369517</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.3625</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5369517</v>
+        <v>5374232</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
+        <v>2.2</v>
+      </c>
+      <c r="L62">
+        <v>3.2</v>
+      </c>
+      <c r="M62">
+        <v>3.5</v>
+      </c>
+      <c r="N62">
         <v>2.55</v>
       </c>
-      <c r="L62">
+      <c r="O62">
+        <v>3.1</v>
+      </c>
+      <c r="P62">
         <v>3</v>
       </c>
-      <c r="M62">
-        <v>3</v>
-      </c>
-      <c r="N62">
-        <v>2.8</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
-      <c r="P62">
-        <v>2.8</v>
-      </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>2.15</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5374244</v>
+        <v>5369519</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,46 +6858,46 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O72">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T72">
         <v>2</v>
@@ -6909,19 +6909,19 @@
         <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X72">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AA72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374243</v>
+        <v>5369548</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
+        <v>5.75</v>
+      </c>
+      <c r="L73">
+        <v>3.25</v>
+      </c>
+      <c r="M73">
+        <v>1.75</v>
+      </c>
+      <c r="N73">
+        <v>7</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
+        <v>1.571</v>
+      </c>
+      <c r="Q73">
+        <v>0.75</v>
+      </c>
+      <c r="R73">
+        <v>2.05</v>
+      </c>
+      <c r="S73">
+        <v>1.75</v>
+      </c>
+      <c r="T73">
         <v>2.25</v>
       </c>
-      <c r="L73">
-        <v>3.1</v>
-      </c>
-      <c r="M73">
-        <v>3.5</v>
-      </c>
-      <c r="N73">
-        <v>2.7</v>
-      </c>
-      <c r="O73">
-        <v>3</v>
-      </c>
-      <c r="P73">
-        <v>2.8</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>1.875</v>
-      </c>
-      <c r="S73">
-        <v>1.975</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5369519</v>
+        <v>5374244</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,46 +7036,46 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -7087,19 +7087,19 @@
         <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5369548</v>
+        <v>5374243</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,40 +9187,40 @@
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
         <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9229,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9318,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399627</v>
+        <v>6399630</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.925</v>
+      </c>
+      <c r="AB103">
         <v>-0.5</v>
       </c>
-      <c r="AB103">
-        <v>0.825</v>
-      </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399630</v>
+        <v>6399627</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
+        <v>2.025</v>
+      </c>
+      <c r="W105">
+        <v>0.8</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.95</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>2.5</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
-      <c r="AA105">
-        <v>0.925</v>
-      </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399633</v>
+        <v>6399634</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R113">
+        <v>1.875</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
         <v>2.05</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.8</v>
       </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>1.9</v>
       </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399634</v>
+        <v>6399633</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399631</v>
+        <v>6399632</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>2.3</v>
       </c>
       <c r="L115">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
+        <v>1.9</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
         <v>2.025</v>
       </c>
-      <c r="S115">
-        <v>1.825</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>2.025</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399632</v>
+        <v>6399631</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
+        <v>1.825</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>2.025</v>
+      </c>
+      <c r="V116">
+        <v>1.825</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
         <v>1.9</v>
       </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>2.025</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
       <c r="Y116">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.825</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6399458</v>
+        <v>6399613</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,58 +10863,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="L117">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N117">
-        <v>1.083</v>
+        <v>1.7</v>
       </c>
       <c r="O117">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>29</v>
+        <v>5.25</v>
       </c>
       <c r="Q117">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>0.08299999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10923,13 +10923,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6399613</v>
+        <v>6399458</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M118">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N118">
-        <v>1.7</v>
+        <v>1.083</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="P118">
-        <v>5.25</v>
+        <v>29</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>1.85</v>
+      </c>
+      <c r="T118">
+        <v>3.5</v>
+      </c>
+      <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.8</v>
-      </c>
-      <c r="V118">
-        <v>2.05</v>
-      </c>
       <c r="W118">
-        <v>0.7</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,13 +11012,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6399459</v>
+        <v>6399614</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M121">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="N121">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R121">
+        <v>2.025</v>
+      </c>
+      <c r="S121">
         <v>1.825</v>
       </c>
-      <c r="S121">
-        <v>2.025</v>
-      </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6399614</v>
+        <v>6399459</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>45</v>
+      </c>
+      <c r="K122">
+        <v>1.909</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>4.2</v>
+      </c>
+      <c r="N122">
+        <v>1.615</v>
+      </c>
+      <c r="O122">
         <v>4</v>
       </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
-      <c r="J122" t="s">
-        <v>47</v>
-      </c>
-      <c r="K122">
-        <v>1.4</v>
-      </c>
-      <c r="L122">
-        <v>4.333</v>
-      </c>
-      <c r="M122">
-        <v>9</v>
-      </c>
-      <c r="N122">
-        <v>1.2</v>
-      </c>
-      <c r="O122">
-        <v>7</v>
-      </c>
       <c r="P122">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q122">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
+        <v>1.825</v>
+      </c>
+      <c r="S122">
         <v>2.025</v>
       </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6399637</v>
+        <v>6399638</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,55 +11397,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>45</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O123">
         <v>3.1</v>
       </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q123">
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11460,13 +11460,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399635</v>
+        <v>6399637</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
+        <v>3.2</v>
+      </c>
+      <c r="M124">
+        <v>3.8</v>
+      </c>
+      <c r="N124">
+        <v>2.1</v>
+      </c>
+      <c r="O124">
         <v>3.1</v>
       </c>
-      <c r="M124">
-        <v>3.5</v>
-      </c>
-      <c r="N124">
-        <v>1.95</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>2.1</v>
+      </c>
+      <c r="V124">
+        <v>1.775</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
-      <c r="S124">
-        <v>1.85</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
-      <c r="W124">
-        <v>0.95</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>1</v>
-      </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399638</v>
+        <v>6399635</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>1</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.3625</v>
-      </c>
-      <c r="AB125">
-        <v>0.875</v>
-      </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399639</v>
+        <v>6399640</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
+        <v>3.6</v>
+      </c>
+      <c r="N131">
+        <v>2.1</v>
+      </c>
+      <c r="O131">
         <v>3.1</v>
       </c>
-      <c r="N131">
-        <v>2.7</v>
-      </c>
-      <c r="O131">
-        <v>3.3</v>
-      </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
         <v>2.05</v>
       </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399640</v>
+        <v>6399639</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
+        <v>2.05</v>
+      </c>
+      <c r="V132">
         <v>1.8</v>
       </c>
-      <c r="V132">
-        <v>2.05</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>-0</v>
+      </c>
+      <c r="AB132">
         <v>-0.5</v>
       </c>
-      <c r="AA132">
-        <v>0.5125</v>
-      </c>
-      <c r="AB132">
-        <v>0.8</v>
-      </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6399460</v>
+        <v>6399617</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>47</v>
+      </c>
+      <c r="K134">
+        <v>1.05</v>
+      </c>
+      <c r="L134">
+        <v>13</v>
+      </c>
+      <c r="M134">
+        <v>34</v>
+      </c>
+      <c r="N134">
+        <v>1.03</v>
+      </c>
+      <c r="O134">
+        <v>17</v>
+      </c>
+      <c r="P134">
         <v>41</v>
       </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>46</v>
-      </c>
-      <c r="K134">
-        <v>2.375</v>
-      </c>
-      <c r="L134">
-        <v>3.2</v>
-      </c>
-      <c r="M134">
-        <v>3.2</v>
-      </c>
-      <c r="N134">
-        <v>1.85</v>
-      </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>4.5</v>
-      </c>
       <c r="Q134">
+        <v>-3.5</v>
+      </c>
+      <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
+        <v>1.95</v>
+      </c>
+      <c r="T134">
+        <v>4.25</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>-0.5</v>
       </c>
-      <c r="R134">
-        <v>1.85</v>
-      </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>3.5</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>1</v>
-      </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6399617</v>
+        <v>6399460</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.05</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="N135">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>41</v>
+        <v>4.5</v>
       </c>
       <c r="Q135">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>47</v>
       </c>
       <c r="K151">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M151">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N151">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P151">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,16 +13949,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100664</v>
+        <v>7100665</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,13 +13978,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13993,43 +13993,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L152">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="N152">
-        <v>1.222</v>
+        <v>4.5</v>
       </c>
       <c r="O152">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>0.222</v>
+        <v>3.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K259">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M259">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N259">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O259">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q259">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K260">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M260">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R260">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA260">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -24930,6 +24930,15 @@
       <c r="G275" t="s">
         <v>34</v>
       </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275" t="s">
+        <v>45</v>
+      </c>
       <c r="K275">
         <v>2.05</v>
       </c>
@@ -24940,46 +24949,52 @@
         <v>3.7</v>
       </c>
       <c r="N275">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O275">
         <v>3.1</v>
       </c>
       <c r="P275">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
+        <v>2.025</v>
+      </c>
+      <c r="S275">
         <v>1.825</v>
       </c>
-      <c r="S275">
-        <v>2.025</v>
-      </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V275">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB275">
+        <v>0</v>
+      </c>
+      <c r="AC275">
+        <v>-0</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25004,6 +25019,15 @@
       <c r="G276" t="s">
         <v>39</v>
       </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>45</v>
+      </c>
       <c r="K276">
         <v>4.2</v>
       </c>
@@ -25035,25 +25059,31 @@
         <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA276">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB276">
+        <v>-0.5</v>
+      </c>
+      <c r="AC276">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25078,6 +25108,15 @@
       <c r="G277" t="s">
         <v>43</v>
       </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277" t="s">
+        <v>46</v>
+      </c>
       <c r="K277">
         <v>1.6</v>
       </c>
@@ -25088,46 +25127,52 @@
         <v>6</v>
       </c>
       <c r="N277">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O277">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P277">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q277">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T277">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB277">
+        <v>0.825</v>
+      </c>
+      <c r="AC277">
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25135,7 +25180,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25147,61 +25192,76 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="H278">
+        <v>4</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278" t="s">
+        <v>47</v>
       </c>
       <c r="K278">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L278">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M278">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N278">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O278">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="P278">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R278">
+        <v>1.825</v>
+      </c>
+      <c r="S278">
         <v>2.025</v>
       </c>
-      <c r="S278">
+      <c r="T278">
+        <v>3</v>
+      </c>
+      <c r="U278">
+        <v>2.025</v>
+      </c>
+      <c r="V278">
         <v>1.825</v>
       </c>
-      <c r="T278">
-        <v>2</v>
-      </c>
-      <c r="U278">
-        <v>1.8</v>
-      </c>
-      <c r="V278">
-        <v>2.05</v>
-      </c>
       <c r="W278">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA278">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB278">
+        <v>1.025</v>
+      </c>
+      <c r="AC278">
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25209,7 +25269,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25221,40 +25281,49 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>4</v>
+      </c>
+      <c r="J279" t="s">
+        <v>46</v>
       </c>
       <c r="K279">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L279">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M279">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N279">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="O279">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="P279">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S279">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U279">
         <v>1.85</v>
@@ -25263,19 +25332,25 @@
         <v>2</v>
       </c>
       <c r="W279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0</v>
+        <v>1.125</v>
+      </c>
+      <c r="AB279">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC279">
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25300,6 +25375,15 @@
       <c r="G280" t="s">
         <v>35</v>
       </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280" t="s">
+        <v>46</v>
+      </c>
       <c r="K280">
         <v>8.5</v>
       </c>
@@ -25310,46 +25394,52 @@
         <v>1.4</v>
       </c>
       <c r="N280">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O280">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P280">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="Q280">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R280">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S280">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U280">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V280">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="Z280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
+        <v>0.925</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25374,6 +25464,15 @@
       <c r="G281" t="s">
         <v>41</v>
       </c>
+      <c r="H281">
+        <v>2</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281" t="s">
+        <v>47</v>
+      </c>
       <c r="K281">
         <v>2.2</v>
       </c>
@@ -25384,10 +25483,10 @@
         <v>3.4</v>
       </c>
       <c r="N281">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P281">
         <v>3.2</v>
@@ -25396,33 +25495,557 @@
         <v>-0.25</v>
       </c>
       <c r="R281">
+        <v>2.05</v>
+      </c>
+      <c r="S281">
+        <v>1.8</v>
+      </c>
+      <c r="T281">
+        <v>2</v>
+      </c>
+      <c r="U281">
+        <v>1.975</v>
+      </c>
+      <c r="V281">
+        <v>1.875</v>
+      </c>
+      <c r="W281">
+        <v>1.4</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
+        <v>-1</v>
+      </c>
+      <c r="Z281">
+        <v>1.05</v>
+      </c>
+      <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
+        <v>0</v>
+      </c>
+      <c r="AC281">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>7761584</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45332.52083333334</v>
+      </c>
+      <c r="F282" t="s">
+        <v>41</v>
+      </c>
+      <c r="G282" t="s">
+        <v>29</v>
+      </c>
+      <c r="K282">
+        <v>1.25</v>
+      </c>
+      <c r="L282">
+        <v>5.5</v>
+      </c>
+      <c r="M282">
+        <v>13</v>
+      </c>
+      <c r="N282">
+        <v>1.285</v>
+      </c>
+      <c r="O282">
+        <v>5.5</v>
+      </c>
+      <c r="P282">
+        <v>11</v>
+      </c>
+      <c r="Q282">
+        <v>-1.5</v>
+      </c>
+      <c r="R282">
+        <v>1.825</v>
+      </c>
+      <c r="S282">
+        <v>2.025</v>
+      </c>
+      <c r="T282">
+        <v>3</v>
+      </c>
+      <c r="U282">
+        <v>1.925</v>
+      </c>
+      <c r="V282">
+        <v>1.925</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>7761585</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45332.58333333334</v>
+      </c>
+      <c r="F283" t="s">
+        <v>31</v>
+      </c>
+      <c r="G283" t="s">
+        <v>39</v>
+      </c>
+      <c r="K283">
+        <v>4</v>
+      </c>
+      <c r="L283">
+        <v>3.5</v>
+      </c>
+      <c r="M283">
+        <v>1.909</v>
+      </c>
+      <c r="N283">
+        <v>4.333</v>
+      </c>
+      <c r="O283">
+        <v>3.6</v>
+      </c>
+      <c r="P283">
+        <v>1.833</v>
+      </c>
+      <c r="Q283">
+        <v>0.5</v>
+      </c>
+      <c r="R283">
+        <v>2.05</v>
+      </c>
+      <c r="S283">
+        <v>1.8</v>
+      </c>
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
+        <v>1.875</v>
+      </c>
+      <c r="V283">
+        <v>1.975</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>6937252</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45332.60416666666</v>
+      </c>
+      <c r="F284" t="s">
+        <v>34</v>
+      </c>
+      <c r="G284" t="s">
+        <v>38</v>
+      </c>
+      <c r="K284">
+        <v>2.625</v>
+      </c>
+      <c r="L284">
+        <v>3.25</v>
+      </c>
+      <c r="M284">
+        <v>2.7</v>
+      </c>
+      <c r="N284">
+        <v>2.2</v>
+      </c>
+      <c r="O284">
+        <v>3.3</v>
+      </c>
+      <c r="P284">
+        <v>3.4</v>
+      </c>
+      <c r="Q284">
+        <v>-0.25</v>
+      </c>
+      <c r="R284">
+        <v>1.925</v>
+      </c>
+      <c r="S284">
+        <v>1.925</v>
+      </c>
+      <c r="T284">
+        <v>2.25</v>
+      </c>
+      <c r="U284">
+        <v>1.9</v>
+      </c>
+      <c r="V284">
         <v>1.95</v>
       </c>
-      <c r="S281">
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>7761587</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F285" t="s">
+        <v>43</v>
+      </c>
+      <c r="G285" t="s">
+        <v>37</v>
+      </c>
+      <c r="K285">
+        <v>2.375</v>
+      </c>
+      <c r="L285">
+        <v>3.25</v>
+      </c>
+      <c r="M285">
+        <v>3</v>
+      </c>
+      <c r="N285">
+        <v>2.2</v>
+      </c>
+      <c r="O285">
+        <v>3.3</v>
+      </c>
+      <c r="P285">
+        <v>3.4</v>
+      </c>
+      <c r="Q285">
+        <v>-0.25</v>
+      </c>
+      <c r="R285">
+        <v>1.875</v>
+      </c>
+      <c r="S285">
+        <v>1.975</v>
+      </c>
+      <c r="T285">
+        <v>2.25</v>
+      </c>
+      <c r="U285">
+        <v>1.8</v>
+      </c>
+      <c r="V285">
+        <v>2.05</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>7761588</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45333.5</v>
+      </c>
+      <c r="F286" t="s">
+        <v>44</v>
+      </c>
+      <c r="G286" t="s">
+        <v>42</v>
+      </c>
+      <c r="K286">
+        <v>7.5</v>
+      </c>
+      <c r="L286">
+        <v>4.75</v>
+      </c>
+      <c r="M286">
+        <v>1.4</v>
+      </c>
+      <c r="N286">
+        <v>7.5</v>
+      </c>
+      <c r="O286">
+        <v>4.5</v>
+      </c>
+      <c r="P286">
+        <v>1.444</v>
+      </c>
+      <c r="Q286">
+        <v>1.25</v>
+      </c>
+      <c r="R286">
+        <v>1.85</v>
+      </c>
+      <c r="S286">
+        <v>2</v>
+      </c>
+      <c r="T286">
+        <v>2.5</v>
+      </c>
+      <c r="U286">
+        <v>1.95</v>
+      </c>
+      <c r="V286">
         <v>1.9</v>
       </c>
-      <c r="T281">
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>7761586</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45333.60416666666</v>
+      </c>
+      <c r="F287" t="s">
+        <v>36</v>
+      </c>
+      <c r="G287" t="s">
+        <v>33</v>
+      </c>
+      <c r="K287">
+        <v>2.4</v>
+      </c>
+      <c r="L287">
+        <v>3.2</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>2.4</v>
+      </c>
+      <c r="O287">
+        <v>3.3</v>
+      </c>
+      <c r="P287">
+        <v>3</v>
+      </c>
+      <c r="Q287">
+        <v>-0.25</v>
+      </c>
+      <c r="R287">
+        <v>2.1</v>
+      </c>
+      <c r="S287">
+        <v>1.775</v>
+      </c>
+      <c r="T287">
+        <v>2.25</v>
+      </c>
+      <c r="U287">
+        <v>2.025</v>
+      </c>
+      <c r="V287">
+        <v>1.825</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>6937253</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45333.625</v>
+      </c>
+      <c r="F288" t="s">
+        <v>35</v>
+      </c>
+      <c r="G288" t="s">
+        <v>40</v>
+      </c>
+      <c r="K288">
         <v>2.5</v>
       </c>
-      <c r="U281">
-        <v>2.05</v>
-      </c>
-      <c r="V281">
-        <v>1.8</v>
-      </c>
-      <c r="W281">
-        <v>0</v>
-      </c>
-      <c r="X281">
-        <v>0</v>
-      </c>
-      <c r="Y281">
-        <v>0</v>
-      </c>
-      <c r="Z281">
-        <v>0</v>
-      </c>
-      <c r="AA281">
+      <c r="L288">
+        <v>3.25</v>
+      </c>
+      <c r="M288">
+        <v>2.9</v>
+      </c>
+      <c r="N288">
+        <v>2.4</v>
+      </c>
+      <c r="O288">
+        <v>3.2</v>
+      </c>
+      <c r="P288">
+        <v>3.1</v>
+      </c>
+      <c r="Q288">
+        <v>-0.25</v>
+      </c>
+      <c r="R288">
+        <v>2.025</v>
+      </c>
+      <c r="S288">
+        <v>1.825</v>
+      </c>
+      <c r="T288">
+        <v>2.5</v>
+      </c>
+      <c r="U288">
+        <v>1.875</v>
+      </c>
+      <c r="V288">
+        <v>1.975</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC288"/>
+  <dimension ref="A1:AC290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5369517</v>
+        <v>5374232</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
+        <v>2.2</v>
+      </c>
+      <c r="L61">
+        <v>3.2</v>
+      </c>
+      <c r="M61">
+        <v>3.5</v>
+      </c>
+      <c r="N61">
         <v>2.55</v>
       </c>
-      <c r="L61">
+      <c r="O61">
+        <v>3.1</v>
+      </c>
+      <c r="P61">
         <v>3</v>
       </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>2.8</v>
-      </c>
-      <c r="O61">
-        <v>3</v>
-      </c>
-      <c r="P61">
-        <v>2.8</v>
-      </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2.15</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y61">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5374232</v>
+        <v>5369517</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.3625</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5369548</v>
+        <v>5374242</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,55 +6947,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>46</v>
       </c>
       <c r="K73">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="N73">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="Q73">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7004,19 +7004,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.571</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374242</v>
+        <v>5374243</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="N75">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>1.875</v>
@@ -7167,22 +7167,22 @@
         <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>0.875</v>
@@ -7194,7 +7194,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374243</v>
+        <v>5374240</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,40 +7303,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7345,7 +7345,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7354,25 +7354,25 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374240</v>
+        <v>5369548</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q78">
+        <v>0.75</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>1.75</v>
+      </c>
+      <c r="T78">
+        <v>2.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>0.571</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>0.75</v>
+      </c>
+      <c r="AB78">
         <v>-0.5</v>
       </c>
-      <c r="R78">
-        <v>1.875</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>3.333</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB78">
-        <v>1</v>
-      </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399628</v>
+        <v>6399627</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,16 +9706,16 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
@@ -9724,37 +9724,37 @@
         <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
         <v>1.8</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.825</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.05</v>
-      </c>
-      <c r="V104">
-        <v>1.8</v>
       </c>
       <c r="W104">
         <v>0.8</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA104">
+        <v>-0.5</v>
+      </c>
+      <c r="AB104">
         <v>0.825</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399627</v>
+        <v>6399628</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,16 +9795,16 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>47</v>
@@ -9813,37 +9813,37 @@
         <v>2.2</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N105">
         <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>1.825</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>2.05</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.8</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.825</v>
-      </c>
-      <c r="V105">
-        <v>2.025</v>
       </c>
       <c r="W105">
         <v>0.8</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399634</v>
+        <v>6399632</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,73 +10507,73 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L113">
         <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399632</v>
+        <v>6399634</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,73 +10685,73 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L115">
         <v>3.1</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2.05</v>
+      </c>
+      <c r="V115">
+        <v>1.8</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.9</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6399613</v>
+        <v>6397967</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>2.625</v>
+      </c>
+      <c r="L117">
         <v>3</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>47</v>
-      </c>
-      <c r="K117">
-        <v>1.75</v>
-      </c>
-      <c r="L117">
-        <v>3.4</v>
-      </c>
       <c r="M117">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
         <v>1.875</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2.05</v>
-      </c>
       <c r="W117">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6397967</v>
+        <v>6399613</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N119">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6397968</v>
+        <v>6399614</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M120">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P120">
-        <v>5.25</v>
+        <v>17</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R120">
+        <v>2.025</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>1.8</v>
+      </c>
+      <c r="V120">
         <v>2.05</v>
       </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.775</v>
-      </c>
-      <c r="V120">
-        <v>2.1</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA120">
+        <v>-0</v>
+      </c>
+      <c r="AB120">
         <v>0.8</v>
       </c>
-      <c r="AB120">
-        <v>0</v>
-      </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6399614</v>
+        <v>6399459</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>45</v>
+      </c>
+      <c r="K121">
+        <v>1.909</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>1.615</v>
+      </c>
+      <c r="O121">
         <v>4</v>
       </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121" t="s">
-        <v>47</v>
-      </c>
-      <c r="K121">
-        <v>1.4</v>
-      </c>
-      <c r="L121">
-        <v>4.333</v>
-      </c>
-      <c r="M121">
-        <v>9</v>
-      </c>
-      <c r="N121">
-        <v>1.2</v>
-      </c>
-      <c r="O121">
-        <v>7</v>
-      </c>
       <c r="P121">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
         <v>2.025</v>
       </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6399459</v>
+        <v>6397968</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,61 +11308,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>45</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L122">
+        <v>3.25</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+      <c r="N122">
+        <v>1.75</v>
+      </c>
+      <c r="O122">
         <v>3.4</v>
       </c>
-      <c r="M122">
-        <v>4.2</v>
-      </c>
-      <c r="N122">
-        <v>1.615</v>
-      </c>
-      <c r="O122">
-        <v>4</v>
-      </c>
       <c r="P122">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
         <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11371,13 +11371,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6399638</v>
+        <v>6399635</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
         <v>-0.5</v>
       </c>
-      <c r="AA123">
-        <v>0.3625</v>
-      </c>
-      <c r="AB123">
-        <v>0.875</v>
-      </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399637</v>
+        <v>6399636</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="M124">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P124">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399635</v>
+        <v>6399638</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L125">
+        <v>3.25</v>
+      </c>
+      <c r="M125">
+        <v>2.8</v>
+      </c>
+      <c r="N125">
+        <v>2.45</v>
+      </c>
+      <c r="O125">
         <v>3.1</v>
       </c>
-      <c r="M125">
-        <v>3.5</v>
-      </c>
-      <c r="N125">
-        <v>1.95</v>
-      </c>
-      <c r="O125">
-        <v>3.3</v>
-      </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T125">
         <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399636</v>
+        <v>6399637</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
+        <v>3.8</v>
+      </c>
+      <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
         <v>2.05</v>
       </c>
-      <c r="P126">
-        <v>4.2</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
-      <c r="R126">
-        <v>1.875</v>
-      </c>
-      <c r="S126">
-        <v>1.975</v>
-      </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6397969</v>
+        <v>6399616</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,70 +11753,70 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="N127">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
         <v>2.05</v>
       </c>
       <c r="W127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6399616</v>
+        <v>6397969</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,70 +11931,70 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="L129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q129">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
         <v>2.05</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399640</v>
+        <v>6399641</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,61 +12109,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
@@ -12172,10 +12172,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.5125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6399641</v>
+        <v>6399640</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,61 +12287,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12350,10 +12350,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.4875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6399617</v>
+        <v>6397970</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="L134">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="O134">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="Q134">
-        <v>-3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
         <v>1.9</v>
       </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
       <c r="T134">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6397970</v>
+        <v>6399617</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="L136">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="M136">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N136">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O136">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="P136">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-3.5</v>
       </c>
       <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
         <v>1.95</v>
       </c>
-      <c r="S136">
-        <v>1.9</v>
-      </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X136">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,43 +13192,43 @@
         <v>47</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,10 +13266,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13281,44 +13281,44 @@
         <v>47</v>
       </c>
       <c r="K144">
+        <v>2.375</v>
+      </c>
+      <c r="L144">
+        <v>3.1</v>
+      </c>
+      <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
+        <v>2.3</v>
+      </c>
+      <c r="O144">
+        <v>3.1</v>
+      </c>
+      <c r="P144">
+        <v>3.4</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
+        <v>1.975</v>
+      </c>
+      <c r="W144">
         <v>1.3</v>
       </c>
-      <c r="L144">
-        <v>5</v>
-      </c>
-      <c r="M144">
-        <v>11</v>
-      </c>
-      <c r="N144">
-        <v>1.25</v>
-      </c>
-      <c r="O144">
-        <v>5.5</v>
-      </c>
-      <c r="P144">
-        <v>13</v>
-      </c>
-      <c r="Q144">
-        <v>-1.75</v>
-      </c>
-      <c r="R144">
-        <v>2</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>0.25</v>
-      </c>
       <c r="X144">
         <v>-1</v>
       </c>
@@ -13326,16 +13326,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100664</v>
+        <v>7100665</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L151">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="N151">
-        <v>1.222</v>
+        <v>4.5</v>
       </c>
       <c r="O151">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q151">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>0.222</v>
+        <v>3.5</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,16 +13949,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,13 +13978,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13993,43 +13993,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M152">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N152">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P152">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -25180,7 +25180,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25192,73 +25192,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G278" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
         <v>4</v>
       </c>
-      <c r="I278">
-        <v>2</v>
-      </c>
       <c r="J278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K278">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L278">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M278">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N278">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O278">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P278">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q278">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R278">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S278">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W278">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z278">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25269,7 +25269,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25281,73 +25281,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K279">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L279">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M279">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N279">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="O279">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P279">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R279">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S279">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U279">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA279">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25536,7 +25536,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7761584</v>
+        <v>7761587</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25545,49 +25545,49 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45332.52083333334</v>
+        <v>45333.45833333334</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G282" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K282">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="L282">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M282">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N282">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="O282">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P282">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q282">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T282">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V282">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25610,7 +25610,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7761585</v>
+        <v>7761588</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25619,49 +25619,49 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45332.58333333334</v>
+        <v>45333.5</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K283">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="L283">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M283">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N283">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="O283">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P283">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="Q283">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R283">
+        <v>1.8</v>
+      </c>
+      <c r="S283">
         <v>2.05</v>
-      </c>
-      <c r="S283">
-        <v>1.8</v>
       </c>
       <c r="T283">
         <v>2.25</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6937252</v>
+        <v>7761586</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25693,49 +25693,49 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45332.60416666666</v>
+        <v>45333.60416666666</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G284" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K284">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L284">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M284">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N284">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O284">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P284">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q284">
         <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S284">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T284">
         <v>2.25</v>
       </c>
       <c r="U284">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V284">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7761587</v>
+        <v>6937253</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25767,49 +25767,49 @@
         <v>28</v>
       </c>
       <c r="E285" s="2">
-        <v>45333.45833333334</v>
+        <v>45333.625</v>
       </c>
       <c r="F285" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K285">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L285">
         <v>3.25</v>
       </c>
       <c r="M285">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N285">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O285">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P285">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q285">
         <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S285">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T285">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V285">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W285">
         <v>0</v>
@@ -25832,7 +25832,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7761588</v>
+        <v>7790736</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25841,49 +25841,49 @@
         <v>28</v>
       </c>
       <c r="E286" s="2">
-        <v>45333.5</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F286" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G286" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K286">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="L286">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M286">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N286">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="O286">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P286">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="Q286">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R286">
+        <v>2</v>
+      </c>
+      <c r="S286">
         <v>1.85</v>
       </c>
-      <c r="S286">
-        <v>2</v>
-      </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V286">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W286">
         <v>0</v>
@@ -25906,7 +25906,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7761586</v>
+        <v>7790737</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25915,49 +25915,49 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45333.60416666666</v>
+        <v>45339.625</v>
       </c>
       <c r="F287" t="s">
+        <v>42</v>
+      </c>
+      <c r="G287" t="s">
         <v>36</v>
       </c>
-      <c r="G287" t="s">
-        <v>33</v>
-      </c>
       <c r="K287">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="L287">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M287">
+        <v>11</v>
+      </c>
+      <c r="N287">
+        <v>1.285</v>
+      </c>
+      <c r="O287">
+        <v>6</v>
+      </c>
+      <c r="P287">
+        <v>9.5</v>
+      </c>
+      <c r="Q287">
+        <v>-1.5</v>
+      </c>
+      <c r="R287">
+        <v>1.825</v>
+      </c>
+      <c r="S287">
+        <v>2.025</v>
+      </c>
+      <c r="T287">
         <v>3</v>
       </c>
-      <c r="N287">
-        <v>2.4</v>
-      </c>
-      <c r="O287">
-        <v>3.3</v>
-      </c>
-      <c r="P287">
-        <v>3</v>
-      </c>
-      <c r="Q287">
-        <v>-0.25</v>
-      </c>
-      <c r="R287">
-        <v>2.1</v>
-      </c>
-      <c r="S287">
-        <v>1.775</v>
-      </c>
-      <c r="T287">
-        <v>2.25</v>
-      </c>
       <c r="U287">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V287">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
         <v>0</v>
@@ -25980,7 +25980,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6937253</v>
+        <v>7790738</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -25989,63 +25989,211 @@
         <v>28</v>
       </c>
       <c r="E288" s="2">
-        <v>45333.625</v>
+        <v>45340.4375</v>
       </c>
       <c r="F288" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K288">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L288">
         <v>3.25</v>
       </c>
       <c r="M288">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N288">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O288">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P288">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S288">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
+        <v>1.85</v>
+      </c>
+      <c r="V288">
+        <v>2</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>7790739</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45340.58333333334</v>
+      </c>
+      <c r="F289" t="s">
+        <v>40</v>
+      </c>
+      <c r="G289" t="s">
+        <v>43</v>
+      </c>
+      <c r="K289">
+        <v>1.166</v>
+      </c>
+      <c r="L289">
+        <v>7.5</v>
+      </c>
+      <c r="M289">
+        <v>15</v>
+      </c>
+      <c r="N289">
+        <v>1.166</v>
+      </c>
+      <c r="O289">
+        <v>7.5</v>
+      </c>
+      <c r="P289">
+        <v>17</v>
+      </c>
+      <c r="Q289">
+        <v>-2</v>
+      </c>
+      <c r="R289">
+        <v>1.85</v>
+      </c>
+      <c r="S289">
+        <v>2</v>
+      </c>
+      <c r="T289">
+        <v>3.25</v>
+      </c>
+      <c r="U289">
+        <v>2.05</v>
+      </c>
+      <c r="V289">
+        <v>1.8</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>7790740</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45340.64583333334</v>
+      </c>
+      <c r="F290" t="s">
+        <v>35</v>
+      </c>
+      <c r="G290" t="s">
+        <v>41</v>
+      </c>
+      <c r="K290">
+        <v>2.1</v>
+      </c>
+      <c r="L290">
+        <v>3.3</v>
+      </c>
+      <c r="M290">
+        <v>3.6</v>
+      </c>
+      <c r="N290">
+        <v>2.2</v>
+      </c>
+      <c r="O290">
+        <v>3.25</v>
+      </c>
+      <c r="P290">
+        <v>3.4</v>
+      </c>
+      <c r="Q290">
+        <v>-0.25</v>
+      </c>
+      <c r="R290">
+        <v>1.9</v>
+      </c>
+      <c r="S290">
+        <v>1.95</v>
+      </c>
+      <c r="T290">
+        <v>2.25</v>
+      </c>
+      <c r="U290">
         <v>1.875</v>
       </c>
-      <c r="V288">
+      <c r="V290">
         <v>1.975</v>
       </c>
-      <c r="W288">
-        <v>0</v>
-      </c>
-      <c r="X288">
-        <v>0</v>
-      </c>
-      <c r="Y288">
-        <v>0</v>
-      </c>
-      <c r="Z288">
-        <v>0</v>
-      </c>
-      <c r="AA288">
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC290"/>
+  <dimension ref="A1:AC295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5374232</v>
+        <v>5369517</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.3625</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5369517</v>
+        <v>5374232</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
+        <v>2.2</v>
+      </c>
+      <c r="L62">
+        <v>3.2</v>
+      </c>
+      <c r="M62">
+        <v>3.5</v>
+      </c>
+      <c r="N62">
         <v>2.55</v>
       </c>
-      <c r="L62">
+      <c r="O62">
+        <v>3.1</v>
+      </c>
+      <c r="P62">
         <v>3</v>
       </c>
-      <c r="M62">
-        <v>3</v>
-      </c>
-      <c r="N62">
-        <v>2.8</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
-      <c r="P62">
-        <v>2.8</v>
-      </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>2.15</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5369519</v>
+        <v>5374240</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
         <v>3.25</v>
       </c>
       <c r="M72">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z72">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374242</v>
+        <v>5374243</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,40 +6947,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="N73">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="O73">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>1.875</v>
@@ -6989,22 +6989,22 @@
         <v>1.975</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>0.875</v>
@@ -7016,7 +7016,7 @@
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5374244</v>
+        <v>5374241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N74">
+        <v>1.444</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74">
+        <v>9</v>
+      </c>
+      <c r="Q74">
+        <v>-1.25</v>
+      </c>
+      <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.875</v>
+      </c>
+      <c r="T74">
         <v>2.25</v>
       </c>
-      <c r="O74">
-        <v>3.1</v>
-      </c>
-      <c r="P74">
-        <v>3.5</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.9</v>
-      </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374243</v>
+        <v>5374242</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="N75">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
         <v>1.875</v>
@@ -7167,22 +7167,22 @@
         <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z75">
         <v>0.875</v>
@@ -7194,7 +7194,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374241</v>
+        <v>5369548</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="N76">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>9</v>
+        <v>1.571</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374240</v>
+        <v>5374244</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
         <v>3.4</v>
       </c>
       <c r="N77">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.9</v>
+      </c>
+      <c r="T77">
+        <v>2</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>2.1</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>-0.5</v>
       </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>3.333</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
-      </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5369548</v>
+        <v>5369519</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,49 +7392,49 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N78">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P78">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S78">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>1.95</v>
@@ -7443,25 +7443,25 @@
         <v>1.9</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA78">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399630</v>
+        <v>6399627</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>2.025</v>
+      </c>
+      <c r="W103">
+        <v>0.8</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.925</v>
-      </c>
-      <c r="S103">
-        <v>1.925</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>2.5</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.925</v>
-      </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399627</v>
+        <v>6399628</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,16 +9706,16 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
@@ -9724,37 +9724,37 @@
         <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N104">
         <v>1.8</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.825</v>
+      </c>
+      <c r="S104">
+        <v>2.025</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
         <v>2.05</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
       </c>
       <c r="W104">
         <v>0.8</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399628</v>
+        <v>6399629</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
+        <v>3</v>
+      </c>
+      <c r="N105">
+        <v>2.25</v>
+      </c>
+      <c r="O105">
+        <v>3.1</v>
+      </c>
+      <c r="P105">
         <v>3.5</v>
       </c>
-      <c r="N105">
-        <v>1.8</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
-      <c r="P105">
-        <v>4.75</v>
-      </c>
       <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.9</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>1.75</v>
+      </c>
+      <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
+        <v>2.025</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>2.1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>1.825</v>
-      </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2.05</v>
-      </c>
-      <c r="V105">
-        <v>1.8</v>
-      </c>
-      <c r="W105">
-        <v>0.8</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
+      <c r="AA105">
+        <v>0.475</v>
+      </c>
+      <c r="AB105">
         <v>0.825</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6399629</v>
+        <v>6399630</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
         <v>3.25</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N106">
+        <v>1.909</v>
+      </c>
+      <c r="O106">
+        <v>3.5</v>
+      </c>
+      <c r="P106">
+        <v>4.2</v>
+      </c>
+      <c r="Q106">
+        <v>-0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.925</v>
+      </c>
+      <c r="S106">
+        <v>1.925</v>
+      </c>
+      <c r="T106">
         <v>2.25</v>
       </c>
-      <c r="O106">
-        <v>3.1</v>
-      </c>
-      <c r="P106">
-        <v>3.5</v>
-      </c>
-      <c r="Q106">
-        <v>-0.25</v>
-      </c>
-      <c r="R106">
+      <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.9</v>
       </c>
-      <c r="S106">
-        <v>1.95</v>
-      </c>
-      <c r="T106">
-        <v>1.75</v>
-      </c>
-      <c r="U106">
-        <v>1.825</v>
-      </c>
-      <c r="V106">
-        <v>2.025</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.925</v>
+      </c>
+      <c r="AB106">
         <v>-0.5</v>
       </c>
-      <c r="AA106">
-        <v>0.475</v>
-      </c>
-      <c r="AB106">
-        <v>0.825</v>
-      </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399632</v>
+        <v>6399631</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>2.3</v>
       </c>
       <c r="L113">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S113">
+        <v>1.825</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>2.025</v>
+      </c>
+      <c r="V113">
+        <v>1.825</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>1.9</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>2.025</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
       <c r="Y113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.825</v>
-      </c>
-      <c r="AC113">
-        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399633</v>
+        <v>6399632</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>46</v>
       </c>
       <c r="K114">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399634</v>
+        <v>6399633</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399631</v>
+        <v>6399634</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,55 +10774,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N116">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O116">
         <v>2.9</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10834,16 +10834,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6397967</v>
+        <v>6399613</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6399613</v>
+        <v>6397967</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>45</v>
+      </c>
+      <c r="K119">
+        <v>2.625</v>
+      </c>
+      <c r="L119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
-      <c r="J119" t="s">
-        <v>47</v>
-      </c>
-      <c r="K119">
-        <v>1.75</v>
-      </c>
-      <c r="L119">
-        <v>3.4</v>
-      </c>
       <c r="M119">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.95</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.875</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.8</v>
-      </c>
-      <c r="V119">
-        <v>2.05</v>
-      </c>
       <c r="W119">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6399459</v>
+        <v>6397968</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,61 +11219,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
+        <v>3.25</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>1.75</v>
+      </c>
+      <c r="O121">
         <v>3.4</v>
       </c>
-      <c r="M121">
-        <v>4.2</v>
-      </c>
-      <c r="N121">
-        <v>1.615</v>
-      </c>
-      <c r="O121">
-        <v>4</v>
-      </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q121">
         <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11282,13 +11282,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6397968</v>
+        <v>6399459</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,61 +11308,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>45</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
+        <v>4.2</v>
+      </c>
+      <c r="N122">
+        <v>1.615</v>
+      </c>
+      <c r="O122">
         <v>4</v>
       </c>
-      <c r="N122">
-        <v>1.75</v>
-      </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q122">
         <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11371,13 +11371,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399636</v>
+        <v>6399638</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L124">
+        <v>3.25</v>
+      </c>
+      <c r="M124">
+        <v>2.8</v>
+      </c>
+      <c r="N124">
         <v>2.45</v>
       </c>
-      <c r="M124">
-        <v>4.1</v>
-      </c>
-      <c r="N124">
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
         <v>3</v>
       </c>
-      <c r="O124">
-        <v>2.05</v>
-      </c>
-      <c r="P124">
-        <v>4.2</v>
-      </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>2.075</v>
+      </c>
+      <c r="S124">
+        <v>1.725</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
         <v>1.875</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.975</v>
       </c>
-      <c r="T124">
-        <v>1.75</v>
-      </c>
-      <c r="U124">
-        <v>2.025</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>-0.5</v>
+      </c>
+      <c r="AA124">
+        <v>0.3625</v>
+      </c>
+      <c r="AB124">
         <v>0.875</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399638</v>
+        <v>6399637</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,55 +11575,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
         <v>3.1</v>
       </c>
       <c r="P125">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11638,13 +11638,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.3625</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399637</v>
+        <v>6399636</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="M126">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N126">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P126">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U126">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399641</v>
+        <v>6399640</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,61 +12109,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
@@ -12172,10 +12172,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399639</v>
+        <v>6399641</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,55 +12198,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>1.975</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
         <v>1.925</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.925</v>
-      </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>2.05</v>
-      </c>
-      <c r="V132">
-        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12258,16 +12258,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6399640</v>
+        <v>6399639</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
+        <v>2.05</v>
+      </c>
+      <c r="V133">
         <v>1.8</v>
       </c>
-      <c r="V133">
-        <v>2.05</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>-0</v>
+      </c>
+      <c r="AB133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0.5125</v>
-      </c>
-      <c r="AB133">
-        <v>0.8</v>
-      </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6397970</v>
+        <v>6399617</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="M134">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N134">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="P134">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-3.5</v>
       </c>
       <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.9</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6399617</v>
+        <v>6397970</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="L136">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N136">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="O136">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="Q136">
-        <v>-3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
         <v>1.9</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
       <c r="T136">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100661</v>
+        <v>7100664</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,49 +13800,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M150">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N150">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
         <v>1.825</v>
@@ -13851,7 +13851,7 @@
         <v>2.025</v>
       </c>
       <c r="W150">
-        <v>0.55</v>
+        <v>0.222</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,10 +13860,10 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
         <v>0.825</v>
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100665</v>
+        <v>7100661</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,58 +13889,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>47</v>
       </c>
       <c r="K151">
+        <v>1.8</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
         <v>4.75</v>
       </c>
-      <c r="L151">
-        <v>3.6</v>
-      </c>
-      <c r="M151">
-        <v>1.75</v>
-      </c>
       <c r="N151">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="O151">
         <v>3.8</v>
       </c>
       <c r="P151">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
         <v>1.85</v>
       </c>
-      <c r="S151">
-        <v>2</v>
-      </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
-        <v>3.5</v>
+        <v>0.55</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,16 +13949,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100664</v>
+        <v>7100665</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,13 +13978,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13993,43 +13993,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L152">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="N152">
-        <v>1.222</v>
+        <v>4.5</v>
       </c>
       <c r="O152">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>0.222</v>
+        <v>3.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K186">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L186">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N186">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P186">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K187">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N187">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y187">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K259">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M259">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N259">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O259">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R259">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X259">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA259">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K260">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M260">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N260">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O260">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q260">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S260">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -25536,7 +25536,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7761587</v>
+        <v>7761584</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25545,64 +25545,79 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45333.45833333334</v>
+        <v>45332.52083333334</v>
       </c>
       <c r="F282" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="H282">
+        <v>4</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>47</v>
       </c>
       <c r="K282">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="L282">
+        <v>5.5</v>
+      </c>
+      <c r="M282">
+        <v>13</v>
+      </c>
+      <c r="N282">
+        <v>1.181</v>
+      </c>
+      <c r="O282">
+        <v>7.5</v>
+      </c>
+      <c r="P282">
+        <v>13</v>
+      </c>
+      <c r="Q282">
+        <v>-2</v>
+      </c>
+      <c r="R282">
+        <v>1.925</v>
+      </c>
+      <c r="S282">
+        <v>1.925</v>
+      </c>
+      <c r="T282">
         <v>3.25</v>
       </c>
-      <c r="M282">
-        <v>3</v>
-      </c>
-      <c r="N282">
-        <v>2.15</v>
-      </c>
-      <c r="O282">
-        <v>3.3</v>
-      </c>
-      <c r="P282">
-        <v>3.5</v>
-      </c>
-      <c r="Q282">
-        <v>-0.25</v>
-      </c>
-      <c r="R282">
-        <v>1.85</v>
-      </c>
-      <c r="S282">
-        <v>2</v>
-      </c>
-      <c r="T282">
-        <v>2.5</v>
-      </c>
       <c r="U282">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V282">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W282">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="X282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA282">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB282">
+        <v>1.025</v>
+      </c>
+      <c r="AC282">
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25610,7 +25625,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7761588</v>
+        <v>7761585</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25619,64 +25634,79 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45333.5</v>
+        <v>45332.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>45</v>
       </c>
       <c r="K283">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="L283">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M283">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N283">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O283">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P283">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="Q283">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R283">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S283">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T283">
         <v>2.25</v>
       </c>
       <c r="U283">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X283">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA283">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
+        <v>0.875</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25684,7 +25714,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7761586</v>
+        <v>6937252</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25693,64 +25723,79 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45333.60416666666</v>
+        <v>45332.60416666666</v>
       </c>
       <c r="F284" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>47</v>
       </c>
       <c r="K284">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L284">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M284">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N284">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O284">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q284">
         <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U284">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W284">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA284">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25758,7 +25803,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6937253</v>
+        <v>7761587</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25767,28 +25812,37 @@
         <v>28</v>
       </c>
       <c r="E285" s="2">
-        <v>45333.625</v>
+        <v>45333.45833333334</v>
       </c>
       <c r="F285" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G285" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285" t="s">
+        <v>45</v>
       </c>
       <c r="K285">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L285">
         <v>3.25</v>
       </c>
       <c r="M285">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N285">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O285">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P285">
         <v>3.1</v>
@@ -25797,34 +25851,40 @@
         <v>-0.25</v>
       </c>
       <c r="R285">
+        <v>2.125</v>
+      </c>
+      <c r="S285">
+        <v>1.75</v>
+      </c>
+      <c r="T285">
+        <v>2</v>
+      </c>
+      <c r="U285">
+        <v>1.825</v>
+      </c>
+      <c r="V285">
         <v>2.025</v>
       </c>
-      <c r="S285">
-        <v>1.825</v>
-      </c>
-      <c r="T285">
-        <v>2.5</v>
-      </c>
-      <c r="U285">
-        <v>1.95</v>
-      </c>
-      <c r="V285">
-        <v>1.9</v>
-      </c>
       <c r="W285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA285">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="AB285">
+        <v>-1</v>
+      </c>
+      <c r="AC285">
+        <v>1.025</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25832,7 +25892,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7790736</v>
+        <v>7761588</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25841,64 +25901,79 @@
         <v>28</v>
       </c>
       <c r="E286" s="2">
-        <v>45339.60416666666</v>
+        <v>45333.5</v>
       </c>
       <c r="F286" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G286" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>3</v>
+      </c>
+      <c r="J286" t="s">
+        <v>46</v>
       </c>
       <c r="K286">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="L286">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M286">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N286">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O286">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P286">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Q286">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R286">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S286">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T286">
         <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V286">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Z286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB286">
+        <v>0.875</v>
+      </c>
+      <c r="AC286">
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25906,7 +25981,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7790737</v>
+        <v>7761586</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25915,64 +25990,79 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45339.625</v>
+        <v>45333.60416666666</v>
       </c>
       <c r="F287" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287" t="s">
+        <v>47</v>
       </c>
       <c r="K287">
+        <v>2.4</v>
+      </c>
+      <c r="L287">
+        <v>3.2</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>2.25</v>
+      </c>
+      <c r="O287">
+        <v>3.25</v>
+      </c>
+      <c r="P287">
+        <v>3.3</v>
+      </c>
+      <c r="Q287">
+        <v>-0.25</v>
+      </c>
+      <c r="R287">
+        <v>1.95</v>
+      </c>
+      <c r="S287">
+        <v>1.9</v>
+      </c>
+      <c r="T287">
+        <v>2.25</v>
+      </c>
+      <c r="U287">
+        <v>2.025</v>
+      </c>
+      <c r="V287">
+        <v>1.825</v>
+      </c>
+      <c r="W287">
         <v>1.25</v>
       </c>
-      <c r="L287">
-        <v>6</v>
-      </c>
-      <c r="M287">
-        <v>11</v>
-      </c>
-      <c r="N287">
-        <v>1.285</v>
-      </c>
-      <c r="O287">
-        <v>6</v>
-      </c>
-      <c r="P287">
-        <v>9.5</v>
-      </c>
-      <c r="Q287">
-        <v>-1.5</v>
-      </c>
-      <c r="R287">
-        <v>1.825</v>
-      </c>
-      <c r="S287">
-        <v>2.025</v>
-      </c>
-      <c r="T287">
-        <v>3</v>
-      </c>
-      <c r="U287">
-        <v>2.05</v>
-      </c>
-      <c r="V287">
-        <v>1.8</v>
-      </c>
-      <c r="W287">
-        <v>0</v>
-      </c>
       <c r="X287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA287">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB287">
+        <v>1.025</v>
+      </c>
+      <c r="AC287">
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -25980,7 +26070,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7790738</v>
+        <v>6937253</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -25989,64 +26079,79 @@
         <v>28</v>
       </c>
       <c r="E288" s="2">
-        <v>45340.4375</v>
+        <v>45333.625</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G288" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288" t="s">
+        <v>45</v>
       </c>
       <c r="K288">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L288">
         <v>3.25</v>
       </c>
       <c r="M288">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N288">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O288">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P288">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S288">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V288">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W288">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y288">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA288">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+      <c r="AC288">
+        <v>1.025</v>
       </c>
     </row>
     <row r="289" spans="1:27">
@@ -26054,7 +26159,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7790739</v>
+        <v>7790736</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26063,49 +26168,49 @@
         <v>28</v>
       </c>
       <c r="E289" s="2">
-        <v>45340.58333333334</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G289" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K289">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="L289">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M289">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="N289">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="O289">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P289">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="Q289">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R289">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T289">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26128,72 +26233,442 @@
         <v>288</v>
       </c>
       <c r="B290">
+        <v>7790737</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45339.64583333334</v>
+      </c>
+      <c r="F290" t="s">
+        <v>42</v>
+      </c>
+      <c r="G290" t="s">
+        <v>36</v>
+      </c>
+      <c r="K290">
+        <v>1.25</v>
+      </c>
+      <c r="L290">
+        <v>6</v>
+      </c>
+      <c r="M290">
+        <v>11</v>
+      </c>
+      <c r="N290">
+        <v>1.363</v>
+      </c>
+      <c r="O290">
+        <v>5.25</v>
+      </c>
+      <c r="P290">
+        <v>8</v>
+      </c>
+      <c r="Q290">
+        <v>-1.25</v>
+      </c>
+      <c r="R290">
+        <v>1.8</v>
+      </c>
+      <c r="S290">
+        <v>2.05</v>
+      </c>
+      <c r="T290">
+        <v>2.75</v>
+      </c>
+      <c r="U290">
+        <v>1.975</v>
+      </c>
+      <c r="V290">
+        <v>1.875</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>7790738</v>
+      </c>
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45340.4375</v>
+      </c>
+      <c r="F291" t="s">
+        <v>37</v>
+      </c>
+      <c r="G291" t="s">
+        <v>31</v>
+      </c>
+      <c r="K291">
+        <v>2.3</v>
+      </c>
+      <c r="L291">
+        <v>3.25</v>
+      </c>
+      <c r="M291">
+        <v>3.2</v>
+      </c>
+      <c r="N291">
+        <v>2.05</v>
+      </c>
+      <c r="O291">
+        <v>3.1</v>
+      </c>
+      <c r="P291">
+        <v>4.2</v>
+      </c>
+      <c r="Q291">
+        <v>-0.5</v>
+      </c>
+      <c r="R291">
+        <v>2.05</v>
+      </c>
+      <c r="S291">
+        <v>1.8</v>
+      </c>
+      <c r="T291">
+        <v>2</v>
+      </c>
+      <c r="U291">
+        <v>1.85</v>
+      </c>
+      <c r="V291">
+        <v>2</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
+      <c r="AA291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>7790739</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45340.58333333334</v>
+      </c>
+      <c r="F292" t="s">
+        <v>40</v>
+      </c>
+      <c r="G292" t="s">
+        <v>43</v>
+      </c>
+      <c r="K292">
+        <v>1.166</v>
+      </c>
+      <c r="L292">
+        <v>7.5</v>
+      </c>
+      <c r="M292">
+        <v>15</v>
+      </c>
+      <c r="N292">
+        <v>1.111</v>
+      </c>
+      <c r="O292">
+        <v>9.5</v>
+      </c>
+      <c r="P292">
+        <v>21</v>
+      </c>
+      <c r="Q292">
+        <v>-2.25</v>
+      </c>
+      <c r="R292">
+        <v>1.825</v>
+      </c>
+      <c r="S292">
+        <v>2.025</v>
+      </c>
+      <c r="T292">
+        <v>3.25</v>
+      </c>
+      <c r="U292">
+        <v>1.85</v>
+      </c>
+      <c r="V292">
+        <v>2</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
+      <c r="AA292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
         <v>7790740</v>
       </c>
-      <c r="C290" t="s">
-        <v>28</v>
-      </c>
-      <c r="D290" t="s">
-        <v>28</v>
-      </c>
-      <c r="E290" s="2">
+      <c r="C293" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" s="2">
         <v>45340.64583333334</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F293" t="s">
         <v>35</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G293" t="s">
         <v>41</v>
       </c>
-      <c r="K290">
+      <c r="K293">
         <v>2.1</v>
       </c>
-      <c r="L290">
+      <c r="L293">
         <v>3.3</v>
       </c>
-      <c r="M290">
+      <c r="M293">
         <v>3.6</v>
       </c>
-      <c r="N290">
+      <c r="N293">
+        <v>1.95</v>
+      </c>
+      <c r="O293">
+        <v>3.4</v>
+      </c>
+      <c r="P293">
+        <v>3.8</v>
+      </c>
+      <c r="Q293">
+        <v>-0.25</v>
+      </c>
+      <c r="R293">
+        <v>1.7</v>
+      </c>
+      <c r="S293">
         <v>2.2</v>
       </c>
-      <c r="O290">
+      <c r="T293">
+        <v>2.25</v>
+      </c>
+      <c r="U293">
+        <v>1.8</v>
+      </c>
+      <c r="V293">
+        <v>2.05</v>
+      </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>0</v>
+      </c>
+      <c r="Z293">
+        <v>0</v>
+      </c>
+      <c r="AA293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>7790741</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45341.52083333334</v>
+      </c>
+      <c r="F294" t="s">
+        <v>29</v>
+      </c>
+      <c r="G294" t="s">
+        <v>44</v>
+      </c>
+      <c r="K294">
+        <v>1.909</v>
+      </c>
+      <c r="L294">
+        <v>3.4</v>
+      </c>
+      <c r="M294">
+        <v>4.2</v>
+      </c>
+      <c r="N294">
+        <v>1.95</v>
+      </c>
+      <c r="O294">
+        <v>3.4</v>
+      </c>
+      <c r="P294">
+        <v>4</v>
+      </c>
+      <c r="Q294">
+        <v>-0.5</v>
+      </c>
+      <c r="R294">
+        <v>2</v>
+      </c>
+      <c r="S294">
+        <v>1.85</v>
+      </c>
+      <c r="T294">
+        <v>2.5</v>
+      </c>
+      <c r="U294">
+        <v>2.025</v>
+      </c>
+      <c r="V294">
+        <v>1.825</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>0</v>
+      </c>
+      <c r="AA294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>7790742</v>
+      </c>
+      <c r="C295" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45341.54166666666</v>
+      </c>
+      <c r="F295" t="s">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>34</v>
+      </c>
+      <c r="K295">
+        <v>1.8</v>
+      </c>
+      <c r="L295">
+        <v>3.4</v>
+      </c>
+      <c r="M295">
+        <v>4.75</v>
+      </c>
+      <c r="N295">
+        <v>1.909</v>
+      </c>
+      <c r="O295">
         <v>3.25</v>
       </c>
-      <c r="P290">
-        <v>3.4</v>
-      </c>
-      <c r="Q290">
-        <v>-0.25</v>
-      </c>
-      <c r="R290">
+      <c r="P295">
+        <v>4.5</v>
+      </c>
+      <c r="Q295">
+        <v>-0.5</v>
+      </c>
+      <c r="R295">
         <v>1.9</v>
       </c>
-      <c r="S290">
+      <c r="S295">
         <v>1.95</v>
       </c>
-      <c r="T290">
+      <c r="T295">
         <v>2.25</v>
       </c>
-      <c r="U290">
-        <v>1.875</v>
-      </c>
-      <c r="V290">
-        <v>1.975</v>
-      </c>
-      <c r="W290">
-        <v>0</v>
-      </c>
-      <c r="X290">
-        <v>0</v>
-      </c>
-      <c r="Y290">
-        <v>0</v>
-      </c>
-      <c r="Z290">
-        <v>0</v>
-      </c>
-      <c r="AA290">
+      <c r="U295">
+        <v>1.85</v>
+      </c>
+      <c r="V295">
+        <v>2</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5374240</v>
+        <v>5369548</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>46</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L72">
         <v>3.25</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N72">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q72">
+        <v>0.75</v>
+      </c>
+      <c r="R72">
+        <v>2.05</v>
+      </c>
+      <c r="S72">
+        <v>1.75</v>
+      </c>
+      <c r="T72">
+        <v>2.25</v>
+      </c>
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.9</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>0.571</v>
+      </c>
+      <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
+        <v>0.75</v>
+      </c>
+      <c r="AB72">
         <v>-0.5</v>
       </c>
-      <c r="R72">
-        <v>1.875</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>2</v>
-      </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>3.333</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
-      <c r="AA72">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB72">
-        <v>1</v>
-      </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374243</v>
+        <v>5374244</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L73">
         <v>3.1</v>
       </c>
       <c r="M73">
+        <v>3.4</v>
+      </c>
+      <c r="N73">
+        <v>2.25</v>
+      </c>
+      <c r="O73">
+        <v>3.1</v>
+      </c>
+      <c r="P73">
         <v>3.5</v>
       </c>
-      <c r="N73">
-        <v>2.7</v>
-      </c>
-      <c r="O73">
-        <v>3</v>
-      </c>
-      <c r="P73">
-        <v>2.8</v>
-      </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5374241</v>
+        <v>5374243</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,58 +7036,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N74">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
         <v>1.975</v>
       </c>
-      <c r="S74">
-        <v>1.875</v>
-      </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7096,16 +7096,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5369548</v>
+        <v>5374241</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L76">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>1.444</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>1.571</v>
+        <v>9</v>
       </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374244</v>
+        <v>5374240</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
         <v>3.4</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399628</v>
+        <v>6399629</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>2.25</v>
+      </c>
+      <c r="O104">
+        <v>3.1</v>
+      </c>
+      <c r="P104">
         <v>3.5</v>
       </c>
-      <c r="N104">
-        <v>1.8</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>4.75</v>
-      </c>
       <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>1.75</v>
+      </c>
+      <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
+        <v>2.025</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.05</v>
-      </c>
-      <c r="V104">
-        <v>1.8</v>
-      </c>
-      <c r="W104">
-        <v>0.8</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
+      <c r="AA104">
+        <v>0.475</v>
+      </c>
+      <c r="AB104">
         <v>0.825</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399629</v>
+        <v>6399630</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L105">
         <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
+        <v>1.909</v>
+      </c>
+      <c r="O105">
+        <v>3.5</v>
+      </c>
+      <c r="P105">
+        <v>4.2</v>
+      </c>
+      <c r="Q105">
+        <v>-0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.925</v>
+      </c>
+      <c r="S105">
+        <v>1.925</v>
+      </c>
+      <c r="T105">
         <v>2.25</v>
       </c>
-      <c r="O105">
-        <v>3.1</v>
-      </c>
-      <c r="P105">
-        <v>3.5</v>
-      </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.9</v>
       </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
-      <c r="T105">
-        <v>1.75</v>
-      </c>
-      <c r="U105">
-        <v>1.825</v>
-      </c>
-      <c r="V105">
-        <v>2.025</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>0.925</v>
+      </c>
+      <c r="AB105">
         <v>-0.5</v>
       </c>
-      <c r="AA105">
-        <v>0.475</v>
-      </c>
-      <c r="AB105">
-        <v>0.825</v>
-      </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6399630</v>
+        <v>6399628</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
         <v>3.5</v>
       </c>
       <c r="P106">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
         <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399631</v>
+        <v>6399632</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>2.3</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>1.9</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.825</v>
+      </c>
+      <c r="V113">
         <v>2.025</v>
       </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>2.025</v>
-      </c>
-      <c r="V113">
-        <v>1.825</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399632</v>
+        <v>6399634</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,73 +10596,73 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L114">
         <v>3.1</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P114">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>2.05</v>
+      </c>
+      <c r="V114">
+        <v>1.8</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
         <v>1.9</v>
       </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>2.025</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
       <c r="Y114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399634</v>
+        <v>6399631</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,55 +10774,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M116">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O116">
         <v>2.9</v>
       </c>
       <c r="P116">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10834,16 +10834,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6397968</v>
+        <v>6399459</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,61 +11219,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>1.615</v>
+      </c>
+      <c r="O121">
         <v>4</v>
       </c>
-      <c r="N121">
-        <v>1.75</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
         <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11282,13 +11282,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6399459</v>
+        <v>6397968</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,61 +11308,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>45</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L122">
+        <v>3.25</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+      <c r="N122">
+        <v>1.75</v>
+      </c>
+      <c r="O122">
         <v>3.4</v>
       </c>
-      <c r="M122">
-        <v>4.2</v>
-      </c>
-      <c r="N122">
-        <v>1.615</v>
-      </c>
-      <c r="O122">
-        <v>4</v>
-      </c>
       <c r="P122">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
         <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11371,13 +11371,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399638</v>
+        <v>6399637</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,55 +11486,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N124">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
         <v>3.1</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11549,13 +11549,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>0.3625</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399637</v>
+        <v>6399638</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,55 +11575,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O125">
         <v>3.1</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11638,13 +11638,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,13 +11753,13 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11768,40 +11768,40 @@
         <v>46</v>
       </c>
       <c r="K127">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N127">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O127">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
         <v>1.85</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
       </c>
       <c r="T127">
         <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11810,19 +11810,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399615</v>
+        <v>6397969</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L128">
         <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6397969</v>
+        <v>6399616</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,70 +11931,70 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P129">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
         <v>2.05</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399640</v>
+        <v>6399641</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,61 +12109,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
@@ -12172,10 +12172,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.5125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399641</v>
+        <v>6399639</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,55 +12198,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12258,16 +12258,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>-0</v>
+      </c>
+      <c r="AB132">
         <v>-0.5</v>
       </c>
-      <c r="AA132">
-        <v>0.4875</v>
-      </c>
-      <c r="AB132">
-        <v>0.925</v>
-      </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6399639</v>
+        <v>6399640</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
+        <v>3.6</v>
+      </c>
+      <c r="N133">
+        <v>2.1</v>
+      </c>
+      <c r="O133">
         <v>3.1</v>
       </c>
-      <c r="N133">
-        <v>2.7</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
       <c r="P133">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
+        <v>1.8</v>
+      </c>
+      <c r="V133">
         <v>2.05</v>
       </c>
-      <c r="V133">
-        <v>1.8</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC133">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6399617</v>
+        <v>6399460</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.05</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="N134">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="O134">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>41</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N135">
+        <v>1.4</v>
+      </c>
+      <c r="O135">
+        <v>4.333</v>
+      </c>
+      <c r="P135">
+        <v>9.5</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
         <v>1.85</v>
       </c>
-      <c r="O135">
-        <v>3.5</v>
-      </c>
-      <c r="P135">
-        <v>4.5</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>1.85</v>
-      </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>2.025</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y135">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6397970</v>
+        <v>6399617</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="L136">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="M136">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N136">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O136">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="P136">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-3.5</v>
       </c>
       <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
         <v>1.95</v>
       </c>
-      <c r="S136">
-        <v>1.9</v>
-      </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X136">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -25180,7 +25180,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25192,73 +25192,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K278">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L278">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M278">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N278">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="O278">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P278">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q278">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R278">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S278">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V278">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA278">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25269,7 +25269,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25281,73 +25281,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
         <v>4</v>
       </c>
-      <c r="I279">
-        <v>2</v>
-      </c>
       <c r="J279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K279">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L279">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M279">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N279">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O279">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P279">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S279">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W279">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z279">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB279">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -26186,31 +26186,31 @@
         <v>2.25</v>
       </c>
       <c r="N289">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O289">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P289">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q289">
         <v>0.25</v>
       </c>
       <c r="R289">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S289">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T289">
         <v>2.25</v>
       </c>
       <c r="U289">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V289">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26269,22 +26269,22 @@
         <v>8</v>
       </c>
       <c r="Q290">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R290">
+        <v>2.05</v>
+      </c>
+      <c r="S290">
         <v>1.8</v>
-      </c>
-      <c r="S290">
-        <v>2.05</v>
       </c>
       <c r="T290">
         <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V290">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26408,13 +26408,13 @@
         <v>15</v>
       </c>
       <c r="N292">
-        <v>1.111</v>
+        <v>1.125</v>
       </c>
       <c r="O292">
         <v>9.5</v>
       </c>
       <c r="P292">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q292">
         <v>-2.25</v>
@@ -26485,10 +26485,10 @@
         <v>1.95</v>
       </c>
       <c r="O293">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q293">
         <v>-0.25</v>
@@ -26556,31 +26556,31 @@
         <v>4.2</v>
       </c>
       <c r="N294">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O294">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q294">
         <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S294">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T294">
         <v>2.5</v>
       </c>
       <c r="U294">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V294">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W294">
         <v>0</v>
@@ -26630,22 +26630,22 @@
         <v>4.75</v>
       </c>
       <c r="N295">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O295">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P295">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q295">
         <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S295">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T295">
         <v>2.25</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374242</v>
+        <v>5369519</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>12</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M75">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374241</v>
+        <v>5374242</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="N76">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
         <v>1.975</v>
       </c>
-      <c r="S76">
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z76">
+        <v>0.875</v>
+      </c>
+      <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374240</v>
+        <v>5374241</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,73 +7303,73 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N77">
+        <v>1.444</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>-1.25</v>
+      </c>
+      <c r="R77">
+        <v>1.975</v>
+      </c>
+      <c r="S77">
+        <v>1.875</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
         <v>1.85</v>
       </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
-      <c r="P77">
-        <v>4.333</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5369519</v>
+        <v>5374240</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z78">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399634</v>
+        <v>6399633</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399633</v>
+        <v>6399631</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
         <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.9</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.05</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>1.9</v>
-      </c>
-      <c r="V115">
-        <v>1.95</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>3</v>
-      </c>
-      <c r="Z115">
-        <v>-1</v>
-      </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399631</v>
+        <v>6399634</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,55 +10774,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N116">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O116">
         <v>2.9</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10834,16 +10834,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6399614</v>
+        <v>6399459</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>45</v>
+      </c>
+      <c r="K120">
+        <v>1.909</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
+        <v>4.2</v>
+      </c>
+      <c r="N120">
+        <v>1.615</v>
+      </c>
+      <c r="O120">
         <v>4</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
-      <c r="J120" t="s">
-        <v>47</v>
-      </c>
-      <c r="K120">
-        <v>1.4</v>
-      </c>
-      <c r="L120">
-        <v>4.333</v>
-      </c>
-      <c r="M120">
-        <v>9</v>
-      </c>
-      <c r="N120">
-        <v>1.2</v>
-      </c>
-      <c r="O120">
-        <v>7</v>
-      </c>
       <c r="P120">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q120">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
         <v>2.025</v>
       </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6399459</v>
+        <v>6399614</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M121">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="N121">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R121">
+        <v>2.025</v>
+      </c>
+      <c r="S121">
         <v>1.825</v>
       </c>
-      <c r="S121">
-        <v>2.025</v>
-      </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,13 +11753,13 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11768,40 +11768,40 @@
         <v>46</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M127">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N127">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O127">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q127">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11810,19 +11810,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6397969</v>
+        <v>6399615</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L128">
         <v>3.25</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P128">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC128">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6399616</v>
+        <v>6397969</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,70 +11931,70 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="L129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q129">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
         <v>2.05</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K259">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M259">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N259">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O259">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q259">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K260">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M260">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R260">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA260">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -26189,10 +26189,10 @@
         <v>3.2</v>
       </c>
       <c r="O289">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P289">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q289">
         <v>0.25</v>
@@ -26207,10 +26207,10 @@
         <v>2.25</v>
       </c>
       <c r="U289">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V289">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26260,31 +26260,31 @@
         <v>11</v>
       </c>
       <c r="N290">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O290">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P290">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Q290">
         <v>-1.5</v>
       </c>
       <c r="R290">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S290">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T290">
         <v>2.75</v>
       </c>
       <c r="U290">
+        <v>1.9</v>
+      </c>
+      <c r="V290">
         <v>1.95</v>
-      </c>
-      <c r="V290">
-        <v>1.9</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26334,22 +26334,22 @@
         <v>3.2</v>
       </c>
       <c r="N291">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O291">
         <v>3.1</v>
       </c>
       <c r="P291">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q291">
         <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S291">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T291">
         <v>2</v>
@@ -26556,22 +26556,22 @@
         <v>4.2</v>
       </c>
       <c r="N294">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O294">
         <v>3.5</v>
       </c>
       <c r="P294">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q294">
         <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T294">
         <v>2.5</v>
@@ -26642,19 +26642,19 @@
         <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S295">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
         <v>2.25</v>
       </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V295">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W295">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC295"/>
+  <dimension ref="A1:AC293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5369548</v>
+        <v>5374244</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,49 +6858,49 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
         <v>1.95</v>
@@ -6912,22 +6912,22 @@
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y72">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374244</v>
+        <v>5374243</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>3.1</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N73">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X73">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5374243</v>
+        <v>5369519</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,13 +7036,13 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7051,43 +7051,43 @@
         <v>47</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7096,16 +7096,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5369519</v>
+        <v>5369548</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,49 +7125,49 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="L75">
         <v>3.25</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="N75">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S75">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
         <v>1.95</v>
@@ -7176,25 +7176,25 @@
         <v>1.9</v>
       </c>
       <c r="W75">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z75">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374242</v>
+        <v>5374240</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,40 +7214,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>11</v>
+        <v>1.85</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>1.285</v>
+        <v>4.333</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7259,10 +7259,10 @@
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7271,19 +7271,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.2849999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374240</v>
+        <v>5374242</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,40 +7392,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>11</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R78">
         <v>1.875</v>
@@ -7437,10 +7437,10 @@
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7449,19 +7449,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.333</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
+        <v>-1</v>
+      </c>
+      <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB78">
-        <v>1</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399633</v>
+        <v>6399634</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
         <v>2.05</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>1.8</v>
       </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
         <v>1.9</v>
       </c>
-      <c r="V114">
-        <v>1.95</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
       <c r="Y114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399631</v>
+        <v>6399633</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L115">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
         <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399634</v>
+        <v>6399631</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,55 +10774,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M116">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O116">
         <v>2.9</v>
       </c>
       <c r="P116">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10834,16 +10834,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,13 +11753,13 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11768,40 +11768,40 @@
         <v>46</v>
       </c>
       <c r="K127">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N127">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O127">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
         <v>1.85</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
       </c>
       <c r="T127">
         <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11810,19 +11810,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11857,40 +11857,40 @@
         <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M128">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N128">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O128">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q128">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,76 +22433,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K247">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L247">
         <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.775</v>
+      </c>
+      <c r="V247">
+        <v>2.1</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
         <v>2.5</v>
       </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>2</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>2.6</v>
-      </c>
-      <c r="Y247">
-        <v>-1</v>
-      </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC247">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,76 +22522,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
         <v>3.3</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N248">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T248">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V248">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y248">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB248">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -26159,7 +26159,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7790736</v>
+        <v>7790738</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26168,49 +26168,49 @@
         <v>28</v>
       </c>
       <c r="E289" s="2">
-        <v>45339.60416666666</v>
+        <v>45340.4375</v>
       </c>
       <c r="F289" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G289" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K289">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L289">
         <v>3.25</v>
       </c>
       <c r="M289">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N289">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O289">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P289">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q289">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S289">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T289">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U289">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V289">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26233,7 +26233,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7790737</v>
+        <v>7790739</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26242,49 +26242,49 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45339.64583333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F290" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G290" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K290">
-        <v>1.25</v>
+        <v>1.166</v>
       </c>
       <c r="L290">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="M290">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N290">
-        <v>1.3</v>
+        <v>1.125</v>
       </c>
       <c r="O290">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="P290">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Q290">
-        <v>-1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R290">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S290">
+        <v>2.025</v>
+      </c>
+      <c r="T290">
+        <v>3.25</v>
+      </c>
+      <c r="U290">
         <v>1.85</v>
       </c>
-      <c r="T290">
-        <v>2.75</v>
-      </c>
-      <c r="U290">
-        <v>1.9</v>
-      </c>
       <c r="V290">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26307,7 +26307,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7790738</v>
+        <v>7790740</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26316,49 +26316,49 @@
         <v>28</v>
       </c>
       <c r="E291" s="2">
-        <v>45340.4375</v>
+        <v>45340.64583333334</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G291" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K291">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L291">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M291">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N291">
         <v>1.95</v>
       </c>
       <c r="O291">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P291">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S291">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U291">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V291">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W291">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7790739</v>
+        <v>7790741</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26390,49 +26390,49 @@
         <v>28</v>
       </c>
       <c r="E292" s="2">
-        <v>45340.58333333334</v>
+        <v>45341.52083333334</v>
       </c>
       <c r="F292" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G292" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K292">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L292">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M292">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="N292">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="O292">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="Q292">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
+        <v>2.025</v>
+      </c>
+      <c r="S292">
         <v>1.825</v>
       </c>
-      <c r="S292">
-        <v>2.025</v>
-      </c>
       <c r="T292">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V292">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W292">
         <v>0</v>
@@ -26455,7 +26455,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7790740</v>
+        <v>7790742</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26464,49 +26464,49 @@
         <v>28</v>
       </c>
       <c r="E293" s="2">
-        <v>45340.64583333334</v>
+        <v>45341.54166666666</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K293">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L293">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M293">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N293">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P293">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S293">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="T293">
         <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V293">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W293">
         <v>0</v>
@@ -26521,154 +26521,6 @@
         <v>0</v>
       </c>
       <c r="AA293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:27">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294">
-        <v>7790741</v>
-      </c>
-      <c r="C294" t="s">
-        <v>28</v>
-      </c>
-      <c r="D294" t="s">
-        <v>28</v>
-      </c>
-      <c r="E294" s="2">
-        <v>45341.52083333334</v>
-      </c>
-      <c r="F294" t="s">
-        <v>29</v>
-      </c>
-      <c r="G294" t="s">
-        <v>44</v>
-      </c>
-      <c r="K294">
-        <v>1.909</v>
-      </c>
-      <c r="L294">
-        <v>3.4</v>
-      </c>
-      <c r="M294">
-        <v>4.2</v>
-      </c>
-      <c r="N294">
-        <v>2.05</v>
-      </c>
-      <c r="O294">
-        <v>3.5</v>
-      </c>
-      <c r="P294">
-        <v>3.6</v>
-      </c>
-      <c r="Q294">
-        <v>-0.5</v>
-      </c>
-      <c r="R294">
-        <v>2</v>
-      </c>
-      <c r="S294">
-        <v>1.85</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
-      <c r="U294">
-        <v>2.05</v>
-      </c>
-      <c r="V294">
-        <v>1.8</v>
-      </c>
-      <c r="W294">
-        <v>0</v>
-      </c>
-      <c r="X294">
-        <v>0</v>
-      </c>
-      <c r="Y294">
-        <v>0</v>
-      </c>
-      <c r="Z294">
-        <v>0</v>
-      </c>
-      <c r="AA294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:27">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295">
-        <v>7790742</v>
-      </c>
-      <c r="C295" t="s">
-        <v>28</v>
-      </c>
-      <c r="D295" t="s">
-        <v>28</v>
-      </c>
-      <c r="E295" s="2">
-        <v>45341.54166666666</v>
-      </c>
-      <c r="F295" t="s">
-        <v>33</v>
-      </c>
-      <c r="G295" t="s">
-        <v>34</v>
-      </c>
-      <c r="K295">
-        <v>1.8</v>
-      </c>
-      <c r="L295">
-        <v>3.4</v>
-      </c>
-      <c r="M295">
-        <v>4.75</v>
-      </c>
-      <c r="N295">
-        <v>2</v>
-      </c>
-      <c r="O295">
-        <v>3.2</v>
-      </c>
-      <c r="P295">
-        <v>4.2</v>
-      </c>
-      <c r="Q295">
-        <v>-0.5</v>
-      </c>
-      <c r="R295">
-        <v>2.025</v>
-      </c>
-      <c r="S295">
-        <v>1.825</v>
-      </c>
-      <c r="T295">
-        <v>2.25</v>
-      </c>
-      <c r="U295">
-        <v>1.875</v>
-      </c>
-      <c r="V295">
-        <v>1.975</v>
-      </c>
-      <c r="W295">
-        <v>0</v>
-      </c>
-      <c r="X295">
-        <v>0</v>
-      </c>
-      <c r="Y295">
-        <v>0</v>
-      </c>
-      <c r="Z295">
-        <v>0</v>
-      </c>
-      <c r="AA295">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC293"/>
+  <dimension ref="A1:AC297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5374244</v>
+        <v>5374241</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N72">
+        <v>1.444</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>9</v>
+      </c>
+      <c r="Q72">
+        <v>-1.25</v>
+      </c>
+      <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
+        <v>1.875</v>
+      </c>
+      <c r="T72">
         <v>2.25</v>
       </c>
-      <c r="O72">
-        <v>3.1</v>
-      </c>
-      <c r="P72">
-        <v>3.5</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.9</v>
-      </c>
-      <c r="T72">
-        <v>2</v>
-      </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X72">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374243</v>
+        <v>5374242</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,40 +6947,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="N73">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R73">
         <v>1.875</v>
@@ -6989,22 +6989,22 @@
         <v>1.975</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z73">
         <v>0.875</v>
@@ -7016,7 +7016,7 @@
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5369519</v>
+        <v>5374243</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,13 +7036,13 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7051,43 +7051,43 @@
         <v>47</v>
       </c>
       <c r="K74">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
+        <v>3.5</v>
+      </c>
+      <c r="N74">
+        <v>2.7</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+      <c r="P74">
         <v>2.8</v>
       </c>
-      <c r="N74">
-        <v>2.9</v>
-      </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>2.45</v>
-      </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7096,16 +7096,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5369548</v>
+        <v>5374244</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,49 +7125,49 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
         <v>1.95</v>
@@ -7179,22 +7179,22 @@
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y75">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374240</v>
+        <v>5369548</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L76">
         <v>3.25</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N76">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q76">
+        <v>0.75</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>1.75</v>
+      </c>
+      <c r="T76">
+        <v>2.25</v>
+      </c>
+      <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
+        <v>0.571</v>
+      </c>
+      <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>0.75</v>
+      </c>
+      <c r="AB76">
         <v>-0.5</v>
       </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.975</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>2</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>3.333</v>
-      </c>
-      <c r="Z76">
-        <v>-1</v>
-      </c>
-      <c r="AA76">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB76">
-        <v>1</v>
-      </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374241</v>
+        <v>5369519</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,58 +7303,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374242</v>
+        <v>5374240</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,40 +7392,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>11</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>1.285</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
         <v>1.875</v>
@@ -7437,10 +7437,10 @@
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7449,19 +7449,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.2849999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399627</v>
+        <v>6399629</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,49 +9617,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103">
+        <v>2.4</v>
+      </c>
+      <c r="L103">
+        <v>3.25</v>
+      </c>
+      <c r="M103">
         <v>3</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>47</v>
-      </c>
-      <c r="K103">
-        <v>2.2</v>
-      </c>
-      <c r="L103">
-        <v>3.1</v>
-      </c>
-      <c r="M103">
-        <v>3.6</v>
-      </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
         <v>3.1</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
         <v>1.825</v>
@@ -9668,19 +9668,19 @@
         <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB103">
         <v>0.825</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399629</v>
+        <v>6399628</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N104">
+        <v>1.8</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>4.75</v>
+      </c>
+      <c r="Q104">
+        <v>-0.5</v>
+      </c>
+      <c r="R104">
+        <v>1.825</v>
+      </c>
+      <c r="S104">
+        <v>2.025</v>
+      </c>
+      <c r="T104">
         <v>2.25</v>
       </c>
-      <c r="O104">
-        <v>3.1</v>
-      </c>
-      <c r="P104">
-        <v>3.5</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.9</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
-      </c>
-      <c r="T104">
-        <v>1.75</v>
-      </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6399628</v>
+        <v>6399627</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,16 +9884,16 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>47</v>
@@ -9902,37 +9902,37 @@
         <v>2.2</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N106">
         <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
+        <v>2.05</v>
+      </c>
+      <c r="S106">
+        <v>1.8</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
         <v>1.825</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>2.025</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>2.05</v>
-      </c>
-      <c r="V106">
-        <v>1.8</v>
       </c>
       <c r="W106">
         <v>0.8</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA106">
+        <v>-0.5</v>
+      </c>
+      <c r="AB106">
         <v>0.825</v>
       </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
       <c r="AC106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399632</v>
+        <v>6399634</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,73 +10507,73 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L113">
         <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>1.8</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>1.9</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>2.025</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
       <c r="Y113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399634</v>
+        <v>6399633</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399633</v>
+        <v>6399632</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6399613</v>
+        <v>6399458</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,58 +10863,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N117">
-        <v>1.7</v>
+        <v>1.083</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="P117">
-        <v>5.25</v>
+        <v>29</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>1.85</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.875</v>
       </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2.05</v>
-      </c>
       <c r="W117">
-        <v>0.7</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10923,13 +10923,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6399458</v>
+        <v>6399613</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="L118">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N118">
-        <v>1.083</v>
+        <v>1.7</v>
       </c>
       <c r="O118">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>29</v>
+        <v>5.25</v>
       </c>
       <c r="Q118">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W118">
-        <v>0.08299999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,13 +11012,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6399615</v>
+        <v>6397969</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L127">
         <v>3.25</v>
       </c>
       <c r="M127">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="O127">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="Q127">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11857,40 +11857,40 @@
         <v>46</v>
       </c>
       <c r="K128">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L128">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O128">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P128">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
         <v>1.85</v>
-      </c>
-      <c r="S128">
-        <v>2</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC128">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6397969</v>
+        <v>6399616</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,70 +11931,70 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P129">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
         <v>2.05</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399641</v>
+        <v>6399639</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,55 +12109,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
         <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>-0</v>
+      </c>
+      <c r="AB131">
         <v>-0.5</v>
       </c>
-      <c r="AA131">
-        <v>0.4875</v>
-      </c>
-      <c r="AB131">
-        <v>0.925</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399639</v>
+        <v>6399640</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
+        <v>3.6</v>
+      </c>
+      <c r="N132">
+        <v>2.1</v>
+      </c>
+      <c r="O132">
         <v>3.1</v>
       </c>
-      <c r="N132">
-        <v>2.7</v>
-      </c>
-      <c r="O132">
-        <v>3.3</v>
-      </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
+        <v>1.8</v>
+      </c>
+      <c r="V132">
         <v>2.05</v>
       </c>
-      <c r="V132">
-        <v>1.8</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6399640</v>
+        <v>6399641</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,61 +12287,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12350,10 +12350,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.5125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB133">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6397970</v>
+        <v>6399617</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="L135">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="M135">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N135">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O135">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="P135">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-3.5</v>
       </c>
       <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
         <v>1.95</v>
       </c>
-      <c r="S135">
-        <v>1.9</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X135">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6399617</v>
+        <v>6397970</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="L136">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N136">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="O136">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="Q136">
-        <v>-3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
         <v>1.9</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
       <c r="T136">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,49 +13800,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L150">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N150">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
         <v>1.825</v>
@@ -13851,7 +13851,7 @@
         <v>2.025</v>
       </c>
       <c r="W150">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,10 +13860,10 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
         <v>0.825</v>
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100661</v>
+        <v>7100664</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,49 +13889,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M151">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N151">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P151">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
         <v>1.825</v>
@@ -13940,7 +13940,7 @@
         <v>2.025</v>
       </c>
       <c r="W151">
-        <v>0.55</v>
+        <v>0.222</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,10 +13949,10 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>0.825</v>
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,76 +22433,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L247">
         <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V247">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y247">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,76 +22522,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G248" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K248">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L248">
         <v>3.3</v>
       </c>
       <c r="M248">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
+        <v>2</v>
+      </c>
+      <c r="U248">
+        <v>1.775</v>
+      </c>
+      <c r="V248">
+        <v>2.1</v>
+      </c>
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
         <v>2.5</v>
       </c>
-      <c r="U248">
-        <v>1.85</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
-      <c r="W248">
-        <v>-1</v>
-      </c>
-      <c r="X248">
-        <v>2.6</v>
-      </c>
-      <c r="Y248">
-        <v>-1</v>
-      </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC248">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -26154,12 +26154,12 @@
         <v>1.025</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:29">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7790738</v>
+        <v>7790736</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26168,72 +26168,87 @@
         <v>28</v>
       </c>
       <c r="E289" s="2">
-        <v>45340.4375</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F289" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G289" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>2</v>
+      </c>
+      <c r="J289" t="s">
+        <v>46</v>
       </c>
       <c r="K289">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L289">
         <v>3.25</v>
       </c>
       <c r="M289">
+        <v>2.25</v>
+      </c>
+      <c r="N289">
+        <v>3.5</v>
+      </c>
+      <c r="O289">
         <v>3.2</v>
       </c>
-      <c r="N289">
-        <v>2.05</v>
-      </c>
-      <c r="O289">
-        <v>3.1</v>
-      </c>
       <c r="P289">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q289">
+        <v>0.25</v>
+      </c>
+      <c r="R289">
+        <v>1.975</v>
+      </c>
+      <c r="S289">
+        <v>1.875</v>
+      </c>
+      <c r="T289">
+        <v>2.25</v>
+      </c>
+      <c r="U289">
+        <v>1.9</v>
+      </c>
+      <c r="V289">
+        <v>1.95</v>
+      </c>
+      <c r="W289">
+        <v>-1</v>
+      </c>
+      <c r="X289">
+        <v>-1</v>
+      </c>
+      <c r="Y289">
+        <v>1.25</v>
+      </c>
+      <c r="Z289">
+        <v>-1</v>
+      </c>
+      <c r="AA289">
+        <v>0.875</v>
+      </c>
+      <c r="AB289">
         <v>-0.5</v>
       </c>
-      <c r="R289">
-        <v>2.1</v>
-      </c>
-      <c r="S289">
-        <v>1.775</v>
-      </c>
-      <c r="T289">
-        <v>2</v>
-      </c>
-      <c r="U289">
-        <v>1.85</v>
-      </c>
-      <c r="V289">
-        <v>2</v>
-      </c>
-      <c r="W289">
-        <v>0</v>
-      </c>
-      <c r="X289">
-        <v>0</v>
-      </c>
-      <c r="Y289">
-        <v>0</v>
-      </c>
-      <c r="Z289">
-        <v>0</v>
-      </c>
-      <c r="AA289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:27">
+      <c r="AC289">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7790739</v>
+        <v>7790737</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26242,72 +26257,87 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45340.58333333334</v>
+        <v>45339.64583333334</v>
       </c>
       <c r="F290" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="H290">
+        <v>2</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
+      <c r="J290" t="s">
+        <v>45</v>
       </c>
       <c r="K290">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L290">
+        <v>6</v>
+      </c>
+      <c r="M290">
+        <v>11</v>
+      </c>
+      <c r="N290">
+        <v>1.3</v>
+      </c>
+      <c r="O290">
+        <v>5.75</v>
+      </c>
+      <c r="P290">
         <v>7.5</v>
       </c>
-      <c r="M290">
-        <v>15</v>
-      </c>
-      <c r="N290">
-        <v>1.125</v>
-      </c>
-      <c r="O290">
-        <v>9.5</v>
-      </c>
-      <c r="P290">
-        <v>19</v>
-      </c>
       <c r="Q290">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R290">
+        <v>1.9</v>
+      </c>
+      <c r="S290">
+        <v>1.95</v>
+      </c>
+      <c r="T290">
+        <v>2.75</v>
+      </c>
+      <c r="U290">
         <v>1.825</v>
       </c>
-      <c r="S290">
+      <c r="V290">
         <v>2.025</v>
       </c>
-      <c r="T290">
-        <v>3.25</v>
-      </c>
-      <c r="U290">
-        <v>1.85</v>
-      </c>
-      <c r="V290">
-        <v>2</v>
-      </c>
       <c r="W290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X290">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Y290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB290">
+        <v>0.825</v>
+      </c>
+      <c r="AC290">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7790740</v>
+        <v>7790738</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26316,72 +26346,87 @@
         <v>28</v>
       </c>
       <c r="E291" s="2">
-        <v>45340.64583333334</v>
+        <v>45340.4375</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>2</v>
+      </c>
+      <c r="J291" t="s">
+        <v>46</v>
       </c>
       <c r="K291">
+        <v>2.3</v>
+      </c>
+      <c r="L291">
+        <v>3.25</v>
+      </c>
+      <c r="M291">
+        <v>3.2</v>
+      </c>
+      <c r="N291">
         <v>2.1</v>
       </c>
-      <c r="L291">
-        <v>3.3</v>
-      </c>
-      <c r="M291">
-        <v>3.6</v>
-      </c>
-      <c r="N291">
-        <v>1.95</v>
-      </c>
       <c r="O291">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P291">
         <v>4</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S291">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T291">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U291">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V291">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W291">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X291">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z291">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:27">
+        <v>0.75</v>
+      </c>
+      <c r="AB291">
+        <v>0.875</v>
+      </c>
+      <c r="AC291">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7790741</v>
+        <v>7790739</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26390,137 +26435,463 @@
         <v>28</v>
       </c>
       <c r="E292" s="2">
-        <v>45341.52083333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G292" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H292">
+        <v>3</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292" t="s">
+        <v>47</v>
       </c>
       <c r="K292">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L292">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M292">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="N292">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="O292">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P292">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="Q292">
+        <v>-2.25</v>
+      </c>
+      <c r="R292">
+        <v>1.825</v>
+      </c>
+      <c r="S292">
+        <v>2.025</v>
+      </c>
+      <c r="T292">
+        <v>3.25</v>
+      </c>
+      <c r="U292">
+        <v>1.85</v>
+      </c>
+      <c r="V292">
+        <v>2</v>
+      </c>
+      <c r="W292">
+        <v>0.125</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
+        <v>-1</v>
+      </c>
+      <c r="Z292">
+        <v>0.825</v>
+      </c>
+      <c r="AA292">
+        <v>-1</v>
+      </c>
+      <c r="AB292">
         <v>-0.5</v>
       </c>
-      <c r="R292">
-        <v>2.025</v>
-      </c>
-      <c r="S292">
-        <v>1.825</v>
-      </c>
-      <c r="T292">
-        <v>2.5</v>
-      </c>
-      <c r="U292">
-        <v>2.05</v>
-      </c>
-      <c r="V292">
-        <v>1.8</v>
-      </c>
-      <c r="W292">
-        <v>0</v>
-      </c>
-      <c r="X292">
-        <v>0</v>
-      </c>
-      <c r="Y292">
-        <v>0</v>
-      </c>
-      <c r="Z292">
-        <v>0</v>
-      </c>
-      <c r="AA292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:27">
+      <c r="AC292">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293">
+        <v>7790740</v>
+      </c>
+      <c r="C293" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45340.64583333334</v>
+      </c>
+      <c r="F293" t="s">
+        <v>35</v>
+      </c>
+      <c r="G293" t="s">
+        <v>41</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>4</v>
+      </c>
+      <c r="J293" t="s">
+        <v>46</v>
+      </c>
+      <c r="K293">
+        <v>2.1</v>
+      </c>
+      <c r="L293">
+        <v>3.3</v>
+      </c>
+      <c r="M293">
+        <v>3.6</v>
+      </c>
+      <c r="N293">
+        <v>2.2</v>
+      </c>
+      <c r="O293">
+        <v>3.4</v>
+      </c>
+      <c r="P293">
+        <v>3.3</v>
+      </c>
+      <c r="Q293">
+        <v>-0.25</v>
+      </c>
+      <c r="R293">
+        <v>1.975</v>
+      </c>
+      <c r="S293">
+        <v>1.875</v>
+      </c>
+      <c r="T293">
+        <v>2.5</v>
+      </c>
+      <c r="U293">
+        <v>2.05</v>
+      </c>
+      <c r="V293">
+        <v>1.8</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
+        <v>-1</v>
+      </c>
+      <c r="Y293">
+        <v>2.3</v>
+      </c>
+      <c r="Z293">
+        <v>-1</v>
+      </c>
+      <c r="AA293">
+        <v>0.875</v>
+      </c>
+      <c r="AB293">
+        <v>1.05</v>
+      </c>
+      <c r="AC293">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>7790741</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45341.52083333334</v>
+      </c>
+      <c r="F294" t="s">
+        <v>29</v>
+      </c>
+      <c r="G294" t="s">
+        <v>44</v>
+      </c>
+      <c r="K294">
+        <v>1.909</v>
+      </c>
+      <c r="L294">
+        <v>3.4</v>
+      </c>
+      <c r="M294">
+        <v>4.2</v>
+      </c>
+      <c r="N294">
+        <v>2.1</v>
+      </c>
+      <c r="O294">
+        <v>3.4</v>
+      </c>
+      <c r="P294">
+        <v>3.6</v>
+      </c>
+      <c r="Q294">
+        <v>-0.25</v>
+      </c>
+      <c r="R294">
+        <v>1.825</v>
+      </c>
+      <c r="S294">
+        <v>2.025</v>
+      </c>
+      <c r="T294">
+        <v>2.25</v>
+      </c>
+      <c r="U294">
+        <v>1.8</v>
+      </c>
+      <c r="V294">
+        <v>2.05</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>0</v>
+      </c>
+      <c r="AA294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
         <v>7790742</v>
       </c>
-      <c r="C293" t="s">
-        <v>28</v>
-      </c>
-      <c r="D293" t="s">
-        <v>28</v>
-      </c>
-      <c r="E293" s="2">
+      <c r="C295" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" s="2">
         <v>45341.54166666666</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F295" t="s">
         <v>33</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G295" t="s">
         <v>34</v>
       </c>
-      <c r="K293">
+      <c r="K295">
         <v>1.8</v>
       </c>
-      <c r="L293">
+      <c r="L295">
         <v>3.4</v>
       </c>
-      <c r="M293">
+      <c r="M295">
         <v>4.75</v>
       </c>
-      <c r="N293">
-        <v>2</v>
-      </c>
-      <c r="O293">
+      <c r="N295">
+        <v>2.05</v>
+      </c>
+      <c r="O295">
         <v>3.2</v>
       </c>
-      <c r="P293">
+      <c r="P295">
+        <v>4</v>
+      </c>
+      <c r="Q295">
+        <v>-0.5</v>
+      </c>
+      <c r="R295">
+        <v>2.025</v>
+      </c>
+      <c r="S295">
+        <v>1.825</v>
+      </c>
+      <c r="T295">
+        <v>2.25</v>
+      </c>
+      <c r="U295">
+        <v>1.85</v>
+      </c>
+      <c r="V295">
+        <v>2</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>6937264</v>
+      </c>
+      <c r="C296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F296" t="s">
+        <v>36</v>
+      </c>
+      <c r="G296" t="s">
+        <v>40</v>
+      </c>
+      <c r="K296">
+        <v>9</v>
+      </c>
+      <c r="L296">
+        <v>5</v>
+      </c>
+      <c r="M296">
+        <v>1.333</v>
+      </c>
+      <c r="N296">
+        <v>7.5</v>
+      </c>
+      <c r="O296">
+        <v>4.75</v>
+      </c>
+      <c r="P296">
+        <v>1.4</v>
+      </c>
+      <c r="Q296">
+        <v>1.25</v>
+      </c>
+      <c r="R296">
+        <v>1.925</v>
+      </c>
+      <c r="S296">
+        <v>1.925</v>
+      </c>
+      <c r="T296">
+        <v>2.75</v>
+      </c>
+      <c r="U296">
+        <v>1.975</v>
+      </c>
+      <c r="V296">
+        <v>1.875</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>6937260</v>
+      </c>
+      <c r="C297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45347.60416666666</v>
+      </c>
+      <c r="F297" t="s">
+        <v>39</v>
+      </c>
+      <c r="G297" t="s">
+        <v>37</v>
+      </c>
+      <c r="K297">
+        <v>1.444</v>
+      </c>
+      <c r="L297">
+        <v>4.5</v>
+      </c>
+      <c r="M297">
+        <v>7</v>
+      </c>
+      <c r="N297">
+        <v>1.533</v>
+      </c>
+      <c r="O297">
         <v>4.2</v>
       </c>
-      <c r="Q293">
-        <v>-0.5</v>
-      </c>
-      <c r="R293">
-        <v>2</v>
-      </c>
-      <c r="S293">
+      <c r="P297">
+        <v>6</v>
+      </c>
+      <c r="Q297">
+        <v>-1</v>
+      </c>
+      <c r="R297">
         <v>1.85</v>
       </c>
-      <c r="T293">
-        <v>2.25</v>
-      </c>
-      <c r="U293">
+      <c r="S297">
+        <v>2</v>
+      </c>
+      <c r="T297">
+        <v>2.75</v>
+      </c>
+      <c r="U297">
+        <v>2</v>
+      </c>
+      <c r="V297">
         <v>1.85</v>
       </c>
-      <c r="V293">
-        <v>2</v>
-      </c>
-      <c r="W293">
-        <v>0</v>
-      </c>
-      <c r="X293">
-        <v>0</v>
-      </c>
-      <c r="Y293">
-        <v>0</v>
-      </c>
-      <c r="Z293">
-        <v>0</v>
-      </c>
-      <c r="AA293">
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>0</v>
+      </c>
+      <c r="AA297">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC297"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5369517</v>
+        <v>5374232</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
+        <v>2.2</v>
+      </c>
+      <c r="L61">
+        <v>3.2</v>
+      </c>
+      <c r="M61">
+        <v>3.5</v>
+      </c>
+      <c r="N61">
         <v>2.55</v>
       </c>
-      <c r="L61">
+      <c r="O61">
+        <v>3.1</v>
+      </c>
+      <c r="P61">
         <v>3</v>
       </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>2.8</v>
-      </c>
-      <c r="O61">
-        <v>3</v>
-      </c>
-      <c r="P61">
-        <v>2.8</v>
-      </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2.15</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y61">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5374232</v>
+        <v>5369517</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.3625</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5374241</v>
+        <v>5369548</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L72">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>9</v>
+        <v>1.571</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5374243</v>
+        <v>5369519</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,13 +7036,13 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7051,43 +7051,43 @@
         <v>47</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7096,16 +7096,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374244</v>
+        <v>5374240</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M75">
         <v>3.4</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5369548</v>
+        <v>5374241</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="L76">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>1.444</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>1.571</v>
+        <v>9</v>
       </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5369519</v>
+        <v>5374243</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,13 +7303,13 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7318,43 +7318,43 @@
         <v>47</v>
       </c>
       <c r="K77">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
+        <v>3.5</v>
+      </c>
+      <c r="N77">
+        <v>2.7</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
         <v>2.8</v>
       </c>
-      <c r="N77">
-        <v>2.9</v>
-      </c>
-      <c r="O77">
-        <v>3.3</v>
-      </c>
-      <c r="P77">
-        <v>2.45</v>
-      </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>1.075</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374240</v>
+        <v>5374244</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
         <v>3.4</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>2.1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
         <v>-0.5</v>
       </c>
-      <c r="R78">
-        <v>1.875</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>3.333</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,40 +9187,40 @@
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L98">
         <v>3.1</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9229,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9318,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399629</v>
+        <v>6399627</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,49 +9617,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
         <v>3.1</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
         <v>1.825</v>
@@ -9668,19 +9668,19 @@
         <v>2.025</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
-      </c>
-      <c r="AA103">
-        <v>0.475</v>
       </c>
       <c r="AB103">
         <v>0.825</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6399627</v>
+        <v>6399629</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,49 +9884,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106">
+        <v>2.4</v>
+      </c>
+      <c r="L106">
+        <v>3.25</v>
+      </c>
+      <c r="M106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
-      <c r="J106" t="s">
-        <v>47</v>
-      </c>
-      <c r="K106">
-        <v>2.2</v>
-      </c>
-      <c r="L106">
-        <v>3.1</v>
-      </c>
-      <c r="M106">
-        <v>3.6</v>
-      </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
         <v>3.1</v>
       </c>
       <c r="P106">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
         <v>1.825</v>
@@ -9935,19 +9935,19 @@
         <v>2.025</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB106">
         <v>0.825</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399634</v>
+        <v>6399632</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,73 +10507,73 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L113">
         <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399633</v>
+        <v>6399634</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
         <v>2.05</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>1.8</v>
       </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
         <v>1.9</v>
       </c>
-      <c r="V114">
-        <v>1.95</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
       <c r="Y114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399632</v>
+        <v>6399631</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.9</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.825</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399631</v>
+        <v>6399633</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L116">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
         <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6399458</v>
+        <v>6399613</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,58 +10863,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="L117">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N117">
-        <v>1.083</v>
+        <v>1.7</v>
       </c>
       <c r="O117">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>29</v>
+        <v>5.25</v>
       </c>
       <c r="Q117">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>0.08299999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10923,13 +10923,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6399613</v>
+        <v>6399458</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M118">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N118">
-        <v>1.7</v>
+        <v>1.083</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="P118">
-        <v>5.25</v>
+        <v>29</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>1.85</v>
+      </c>
+      <c r="T118">
+        <v>3.5</v>
+      </c>
+      <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.8</v>
-      </c>
-      <c r="V118">
-        <v>2.05</v>
-      </c>
       <c r="W118">
-        <v>0.7</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,13 +11012,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6399459</v>
+        <v>6397968</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,61 +11130,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>45</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
+        <v>3.25</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>1.75</v>
+      </c>
+      <c r="O120">
         <v>3.4</v>
       </c>
-      <c r="M120">
-        <v>4.2</v>
-      </c>
-      <c r="N120">
-        <v>1.615</v>
-      </c>
-      <c r="O120">
-        <v>4</v>
-      </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11193,13 +11193,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6397968</v>
+        <v>6399459</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,61 +11308,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>45</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
+        <v>4.2</v>
+      </c>
+      <c r="N122">
+        <v>1.615</v>
+      </c>
+      <c r="O122">
         <v>4</v>
       </c>
-      <c r="N122">
-        <v>1.75</v>
-      </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q122">
         <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11371,13 +11371,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6399635</v>
+        <v>6399636</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,13 +11397,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11412,43 +11412,43 @@
         <v>47</v>
       </c>
       <c r="K123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M123">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N123">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="P123">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399637</v>
+        <v>6399635</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124">
+        <v>2.25</v>
+      </c>
+      <c r="L124">
+        <v>3.1</v>
+      </c>
+      <c r="M124">
+        <v>3.5</v>
+      </c>
+      <c r="N124">
+        <v>1.95</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
+        <v>4.333</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.85</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.925</v>
+      </c>
+      <c r="V124">
+        <v>1.925</v>
+      </c>
+      <c r="W124">
+        <v>0.95</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124" t="s">
-        <v>45</v>
-      </c>
-      <c r="K124">
-        <v>2.1</v>
-      </c>
-      <c r="L124">
-        <v>3.2</v>
-      </c>
-      <c r="M124">
-        <v>3.8</v>
-      </c>
-      <c r="N124">
-        <v>2.1</v>
-      </c>
-      <c r="O124">
-        <v>3.1</v>
-      </c>
-      <c r="P124">
-        <v>3.8</v>
-      </c>
-      <c r="Q124">
-        <v>-0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>2.1</v>
-      </c>
-      <c r="V124">
-        <v>1.775</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>2.1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AA124">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB124">
-        <v>0</v>
-      </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399636</v>
+        <v>6399637</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
+        <v>3.8</v>
+      </c>
+      <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
         <v>2.05</v>
       </c>
-      <c r="P126">
-        <v>4.2</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
-      <c r="R126">
-        <v>1.875</v>
-      </c>
-      <c r="S126">
-        <v>1.975</v>
-      </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399639</v>
+        <v>6399641</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,55 +12109,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
         <v>3.3</v>
       </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
         <v>1.925</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.925</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>2.05</v>
-      </c>
-      <c r="V131">
-        <v>1.8</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6399641</v>
+        <v>6399639</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,55 +12287,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O133">
         <v>3.3</v>
       </c>
       <c r="P133">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12347,16 +12347,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>-0</v>
+      </c>
+      <c r="AB133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0.4875</v>
-      </c>
-      <c r="AB133">
-        <v>0.925</v>
-      </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N134">
+        <v>1.4</v>
+      </c>
+      <c r="O134">
+        <v>4.333</v>
+      </c>
+      <c r="P134">
+        <v>9.5</v>
+      </c>
+      <c r="Q134">
+        <v>-1.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.9</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>4.5</v>
-      </c>
-      <c r="Q134">
-        <v>-0.5</v>
-      </c>
-      <c r="R134">
-        <v>1.85</v>
-      </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.2</v>
+      </c>
+      <c r="N136">
+        <v>1.85</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
         <v>4.5</v>
       </c>
-      <c r="M136">
-        <v>8</v>
-      </c>
-      <c r="N136">
-        <v>1.4</v>
-      </c>
-      <c r="O136">
-        <v>4.333</v>
-      </c>
-      <c r="P136">
-        <v>9.5</v>
-      </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,44 +13192,44 @@
         <v>47</v>
       </c>
       <c r="K143">
+        <v>2.375</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
+        <v>3.1</v>
+      </c>
+      <c r="N143">
+        <v>2.3</v>
+      </c>
+      <c r="O143">
+        <v>3.1</v>
+      </c>
+      <c r="P143">
+        <v>3.4</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
+        <v>1.9</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
+        <v>1.975</v>
+      </c>
+      <c r="W143">
         <v>1.3</v>
       </c>
-      <c r="L143">
-        <v>5</v>
-      </c>
-      <c r="M143">
-        <v>11</v>
-      </c>
-      <c r="N143">
-        <v>1.25</v>
-      </c>
-      <c r="O143">
-        <v>5.5</v>
-      </c>
-      <c r="P143">
-        <v>13</v>
-      </c>
-      <c r="Q143">
-        <v>-1.75</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.925</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>0.25</v>
-      </c>
       <c r="X143">
         <v>-1</v>
       </c>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,10 +13266,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13281,43 +13281,43 @@
         <v>47</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13326,16 +13326,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,58 +13800,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N150">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O150">
         <v>3.8</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>2.025</v>
-      </c>
       <c r="W150">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,16 +13860,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100665</v>
+        <v>7100661</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,58 +13978,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>47</v>
       </c>
       <c r="K152">
+        <v>1.8</v>
+      </c>
+      <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
         <v>4.75</v>
       </c>
-      <c r="L152">
-        <v>3.6</v>
-      </c>
-      <c r="M152">
-        <v>1.75</v>
-      </c>
       <c r="N152">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="O152">
         <v>3.8</v>
       </c>
       <c r="P152">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
         <v>1.85</v>
       </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
-        <v>3.5</v>
+        <v>0.55</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6937187</v>
+        <v>6937185</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,49 +15669,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L171">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M171">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="N171">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O171">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q171">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
         <v>1.975</v>
@@ -15720,7 +15720,7 @@
         <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15729,16 +15729,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6937185</v>
+        <v>6937187</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,49 +15758,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L172">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M172">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="N172">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P172">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
         <v>1.975</v>
@@ -15809,7 +15809,7 @@
         <v>1.875</v>
       </c>
       <c r="W172">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15818,16 +15818,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M186">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N186">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y186">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L187">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N187">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -22421,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22433,76 +22433,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K247">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L247">
         <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.775</v>
+      </c>
+      <c r="V247">
+        <v>2.1</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
         <v>2.5</v>
       </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>2</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>2.6</v>
-      </c>
-      <c r="Y247">
-        <v>-1</v>
-      </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC247">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22522,76 +22522,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
         <v>3.3</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N248">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T248">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V248">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y248">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB248">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -25180,7 +25180,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25192,73 +25192,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G278" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
         <v>4</v>
       </c>
-      <c r="I278">
-        <v>2</v>
-      </c>
       <c r="J278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K278">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L278">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M278">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N278">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O278">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P278">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q278">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R278">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S278">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W278">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z278">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25269,7 +25269,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25281,73 +25281,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G279" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K279">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L279">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M279">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N279">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="O279">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P279">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R279">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S279">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U279">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA279">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -26621,6 +26621,15 @@
       <c r="G294" t="s">
         <v>44</v>
       </c>
+      <c r="H294">
+        <v>4</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294" t="s">
+        <v>47</v>
+      </c>
       <c r="K294">
         <v>1.909</v>
       </c>
@@ -26631,46 +26640,52 @@
         <v>4.2</v>
       </c>
       <c r="N294">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
         <v>3.4</v>
       </c>
       <c r="P294">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q294">
         <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S294">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
+        <v>2.05</v>
+      </c>
+      <c r="V294">
         <v>1.8</v>
       </c>
-      <c r="V294">
-        <v>2.05</v>
-      </c>
       <c r="W294">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA294">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB294">
+        <v>1.05</v>
+      </c>
+      <c r="AC294">
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26695,6 +26710,15 @@
       <c r="G295" t="s">
         <v>34</v>
       </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295" t="s">
+        <v>45</v>
+      </c>
       <c r="K295">
         <v>1.8</v>
       </c>
@@ -26705,16 +26729,16 @@
         <v>4.75</v>
       </c>
       <c r="N295">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O295">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P295">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q295">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R295">
         <v>2.025</v>
@@ -26726,25 +26750,31 @@
         <v>2.25</v>
       </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V295">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB295">
+        <v>0.825</v>
+      </c>
+      <c r="AC295">
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26779,31 +26809,31 @@
         <v>1.333</v>
       </c>
       <c r="N296">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O296">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P296">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q296">
         <v>1.25</v>
       </c>
       <c r="R296">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S296">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T296">
         <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V296">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
         <v>0</v>
@@ -26826,72 +26856,442 @@
         <v>295</v>
       </c>
       <c r="B297">
+        <v>6935704</v>
+      </c>
+      <c r="C297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F297" t="s">
+        <v>44</v>
+      </c>
+      <c r="G297" t="s">
+        <v>38</v>
+      </c>
+      <c r="K297">
+        <v>2.375</v>
+      </c>
+      <c r="L297">
+        <v>3.25</v>
+      </c>
+      <c r="M297">
+        <v>3</v>
+      </c>
+      <c r="N297">
+        <v>2.3</v>
+      </c>
+      <c r="O297">
+        <v>3.25</v>
+      </c>
+      <c r="P297">
+        <v>3.1</v>
+      </c>
+      <c r="Q297">
+        <v>-0.25</v>
+      </c>
+      <c r="R297">
+        <v>2</v>
+      </c>
+      <c r="S297">
+        <v>1.85</v>
+      </c>
+      <c r="T297">
+        <v>2.25</v>
+      </c>
+      <c r="U297">
+        <v>1.95</v>
+      </c>
+      <c r="V297">
+        <v>1.9</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>0</v>
+      </c>
+      <c r="AA297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>6937263</v>
+      </c>
+      <c r="C298" t="s">
+        <v>28</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45347.47916666666</v>
+      </c>
+      <c r="F298" t="s">
+        <v>31</v>
+      </c>
+      <c r="G298" t="s">
+        <v>29</v>
+      </c>
+      <c r="K298">
+        <v>2.6</v>
+      </c>
+      <c r="L298">
+        <v>3.2</v>
+      </c>
+      <c r="M298">
+        <v>2.75</v>
+      </c>
+      <c r="N298">
+        <v>2.55</v>
+      </c>
+      <c r="O298">
+        <v>3.2</v>
+      </c>
+      <c r="P298">
+        <v>2.8</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>1.85</v>
+      </c>
+      <c r="S298">
+        <v>2</v>
+      </c>
+      <c r="T298">
+        <v>2.25</v>
+      </c>
+      <c r="U298">
+        <v>2</v>
+      </c>
+      <c r="V298">
+        <v>1.85</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>6937262</v>
+      </c>
+      <c r="C299" t="s">
+        <v>28</v>
+      </c>
+      <c r="D299" t="s">
+        <v>28</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45347.5</v>
+      </c>
+      <c r="F299" t="s">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>35</v>
+      </c>
+      <c r="K299">
+        <v>8</v>
+      </c>
+      <c r="L299">
+        <v>5</v>
+      </c>
+      <c r="M299">
+        <v>1.363</v>
+      </c>
+      <c r="N299">
+        <v>7.5</v>
+      </c>
+      <c r="O299">
+        <v>5</v>
+      </c>
+      <c r="P299">
+        <v>1.363</v>
+      </c>
+      <c r="Q299">
+        <v>1.25</v>
+      </c>
+      <c r="R299">
+        <v>2.025</v>
+      </c>
+      <c r="S299">
+        <v>1.825</v>
+      </c>
+      <c r="T299">
+        <v>2.75</v>
+      </c>
+      <c r="U299">
+        <v>1.8</v>
+      </c>
+      <c r="V299">
+        <v>2.05</v>
+      </c>
+      <c r="W299">
+        <v>0</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <v>0</v>
+      </c>
+      <c r="Z299">
+        <v>0</v>
+      </c>
+      <c r="AA299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>6937261</v>
+      </c>
+      <c r="C300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45347.54166666666</v>
+      </c>
+      <c r="F300" t="s">
+        <v>41</v>
+      </c>
+      <c r="G300" t="s">
+        <v>33</v>
+      </c>
+      <c r="K300">
+        <v>1.25</v>
+      </c>
+      <c r="L300">
+        <v>6</v>
+      </c>
+      <c r="M300">
+        <v>11</v>
+      </c>
+      <c r="N300">
+        <v>1.285</v>
+      </c>
+      <c r="O300">
+        <v>6</v>
+      </c>
+      <c r="P300">
+        <v>9.5</v>
+      </c>
+      <c r="Q300">
+        <v>-1.5</v>
+      </c>
+      <c r="R300">
+        <v>1.8</v>
+      </c>
+      <c r="S300">
+        <v>2.05</v>
+      </c>
+      <c r="T300">
+        <v>3</v>
+      </c>
+      <c r="U300">
+        <v>1.975</v>
+      </c>
+      <c r="V300">
+        <v>1.875</v>
+      </c>
+      <c r="W300">
+        <v>0</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>0</v>
+      </c>
+      <c r="Z300">
+        <v>0</v>
+      </c>
+      <c r="AA300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
         <v>6937260</v>
       </c>
-      <c r="C297" t="s">
-        <v>28</v>
-      </c>
-      <c r="D297" t="s">
-        <v>28</v>
-      </c>
-      <c r="E297" s="2">
+      <c r="C301" t="s">
+        <v>28</v>
+      </c>
+      <c r="D301" t="s">
+        <v>28</v>
+      </c>
+      <c r="E301" s="2">
         <v>45347.60416666666</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F301" t="s">
         <v>39</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G301" t="s">
         <v>37</v>
       </c>
-      <c r="K297">
+      <c r="K301">
         <v>1.444</v>
       </c>
-      <c r="L297">
+      <c r="L301">
         <v>4.5</v>
       </c>
-      <c r="M297">
+      <c r="M301">
         <v>7</v>
       </c>
-      <c r="N297">
-        <v>1.533</v>
-      </c>
-      <c r="O297">
+      <c r="N301">
+        <v>1.5</v>
+      </c>
+      <c r="O301">
         <v>4.2</v>
       </c>
-      <c r="P297">
-        <v>6</v>
-      </c>
-      <c r="Q297">
-        <v>-1</v>
-      </c>
-      <c r="R297">
+      <c r="P301">
+        <v>6.5</v>
+      </c>
+      <c r="Q301">
+        <v>-1</v>
+      </c>
+      <c r="R301">
         <v>1.85</v>
       </c>
-      <c r="S297">
-        <v>2</v>
-      </c>
-      <c r="T297">
-        <v>2.75</v>
-      </c>
-      <c r="U297">
-        <v>2</v>
-      </c>
-      <c r="V297">
-        <v>1.85</v>
-      </c>
-      <c r="W297">
-        <v>0</v>
-      </c>
-      <c r="X297">
-        <v>0</v>
-      </c>
-      <c r="Y297">
-        <v>0</v>
-      </c>
-      <c r="Z297">
-        <v>0</v>
-      </c>
-      <c r="AA297">
+      <c r="S301">
+        <v>2</v>
+      </c>
+      <c r="T301">
+        <v>2.5</v>
+      </c>
+      <c r="U301">
+        <v>1.875</v>
+      </c>
+      <c r="V301">
+        <v>1.975</v>
+      </c>
+      <c r="W301">
+        <v>0</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>0</v>
+      </c>
+      <c r="Z301">
+        <v>0</v>
+      </c>
+      <c r="AA301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>6935705</v>
+      </c>
+      <c r="C302" t="s">
+        <v>28</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F302" t="s">
+        <v>42</v>
+      </c>
+      <c r="G302" t="s">
+        <v>43</v>
+      </c>
+      <c r="K302">
+        <v>1.181</v>
+      </c>
+      <c r="L302">
+        <v>7.5</v>
+      </c>
+      <c r="M302">
+        <v>13</v>
+      </c>
+      <c r="N302">
+        <v>1.2</v>
+      </c>
+      <c r="O302">
+        <v>7</v>
+      </c>
+      <c r="P302">
+        <v>12</v>
+      </c>
+      <c r="Q302">
+        <v>-2</v>
+      </c>
+      <c r="R302">
+        <v>2.025</v>
+      </c>
+      <c r="S302">
+        <v>1.825</v>
+      </c>
+      <c r="T302">
+        <v>3.25</v>
+      </c>
+      <c r="U302">
+        <v>2.05</v>
+      </c>
+      <c r="V302">
+        <v>1.8</v>
+      </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
+      <c r="AA302">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5374232</v>
+        <v>5369517</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.3625</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5369517</v>
+        <v>5374232</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
+        <v>2.2</v>
+      </c>
+      <c r="L62">
+        <v>3.2</v>
+      </c>
+      <c r="M62">
+        <v>3.5</v>
+      </c>
+      <c r="N62">
         <v>2.55</v>
       </c>
-      <c r="L62">
+      <c r="O62">
+        <v>3.1</v>
+      </c>
+      <c r="P62">
         <v>3</v>
       </c>
-      <c r="M62">
-        <v>3</v>
-      </c>
-      <c r="N62">
-        <v>2.8</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
-      <c r="P62">
-        <v>2.8</v>
-      </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>2.15</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5369548</v>
+        <v>5369519</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,49 +6858,49 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="L72">
         <v>3.25</v>
       </c>
       <c r="M72">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="Q72">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
         <v>1.95</v>
@@ -6909,25 +6909,25 @@
         <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374242</v>
+        <v>5369548</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,55 +6947,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>46</v>
       </c>
       <c r="K73">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="N73">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O73">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="Q73">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7004,19 +7004,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.2849999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5369519</v>
+        <v>5374240</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L74">
         <v>3.25</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z74">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374240</v>
+        <v>5374241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7125,73 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N75">
+        <v>1.444</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>9</v>
+      </c>
+      <c r="Q75">
+        <v>-1.25</v>
+      </c>
+      <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
+        <v>1.875</v>
+      </c>
+      <c r="T75">
+        <v>2.25</v>
+      </c>
+      <c r="U75">
         <v>1.85</v>
       </c>
-      <c r="O75">
-        <v>3.4</v>
-      </c>
-      <c r="P75">
-        <v>4.333</v>
-      </c>
-      <c r="Q75">
-        <v>-0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.875</v>
-      </c>
-      <c r="S75">
-        <v>1.975</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>2</v>
-      </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374241</v>
+        <v>5374242</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="N76">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
         <v>1.975</v>
       </c>
-      <c r="S76">
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z76">
+        <v>0.875</v>
+      </c>
+      <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,40 +9187,40 @@
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
         <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9229,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9318,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399627</v>
+        <v>6399630</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.925</v>
+      </c>
+      <c r="AB103">
         <v>-0.5</v>
       </c>
-      <c r="AB103">
-        <v>0.825</v>
-      </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399630</v>
+        <v>6399627</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
+        <v>2.025</v>
+      </c>
+      <c r="W105">
+        <v>0.8</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.95</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>2.5</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
-      <c r="AA105">
-        <v>0.925</v>
-      </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399632</v>
+        <v>6399634</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,73 +10507,73 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L113">
         <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>1.8</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>1.9</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>2.025</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
       <c r="Y113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399634</v>
+        <v>6399631</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>45</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O114">
         <v>2.9</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10656,16 +10656,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399631</v>
+        <v>6399632</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>2.3</v>
       </c>
       <c r="L115">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
+        <v>1.9</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
         <v>2.025</v>
       </c>
-      <c r="S115">
-        <v>1.825</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>2.025</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6399614</v>
+        <v>6399459</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>45</v>
+      </c>
+      <c r="K121">
+        <v>1.909</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>1.615</v>
+      </c>
+      <c r="O121">
         <v>4</v>
       </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121" t="s">
-        <v>47</v>
-      </c>
-      <c r="K121">
-        <v>1.4</v>
-      </c>
-      <c r="L121">
-        <v>4.333</v>
-      </c>
-      <c r="M121">
-        <v>9</v>
-      </c>
-      <c r="N121">
-        <v>1.2</v>
-      </c>
-      <c r="O121">
-        <v>7</v>
-      </c>
       <c r="P121">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
         <v>2.025</v>
       </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6399459</v>
+        <v>6399614</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M122">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="N122">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P122">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R122">
+        <v>2.025</v>
+      </c>
+      <c r="S122">
         <v>1.825</v>
       </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6399636</v>
+        <v>6399637</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O123">
+        <v>3.1</v>
+      </c>
+      <c r="P123">
+        <v>3.8</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.8</v>
+      </c>
+      <c r="S123">
         <v>2.05</v>
       </c>
-      <c r="P123">
-        <v>4.2</v>
-      </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>1.875</v>
-      </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
       <c r="T123">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399635</v>
+        <v>6399636</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,13 +11486,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11501,43 +11501,43 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M124">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399638</v>
+        <v>6399635</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>1</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.3625</v>
-      </c>
-      <c r="AB125">
-        <v>0.875</v>
-      </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399637</v>
+        <v>6399638</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,55 +11664,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>45</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N126">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O126">
         <v>3.1</v>
       </c>
       <c r="P126">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S126">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,13 +11727,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6397969</v>
+        <v>6399616</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,70 +11753,70 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="N127">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
         <v>2.05</v>
       </c>
       <c r="W127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6399616</v>
+        <v>6397969</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,70 +11931,70 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="L129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q129">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
         <v>2.05</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>3.2</v>
+      </c>
+      <c r="N134">
+        <v>1.85</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
         <v>4.5</v>
       </c>
-      <c r="M134">
-        <v>8</v>
-      </c>
-      <c r="N134">
-        <v>1.4</v>
-      </c>
-      <c r="O134">
-        <v>4.333</v>
-      </c>
-      <c r="P134">
-        <v>9.5</v>
-      </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6399617</v>
+        <v>6397970</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="L135">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N135">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="O135">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="Q135">
-        <v>-3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
         <v>1.9</v>
       </c>
-      <c r="S135">
-        <v>1.95</v>
-      </c>
       <c r="T135">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6399460</v>
+        <v>6399617</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136">
+        <v>1.05</v>
+      </c>
+      <c r="L136">
+        <v>13</v>
+      </c>
+      <c r="M136">
+        <v>34</v>
+      </c>
+      <c r="N136">
+        <v>1.03</v>
+      </c>
+      <c r="O136">
+        <v>17</v>
+      </c>
+      <c r="P136">
         <v>41</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136" t="s">
-        <v>46</v>
-      </c>
-      <c r="K136">
-        <v>2.375</v>
-      </c>
-      <c r="L136">
-        <v>3.2</v>
-      </c>
-      <c r="M136">
-        <v>3.2</v>
-      </c>
-      <c r="N136">
-        <v>1.85</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
-      <c r="P136">
-        <v>4.5</v>
-      </c>
       <c r="Q136">
+        <v>-3.5</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>4.25</v>
+      </c>
+      <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
+        <v>1.925</v>
+      </c>
+      <c r="W136">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.85</v>
-      </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.825</v>
-      </c>
-      <c r="V136">
-        <v>2.025</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>3.5</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>1</v>
-      </c>
-      <c r="AB136">
-        <v>-1</v>
-      </c>
       <c r="AC136">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K186">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L186">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N186">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P186">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K187">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N187">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y187">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K259">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M259">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N259">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O259">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R259">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X259">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA259">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K260">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M260">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N260">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O260">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q260">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S260">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -26809,31 +26809,31 @@
         <v>1.333</v>
       </c>
       <c r="N296">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O296">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P296">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q296">
         <v>1.25</v>
       </c>
       <c r="R296">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
         <v>2.75</v>
       </c>
       <c r="U296">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W296">
         <v>0</v>
@@ -26904,10 +26904,10 @@
         <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V297">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W297">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         <v>2.75</v>
       </c>
       <c r="N298">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
         <v>3.2</v>
       </c>
       <c r="P298">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q298">
         <v>0</v>
       </c>
       <c r="R298">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S298">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T298">
         <v>2.25</v>
@@ -27117,19 +27117,19 @@
         <v>-1.5</v>
       </c>
       <c r="R300">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S300">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T300">
         <v>3</v>
       </c>
       <c r="U300">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V300">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27253,13 +27253,13 @@
         <v>13</v>
       </c>
       <c r="N302">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="O302">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P302">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q302">
         <v>-2</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5374240</v>
+        <v>5374243</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,40 +7036,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74">
+        <v>2.25</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>3.5</v>
+      </c>
+      <c r="N74">
+        <v>2.7</v>
+      </c>
+      <c r="O74">
         <v>3</v>
       </c>
-      <c r="J74" t="s">
-        <v>46</v>
-      </c>
-      <c r="K74">
-        <v>2.2</v>
-      </c>
-      <c r="L74">
-        <v>3.25</v>
-      </c>
-      <c r="M74">
-        <v>3.4</v>
-      </c>
-      <c r="N74">
-        <v>1.85</v>
-      </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
       <c r="P74">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>1.875</v>
@@ -7078,7 +7078,7 @@
         <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7087,25 +7087,25 @@
         <v>1.85</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374241</v>
+        <v>5374242</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="N75">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
         <v>1.975</v>
       </c>
-      <c r="S75">
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z75">
+        <v>0.875</v>
+      </c>
+      <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374242</v>
+        <v>5374241</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>1.4</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="N76">
-        <v>11</v>
+        <v>1.444</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
+        <v>1.975</v>
+      </c>
+      <c r="S76">
         <v>1.875</v>
       </c>
-      <c r="S76">
-        <v>1.975</v>
-      </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374243</v>
+        <v>5374240</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,40 +7303,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
         <v>1.875</v>
@@ -7345,7 +7345,7 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -7354,25 +7354,25 @@
         <v>1.85</v>
       </c>
       <c r="W77">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,40 +9187,40 @@
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L98">
         <v>3.1</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9229,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9318,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399630</v>
+        <v>6399627</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>2.025</v>
+      </c>
+      <c r="W103">
+        <v>0.8</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.925</v>
-      </c>
-      <c r="S103">
-        <v>1.925</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>2.5</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.925</v>
-      </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399628</v>
+        <v>6399629</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>2.25</v>
+      </c>
+      <c r="O104">
+        <v>3.1</v>
+      </c>
+      <c r="P104">
         <v>3.5</v>
       </c>
-      <c r="N104">
-        <v>1.8</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>4.75</v>
-      </c>
       <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>1.75</v>
+      </c>
+      <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
+        <v>2.025</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.05</v>
-      </c>
-      <c r="V104">
-        <v>1.8</v>
-      </c>
-      <c r="W104">
-        <v>0.8</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
+      <c r="AA104">
+        <v>0.475</v>
+      </c>
+      <c r="AB104">
         <v>0.825</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399627</v>
+        <v>6399630</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
+        <v>0.925</v>
+      </c>
+      <c r="AB105">
         <v>-0.5</v>
       </c>
-      <c r="AB105">
-        <v>0.825</v>
-      </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6399629</v>
+        <v>6399628</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N106">
+        <v>1.8</v>
+      </c>
+      <c r="O106">
+        <v>3.5</v>
+      </c>
+      <c r="P106">
+        <v>4.75</v>
+      </c>
+      <c r="Q106">
+        <v>-0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.825</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
         <v>2.25</v>
       </c>
-      <c r="O106">
-        <v>3.1</v>
-      </c>
-      <c r="P106">
-        <v>3.5</v>
-      </c>
-      <c r="Q106">
-        <v>-0.25</v>
-      </c>
-      <c r="R106">
-        <v>1.9</v>
-      </c>
-      <c r="S106">
-        <v>1.95</v>
-      </c>
-      <c r="T106">
-        <v>1.75</v>
-      </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399634</v>
+        <v>6399633</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L113">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399631</v>
+        <v>6399632</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>2.3</v>
       </c>
       <c r="L114">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
         <v>2.025</v>
       </c>
-      <c r="S114">
-        <v>1.825</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>2.025</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399632</v>
+        <v>6399631</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.9</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.825</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399633</v>
+        <v>6399634</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
         <v>2.05</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.8</v>
       </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
         <v>1.9</v>
       </c>
-      <c r="V116">
-        <v>1.95</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
       <c r="Y116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6397968</v>
+        <v>6399459</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,61 +11130,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>45</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
+        <v>4.2</v>
+      </c>
+      <c r="N120">
+        <v>1.615</v>
+      </c>
+      <c r="O120">
         <v>4</v>
       </c>
-      <c r="N120">
-        <v>1.75</v>
-      </c>
-      <c r="O120">
-        <v>3.4</v>
-      </c>
       <c r="P120">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11193,13 +11193,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6399459</v>
+        <v>6397968</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,61 +11219,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
+        <v>3.25</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>1.75</v>
+      </c>
+      <c r="O121">
         <v>3.4</v>
       </c>
-      <c r="M121">
-        <v>4.2</v>
-      </c>
-      <c r="N121">
-        <v>1.615</v>
-      </c>
-      <c r="O121">
-        <v>4</v>
-      </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q121">
         <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11282,13 +11282,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399636</v>
+        <v>6399638</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L124">
+        <v>3.25</v>
+      </c>
+      <c r="M124">
+        <v>2.8</v>
+      </c>
+      <c r="N124">
         <v>2.45</v>
       </c>
-      <c r="M124">
-        <v>4.1</v>
-      </c>
-      <c r="N124">
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
         <v>3</v>
       </c>
-      <c r="O124">
-        <v>2.05</v>
-      </c>
-      <c r="P124">
-        <v>4.2</v>
-      </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>2.075</v>
+      </c>
+      <c r="S124">
+        <v>1.725</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
         <v>1.875</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.975</v>
       </c>
-      <c r="T124">
-        <v>1.75</v>
-      </c>
-      <c r="U124">
-        <v>2.025</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>-0.5</v>
+      </c>
+      <c r="AA124">
+        <v>0.3625</v>
+      </c>
+      <c r="AB124">
         <v>0.875</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399638</v>
+        <v>6399636</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6399616</v>
+        <v>6397969</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,70 +11753,70 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="L127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="O127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V127">
         <v>2.05</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399615</v>
+        <v>6399616</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11857,40 +11857,40 @@
         <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M128">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N128">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O128">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="Q128">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2849999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6397969</v>
+        <v>6399615</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
         <v>3.25</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P129">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC129">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399641</v>
+        <v>6399640</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,61 +12109,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
@@ -12172,10 +12172,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399640</v>
+        <v>6399639</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
+        <v>2.05</v>
+      </c>
+      <c r="V132">
         <v>1.8</v>
       </c>
-      <c r="V132">
-        <v>2.05</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>-0</v>
+      </c>
+      <c r="AB132">
         <v>-0.5</v>
       </c>
-      <c r="AA132">
-        <v>0.5125</v>
-      </c>
-      <c r="AB132">
-        <v>0.8</v>
-      </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6399639</v>
+        <v>6399641</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,55 +12287,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
         <v>3.3</v>
       </c>
       <c r="P133">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>1.875</v>
+      </c>
+      <c r="S133">
+        <v>1.975</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
         <v>1.925</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.925</v>
-      </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>2.05</v>
-      </c>
-      <c r="V133">
-        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12347,16 +12347,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N134">
+        <v>1.4</v>
+      </c>
+      <c r="O134">
+        <v>4.333</v>
+      </c>
+      <c r="P134">
+        <v>9.5</v>
+      </c>
+      <c r="Q134">
+        <v>-1.25</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.9</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>4.5</v>
-      </c>
-      <c r="Q134">
-        <v>-0.5</v>
-      </c>
-      <c r="R134">
-        <v>1.85</v>
-      </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6397970</v>
+        <v>6399460</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
+        <v>3.2</v>
+      </c>
+      <c r="M135">
+        <v>3.2</v>
+      </c>
+      <c r="N135">
+        <v>1.85</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>8</v>
-      </c>
-      <c r="N135">
-        <v>1.4</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>9.5</v>
-      </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,43 +13192,43 @@
         <v>47</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,10 +13266,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13281,44 +13281,44 @@
         <v>47</v>
       </c>
       <c r="K144">
+        <v>2.375</v>
+      </c>
+      <c r="L144">
+        <v>3.1</v>
+      </c>
+      <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
+        <v>2.3</v>
+      </c>
+      <c r="O144">
+        <v>3.1</v>
+      </c>
+      <c r="P144">
+        <v>3.4</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
+        <v>1.975</v>
+      </c>
+      <c r="W144">
         <v>1.3</v>
       </c>
-      <c r="L144">
-        <v>5</v>
-      </c>
-      <c r="M144">
-        <v>11</v>
-      </c>
-      <c r="N144">
-        <v>1.25</v>
-      </c>
-      <c r="O144">
-        <v>5.5</v>
-      </c>
-      <c r="P144">
-        <v>13</v>
-      </c>
-      <c r="Q144">
-        <v>-1.75</v>
-      </c>
-      <c r="R144">
-        <v>2</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>0.25</v>
-      </c>
       <c r="X144">
         <v>-1</v>
       </c>
@@ -13326,16 +13326,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6937185</v>
+        <v>6937187</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,49 +15669,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L171">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M171">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="N171">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P171">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q171">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
         <v>1.975</v>
@@ -15720,7 +15720,7 @@
         <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15729,16 +15729,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6937187</v>
+        <v>6937185</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,49 +15758,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M172">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="N172">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O172">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q172">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
         <v>1.975</v>
@@ -15809,7 +15809,7 @@
         <v>1.875</v>
       </c>
       <c r="W172">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15818,16 +15818,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC172">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M186">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N186">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y186">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L187">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N187">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K259">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M259">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N259">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O259">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q259">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K260">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M260">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R260">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA260">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -26957,31 +26957,31 @@
         <v>2.75</v>
       </c>
       <c r="N298">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O298">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P298">
         <v>2.9</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S298">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T298">
         <v>2.25</v>
       </c>
       <c r="U298">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V298">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W298">
         <v>0</v>
@@ -27117,19 +27117,19 @@
         <v>-1.5</v>
       </c>
       <c r="R300">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S300">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T300">
         <v>3</v>
       </c>
       <c r="U300">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V300">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27179,7 +27179,7 @@
         <v>7</v>
       </c>
       <c r="N301">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O301">
         <v>4.2</v>
@@ -27191,19 +27191,19 @@
         <v>-1</v>
       </c>
       <c r="R301">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S301">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T301">
         <v>2.5</v>
       </c>
       <c r="U301">
+        <v>1.975</v>
+      </c>
+      <c r="V301">
         <v>1.875</v>
-      </c>
-      <c r="V301">
-        <v>1.975</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27253,31 +27253,31 @@
         <v>13</v>
       </c>
       <c r="N302">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="O302">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P302">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q302">
         <v>-2</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S302">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T302">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U302">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V302">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W302">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5369517</v>
+        <v>5374232</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
+        <v>2.2</v>
+      </c>
+      <c r="L61">
+        <v>3.2</v>
+      </c>
+      <c r="M61">
+        <v>3.5</v>
+      </c>
+      <c r="N61">
         <v>2.55</v>
       </c>
-      <c r="L61">
+      <c r="O61">
+        <v>3.1</v>
+      </c>
+      <c r="P61">
         <v>3</v>
       </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>2.8</v>
-      </c>
-      <c r="O61">
-        <v>3</v>
-      </c>
-      <c r="P61">
-        <v>2.8</v>
-      </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2.15</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y61">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5374232</v>
+        <v>5369517</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.3625</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5369519</v>
+        <v>5374241</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,58 +6858,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
       <c r="K72">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M72">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N72">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,16 +6918,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5369548</v>
+        <v>5374242</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,55 +6947,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>46</v>
       </c>
       <c r="K73">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="N73">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="Q73">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7004,19 +7004,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.571</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374242</v>
+        <v>5374244</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y75">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374241</v>
+        <v>5369519</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,58 +7214,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374240</v>
+        <v>5369548</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L77">
         <v>3.25</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N77">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q77">
+        <v>0.75</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>1.75</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.9</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>0.571</v>
+      </c>
+      <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
+        <v>0.75</v>
+      </c>
+      <c r="AB77">
         <v>-0.5</v>
       </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>3.333</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
-      </c>
-      <c r="AA77">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
-      </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374244</v>
+        <v>5374240</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
         <v>3.4</v>
       </c>
       <c r="N78">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399627</v>
+        <v>6399629</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,49 +9617,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103">
+        <v>2.4</v>
+      </c>
+      <c r="L103">
+        <v>3.25</v>
+      </c>
+      <c r="M103">
         <v>3</v>
       </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>47</v>
-      </c>
-      <c r="K103">
-        <v>2.2</v>
-      </c>
-      <c r="L103">
-        <v>3.1</v>
-      </c>
-      <c r="M103">
-        <v>3.6</v>
-      </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
         <v>3.1</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
         <v>1.825</v>
@@ -9668,19 +9668,19 @@
         <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB103">
         <v>0.825</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399629</v>
+        <v>6399630</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
+        <v>1.909</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>4.2</v>
+      </c>
+      <c r="Q104">
+        <v>-0.5</v>
+      </c>
+      <c r="R104">
+        <v>1.925</v>
+      </c>
+      <c r="S104">
+        <v>1.925</v>
+      </c>
+      <c r="T104">
         <v>2.25</v>
       </c>
-      <c r="O104">
-        <v>3.1</v>
-      </c>
-      <c r="P104">
-        <v>3.5</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.9</v>
       </c>
-      <c r="S104">
-        <v>1.95</v>
-      </c>
-      <c r="T104">
-        <v>1.75</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>0.925</v>
+      </c>
+      <c r="AB104">
         <v>-0.5</v>
       </c>
-      <c r="AA104">
-        <v>0.475</v>
-      </c>
-      <c r="AB104">
-        <v>0.825</v>
-      </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399630</v>
+        <v>6399627</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
+        <v>2.025</v>
+      </c>
+      <c r="W105">
+        <v>0.8</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.95</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>2.5</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
-      <c r="AA105">
-        <v>0.925</v>
-      </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6399633</v>
+        <v>6399634</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R113">
+        <v>1.875</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
         <v>2.05</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.8</v>
       </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>1.9</v>
       </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399632</v>
+        <v>6399631</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.3</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P114">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
+        <v>1.825</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>2.025</v>
+      </c>
+      <c r="V114">
+        <v>1.825</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
         <v>1.9</v>
       </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>2.025</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
       <c r="Y114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.825</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399631</v>
+        <v>6399633</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L115">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
         <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399634</v>
+        <v>6399632</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
         <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6399458</v>
+        <v>6397967</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="L118">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>1.083</v>
+        <v>2.7</v>
       </c>
       <c r="O118">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>29</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.975</v>
       </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
       <c r="W118">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6397967</v>
+        <v>6399458</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="N119">
-        <v>2.7</v>
+        <v>1.083</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>29</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6399459</v>
+        <v>6397968</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,61 +11130,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>45</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
+        <v>3.25</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>1.75</v>
+      </c>
+      <c r="O120">
         <v>3.4</v>
       </c>
-      <c r="M120">
-        <v>4.2</v>
-      </c>
-      <c r="N120">
-        <v>1.615</v>
-      </c>
-      <c r="O120">
-        <v>4</v>
-      </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11193,13 +11193,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6397968</v>
+        <v>6399459</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,61 +11219,61 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>1.615</v>
+      </c>
+      <c r="O121">
         <v>4</v>
       </c>
-      <c r="N121">
-        <v>1.75</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
         <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11282,13 +11282,13 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399638</v>
+        <v>6399635</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
         <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>1</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AA124">
-        <v>0.3625</v>
-      </c>
-      <c r="AB124">
-        <v>0.875</v>
-      </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399635</v>
+        <v>6399636</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,13 +11575,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11590,43 +11590,43 @@
         <v>47</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M125">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399636</v>
+        <v>6399638</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L126">
+        <v>3.25</v>
+      </c>
+      <c r="M126">
+        <v>2.8</v>
+      </c>
+      <c r="N126">
         <v>2.45</v>
       </c>
-      <c r="M126">
-        <v>4.1</v>
-      </c>
-      <c r="N126">
+      <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
         <v>3</v>
       </c>
-      <c r="O126">
-        <v>2.05</v>
-      </c>
-      <c r="P126">
-        <v>4.2</v>
-      </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>2.075</v>
+      </c>
+      <c r="S126">
+        <v>1.725</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
         <v>1.875</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="T126">
-        <v>1.75</v>
-      </c>
-      <c r="U126">
-        <v>2.025</v>
-      </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
       <c r="W126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>-0.5</v>
+      </c>
+      <c r="AA126">
+        <v>0.3625</v>
+      </c>
+      <c r="AB126">
         <v>0.875</v>
       </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>-1</v>
-      </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6397969</v>
+        <v>6399616</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,70 +11753,70 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="N127">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
         <v>2.05</v>
       </c>
       <c r="W127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399616</v>
+        <v>6399615</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,13 +11842,13 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11857,40 +11857,40 @@
         <v>46</v>
       </c>
       <c r="K128">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="L128">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O128">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P128">
-        <v>1.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
         <v>1.85</v>
-      </c>
-      <c r="S128">
-        <v>2</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC128">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6399615</v>
+        <v>6397969</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L129">
         <v>3.25</v>
       </c>
       <c r="M129">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399640</v>
+        <v>6399639</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
+        <v>2.05</v>
+      </c>
+      <c r="V131">
         <v>1.8</v>
       </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>-0</v>
+      </c>
+      <c r="AB131">
         <v>-0.5</v>
       </c>
-      <c r="AA131">
-        <v>0.5125</v>
-      </c>
-      <c r="AB131">
-        <v>0.8</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399639</v>
+        <v>6399641</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,55 +12198,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>1.975</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
         <v>1.925</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.925</v>
-      </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>2.05</v>
-      </c>
-      <c r="V132">
-        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12258,16 +12258,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6399641</v>
+        <v>6399640</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,61 +12287,61 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12350,10 +12350,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.4875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6397970</v>
+        <v>6399617</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="M134">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N134">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="P134">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-3.5</v>
       </c>
       <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
         <v>1.95</v>
       </c>
-      <c r="S134">
-        <v>1.9</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6399460</v>
+        <v>6397970</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N135">
+        <v>1.4</v>
+      </c>
+      <c r="O135">
+        <v>4.333</v>
+      </c>
+      <c r="P135">
+        <v>9.5</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
         <v>1.85</v>
       </c>
-      <c r="O135">
-        <v>3.5</v>
-      </c>
-      <c r="P135">
-        <v>4.5</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>1.85</v>
-      </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>2.025</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y135">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6399617</v>
+        <v>6399460</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>1.05</v>
+        <v>2.375</v>
       </c>
       <c r="L136">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="N136">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>41</v>
+        <v>4.5</v>
       </c>
       <c r="Q136">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100665</v>
+        <v>7100661</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,58 +13800,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
+        <v>1.8</v>
+      </c>
+      <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
         <v>4.75</v>
       </c>
-      <c r="L150">
-        <v>3.6</v>
-      </c>
-      <c r="M150">
-        <v>1.75</v>
-      </c>
       <c r="N150">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="O150">
         <v>3.8</v>
       </c>
       <c r="P150">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>2</v>
-      </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
-        <v>3.5</v>
+        <v>0.55</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,16 +13860,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,58 +13978,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>47</v>
       </c>
       <c r="K152">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N152">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O152">
         <v>3.8</v>
       </c>
       <c r="P152">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
+        <v>2</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
         <v>1.85</v>
       </c>
-      <c r="T152">
-        <v>2.25</v>
-      </c>
-      <c r="U152">
-        <v>1.825</v>
-      </c>
-      <c r="V152">
-        <v>2.025</v>
-      </c>
       <c r="W152">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K186">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L186">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N186">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P186">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z186">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K187">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N187">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y187">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -26809,31 +26809,31 @@
         <v>1.333</v>
       </c>
       <c r="N296">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O296">
         <v>4.5</v>
       </c>
       <c r="P296">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="Q296">
         <v>1.25</v>
       </c>
       <c r="R296">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T296">
         <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W296">
         <v>0</v>
@@ -26883,10 +26883,10 @@
         <v>3</v>
       </c>
       <c r="N297">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O297">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P297">
         <v>3.1</v>
@@ -26895,19 +26895,19 @@
         <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
         <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W297">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         <v>2.75</v>
       </c>
       <c r="N298">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O298">
         <v>3.3</v>
       </c>
       <c r="P298">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q298">
         <v>-0.25</v>
@@ -26978,10 +26978,10 @@
         <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V298">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W298">
         <v>0</v>
@@ -27031,7 +27031,7 @@
         <v>1.363</v>
       </c>
       <c r="N299">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O299">
         <v>5</v>
@@ -27052,10 +27052,10 @@
         <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V299">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W299">
         <v>0</v>
@@ -27105,31 +27105,31 @@
         <v>11</v>
       </c>
       <c r="N300">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="O300">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="P300">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q300">
         <v>-1.5</v>
       </c>
       <c r="R300">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S300">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T300">
         <v>3</v>
       </c>
       <c r="U300">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V300">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27179,10 +27179,10 @@
         <v>7</v>
       </c>
       <c r="N301">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O301">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P301">
         <v>6.5</v>
@@ -27191,19 +27191,19 @@
         <v>-1</v>
       </c>
       <c r="R301">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S301">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T301">
         <v>2.5</v>
       </c>
       <c r="U301">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V301">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27256,7 +27256,7 @@
         <v>1.2</v>
       </c>
       <c r="O302">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P302">
         <v>12</v>
@@ -27265,19 +27265,19 @@
         <v>-2</v>
       </c>
       <c r="R302">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T302">
         <v>3</v>
       </c>
       <c r="U302">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W302">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5374241</v>
+        <v>5374244</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5374242</v>
+        <v>5374243</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,40 +6947,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="N73">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="O73">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>1.875</v>
@@ -6989,22 +6989,22 @@
         <v>1.975</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>0.875</v>
@@ -7016,7 +7016,7 @@
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5374243</v>
+        <v>5369519</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,13 +7036,13 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7051,43 +7051,43 @@
         <v>47</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7096,16 +7096,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374244</v>
+        <v>5374242</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5369519</v>
+        <v>5374241</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,58 +7214,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L76">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N76">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5369548</v>
+        <v>5374240</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,55 +7303,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
       </c>
       <c r="K77">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
         <v>3.25</v>
       </c>
       <c r="M77">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7360,19 +7360,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374240</v>
+        <v>5369548</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q78">
+        <v>0.75</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>1.75</v>
+      </c>
+      <c r="T78">
+        <v>2.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>0.571</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>0.75</v>
+      </c>
+      <c r="AB78">
         <v>-0.5</v>
       </c>
-      <c r="R78">
-        <v>1.875</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>3.333</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB78">
-        <v>1</v>
-      </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,40 +9187,40 @@
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
         <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9229,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9318,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399629</v>
+        <v>6399627</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,49 +9617,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
         <v>3.1</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
         <v>1.825</v>
@@ -9668,19 +9668,19 @@
         <v>2.025</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
-      </c>
-      <c r="AA103">
-        <v>0.475</v>
       </c>
       <c r="AB103">
         <v>0.825</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399630</v>
+        <v>6399628</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N104">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O104">
         <v>3.5</v>
       </c>
       <c r="P104">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399627</v>
+        <v>6399629</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,49 +9795,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>45</v>
+      </c>
+      <c r="K105">
+        <v>2.4</v>
+      </c>
+      <c r="L105">
+        <v>3.25</v>
+      </c>
+      <c r="M105">
         <v>3</v>
       </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
-      <c r="J105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K105">
-        <v>2.2</v>
-      </c>
-      <c r="L105">
-        <v>3.1</v>
-      </c>
-      <c r="M105">
-        <v>3.6</v>
-      </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O105">
         <v>3.1</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U105">
         <v>1.825</v>
@@ -9846,19 +9846,19 @@
         <v>2.025</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
         <v>0.825</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6399628</v>
+        <v>6399630</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O106">
         <v>3.5</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q106">
         <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399633</v>
+        <v>6399632</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399632</v>
+        <v>6399633</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,56 +10774,56 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>46</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>1.9</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="S116">
-        <v>1.9</v>
-      </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>2.025</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
@@ -10831,19 +10831,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6397967</v>
+        <v>6399458</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M118">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>1.083</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="P118">
-        <v>2.8</v>
+        <v>29</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6399458</v>
+        <v>6397967</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>1.083</v>
+        <v>2.7</v>
       </c>
       <c r="O119">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>29</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6399637</v>
+        <v>6399638</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,55 +11397,55 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>45</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O123">
         <v>3.1</v>
       </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q123">
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11460,13 +11460,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>0.5249999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399635</v>
+        <v>6399636</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,13 +11486,13 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11501,43 +11501,43 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M124">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399636</v>
+        <v>6399637</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>3.8</v>
+      </c>
+      <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
         <v>2.05</v>
       </c>
-      <c r="P125">
-        <v>4.2</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.875</v>
-      </c>
-      <c r="S125">
-        <v>1.975</v>
-      </c>
       <c r="T125">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6399638</v>
+        <v>6399635</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
         <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>1</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>-0.5</v>
       </c>
-      <c r="AA126">
-        <v>0.3625</v>
-      </c>
-      <c r="AB126">
-        <v>0.875</v>
-      </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399639</v>
+        <v>6399641</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,55 +12109,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
         <v>3.3</v>
       </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
         <v>1.925</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.925</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>2.05</v>
-      </c>
-      <c r="V131">
-        <v>1.8</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399641</v>
+        <v>6399639</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,55 +12198,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12258,16 +12258,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>-0</v>
+      </c>
+      <c r="AB132">
         <v>-0.5</v>
       </c>
-      <c r="AA132">
-        <v>0.4875</v>
-      </c>
-      <c r="AB132">
-        <v>0.925</v>
-      </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6399617</v>
+        <v>6397970</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="L134">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="O134">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="Q134">
-        <v>-3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
         <v>1.9</v>
       </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
       <c r="T134">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6397970</v>
+        <v>6399617</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="L135">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="M135">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N135">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O135">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="P135">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-3.5</v>
       </c>
       <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
         <v>1.95</v>
       </c>
-      <c r="S135">
-        <v>1.9</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X135">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,44 +13192,44 @@
         <v>47</v>
       </c>
       <c r="K143">
+        <v>2.375</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
+        <v>3.1</v>
+      </c>
+      <c r="N143">
+        <v>2.3</v>
+      </c>
+      <c r="O143">
+        <v>3.1</v>
+      </c>
+      <c r="P143">
+        <v>3.4</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
+        <v>1.9</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
+        <v>1.975</v>
+      </c>
+      <c r="W143">
         <v>1.3</v>
       </c>
-      <c r="L143">
-        <v>5</v>
-      </c>
-      <c r="M143">
-        <v>11</v>
-      </c>
-      <c r="N143">
-        <v>1.25</v>
-      </c>
-      <c r="O143">
-        <v>5.5</v>
-      </c>
-      <c r="P143">
-        <v>13</v>
-      </c>
-      <c r="Q143">
-        <v>-1.75</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.925</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>0.25</v>
-      </c>
       <c r="X143">
         <v>-1</v>
       </c>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,10 +13266,10 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13281,43 +13281,43 @@
         <v>47</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13326,16 +13326,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,58 +13800,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N150">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O150">
         <v>3.8</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>2.025</v>
-      </c>
       <c r="W150">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,16 +13860,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100665</v>
+        <v>7100661</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,58 +13978,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>47</v>
       </c>
       <c r="K152">
+        <v>1.8</v>
+      </c>
+      <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
         <v>4.75</v>
       </c>
-      <c r="L152">
-        <v>3.6</v>
-      </c>
-      <c r="M152">
-        <v>1.75</v>
-      </c>
       <c r="N152">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="O152">
         <v>3.8</v>
       </c>
       <c r="P152">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
         <v>1.85</v>
       </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
-        <v>3.5</v>
+        <v>0.55</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6937187</v>
+        <v>6937185</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,49 +15669,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L171">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M171">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="N171">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O171">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q171">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
         <v>1.975</v>
@@ -15720,7 +15720,7 @@
         <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15729,16 +15729,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6937185</v>
+        <v>6937187</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,49 +15758,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L172">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M172">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="N172">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P172">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
         <v>1.975</v>
@@ -15809,7 +15809,7 @@
         <v>1.875</v>
       </c>
       <c r="W172">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15818,16 +15818,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M186">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N186">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y186">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L187">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N187">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z187">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K259">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M259">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N259">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O259">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R259">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X259">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA259">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K260">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M260">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N260">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O260">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q260">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S260">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -26809,22 +26809,22 @@
         <v>1.333</v>
       </c>
       <c r="N296">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O296">
         <v>4.5</v>
       </c>
       <c r="P296">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="Q296">
         <v>1.25</v>
       </c>
       <c r="R296">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
         <v>2.75</v>
@@ -26978,10 +26978,10 @@
         <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V298">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W298">
         <v>0</v>
@@ -27040,22 +27040,22 @@
         <v>1.363</v>
       </c>
       <c r="Q299">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R299">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S299">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T299">
         <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V299">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W299">
         <v>0</v>
@@ -27117,10 +27117,10 @@
         <v>-1.5</v>
       </c>
       <c r="R300">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S300">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T300">
         <v>3</v>
@@ -27191,10 +27191,10 @@
         <v>-1</v>
       </c>
       <c r="R301">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S301">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T301">
         <v>2.5</v>
@@ -27253,31 +27253,31 @@
         <v>13</v>
       </c>
       <c r="N302">
-        <v>1.2</v>
+        <v>1.181</v>
       </c>
       <c r="O302">
         <v>7.5</v>
       </c>
       <c r="P302">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q302">
         <v>-2</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S302">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T302">
         <v>3</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5369519</v>
+        <v>5369548</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,49 +7036,49 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="L74">
         <v>3.25</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
         <v>1.95</v>
@@ -7087,25 +7087,25 @@
         <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z74">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5374242</v>
+        <v>5369519</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>12</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M75">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374241</v>
+        <v>5374242</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="N76">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
         <v>1.975</v>
       </c>
-      <c r="S76">
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z76">
+        <v>0.875</v>
+      </c>
+      <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374240</v>
+        <v>5374241</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,73 +7303,73 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N77">
+        <v>1.444</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>-1.25</v>
+      </c>
+      <c r="R77">
+        <v>1.975</v>
+      </c>
+      <c r="S77">
+        <v>1.875</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
         <v>1.85</v>
       </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
-      <c r="P77">
-        <v>4.333</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5369548</v>
+        <v>5374240</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,55 +7392,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7449,19 +7449,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6399627</v>
+        <v>6399628</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,16 +9617,16 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
@@ -9635,37 +9635,37 @@
         <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N103">
         <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
         <v>2.05</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.8</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
       </c>
       <c r="W103">
         <v>0.8</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399628</v>
+        <v>6399629</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>2.25</v>
+      </c>
+      <c r="O104">
+        <v>3.1</v>
+      </c>
+      <c r="P104">
         <v>3.5</v>
       </c>
-      <c r="N104">
-        <v>1.8</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>4.75</v>
-      </c>
       <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>1.75</v>
+      </c>
+      <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
+        <v>2.025</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>1.825</v>
-      </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.05</v>
-      </c>
-      <c r="V104">
-        <v>1.8</v>
-      </c>
-      <c r="W104">
-        <v>0.8</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
+      <c r="AA104">
+        <v>0.475</v>
+      </c>
+      <c r="AB104">
         <v>0.825</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399629</v>
+        <v>6399627</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,49 +9795,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
         <v>3.1</v>
       </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U105">
         <v>1.825</v>
@@ -9846,19 +9846,19 @@
         <v>2.025</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
-      </c>
-      <c r="AA105">
-        <v>0.475</v>
       </c>
       <c r="AB105">
         <v>0.825</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6399615</v>
+        <v>6397969</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L128">
         <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6397969</v>
+        <v>6399615</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45054.625</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
         <v>3.25</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P129">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC129">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K259">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M259">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N259">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O259">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q259">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K260">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M260">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P260">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R260">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA260">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -26809,31 +26809,31 @@
         <v>1.333</v>
       </c>
       <c r="N296">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O296">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P296">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q296">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R296">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T296">
         <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V296">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W296">
         <v>0</v>
@@ -26883,16 +26883,16 @@
         <v>3</v>
       </c>
       <c r="N297">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P297">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
         <v>2.025</v>
@@ -26904,10 +26904,10 @@
         <v>2.25</v>
       </c>
       <c r="U297">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W297">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V298">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W298">
         <v>0</v>
@@ -27031,7 +27031,7 @@
         <v>1.363</v>
       </c>
       <c r="N299">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O299">
         <v>5</v>
@@ -27040,22 +27040,22 @@
         <v>1.363</v>
       </c>
       <c r="Q299">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R299">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S299">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T299">
         <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W299">
         <v>0</v>
@@ -27117,10 +27117,10 @@
         <v>-1.5</v>
       </c>
       <c r="R300">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S300">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T300">
         <v>3</v>
@@ -27179,22 +27179,22 @@
         <v>7</v>
       </c>
       <c r="N301">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O301">
         <v>4</v>
       </c>
       <c r="P301">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q301">
         <v>-1</v>
       </c>
       <c r="R301">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S301">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T301">
         <v>2.5</v>
@@ -27265,10 +27265,10 @@
         <v>-2</v>
       </c>
       <c r="R302">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S302">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T302">
         <v>3</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5369548</v>
+        <v>5374242</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,55 +7036,55 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>46</v>
       </c>
       <c r="K74">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="L74">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="N74">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7093,19 +7093,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.571</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5369519</v>
+        <v>5374241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,58 +7125,58 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N75">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7185,16 +7185,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5374242</v>
+        <v>5374240</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,40 +7214,40 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>11</v>
+        <v>1.85</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>1.285</v>
+        <v>4.333</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7259,10 +7259,10 @@
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7271,19 +7271,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.2849999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5374241</v>
+        <v>5369548</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="N77">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>9</v>
+        <v>1.571</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T77">
         <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5374240</v>
+        <v>5369519</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L78">
         <v>3.25</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6399626</v>
+        <v>6399623</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,40 +9187,40 @@
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L98">
         <v>3.1</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9229,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6399623</v>
+        <v>6399626</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9318,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6399629</v>
+        <v>6399627</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,49 +9706,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O104">
         <v>3.1</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U104">
         <v>1.825</v>
@@ -9757,19 +9757,19 @@
         <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA104">
         <v>-0.5</v>
-      </c>
-      <c r="AA104">
-        <v>0.475</v>
       </c>
       <c r="AB104">
         <v>0.825</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6399627</v>
+        <v>6399629</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,49 +9795,49 @@
         <v>45038.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>45</v>
+      </c>
+      <c r="K105">
+        <v>2.4</v>
+      </c>
+      <c r="L105">
+        <v>3.25</v>
+      </c>
+      <c r="M105">
         <v>3</v>
       </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
-      <c r="J105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K105">
-        <v>2.2</v>
-      </c>
-      <c r="L105">
-        <v>3.1</v>
-      </c>
-      <c r="M105">
-        <v>3.6</v>
-      </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O105">
         <v>3.1</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U105">
         <v>1.825</v>
@@ -9846,19 +9846,19 @@
         <v>2.025</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.5249999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
         <v>0.825</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6399631</v>
+        <v>6399633</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L114">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
         <v>3.6</v>
       </c>
       <c r="N114">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6399632</v>
+        <v>6399631</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.9</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.825</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6399633</v>
+        <v>6399632</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,55 +10774,55 @@
         <v>45045.55208333334</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
         <v>46</v>
       </c>
       <c r="K116">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10831,19 +10831,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6399613</v>
+        <v>6397967</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>2.625</v>
+      </c>
+      <c r="L117">
         <v>3</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117" t="s">
-        <v>47</v>
-      </c>
-      <c r="K117">
-        <v>1.75</v>
-      </c>
-      <c r="L117">
-        <v>3.4</v>
-      </c>
       <c r="M117">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
         <v>1.875</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2.05</v>
-      </c>
       <c r="W117">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6397967</v>
+        <v>6399613</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N119">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6399636</v>
+        <v>6399637</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
+        <v>3.8</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
         <v>2.05</v>
       </c>
-      <c r="P124">
-        <v>4.2</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.875</v>
-      </c>
-      <c r="S124">
-        <v>1.975</v>
-      </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6399637</v>
+        <v>6399636</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="M125">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U125">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6399616</v>
+        <v>6397969</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,70 +11753,70 @@
         <v>45054.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="L127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="O127">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V127">
         <v>2.05</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6397969</v>
+        <v>6399616</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,70 +11842,70 @@
         <v>45054.625</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
         <v>2.05</v>
       </c>
       <c r="W128">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6399641</v>
+        <v>6399639</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,55 +12109,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
         <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>-0</v>
+      </c>
+      <c r="AB131">
         <v>-0.5</v>
       </c>
-      <c r="AA131">
-        <v>0.4875</v>
-      </c>
-      <c r="AB131">
-        <v>0.925</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6399639</v>
+        <v>6399641</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,55 +12198,55 @@
         <v>45059.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>1.975</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
         <v>1.925</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.925</v>
-      </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>2.05</v>
-      </c>
-      <c r="V132">
-        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12258,16 +12258,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6399617</v>
+        <v>6399460</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.05</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="N135">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>41</v>
+        <v>4.5</v>
       </c>
       <c r="Q135">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6399460</v>
+        <v>6399617</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136">
+        <v>1.05</v>
+      </c>
+      <c r="L136">
+        <v>13</v>
+      </c>
+      <c r="M136">
+        <v>34</v>
+      </c>
+      <c r="N136">
+        <v>1.03</v>
+      </c>
+      <c r="O136">
+        <v>17</v>
+      </c>
+      <c r="P136">
         <v>41</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136" t="s">
-        <v>46</v>
-      </c>
-      <c r="K136">
-        <v>2.375</v>
-      </c>
-      <c r="L136">
-        <v>3.2</v>
-      </c>
-      <c r="M136">
-        <v>3.2</v>
-      </c>
-      <c r="N136">
-        <v>1.85</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
-      <c r="P136">
-        <v>4.5</v>
-      </c>
       <c r="Q136">
+        <v>-3.5</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>4.25</v>
+      </c>
+      <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
+        <v>1.925</v>
+      </c>
+      <c r="W136">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.85</v>
-      </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.825</v>
-      </c>
-      <c r="V136">
-        <v>2.025</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>3.5</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>1</v>
-      </c>
-      <c r="AB136">
-        <v>-1</v>
-      </c>
       <c r="AC136">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,13 +13800,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13815,43 +13815,43 @@
         <v>47</v>
       </c>
       <c r="K150">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M150">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N150">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P150">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,16 +13860,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,49 +13889,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L151">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N151">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O151">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q151">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
         <v>1.825</v>
@@ -13940,7 +13940,7 @@
         <v>2.025</v>
       </c>
       <c r="W151">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,10 +13949,10 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
         <v>0.825</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,58 +13978,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>47</v>
       </c>
       <c r="K152">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N152">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O152">
         <v>3.8</v>
       </c>
       <c r="P152">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
+        <v>2</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
         <v>1.85</v>
       </c>
-      <c r="T152">
-        <v>2.25</v>
-      </c>
-      <c r="U152">
-        <v>1.825</v>
-      </c>
-      <c r="V152">
-        <v>2.025</v>
-      </c>
       <c r="W152">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -23489,7 +23489,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23501,49 +23501,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K259">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M259">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N259">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O259">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P259">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R259">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
         <v>1.8</v>
@@ -23552,19 +23552,19 @@
         <v>2.05</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X259">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA259">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>0.8</v>
@@ -23578,7 +23578,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23590,49 +23590,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K260">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M260">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N260">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O260">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P260">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q260">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S260">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U260">
         <v>1.8</v>
@@ -23641,19 +23641,19 @@
         <v>2.05</v>
       </c>
       <c r="W260">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB260">
         <v>0.8</v>
@@ -26799,6 +26799,15 @@
       <c r="G296" t="s">
         <v>40</v>
       </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>3</v>
+      </c>
+      <c r="J296" t="s">
+        <v>46</v>
+      </c>
       <c r="K296">
         <v>9</v>
       </c>
@@ -26812,43 +26821,49 @@
         <v>9</v>
       </c>
       <c r="O296">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P296">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="Q296">
         <v>1.5</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S296">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U296">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V296">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="Z296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB296">
+        <v>1.025</v>
+      </c>
+      <c r="AC296">
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26873,6 +26888,15 @@
       <c r="G297" t="s">
         <v>38</v>
       </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>45</v>
+      </c>
       <c r="K297">
         <v>2.375</v>
       </c>
@@ -26895,34 +26919,40 @@
         <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S297">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T297">
         <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V297">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X297">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB297">
+        <v>-1</v>
+      </c>
+      <c r="AC297">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26969,19 +26999,19 @@
         <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S298">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T298">
         <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V298">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W298">
         <v>0</v>
@@ -27031,7 +27061,7 @@
         <v>1.363</v>
       </c>
       <c r="N299">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O299">
         <v>5</v>
@@ -27040,22 +27070,22 @@
         <v>1.363</v>
       </c>
       <c r="Q299">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R299">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S299">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T299">
         <v>2.75</v>
       </c>
       <c r="U299">
+        <v>1.975</v>
+      </c>
+      <c r="V299">
         <v>1.875</v>
-      </c>
-      <c r="V299">
-        <v>1.975</v>
       </c>
       <c r="W299">
         <v>0</v>
@@ -27105,31 +27135,31 @@
         <v>11</v>
       </c>
       <c r="N300">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="O300">
         <v>5.75</v>
       </c>
       <c r="P300">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q300">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R300">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S300">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T300">
         <v>3</v>
       </c>
       <c r="U300">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V300">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27200,10 +27230,10 @@
         <v>2.5</v>
       </c>
       <c r="U301">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V301">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27265,10 +27295,10 @@
         <v>-2</v>
       </c>
       <c r="R302">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S302">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T302">
         <v>3</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -121,10 +121,10 @@
     <t>Panetolikos</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1171,43 +1171,43 @@
         <v>44</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1260,44 +1260,44 @@
         <v>44</v>
       </c>
       <c r="K9">
+        <v>2.375</v>
+      </c>
+      <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>3.1</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.1</v>
+      </c>
+      <c r="P9">
+        <v>3.4</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1.875</v>
+      </c>
+      <c r="V9">
+        <v>1.975</v>
+      </c>
+      <c r="W9">
         <v>1.3</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>1.25</v>
-      </c>
-      <c r="O9">
-        <v>5.5</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>-1.75</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.925</v>
-      </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
-      <c r="W9">
-        <v>0.25</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
@@ -1305,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,58 +1779,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N15">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O15">
         <v>3.8</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.825</v>
-      </c>
-      <c r="V15">
-        <v>2.025</v>
-      </c>
       <c r="W15">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1839,16 +1839,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100665</v>
+        <v>7100661</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,58 +1957,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
+        <v>1.8</v>
+      </c>
+      <c r="L17">
+        <v>3.4</v>
+      </c>
+      <c r="M17">
         <v>4.75</v>
       </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>1.75</v>
-      </c>
       <c r="N17">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="O17">
         <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
         <v>1.85</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>3.5</v>
+        <v>0.55</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45186.375</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45194.625</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3636,7 +3636,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6937187</v>
+        <v>6937185</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3648,49 +3648,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L36">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="N36">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q36">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
         <v>1.975</v>
@@ -3699,7 +3699,7 @@
         <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,16 +3708,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6937185</v>
+        <v>6937187</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,49 +3737,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="K37">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L37">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M37">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
         <v>1.975</v>
@@ -3788,7 +3788,7 @@
         <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,16 +3797,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3915,10 +3915,10 @@
         <v>45197.60416666666</v>
       </c>
       <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4452,7 +4452,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z51">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N52">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5965,7 +5965,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45262.625</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>45294.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -10145,7 +10145,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
         <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
         <v>3.3</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.775</v>
+      </c>
+      <c r="V113">
+        <v>2.1</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
         <v>2.5</v>
       </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.6</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>45298.5</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10682,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11483,7 +11483,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12103,10 +12103,10 @@
         <v>45312.60416666666</v>
       </c>
       <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
         <v>36</v>
-      </c>
-      <c r="G131" t="s">
-        <v>35</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,73 +13171,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N143">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="O143">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,73 +13260,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>4</v>
       </c>
-      <c r="I144">
-        <v>2</v>
-      </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N144">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O144">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P144">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB144">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13438,7 +13438,7 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13886,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>45339.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14684,7 +14684,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45347.625</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6935703</v>
+        <v>6937267</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,46 +15396,46 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K168">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N168">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15458,7 +15458,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6937267</v>
+        <v>6935703</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15470,46 +15470,46 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K169">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="L169">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O169">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W169">
         <v>0</v>
@@ -15532,7 +15532,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6937268</v>
+        <v>6937266</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15544,46 +15544,46 @@
         <v>45350.5</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K170">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="N170">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O170">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P170">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15606,7 +15606,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6937266</v>
+        <v>6937268</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15618,46 +15618,46 @@
         <v>45350.5</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K171">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N171">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P171">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15707,10 +15707,10 @@
         <v>17</v>
       </c>
       <c r="N172">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O172">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P172">
         <v>19</v>
@@ -15719,19 +15719,19 @@
         <v>-2.25</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
         <v>3.25</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -15781,31 +15781,31 @@
         <v>1.333</v>
       </c>
       <c r="N173">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O173">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P173">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="Q173">
         <v>1.5</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>45350.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -15855,31 +15855,31 @@
         <v>5.5</v>
       </c>
       <c r="N174">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O174">
         <v>4.2</v>
       </c>
       <c r="P174">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q174">
         <v>-1</v>
       </c>
       <c r="R174">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
         <v>0</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Panetolikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC175"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1171,44 +1171,44 @@
         <v>44</v>
       </c>
       <c r="K8">
+        <v>2.375</v>
+      </c>
+      <c r="L8">
+        <v>3.1</v>
+      </c>
+      <c r="M8">
+        <v>3.1</v>
+      </c>
+      <c r="N8">
+        <v>2.3</v>
+      </c>
+      <c r="O8">
+        <v>3.1</v>
+      </c>
+      <c r="P8">
+        <v>3.4</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
+        <v>1.975</v>
+      </c>
+      <c r="W8">
         <v>1.3</v>
       </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>11</v>
-      </c>
-      <c r="N8">
-        <v>1.25</v>
-      </c>
-      <c r="O8">
-        <v>5.5</v>
-      </c>
-      <c r="P8">
-        <v>13</v>
-      </c>
-      <c r="Q8">
-        <v>-1.75</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
-      <c r="W8">
-        <v>0.25</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1260,43 +1260,43 @@
         <v>44</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P9">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1305,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,49 +1868,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
         <v>1.825</v>
@@ -1919,7 +1919,7 @@
         <v>2.025</v>
       </c>
       <c r="W16">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,10 +1928,10 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
         <v>0.825</v>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100661</v>
+        <v>7100664</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,49 +1957,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M17">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N17">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.825</v>
@@ -2008,7 +2008,7 @@
         <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.55</v>
+        <v>0.222</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,10 +2017,10 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>0.825</v>
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45186.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45194.625</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3915,10 +3915,10 @@
         <v>45197.60416666666</v>
       </c>
       <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
         <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4452,7 +4452,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4983,7 +4983,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5965,7 +5965,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45262.625</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>45294.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -10145,7 +10145,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L112">
         <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
+        <v>2.1</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
         <v>2.5</v>
       </c>
-      <c r="U112">
-        <v>1.85</v>
-      </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>2.6</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
         <v>3.3</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>45298.5</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10682,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11483,7 +11483,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12103,10 +12103,10 @@
         <v>45312.60416666666</v>
       </c>
       <c r="F131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" t="s">
         <v>35</v>
-      </c>
-      <c r="G131" t="s">
-        <v>36</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13174,7 +13174,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13438,7 +13438,7 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13886,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>45339.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14684,7 +14684,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45347.625</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15401,6 +15401,15 @@
       <c r="G168" t="s">
         <v>31</v>
       </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>44</v>
+      </c>
       <c r="K168">
         <v>2.7</v>
       </c>
@@ -15411,7 +15420,7 @@
         <v>2.625</v>
       </c>
       <c r="N168">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O168">
         <v>3.2</v>
@@ -15423,34 +15432,40 @@
         <v>0</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>1</v>
+      </c>
+      <c r="AC168">
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,11 +15485,20 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>39</v>
       </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" t="s">
+        <v>43</v>
+      </c>
       <c r="K169">
         <v>1.833</v>
       </c>
@@ -15485,46 +15509,52 @@
         <v>4.5</v>
       </c>
       <c r="N169">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S169">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB169">
+        <v>0.875</v>
+      </c>
+      <c r="AC169">
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15549,6 +15579,15 @@
       <c r="G170" t="s">
         <v>38</v>
       </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>44</v>
+      </c>
       <c r="K170">
         <v>2.3</v>
       </c>
@@ -15559,13 +15598,13 @@
         <v>3.1</v>
       </c>
       <c r="N170">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O170">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P170">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q170">
         <v>-0.25</v>
@@ -15577,28 +15616,34 @@
         <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA170">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>1.025</v>
+      </c>
+      <c r="AC170">
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15623,6 +15668,15 @@
       <c r="G171" t="s">
         <v>33</v>
       </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>45</v>
+      </c>
       <c r="K171">
         <v>8</v>
       </c>
@@ -15645,10 +15699,10 @@
         <v>1.25</v>
       </c>
       <c r="R171">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T171">
         <v>2.75</v>
@@ -15660,19 +15714,25 @@
         <v>2</v>
       </c>
       <c r="W171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB171">
+        <v>0.425</v>
+      </c>
+      <c r="AC171">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15697,6 +15757,15 @@
       <c r="G172" t="s">
         <v>30</v>
       </c>
+      <c r="H172">
+        <v>4</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172" t="s">
+        <v>44</v>
+      </c>
       <c r="K172">
         <v>1.166</v>
       </c>
@@ -15707,46 +15776,52 @@
         <v>17</v>
       </c>
       <c r="N172">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="O172">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="P172">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q172">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
         <v>1.875</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB172">
+        <v>0.925</v>
+      </c>
+      <c r="AC172">
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15771,6 +15846,15 @@
       <c r="G173" t="s">
         <v>32</v>
       </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>45</v>
+      </c>
       <c r="K173">
         <v>9</v>
       </c>
@@ -15781,46 +15865,52 @@
         <v>1.333</v>
       </c>
       <c r="N173">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="O173">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="P173">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="Q173">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R173">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15840,11 +15930,20 @@
         <v>45350.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
       </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>44</v>
+      </c>
       <c r="K174">
         <v>1.571</v>
       </c>
@@ -15861,40 +15960,46 @@
         <v>4.2</v>
       </c>
       <c r="P174">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q174">
         <v>-1</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA174">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>-0.5</v>
+      </c>
+      <c r="AC174">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -15902,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6937270</v>
+        <v>6937272</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -15914,46 +16019,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K175">
-        <v>1.125</v>
+        <v>7.5</v>
       </c>
       <c r="L175">
+        <v>4.5</v>
+      </c>
+      <c r="M175">
+        <v>1.444</v>
+      </c>
+      <c r="N175">
         <v>9</v>
       </c>
-      <c r="M175">
-        <v>19</v>
-      </c>
-      <c r="N175">
-        <v>1.125</v>
-      </c>
       <c r="O175">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P175">
-        <v>19</v>
+        <v>1.4</v>
       </c>
       <c r="Q175">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -15968,6 +16073,450 @@
         <v>0</v>
       </c>
       <c r="AA175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>6937271</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>42</v>
+      </c>
+      <c r="K176">
+        <v>2.45</v>
+      </c>
+      <c r="L176">
+        <v>3.1</v>
+      </c>
+      <c r="M176">
+        <v>3.1</v>
+      </c>
+      <c r="N176">
+        <v>2.3</v>
+      </c>
+      <c r="O176">
+        <v>3.1</v>
+      </c>
+      <c r="P176">
+        <v>3.3</v>
+      </c>
+      <c r="Q176">
+        <v>-0.25</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>1.85</v>
+      </c>
+      <c r="T176">
+        <v>2.25</v>
+      </c>
+      <c r="U176">
+        <v>1.95</v>
+      </c>
+      <c r="V176">
+        <v>1.9</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>6937269</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F177" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" t="s">
+        <v>37</v>
+      </c>
+      <c r="K177">
+        <v>4.75</v>
+      </c>
+      <c r="L177">
+        <v>3.75</v>
+      </c>
+      <c r="M177">
+        <v>1.75</v>
+      </c>
+      <c r="N177">
+        <v>7</v>
+      </c>
+      <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
+        <v>1.533</v>
+      </c>
+      <c r="Q177">
+        <v>1</v>
+      </c>
+      <c r="R177">
+        <v>1.9</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
+        <v>2.5</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>1.85</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>6937270</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F178" t="s">
+        <v>33</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+      <c r="K178">
+        <v>1.125</v>
+      </c>
+      <c r="L178">
+        <v>9</v>
+      </c>
+      <c r="M178">
+        <v>19</v>
+      </c>
+      <c r="N178">
+        <v>1.125</v>
+      </c>
+      <c r="O178">
+        <v>8.5</v>
+      </c>
+      <c r="P178">
+        <v>21</v>
+      </c>
+      <c r="Q178">
+        <v>-2.25</v>
+      </c>
+      <c r="R178">
+        <v>1.9</v>
+      </c>
+      <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>3.25</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
+        <v>1.85</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>6935700</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F179" t="s">
+        <v>40</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
+      <c r="K179">
+        <v>2.6</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>2.875</v>
+      </c>
+      <c r="N179">
+        <v>2.2</v>
+      </c>
+      <c r="O179">
+        <v>3.3</v>
+      </c>
+      <c r="P179">
+        <v>3.3</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
+        <v>1.875</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>6935701</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F180" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" t="s">
+        <v>34</v>
+      </c>
+      <c r="K180">
+        <v>2.45</v>
+      </c>
+      <c r="L180">
+        <v>3.25</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>2.25</v>
+      </c>
+      <c r="O180">
+        <v>3.3</v>
+      </c>
+      <c r="P180">
+        <v>3.3</v>
+      </c>
+      <c r="Q180">
+        <v>-0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>1.925</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>2.025</v>
+      </c>
+      <c r="V180">
+        <v>1.825</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>6936863</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F181" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>36</v>
+      </c>
+      <c r="K181">
+        <v>8</v>
+      </c>
+      <c r="L181">
+        <v>4.75</v>
+      </c>
+      <c r="M181">
+        <v>1.4</v>
+      </c>
+      <c r="N181">
+        <v>6</v>
+      </c>
+      <c r="O181">
+        <v>4.75</v>
+      </c>
+      <c r="P181">
+        <v>1.5</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>1.825</v>
+      </c>
+      <c r="V181">
+        <v>2.025</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Panetolikos</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1171,43 +1171,43 @@
         <v>44</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1260,44 +1260,44 @@
         <v>44</v>
       </c>
       <c r="K9">
+        <v>2.375</v>
+      </c>
+      <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>3.1</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.1</v>
+      </c>
+      <c r="P9">
+        <v>3.4</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1.875</v>
+      </c>
+      <c r="V9">
+        <v>1.975</v>
+      </c>
+      <c r="W9">
         <v>1.3</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>1.25</v>
-      </c>
-      <c r="O9">
-        <v>5.5</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>-1.75</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.925</v>
-      </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
-      <c r="W9">
-        <v>0.25</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
@@ -1305,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1871,7 +1871,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45186.375</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45194.625</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3915,10 +3915,10 @@
         <v>45197.60416666666</v>
       </c>
       <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4452,7 +4452,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N51">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N52">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5965,7 +5965,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45262.625</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>45294.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -10145,7 +10145,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10590,7 +10590,7 @@
         <v>45298.5</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10682,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11483,7 +11483,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12103,10 +12103,10 @@
         <v>45312.60416666666</v>
       </c>
       <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
         <v>36</v>
-      </c>
-      <c r="G131" t="s">
-        <v>35</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13174,7 +13174,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13438,7 +13438,7 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13886,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>45339.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14684,7 +14684,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45347.625</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6937267</v>
+        <v>6935703</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,73 +15396,73 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N168">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
+        <v>2.025</v>
+      </c>
+      <c r="S168">
         <v>1.825</v>
       </c>
-      <c r="S168">
-        <v>2.025</v>
-      </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
         <v>0.825</v>
       </c>
-      <c r="AA168">
-        <v>-1</v>
-      </c>
       <c r="AB168">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6935703</v>
+        <v>6937267</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,73 +15485,73 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K169">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O169">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
         <v>2.025</v>
       </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X169">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15930,7 +15930,7 @@
         <v>45350.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16007,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6937272</v>
+        <v>6937270</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16019,31 +16019,31 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K175">
-        <v>7.5</v>
+        <v>1.125</v>
       </c>
       <c r="L175">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="M175">
-        <v>1.444</v>
+        <v>19</v>
       </c>
       <c r="N175">
-        <v>9</v>
+        <v>1.125</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="P175">
-        <v>1.4</v>
+        <v>19</v>
       </c>
       <c r="Q175">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R175">
         <v>1.975</v>
@@ -16052,13 +16052,13 @@
         <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -16108,31 +16108,31 @@
         <v>3.1</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O176">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q176">
         <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
         <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
         <v>0</v>
@@ -16182,31 +16182,31 @@
         <v>1.75</v>
       </c>
       <c r="N177">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P177">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
         <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16229,7 +16229,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6937270</v>
+        <v>6937272</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16241,46 +16241,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K178">
-        <v>1.125</v>
+        <v>7.5</v>
       </c>
       <c r="L178">
+        <v>4.5</v>
+      </c>
+      <c r="M178">
+        <v>1.444</v>
+      </c>
+      <c r="N178">
         <v>9</v>
       </c>
-      <c r="M178">
-        <v>19</v>
-      </c>
-      <c r="N178">
-        <v>1.125</v>
-      </c>
       <c r="O178">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="P178">
-        <v>21</v>
+        <v>1.4</v>
       </c>
       <c r="Q178">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R178">
+        <v>1.975</v>
+      </c>
+      <c r="S178">
+        <v>1.875</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
         <v>1.9</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.95</v>
-      </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
-      <c r="U178">
-        <v>2</v>
-      </c>
-      <c r="V178">
-        <v>1.85</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16303,7 +16303,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6935700</v>
+        <v>6935701</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16315,46 +16315,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K179">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L179">
+        <v>3.25</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>2.3</v>
+      </c>
+      <c r="O179">
+        <v>3.25</v>
+      </c>
+      <c r="P179">
         <v>3.2</v>
-      </c>
-      <c r="M179">
-        <v>2.875</v>
-      </c>
-      <c r="N179">
-        <v>2.2</v>
-      </c>
-      <c r="O179">
-        <v>3.3</v>
-      </c>
-      <c r="P179">
-        <v>3.3</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
+        <v>1.875</v>
+      </c>
+      <c r="V179">
         <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -16377,7 +16377,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6935701</v>
+        <v>6937269</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16389,46 +16389,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K180">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L180">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N180">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="O180">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P180">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -16466,7 +16466,7 @@
         <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K181">
         <v>8</v>
@@ -16490,19 +16490,19 @@
         <v>1</v>
       </c>
       <c r="R181">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -16517,6 +16517,228 @@
         <v>0</v>
       </c>
       <c r="AA181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>6935701</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F182" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" t="s">
+        <v>34</v>
+      </c>
+      <c r="K182">
+        <v>2.45</v>
+      </c>
+      <c r="L182">
+        <v>3.25</v>
+      </c>
+      <c r="M182">
+        <v>3</v>
+      </c>
+      <c r="N182">
+        <v>2.3</v>
+      </c>
+      <c r="O182">
+        <v>3.25</v>
+      </c>
+      <c r="P182">
+        <v>3.2</v>
+      </c>
+      <c r="Q182">
+        <v>-0.25</v>
+      </c>
+      <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>1.8</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
+        <v>1.975</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>6935700</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F183" t="s">
+        <v>40</v>
+      </c>
+      <c r="G183" t="s">
+        <v>36</v>
+      </c>
+      <c r="K183">
+        <v>2.6</v>
+      </c>
+      <c r="L183">
+        <v>3.2</v>
+      </c>
+      <c r="M183">
+        <v>2.875</v>
+      </c>
+      <c r="N183">
+        <v>2.25</v>
+      </c>
+      <c r="O183">
+        <v>3.3</v>
+      </c>
+      <c r="P183">
+        <v>3.3</v>
+      </c>
+      <c r="Q183">
+        <v>-0.25</v>
+      </c>
+      <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>1.975</v>
+      </c>
+      <c r="V183">
+        <v>1.875</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>6936863</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45354.60416666666</v>
+      </c>
+      <c r="F184" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>35</v>
+      </c>
+      <c r="K184">
+        <v>8</v>
+      </c>
+      <c r="L184">
+        <v>4.75</v>
+      </c>
+      <c r="M184">
+        <v>1.4</v>
+      </c>
+      <c r="N184">
+        <v>6</v>
+      </c>
+      <c r="O184">
+        <v>4.75</v>
+      </c>
+      <c r="P184">
+        <v>1.5</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>2.1</v>
+      </c>
+      <c r="S184">
+        <v>1.775</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.925</v>
+      </c>
+      <c r="V184">
+        <v>1.925</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Panetolikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1171,44 +1171,44 @@
         <v>44</v>
       </c>
       <c r="K8">
+        <v>2.375</v>
+      </c>
+      <c r="L8">
+        <v>3.1</v>
+      </c>
+      <c r="M8">
+        <v>3.1</v>
+      </c>
+      <c r="N8">
+        <v>2.3</v>
+      </c>
+      <c r="O8">
+        <v>3.1</v>
+      </c>
+      <c r="P8">
+        <v>3.4</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
+        <v>1.975</v>
+      </c>
+      <c r="W8">
         <v>1.3</v>
       </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>11</v>
-      </c>
-      <c r="N8">
-        <v>1.25</v>
-      </c>
-      <c r="O8">
-        <v>5.5</v>
-      </c>
-      <c r="P8">
-        <v>13</v>
-      </c>
-      <c r="Q8">
-        <v>-1.75</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
-      <c r="W8">
-        <v>0.25</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1260,43 +1260,43 @@
         <v>44</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P9">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1305,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,13 +1779,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1794,43 +1794,43 @@
         <v>44</v>
       </c>
       <c r="K15">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M15">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1839,16 +1839,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,58 +1868,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N16">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O16">
         <v>3.8</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="T16">
-        <v>2.25</v>
-      </c>
-      <c r="U16">
-        <v>1.825</v>
-      </c>
-      <c r="V16">
-        <v>2.025</v>
-      </c>
       <c r="W16">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,49 +1957,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N17">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q17">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>1.825</v>
@@ -2008,7 +2008,7 @@
         <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,10 +2017,10 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
         <v>0.825</v>
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45186.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45194.625</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3915,10 +3915,10 @@
         <v>45197.60416666666</v>
       </c>
       <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
         <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4452,7 +4452,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z51">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N52">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5965,7 +5965,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45262.625</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>45294.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -10145,7 +10145,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
         <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
         <v>3.3</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.775</v>
+      </c>
+      <c r="V113">
+        <v>2.1</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
         <v>2.5</v>
       </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.6</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>45298.5</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10682,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,49 +11480,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M124">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N124">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P124">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.8</v>
@@ -11531,19 +11531,19 @@
         <v>2.05</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X124">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>0.8</v>
@@ -11557,7 +11557,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11569,49 +11569,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O125">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U125">
         <v>1.8</v>
@@ -11620,19 +11620,19 @@
         <v>2.05</v>
       </c>
       <c r="W125">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB125">
         <v>0.8</v>
@@ -12103,10 +12103,10 @@
         <v>45312.60416666666</v>
       </c>
       <c r="F131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" t="s">
         <v>35</v>
-      </c>
-      <c r="G131" t="s">
-        <v>36</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,73 +13171,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>4</v>
       </c>
-      <c r="I143">
-        <v>2</v>
-      </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L143">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O143">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P143">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,73 +13260,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M144">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N144">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="O144">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13438,7 +13438,7 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13886,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>45339.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14684,7 +14684,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45347.625</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6935703</v>
+        <v>6937267</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,73 +15396,73 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K168">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N168">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O168">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P168">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
         <v>2.025</v>
       </c>
-      <c r="S168">
-        <v>1.825</v>
-      </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X168">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6937267</v>
+        <v>6935703</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,73 +15485,73 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="L169">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
+        <v>2.025</v>
+      </c>
+      <c r="S169">
         <v>1.825</v>
       </c>
-      <c r="S169">
-        <v>2.025</v>
-      </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
         <v>0.825</v>
       </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
       <c r="AB169">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6937266</v>
+        <v>6937268</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45350.5</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M170">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N170">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P170">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z170">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6937268</v>
+        <v>6937266</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45350.5</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>2</v>
-      </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O171">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
+        <v>1.925</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>2.025</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.85</v>
-      </c>
-      <c r="V171">
-        <v>2</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>45350.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16007,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6937270</v>
+        <v>6937272</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16019,31 +16019,31 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K175">
-        <v>1.125</v>
+        <v>7.5</v>
       </c>
       <c r="L175">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="M175">
-        <v>19</v>
+        <v>1.444</v>
       </c>
       <c r="N175">
-        <v>1.125</v>
+        <v>8.5</v>
       </c>
       <c r="O175">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="P175">
-        <v>19</v>
+        <v>1.4</v>
       </c>
       <c r="Q175">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R175">
         <v>1.975</v>
@@ -16052,13 +16052,13 @@
         <v>1.875</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V175">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -16108,22 +16108,22 @@
         <v>3.1</v>
       </c>
       <c r="N176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P176">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
         <v>2.25</v>
@@ -16155,7 +16155,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6937269</v>
+        <v>6937270</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16167,46 +16167,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K177">
-        <v>4.75</v>
+        <v>1.125</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M177">
-        <v>1.75</v>
+        <v>19</v>
       </c>
       <c r="N177">
-        <v>9</v>
+        <v>1.125</v>
       </c>
       <c r="O177">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="P177">
-        <v>1.363</v>
+        <v>19</v>
       </c>
       <c r="Q177">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16229,7 +16229,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6937272</v>
+        <v>6935701</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16241,46 +16241,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K178">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N178">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.875</v>
+      </c>
+      <c r="V178">
         <v>1.975</v>
-      </c>
-      <c r="S178">
-        <v>1.875</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.9</v>
-      </c>
-      <c r="V178">
-        <v>1.95</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16303,7 +16303,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6935701</v>
+        <v>6936863</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16315,46 +16315,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N179">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -16377,7 +16377,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6937269</v>
+        <v>6935700</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16389,46 +16389,46 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K180">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="N180">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="O180">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q180">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
+        <v>1.9</v>
+      </c>
+      <c r="S180">
         <v>1.95</v>
       </c>
-      <c r="S180">
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
         <v>1.9</v>
-      </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.925</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -16451,7 +16451,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6936863</v>
+        <v>6937269</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16463,37 +16463,37 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K181">
+        <v>4.75</v>
+      </c>
+      <c r="L181">
+        <v>3.75</v>
+      </c>
+      <c r="M181">
+        <v>1.75</v>
+      </c>
+      <c r="N181">
         <v>8</v>
       </c>
-      <c r="L181">
-        <v>4.75</v>
-      </c>
-      <c r="M181">
+      <c r="O181">
+        <v>4.5</v>
+      </c>
+      <c r="P181">
         <v>1.4</v>
       </c>
-      <c r="N181">
-        <v>6</v>
-      </c>
-      <c r="O181">
-        <v>4.75</v>
-      </c>
-      <c r="P181">
-        <v>1.5</v>
-      </c>
       <c r="Q181">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R181">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
         <v>2.5</v>
@@ -16517,228 +16517,6 @@
         <v>0</v>
       </c>
       <c r="AA181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>6935701</v>
-      </c>
-      <c r="C182" t="s">
-        <v>28</v>
-      </c>
-      <c r="D182" t="s">
-        <v>28</v>
-      </c>
-      <c r="E182" s="2">
-        <v>45354.60416666666</v>
-      </c>
-      <c r="F182" t="s">
-        <v>39</v>
-      </c>
-      <c r="G182" t="s">
-        <v>34</v>
-      </c>
-      <c r="K182">
-        <v>2.45</v>
-      </c>
-      <c r="L182">
-        <v>3.25</v>
-      </c>
-      <c r="M182">
-        <v>3</v>
-      </c>
-      <c r="N182">
-        <v>2.3</v>
-      </c>
-      <c r="O182">
-        <v>3.25</v>
-      </c>
-      <c r="P182">
-        <v>3.2</v>
-      </c>
-      <c r="Q182">
-        <v>-0.25</v>
-      </c>
-      <c r="R182">
-        <v>2.05</v>
-      </c>
-      <c r="S182">
-        <v>1.8</v>
-      </c>
-      <c r="T182">
-        <v>2.25</v>
-      </c>
-      <c r="U182">
-        <v>1.875</v>
-      </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
-      <c r="W182">
-        <v>0</v>
-      </c>
-      <c r="X182">
-        <v>0</v>
-      </c>
-      <c r="Y182">
-        <v>0</v>
-      </c>
-      <c r="Z182">
-        <v>0</v>
-      </c>
-      <c r="AA182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>6935700</v>
-      </c>
-      <c r="C183" t="s">
-        <v>28</v>
-      </c>
-      <c r="D183" t="s">
-        <v>28</v>
-      </c>
-      <c r="E183" s="2">
-        <v>45354.60416666666</v>
-      </c>
-      <c r="F183" t="s">
-        <v>40</v>
-      </c>
-      <c r="G183" t="s">
-        <v>36</v>
-      </c>
-      <c r="K183">
-        <v>2.6</v>
-      </c>
-      <c r="L183">
-        <v>3.2</v>
-      </c>
-      <c r="M183">
-        <v>2.875</v>
-      </c>
-      <c r="N183">
-        <v>2.25</v>
-      </c>
-      <c r="O183">
-        <v>3.3</v>
-      </c>
-      <c r="P183">
-        <v>3.3</v>
-      </c>
-      <c r="Q183">
-        <v>-0.25</v>
-      </c>
-      <c r="R183">
-        <v>1.9</v>
-      </c>
-      <c r="S183">
-        <v>1.95</v>
-      </c>
-      <c r="T183">
-        <v>2.25</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-      <c r="X183">
-        <v>0</v>
-      </c>
-      <c r="Y183">
-        <v>0</v>
-      </c>
-      <c r="Z183">
-        <v>0</v>
-      </c>
-      <c r="AA183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:27">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>6936863</v>
-      </c>
-      <c r="C184" t="s">
-        <v>28</v>
-      </c>
-      <c r="D184" t="s">
-        <v>28</v>
-      </c>
-      <c r="E184" s="2">
-        <v>45354.60416666666</v>
-      </c>
-      <c r="F184" t="s">
-        <v>31</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
-      </c>
-      <c r="K184">
-        <v>8</v>
-      </c>
-      <c r="L184">
-        <v>4.75</v>
-      </c>
-      <c r="M184">
-        <v>1.4</v>
-      </c>
-      <c r="N184">
-        <v>6</v>
-      </c>
-      <c r="O184">
-        <v>4.75</v>
-      </c>
-      <c r="P184">
-        <v>1.5</v>
-      </c>
-      <c r="Q184">
-        <v>1</v>
-      </c>
-      <c r="R184">
-        <v>2.1</v>
-      </c>
-      <c r="S184">
-        <v>1.775</v>
-      </c>
-      <c r="T184">
-        <v>2.5</v>
-      </c>
-      <c r="U184">
-        <v>1.925</v>
-      </c>
-      <c r="V184">
-        <v>1.925</v>
-      </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <v>0</v>
-      </c>
-      <c r="Y184">
-        <v>0</v>
-      </c>
-      <c r="Z184">
-        <v>0</v>
-      </c>
-      <c r="AA184">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Panetolikos</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1171,43 +1171,43 @@
         <v>44</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1260,44 +1260,44 @@
         <v>44</v>
       </c>
       <c r="K9">
+        <v>2.375</v>
+      </c>
+      <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>3.1</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.1</v>
+      </c>
+      <c r="P9">
+        <v>3.4</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1.875</v>
+      </c>
+      <c r="V9">
+        <v>1.975</v>
+      </c>
+      <c r="W9">
         <v>1.3</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>1.25</v>
-      </c>
-      <c r="O9">
-        <v>5.5</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>-1.75</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.925</v>
-      </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
-      <c r="W9">
-        <v>0.25</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
@@ -1305,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1960,7 +1960,7 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45186.375</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45194.625</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3915,10 +3915,10 @@
         <v>45197.60416666666</v>
       </c>
       <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4452,7 +4452,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N51">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N52">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5965,7 +5965,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45262.625</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>45294.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -10145,7 +10145,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L112">
         <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
+        <v>2.1</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
         <v>2.5</v>
       </c>
-      <c r="U112">
-        <v>1.85</v>
-      </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>2.6</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
         <v>3.3</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>45298.5</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10682,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,49 +11480,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q124">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U124">
         <v>1.8</v>
@@ -11531,19 +11531,19 @@
         <v>2.05</v>
       </c>
       <c r="W124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB124">
         <v>0.8</v>
@@ -11557,7 +11557,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11569,49 +11569,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N125">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>1.8</v>
@@ -11620,19 +11620,19 @@
         <v>2.05</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>0.8</v>
@@ -12103,10 +12103,10 @@
         <v>45312.60416666666</v>
       </c>
       <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
         <v>36</v>
-      </c>
-      <c r="G131" t="s">
-        <v>35</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,73 +13171,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N143">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="O143">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,73 +13260,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>4</v>
       </c>
-      <c r="I144">
-        <v>2</v>
-      </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N144">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O144">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P144">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB144">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13438,7 +13438,7 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13886,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>45339.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14684,7 +14684,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45347.625</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6937267</v>
+        <v>6935703</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,73 +15396,73 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N168">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
+        <v>2.025</v>
+      </c>
+      <c r="S168">
         <v>1.825</v>
       </c>
-      <c r="S168">
-        <v>2.025</v>
-      </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
         <v>0.825</v>
       </c>
-      <c r="AA168">
-        <v>-1</v>
-      </c>
       <c r="AB168">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6935703</v>
+        <v>6937267</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,73 +15485,73 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K169">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O169">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
         <v>2.025</v>
       </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X169">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15930,7 +15930,7 @@
         <v>45350.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16007,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6937272</v>
+        <v>6935700</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16019,61 +16019,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>44</v>
       </c>
       <c r="K175">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="L175">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N175">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q175">
+        <v>-0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.925</v>
+      </c>
+      <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>1.85</v>
+      </c>
+      <c r="W175">
         <v>1.25</v>
       </c>
-      <c r="R175">
-        <v>1.975</v>
-      </c>
-      <c r="S175">
-        <v>1.875</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.925</v>
-      </c>
-      <c r="V175">
-        <v>1.925</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
       <c r="X175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA175">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>1</v>
+      </c>
+      <c r="AC175">
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16081,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6937271</v>
+        <v>6935701</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16093,69 +16108,84 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>43</v>
       </c>
       <c r="K176">
         <v>2.45</v>
       </c>
       <c r="L176">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M176">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O176">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T176">
         <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB176">
+        <v>0.8</v>
+      </c>
+      <c r="AC176">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6937270</v>
+        <v>6937269</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16167,69 +16197,84 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177" t="s">
+        <v>43</v>
       </c>
       <c r="K177">
-        <v>1.125</v>
+        <v>4.75</v>
       </c>
       <c r="L177">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>19</v>
+        <v>1.75</v>
       </c>
       <c r="N177">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="O177">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>19</v>
+        <v>1.5</v>
       </c>
       <c r="Q177">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC177">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6935701</v>
+        <v>6937270</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16241,69 +16286,84 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>44</v>
       </c>
       <c r="K178">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L178">
+        <v>9</v>
+      </c>
+      <c r="M178">
+        <v>19</v>
+      </c>
+      <c r="N178">
+        <v>1.111</v>
+      </c>
+      <c r="O178">
+        <v>9</v>
+      </c>
+      <c r="P178">
+        <v>21</v>
+      </c>
+      <c r="Q178">
+        <v>-2.25</v>
+      </c>
+      <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
         <v>3.25</v>
       </c>
-      <c r="M178">
-        <v>3</v>
-      </c>
-      <c r="N178">
-        <v>2.45</v>
-      </c>
-      <c r="O178">
-        <v>3.2</v>
-      </c>
-      <c r="P178">
-        <v>3.1</v>
-      </c>
-      <c r="Q178">
-        <v>-0.25</v>
-      </c>
-      <c r="R178">
-        <v>2.05</v>
-      </c>
-      <c r="S178">
-        <v>1.8</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-0.5</v>
+      </c>
+      <c r="AC178">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6936863</v>
+        <v>6937271</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16315,69 +16375,84 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="L179">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="N179">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="Q179">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
+        <v>2.025</v>
+      </c>
+      <c r="S179">
         <v>1.825</v>
       </c>
-      <c r="S179">
-        <v>2.025</v>
-      </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB179">
+        <v>-0.5</v>
+      </c>
+      <c r="AC179">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6935700</v>
+        <v>6937272</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16389,40 +16464,49 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180" t="s">
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="N180">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="O180">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P180">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
         <v>1.95</v>
@@ -16431,27 +16515,33 @@
         <v>1.9</v>
       </c>
       <c r="W180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27">
+        <v>0.925</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6937269</v>
+        <v>6936863</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16463,60 +16553,297 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>43</v>
       </c>
       <c r="K181">
+        <v>8</v>
+      </c>
+      <c r="L181">
         <v>4.75</v>
       </c>
-      <c r="L181">
-        <v>3.75</v>
-      </c>
       <c r="M181">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="N181">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="O181">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P181">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q181">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
         <v>1.9</v>
-      </c>
-      <c r="S181">
-        <v>1.95</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>3.75</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.95</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC181">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7915783</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F182" t="s">
+        <v>38</v>
+      </c>
+      <c r="G182" t="s">
+        <v>37</v>
+      </c>
+      <c r="K182">
+        <v>13</v>
+      </c>
+      <c r="L182">
+        <v>5.5</v>
+      </c>
+      <c r="M182">
+        <v>1.25</v>
+      </c>
+      <c r="N182">
+        <v>10</v>
+      </c>
+      <c r="O182">
+        <v>5.75</v>
+      </c>
+      <c r="P182">
+        <v>1.285</v>
+      </c>
+      <c r="Q182">
+        <v>1.75</v>
+      </c>
+      <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
+        <v>2.025</v>
+      </c>
+      <c r="T182">
+        <v>3</v>
+      </c>
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
+        <v>1.9</v>
+      </c>
+      <c r="W182">
         <v>0</v>
       </c>
-      <c r="X181">
+      <c r="X182">
         <v>0</v>
       </c>
-      <c r="Y181">
+      <c r="Y182">
         <v>0</v>
       </c>
-      <c r="Z181">
+      <c r="Z182">
         <v>0</v>
       </c>
-      <c r="AA181">
+      <c r="AA182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7915782</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45361.64583333334</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" t="s">
+        <v>35</v>
+      </c>
+      <c r="K183">
+        <v>2.1</v>
+      </c>
+      <c r="L183">
+        <v>3.25</v>
+      </c>
+      <c r="M183">
+        <v>3.75</v>
+      </c>
+      <c r="N183">
+        <v>2.1</v>
+      </c>
+      <c r="O183">
+        <v>3.1</v>
+      </c>
+      <c r="P183">
+        <v>4</v>
+      </c>
+      <c r="Q183">
+        <v>-0.25</v>
+      </c>
+      <c r="R183">
+        <v>1.8</v>
+      </c>
+      <c r="S183">
+        <v>2.05</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
+        <v>1.85</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7915781</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F184" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" t="s">
+        <v>41</v>
+      </c>
+      <c r="K184">
+        <v>1.615</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>5.25</v>
+      </c>
+      <c r="N184">
+        <v>1.5</v>
+      </c>
+      <c r="O184">
+        <v>4.2</v>
+      </c>
+      <c r="P184">
+        <v>6.5</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.825</v>
+      </c>
+      <c r="V184">
+        <v>2.025</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
         <v>0</v>
       </c>
     </row>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -121,10 +121,10 @@
     <t>Panetolikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1171,44 +1171,44 @@
         <v>44</v>
       </c>
       <c r="K8">
+        <v>2.375</v>
+      </c>
+      <c r="L8">
+        <v>3.1</v>
+      </c>
+      <c r="M8">
+        <v>3.1</v>
+      </c>
+      <c r="N8">
+        <v>2.3</v>
+      </c>
+      <c r="O8">
+        <v>3.1</v>
+      </c>
+      <c r="P8">
+        <v>3.4</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
+        <v>1.975</v>
+      </c>
+      <c r="W8">
         <v>1.3</v>
       </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>11</v>
-      </c>
-      <c r="N8">
-        <v>1.25</v>
-      </c>
-      <c r="O8">
-        <v>5.5</v>
-      </c>
-      <c r="P8">
-        <v>13</v>
-      </c>
-      <c r="Q8">
-        <v>-1.75</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
-      <c r="W8">
-        <v>0.25</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1260,43 +1260,43 @@
         <v>44</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P9">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1305,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1960,7 +1960,7 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45186.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45194.625</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3636,7 +3636,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6937185</v>
+        <v>6937187</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3648,49 +3648,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L36">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M36">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
         <v>1.975</v>
@@ -3699,7 +3699,7 @@
         <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,16 +3708,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6937187</v>
+        <v>6937185</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,49 +3737,49 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="K37">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L37">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="N37">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q37">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
         <v>1.975</v>
@@ -3788,7 +3788,7 @@
         <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,16 +3797,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3915,10 +3915,10 @@
         <v>45197.60416666666</v>
       </c>
       <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
         <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4452,7 +4452,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -5072,7 +5072,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5965,7 +5965,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45262.625</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>45294.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -10145,7 +10145,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10590,7 +10590,7 @@
         <v>45298.5</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10682,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,49 +11480,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M124">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N124">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P124">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
         <v>1.8</v>
@@ -11531,19 +11531,19 @@
         <v>2.05</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X124">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>0.8</v>
@@ -11557,7 +11557,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11569,49 +11569,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O125">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U125">
         <v>1.8</v>
@@ -11620,19 +11620,19 @@
         <v>2.05</v>
       </c>
       <c r="W125">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB125">
         <v>0.8</v>
@@ -12103,10 +12103,10 @@
         <v>45312.60416666666</v>
       </c>
       <c r="F131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" t="s">
         <v>35</v>
-      </c>
-      <c r="G131" t="s">
-        <v>36</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6937247</v>
+        <v>6937250</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,73 +13171,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>4</v>
       </c>
-      <c r="I143">
-        <v>2</v>
-      </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L143">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O143">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="P143">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,73 +13260,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M144">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="N144">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="O144">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13438,7 +13438,7 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13886,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>45339.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14684,7 +14684,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45347.625</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15396,7 +15396,7 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>39</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6937268</v>
+        <v>6937266</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45350.5</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>2</v>
-      </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="N170">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O170">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P170">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q170">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
+        <v>1.925</v>
+      </c>
+      <c r="S170">
+        <v>1.925</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
         <v>2.025</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>1.85</v>
-      </c>
-      <c r="V170">
-        <v>2</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6937266</v>
+        <v>6937268</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45350.5</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N171">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O171">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P171">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z171">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>45350.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16007,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6935700</v>
+        <v>6937269</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16019,73 +16019,73 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175" t="s">
+        <v>43</v>
+      </c>
+      <c r="K175">
+        <v>4.75</v>
+      </c>
+      <c r="L175">
+        <v>3.75</v>
+      </c>
+      <c r="M175">
+        <v>1.75</v>
+      </c>
+      <c r="N175">
+        <v>6.5</v>
+      </c>
+      <c r="O175">
+        <v>4.2</v>
+      </c>
+      <c r="P175">
+        <v>1.5</v>
+      </c>
+      <c r="Q175">
         <v>1</v>
       </c>
-      <c r="J175" t="s">
-        <v>44</v>
-      </c>
-      <c r="K175">
-        <v>2.6</v>
-      </c>
-      <c r="L175">
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
+        <v>1.8</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
+        <v>1.875</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
         <v>3.2</v>
       </c>
-      <c r="M175">
-        <v>2.875</v>
-      </c>
-      <c r="N175">
-        <v>2.25</v>
-      </c>
-      <c r="O175">
-        <v>3.3</v>
-      </c>
-      <c r="P175">
-        <v>3.3</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.925</v>
-      </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>2.25</v>
-      </c>
-      <c r="U175">
-        <v>2</v>
-      </c>
-      <c r="V175">
-        <v>1.85</v>
-      </c>
-      <c r="W175">
-        <v>1.25</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6935701</v>
+        <v>6936863</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,10 +16108,10 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16123,58 +16123,58 @@
         <v>43</v>
       </c>
       <c r="K176">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P176">
-        <v>3.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6937269</v>
+        <v>6935701</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,40 +16197,40 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>43</v>
       </c>
       <c r="K177">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
         <v>2.05</v>
@@ -16239,31 +16239,31 @@
         <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6937270</v>
+        <v>6937272</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,76 +16286,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178" t="s">
+        <v>45</v>
+      </c>
+      <c r="K178">
+        <v>7.5</v>
+      </c>
+      <c r="L178">
+        <v>4.5</v>
+      </c>
+      <c r="M178">
+        <v>1.444</v>
+      </c>
+      <c r="N178">
+        <v>9.5</v>
+      </c>
+      <c r="O178">
+        <v>5</v>
+      </c>
+      <c r="P178">
+        <v>1.333</v>
+      </c>
+      <c r="Q178">
+        <v>1.5</v>
+      </c>
+      <c r="R178">
+        <v>1.925</v>
+      </c>
+      <c r="S178">
+        <v>1.925</v>
+      </c>
+      <c r="T178">
         <v>3</v>
       </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>44</v>
-      </c>
-      <c r="K178">
-        <v>1.125</v>
-      </c>
-      <c r="L178">
-        <v>9</v>
-      </c>
-      <c r="M178">
-        <v>19</v>
-      </c>
-      <c r="N178">
-        <v>1.111</v>
-      </c>
-      <c r="O178">
-        <v>9</v>
-      </c>
-      <c r="P178">
-        <v>21</v>
-      </c>
-      <c r="Q178">
-        <v>-2.25</v>
-      </c>
-      <c r="R178">
-        <v>1.875</v>
-      </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6937271</v>
+        <v>6937270</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="L179">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>1.111</v>
       </c>
       <c r="O179">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="P179">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
+        <v>2</v>
+      </c>
+      <c r="V179">
         <v>1.85</v>
       </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X179">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6937272</v>
+        <v>6937271</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="L180">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q180">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y180">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16541,7 +16541,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6936863</v>
+        <v>6935700</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16553,7 +16553,7 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
         <v>35</v>
@@ -16562,64 +16562,64 @@
         <v>2</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="L181">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="N181">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="O181">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q181">
+        <v>-0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.925</v>
+      </c>
+      <c r="S181">
+        <v>1.925</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>1.85</v>
+      </c>
+      <c r="W181">
+        <v>1.25</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.925</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
         <v>1</v>
-      </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.9</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>3.75</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.95</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16657,31 +16657,31 @@
         <v>1.25</v>
       </c>
       <c r="N182">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O182">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P182">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="Q182">
         <v>1.75</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T182">
         <v>3</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16719,7 +16719,7 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K183">
         <v>2.1</v>
@@ -16731,31 +16731,31 @@
         <v>3.75</v>
       </c>
       <c r="N183">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
         <v>4</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
+        <v>2.05</v>
+      </c>
+      <c r="S183">
         <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2.05</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16808,7 +16808,7 @@
         <v>1.5</v>
       </c>
       <c r="O184">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
         <v>6.5</v>
@@ -16817,10 +16817,10 @@
         <v>-1</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T184">
         <v>2.5</v>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Panetolikos</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
+    <t>Asteras Tripolis</t>
   </si>
   <si>
     <t>AEK Athens</t>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7095169</v>
+        <v>7095328</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1171,43 +1171,43 @@
         <v>44</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7095328</v>
+        <v>7095169</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1260,44 +1260,44 @@
         <v>44</v>
       </c>
       <c r="K9">
+        <v>2.375</v>
+      </c>
+      <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>3.1</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.1</v>
+      </c>
+      <c r="P9">
+        <v>3.4</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1.875</v>
+      </c>
+      <c r="V9">
+        <v>1.975</v>
+      </c>
+      <c r="W9">
         <v>1.3</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>1.25</v>
-      </c>
-      <c r="O9">
-        <v>5.5</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>-1.75</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.925</v>
-      </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
-      <c r="W9">
-        <v>0.25</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
@@ -1305,16 +1305,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100664</v>
+        <v>7100661</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,49 +1779,49 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N15">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
         <v>1.825</v>
@@ -1830,7 +1830,7 @@
         <v>2.025</v>
       </c>
       <c r="W15">
-        <v>0.222</v>
+        <v>0.55</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1839,10 +1839,10 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
         <v>0.825</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100665</v>
+        <v>7100664</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,13 +1868,13 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1883,43 +1883,43 @@
         <v>44</v>
       </c>
       <c r="K16">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M16">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P16">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,58 +1957,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N17">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O17">
         <v>3.8</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.85</v>
       </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>2.025</v>
-      </c>
       <c r="W17">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45186.375</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45194.625</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3915,10 +3915,10 @@
         <v>45197.60416666666</v>
       </c>
       <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4452,7 +4452,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
@@ -5072,7 +5072,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5965,7 +5965,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6143,7 +6143,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>45242.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7122,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>45262.625</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8276,7 +8276,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>32</v>
@@ -8902,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>45294.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -10145,7 +10145,7 @@
         <v>45294.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10590,7 +10590,7 @@
         <v>45298.5</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10682,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11572,7 +11572,7 @@
         <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12103,10 +12103,10 @@
         <v>45312.60416666666</v>
       </c>
       <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
         <v>36</v>
-      </c>
-      <c r="G131" t="s">
-        <v>35</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13263,7 +13263,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13438,7 +13438,7 @@
         <v>45326.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13886,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>45339.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14684,7 +14684,7 @@
         <v>45341.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45347.625</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15396,7 +15396,7 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>39</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6937266</v>
+        <v>6937268</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45350.5</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M170">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N170">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P170">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z170">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6937268</v>
+        <v>6937266</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45350.5</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>2</v>
-      </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O171">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
+        <v>1.925</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>2.025</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.85</v>
-      </c>
-      <c r="V171">
-        <v>2</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>45350.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16007,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6937269</v>
+        <v>6937271</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16019,76 +16019,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>43</v>
       </c>
       <c r="K175">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6936863</v>
+        <v>6937270</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,76 +16108,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>8</v>
+        <v>1.125</v>
       </c>
       <c r="L176">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="M176">
-        <v>1.4</v>
+        <v>19</v>
       </c>
       <c r="N176">
-        <v>5.5</v>
+        <v>1.111</v>
       </c>
       <c r="O176">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="P176">
-        <v>1.55</v>
+        <v>21</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U176">
+        <v>2</v>
+      </c>
+      <c r="V176">
         <v>1.85</v>
       </c>
-      <c r="V176">
-        <v>2</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X176">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6935701</v>
+        <v>6937272</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K177">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
+        <v>1.444</v>
+      </c>
+      <c r="N177">
+        <v>9.5</v>
+      </c>
+      <c r="O177">
+        <v>5</v>
+      </c>
+      <c r="P177">
+        <v>1.333</v>
+      </c>
+      <c r="Q177">
+        <v>1.5</v>
+      </c>
+      <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="N177">
-        <v>2.05</v>
-      </c>
-      <c r="O177">
-        <v>3.3</v>
-      </c>
-      <c r="P177">
-        <v>3.8</v>
-      </c>
-      <c r="Q177">
-        <v>-0.5</v>
-      </c>
-      <c r="R177">
-        <v>2.05</v>
-      </c>
-      <c r="S177">
-        <v>1.8</v>
-      </c>
-      <c r="T177">
-        <v>2.25</v>
-      </c>
       <c r="U177">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6937272</v>
+        <v>6936863</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,76 +16286,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K178">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M178">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N178">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P178">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="Q178">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y178">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6937270</v>
+        <v>6937269</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>3</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>1.125</v>
+        <v>4.75</v>
       </c>
       <c r="L179">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>19</v>
+        <v>1.75</v>
       </c>
       <c r="N179">
-        <v>1.111</v>
+        <v>6.5</v>
       </c>
       <c r="O179">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="Q179">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
         <v>1.875</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
-      <c r="T179">
-        <v>3.25</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-      <c r="V179">
-        <v>1.85</v>
-      </c>
       <c r="W179">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6937271</v>
+        <v>6935701</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,16 +16464,16 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>43</v>
@@ -16482,37 +16482,37 @@
         <v>2.45</v>
       </c>
       <c r="L180">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N180">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O180">
         <v>3.3</v>
       </c>
       <c r="P180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
         <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S180">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
         <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16527,13 +16527,13 @@
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16647,6 +16647,15 @@
       <c r="G182" t="s">
         <v>37</v>
       </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182" t="s">
+        <v>45</v>
+      </c>
       <c r="K182">
         <v>13</v>
       </c>
@@ -16657,46 +16666,52 @@
         <v>1.25</v>
       </c>
       <c r="N182">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O182">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P182">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="Q182">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB182">
+        <v>1</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16719,7 +16734,16 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>45</v>
       </c>
       <c r="K183">
         <v>2.1</v>
@@ -16731,46 +16755,52 @@
         <v>3.75</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O183">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
+        <v>1.8</v>
+      </c>
+      <c r="S183">
         <v>2.05</v>
       </c>
-      <c r="S183">
-        <v>1.8</v>
-      </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB183">
+        <v>1.025</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16795,6 +16825,15 @@
       <c r="G184" t="s">
         <v>41</v>
       </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>45</v>
+      </c>
       <c r="K184">
         <v>1.615</v>
       </c>
@@ -16805,46 +16844,52 @@
         <v>5.25</v>
       </c>
       <c r="N184">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P184">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Greece Super League 1/Greece Super League 1.xlsx
+++ b/Greece Super League 1/Greece Super League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100661</v>
+        <v>7100665</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,58 +1779,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="N15">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O15">
         <v>3.8</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.825</v>
-      </c>
-      <c r="V15">
-        <v>2.025</v>
-      </c>
       <c r="W15">
-        <v>0.55</v>
+        <v>3.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1839,16 +1839,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100665</v>
+        <v>7100661</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,58 +1957,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
+        <v>1.8</v>
+      </c>
+      <c r="L17">
+        <v>3.4</v>
+      </c>
+      <c r="M17">
         <v>4.75</v>
       </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>1.75</v>
-      </c>
       <c r="N17">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="O17">
         <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
         <v>1.85</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>3.5</v>
+        <v>0.55</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6935736</v>
+        <v>6937192</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z51">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6937192</v>
+        <v>6935736</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N52">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6937231</v>
+        <v>6935718</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
         <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6935718</v>
+        <v>6937231</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45298.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
         <v>3.3</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.775</v>
+      </c>
+      <c r="V113">
+        <v>2.1</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
         <v>2.5</v>
       </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.6</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6937238</v>
+        <v>6936857</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,49 +11480,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q124">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U124">
         <v>1.8</v>
@@ -11531,19 +11531,19 @@
         <v>2.05</v>
       </c>
       <c r="W124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB124">
         <v>0.8</v>
@@ -11557,7 +11557,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6936857</v>
+        <v>6937238</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11569,49 +11569,49 @@
         <v>45305.64583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>1.111</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="N125">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
         <v>1.8</v>
@@ -11620,19 +11620,19 @@
         <v>2.05</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>0.8</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6937250</v>
+        <v>6937247</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,73 +13171,73 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F143" t="s">
-     